--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825932025909</t>
+    <t xml:space="preserve">1.85825955867767</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91323745250702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92109155654907</t>
+    <t xml:space="preserve">1.91323757171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92109143733978</t>
   </si>
   <si>
     <t xml:space="preserve">1.88496327400208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92423319816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642294883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82998514175415</t>
+    <t xml:space="preserve">1.9242330789566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642282962799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998502254486</t>
   </si>
   <si>
     <t xml:space="preserve">1.79856896400452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76715302467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354685783386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86925542354584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87710916996002</t>
+    <t xml:space="preserve">1.76715314388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354697704315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86925530433655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87710905075073</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281725883484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86768424510956</t>
+    <t xml:space="preserve">1.86768436431885</t>
   </si>
   <si>
     <t xml:space="preserve">1.81584775447845</t>
@@ -92,16 +92,16 @@
     <t xml:space="preserve">1.87553834915161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82684350013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84569311141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81898939609528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8362683057785</t>
+    <t xml:space="preserve">1.82684338092804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84569299221039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8189891576767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83626806735992</t>
   </si>
   <si>
     <t xml:space="preserve">1.85983026027679</t>
@@ -113,55 +113,55 @@
     <t xml:space="preserve">1.82056033611298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81741845607758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85040521621704</t>
+    <t xml:space="preserve">1.817418217659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85040533542633</t>
   </si>
   <si>
     <t xml:space="preserve">1.88025069236755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81427693367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85197627544403</t>
+    <t xml:space="preserve">1.81427681446075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85197651386261</t>
   </si>
   <si>
     <t xml:space="preserve">1.84412217140198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84098064899445</t>
+    <t xml:space="preserve">1.84098052978516</t>
   </si>
   <si>
     <t xml:space="preserve">1.82370173931122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8111355304718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82213091850281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9367995262146</t>
+    <t xml:space="preserve">1.81113541126251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8221310377121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679976463318</t>
   </si>
   <si>
     <t xml:space="preserve">1.94622421264648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95407831668854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350336074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9650741815567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99334859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00434446334839</t>
+    <t xml:space="preserve">1.95407855510712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.963503241539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507394313812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99334871768951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00434398651123</t>
   </si>
   <si>
     <t xml:space="preserve">1.98706519603729</t>
@@ -176,58 +176,58 @@
     <t xml:space="preserve">1.93051636219025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96193218231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994152545929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564901828766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637909412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87396728992462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93378710746765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017540454865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9223153591156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050944805145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656358242035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95836925506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91739881038666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93542611598969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9419811964035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248285770416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084420681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83545887470245</t>
+    <t xml:space="preserve">1.96193242073059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994092941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564913749695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637921333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87396764755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93378698825836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017528533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92231547832489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050968647003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656346321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509135723114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95836913585663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91739916801453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9354259967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94198107719421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248297691345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83545911312103</t>
   </si>
   <si>
     <t xml:space="preserve">1.8026829957962</t>
@@ -236,37 +236,37 @@
     <t xml:space="preserve">1.84201431274414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83218157291412</t>
+    <t xml:space="preserve">1.83218133449554</t>
   </si>
   <si>
     <t xml:space="preserve">1.88298439979553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86823487281799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90756630897522</t>
+    <t xml:space="preserve">1.86823523044586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90756618976593</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281702041626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90592765808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8846230506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90920495986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151253223419</t>
+    <t xml:space="preserve">1.90592753887177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88462293148041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90920507907867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87151265144348</t>
   </si>
   <si>
     <t xml:space="preserve">1.8977335691452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82398760318756</t>
+    <t xml:space="preserve">1.82398748397827</t>
   </si>
   <si>
     <t xml:space="preserve">1.75843513011932</t>
@@ -275,37 +275,37 @@
     <t xml:space="preserve">1.76662921905518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78629505634308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77646207809448</t>
+    <t xml:space="preserve">1.78629493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77646195888519</t>
   </si>
   <si>
     <t xml:space="preserve">1.75188004970551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75351893901825</t>
+    <t xml:space="preserve">1.75351905822754</t>
   </si>
   <si>
     <t xml:space="preserve">1.77973961830139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75024116039276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72074282169342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66993999481201</t>
+    <t xml:space="preserve">1.75024127960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72074258327484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6699401140213</t>
   </si>
   <si>
     <t xml:space="preserve">1.72893679141998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69616067409515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76007413864136</t>
+    <t xml:space="preserve">1.69616079330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76007401943207</t>
   </si>
   <si>
     <t xml:space="preserve">1.70435476303101</t>
@@ -314,13 +314,13 @@
     <t xml:space="preserve">1.73549211025238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73385322093964</t>
+    <t xml:space="preserve">1.73385298252106</t>
   </si>
   <si>
     <t xml:space="preserve">1.71254861354828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63060867786407</t>
+    <t xml:space="preserve">1.63060879707336</t>
   </si>
   <si>
     <t xml:space="preserve">1.67157876491547</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">1.66666221618652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61012375354767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62241458892822</t>
+    <t xml:space="preserve">1.61012351512909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62241470813751</t>
   </si>
   <si>
     <t xml:space="preserve">1.66338467597961</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">1.67321753501892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64535772800446</t>
+    <t xml:space="preserve">1.64535784721375</t>
   </si>
   <si>
     <t xml:space="preserve">1.63880264759064</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">1.62569224834442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66830122470856</t>
+    <t xml:space="preserve">1.66830110549927</t>
   </si>
   <si>
     <t xml:space="preserve">1.65519070625305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64699673652649</t>
+    <t xml:space="preserve">1.6469966173172</t>
   </si>
   <si>
     <t xml:space="preserve">1.63798320293427</t>
@@ -371,49 +371,49 @@
     <t xml:space="preserve">1.58308351039886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59537446498871</t>
+    <t xml:space="preserve">1.595374584198</t>
   </si>
   <si>
     <t xml:space="preserve">1.578986287117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59127748012543</t>
+    <t xml:space="preserve">1.59127736091614</t>
   </si>
   <si>
     <t xml:space="preserve">1.54047453403473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56751477718353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56997311115265</t>
+    <t xml:space="preserve">1.56751489639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56997299194336</t>
   </si>
   <si>
     <t xml:space="preserve">1.56669533252716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55850124359131</t>
+    <t xml:space="preserve">1.5585013628006</t>
   </si>
   <si>
     <t xml:space="preserve">1.6027489900589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60356855392456</t>
+    <t xml:space="preserve">1.60356831550598</t>
   </si>
   <si>
     <t xml:space="preserve">1.6060266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51917016506195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56177890300751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54539084434509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37659418582916</t>
+    <t xml:space="preserve">1.51917004585266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5617790222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54539096355438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37659406661987</t>
   </si>
   <si>
     <t xml:space="preserve">1.4126478433609</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">1.45771503448486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47082531452179</t>
+    <t xml:space="preserve">1.47082543373108</t>
   </si>
   <si>
     <t xml:space="preserve">1.53391933441162</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">1.61258184909821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61176240444183</t>
+    <t xml:space="preserve">1.61176252365112</t>
   </si>
   <si>
     <t xml:space="preserve">1.59783267974854</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">1.5552237033844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56505656242371</t>
+    <t xml:space="preserve">1.56505644321442</t>
   </si>
   <si>
     <t xml:space="preserve">1.56423723697662</t>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">1.59291625022888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55686247348785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52162826061249</t>
+    <t xml:space="preserve">1.55686259269714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52162837982178</t>
   </si>
   <si>
     <t xml:space="preserve">1.5412939786911</t>
@@ -476,28 +476,28 @@
     <t xml:space="preserve">1.55112671852112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51589262485504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55194628238678</t>
+    <t xml:space="preserve">1.51589250564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55194616317749</t>
   </si>
   <si>
     <t xml:space="preserve">1.50851786136627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53228044509888</t>
+    <t xml:space="preserve">1.53228056430817</t>
   </si>
   <si>
     <t xml:space="preserve">1.50933730602264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50769853591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50278210639954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49540746212006</t>
+    <t xml:space="preserve">1.5076984167099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50278198719025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49540758132935</t>
   </si>
   <si>
     <t xml:space="preserve">1.51015663146973</t>
@@ -506,16 +506,16 @@
     <t xml:space="preserve">1.57325053215027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5855416059494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59455502033234</t>
+    <t xml:space="preserve">1.58554148674011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59455490112305</t>
   </si>
   <si>
     <t xml:space="preserve">1.60684597492218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62159526348114</t>
+    <t xml:space="preserve">1.62159538269043</t>
   </si>
   <si>
     <t xml:space="preserve">1.57161176204681</t>
@@ -524,25 +524,25 @@
     <t xml:space="preserve">1.54375207424164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5724310874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58718037605286</t>
+    <t xml:space="preserve">1.57243120670319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58718049526215</t>
   </si>
   <si>
     <t xml:space="preserve">1.54621040821075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55768203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58799970149994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53473877906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58226406574249</t>
+    <t xml:space="preserve">1.55768191814423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58799982070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5347386598587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5822639465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.54702973365784</t>
@@ -557,124 +557,124 @@
     <t xml:space="preserve">1.55276548862457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54948794841766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5380163192749</t>
+    <t xml:space="preserve">1.54948806762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53801620006561</t>
   </si>
   <si>
     <t xml:space="preserve">1.54866850376129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53637766838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53965520858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5691534280777</t>
+    <t xml:space="preserve">1.53637754917145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53965508937836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56915354728699</t>
   </si>
   <si>
     <t xml:space="preserve">1.65191316604614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69288325309753</t>
+    <t xml:space="preserve">1.69288313388824</t>
   </si>
   <si>
     <t xml:space="preserve">1.65355181694031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82070970535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82890403270721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81743216514587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81579339504242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87970674037933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79448878765106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80104410648346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73876965045929</t>
+    <t xml:space="preserve">1.82070958614349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82890391349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81743204593658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81579351425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87970638275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79448914527893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80104434490204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73876953125</t>
   </si>
   <si>
     <t xml:space="preserve">1.72729802131653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74696338176727</t>
+    <t xml:space="preserve">1.74696362018585</t>
   </si>
   <si>
     <t xml:space="preserve">1.76335167884827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84693050384521</t>
+    <t xml:space="preserve">1.8469306230545</t>
   </si>
   <si>
     <t xml:space="preserve">1.81087696552277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80923807621002</t>
+    <t xml:space="preserve">1.80923819541931</t>
   </si>
   <si>
     <t xml:space="preserve">1.81251561641693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86167979240417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86495769023895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85840213298798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87642884254456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89937233924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84856963157654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479634284973</t>
+    <t xml:space="preserve">1.86168003082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86495745182037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85840201377869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87642896175385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89937257766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84856951236725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479622364044</t>
   </si>
   <si>
     <t xml:space="preserve">1.93679392337799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93850827217102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97107374668121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92822432518005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94193613529205</t>
+    <t xml:space="preserve">1.93850815296173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97107362747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92822456359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94193637371063</t>
   </si>
   <si>
     <t xml:space="preserve">1.94364988803864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95907592773438</t>
+    <t xml:space="preserve">1.95907580852509</t>
   </si>
   <si>
     <t xml:space="preserve">1.96764576435089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92651009559631</t>
+    <t xml:space="preserve">1.9265102148056</t>
   </si>
   <si>
     <t xml:space="preserve">1.95393395423889</t>
@@ -686,28 +686,28 @@
     <t xml:space="preserve">1.90594255924225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8939448595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8716629743576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92993819713593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080070495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91451239585876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88708853721619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87680494785309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91794049739838</t>
+    <t xml:space="preserve">1.89394462108612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87166309356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92993807792664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080046653748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91451263427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88708865642548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87680518627167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9179402589798</t>
   </si>
   <si>
     <t xml:space="preserve">1.88537490367889</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">1.86994910240173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88880264759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90937042236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90251457691193</t>
+    <t xml:space="preserve">1.88880288600922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90937054157257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90251469612122</t>
   </si>
   <si>
     <t xml:space="preserve">1.96421778202057</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821365833282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98649954795837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97964358329773</t>
+    <t xml:space="preserve">1.98821341991425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98649966716766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97964346408844</t>
   </si>
   <si>
     <t xml:space="preserve">2.12533140182495</t>
@@ -746,55 +746,55 @@
     <t xml:space="preserve">2.08591032028198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05677247047424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07905435562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0807683467865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06534242630005</t>
+    <t xml:space="preserve">2.05677270889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07905459403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08076810836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06534266471863</t>
   </si>
   <si>
     <t xml:space="preserve">2.06020045280457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07219839096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13390135765076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1081919670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09962224960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10304999351501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03963303565979</t>
+    <t xml:space="preserve">2.07219862937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13390159606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10819220542908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09962201118469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10304975509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03963279724121</t>
   </si>
   <si>
     <t xml:space="preserve">2.06877040863037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11504769325256</t>
+    <t xml:space="preserve">2.11504793167114</t>
   </si>
   <si>
     <t xml:space="preserve">2.07391238212585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09790778160095</t>
+    <t xml:space="preserve">2.09790802001953</t>
   </si>
   <si>
     <t xml:space="preserve">2.11676168441772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08248233795166</t>
+    <t xml:space="preserve">2.08248209953308</t>
   </si>
   <si>
     <t xml:space="preserve">2.06705641746521</t>
@@ -803,10 +803,10 @@
     <t xml:space="preserve">2.12190389633179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647797584534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0893383026123</t>
+    <t xml:space="preserve">2.10647773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08933806419373</t>
   </si>
   <si>
     <t xml:space="preserve">2.05163073539734</t>
@@ -821,37 +821,37 @@
     <t xml:space="preserve">2.1321873664856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13047337532043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15961122512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11847543716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09105205535889</t>
+    <t xml:space="preserve">2.13047361373901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15961098670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11847567558289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09105229377747</t>
   </si>
   <si>
     <t xml:space="preserve">2.12361741065979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11161971092224</t>
+    <t xml:space="preserve">2.11161994934082</t>
   </si>
   <si>
     <t xml:space="preserve">2.10133600234985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15789699554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15618324279785</t>
+    <t xml:space="preserve">2.15789723396301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15618348121643</t>
   </si>
   <si>
     <t xml:space="preserve">2.1441855430603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14075756072998</t>
+    <t xml:space="preserve">2.1407573223114</t>
   </si>
   <si>
     <t xml:space="preserve">2.14932751655579</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">2.17503714561462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15104126930237</t>
+    <t xml:space="preserve">2.15104150772095</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
@@ -881,13 +881,13 @@
     <t xml:space="preserve">2.04820275306702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07048392295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0499165058136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12875938415527</t>
+    <t xml:space="preserve">2.07048439979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04991674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12875986099243</t>
   </si>
   <si>
     <t xml:space="preserve">2.08762431144714</t>
@@ -902,61 +902,61 @@
     <t xml:space="preserve">2.0224928855896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01392292976379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00535297393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16818118095398</t>
+    <t xml:space="preserve">2.01392316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00535321235657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1681809425354</t>
   </si>
   <si>
     <t xml:space="preserve">2.18532061576843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29672956466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33100914955139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32243871688843</t>
+    <t xml:space="preserve">2.29672932624817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33100891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32243895530701</t>
   </si>
   <si>
     <t xml:space="preserve">2.35671854019165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44241714477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49383687973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46812725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47669720649719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48526668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53668642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57953572273254</t>
+    <t xml:space="preserve">2.44241738319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49383664131165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46812701225281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47669696807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48526692390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53668594360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57953548431396</t>
   </si>
   <si>
     <t xml:space="preserve">2.59667539596558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61381483078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382561683655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63447332382202</t>
+    <t xml:space="preserve">2.61381506919861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382609367371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63447308540344</t>
   </si>
   <si>
     <t xml:space="preserve">2.59862995147705</t>
@@ -965,10 +965,13 @@
     <t xml:space="preserve">2.5896692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61655139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52694344520569</t>
+    <t xml:space="preserve">2.61655163764954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382585525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52694368362427</t>
   </si>
   <si>
     <t xml:space="preserve">2.437335729599</t>
@@ -977,19 +980,19 @@
     <t xml:space="preserve">2.46421790122986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50006127357483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45525741577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54486513137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57174754142761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51798295974731</t>
+    <t xml:space="preserve">2.50006103515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45525717735291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54486489295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57174730300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51798272132874</t>
   </si>
   <si>
     <t xml:space="preserve">2.56278681755066</t>
@@ -1007,13 +1010,13 @@
     <t xml:space="preserve">2.50902199745178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47317862510681</t>
+    <t xml:space="preserve">2.47317886352539</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680658340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75992441177368</t>
+    <t xml:space="preserve">2.7599241733551</t>
   </si>
   <si>
     <t xml:space="preserve">2.77784562110901</t>
@@ -1022,22 +1025,22 @@
     <t xml:space="preserve">2.74200248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76888489723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71512007713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75096321105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67031621932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72408103942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65239477157593</t>
+    <t xml:space="preserve">2.76888465881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71512031555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75096344947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67031645774841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72408080101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65239453315735</t>
   </si>
   <si>
     <t xml:space="preserve">2.68823766708374</t>
@@ -1046,7 +1049,7 @@
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719886779785</t>
+    <t xml:space="preserve">2.69719862937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1058,7 +1061,7 @@
     <t xml:space="preserve">2.86745357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83161067962646</t>
+    <t xml:space="preserve">2.83161044120789</t>
   </si>
   <si>
     <t xml:space="preserve">2.6434338092804</t>
@@ -1067,13 +1070,13 @@
     <t xml:space="preserve">2.62551236152649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58070850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60759091377258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41941404342651</t>
+    <t xml:space="preserve">2.58070826530457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.607590675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41941428184509</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135549545288</t>
@@ -1091,7 +1094,7 @@
     <t xml:space="preserve">2.87641453742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82264971733093</t>
+    <t xml:space="preserve">2.82264995574951</t>
   </si>
   <si>
     <t xml:space="preserve">2.80472826957703</t>
@@ -1100,25 +1103,25 @@
     <t xml:space="preserve">2.90329694747925</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12731647491455</t>
+    <t xml:space="preserve">3.12731671333313</t>
   </si>
   <si>
     <t xml:space="preserve">3.16315984725952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13627743721008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19004201889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25276780128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172852516174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28861117362976</t>
+    <t xml:space="preserve">3.13627767562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19004225730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25276803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172876358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28861093521118</t>
   </si>
   <si>
     <t xml:space="preserve">3.29757189750671</t>
@@ -1130,10 +1133,10 @@
     <t xml:space="preserve">3.33341503143311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34237575531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42302298545837</t>
+    <t xml:space="preserve">3.34237551689148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42302274703979</t>
   </si>
   <si>
     <t xml:space="preserve">3.3871796131134</t>
@@ -1145,16 +1148,16 @@
     <t xml:space="preserve">3.41406202316284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36925792694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37821888923645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45886564254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48574876785278</t>
+    <t xml:space="preserve">3.36925840377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37821865081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45886588096619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48574829101562</t>
   </si>
   <si>
     <t xml:space="preserve">3.47678780555725</t>
@@ -1166,87 +1169,84 @@
     <t xml:space="preserve">3.67392492294312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58431696891785</t>
+    <t xml:space="preserve">3.58431720733643</t>
   </si>
   <si>
     <t xml:space="preserve">3.53055238723755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59327793121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55743479728699</t>
+    <t xml:space="preserve">3.59327816963196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55743455886841</t>
   </si>
   <si>
     <t xml:space="preserve">3.52159142494202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51263093948364</t>
+    <t xml:space="preserve">3.51263070106506</t>
   </si>
   <si>
     <t xml:space="preserve">3.53951334953308</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60223889350891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65600323677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66496443748474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72768998146057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71872925758362</t>
+    <t xml:space="preserve">3.60223865509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65600347518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66496419906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72768974304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71872901916504</t>
   </si>
   <si>
     <t xml:space="preserve">3.6918466091156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70976781845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68288588523865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76353287696838</t>
+    <t xml:space="preserve">3.70976805686951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68288612365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7635326385498</t>
   </si>
   <si>
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833721160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79041504859924</t>
+    <t xml:space="preserve">3.80833697319031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79041528701782</t>
   </si>
   <si>
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067070960999</t>
+    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">3.97005581855774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00759792327881</t>
+    <t xml:space="preserve">4.00759744644165</t>
   </si>
   <si>
     <t xml:space="preserve">4.0920672416687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81988835334778</t>
+    <t xml:space="preserve">3.81988859176636</t>
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067023277283</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.02636861801147</t>
   </si>
   <si>
@@ -1262,40 +1262,40 @@
     <t xml:space="preserve">4.03575468063354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99821257591248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97944092750549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85743021965027</t>
+    <t xml:space="preserve">3.9982123374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97944116592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85743045806885</t>
   </si>
   <si>
     <t xml:space="preserve">3.84804463386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81050252914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7448046207428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89497232437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94189953804016</t>
+    <t xml:space="preserve">3.81050276756287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74480438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89497208595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.941899061203</t>
   </si>
   <si>
     <t xml:space="preserve">3.8668155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93251395225525</t>
+    <t xml:space="preserve">3.93251419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.08268165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11083793640137</t>
+    <t xml:space="preserve">4.11083841323853</t>
   </si>
   <si>
     <t xml:space="preserve">4.12022304534912</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">4.18592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19530725479126</t>
+    <t xml:space="preserve">4.1953067779541</t>
   </si>
   <si>
     <t xml:space="preserve">4.20469284057617</t>
@@ -1316,13 +1316,13 @@
     <t xml:space="preserve">4.28916215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26100587844849</t>
+    <t xml:space="preserve">4.26100540161133</t>
   </si>
   <si>
     <t xml:space="preserve">4.2703914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34547472000122</t>
+    <t xml:space="preserve">4.34547519683838</t>
   </si>
   <si>
     <t xml:space="preserve">4.36424589157104</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">4.50502824783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49564266204834</t>
+    <t xml:space="preserve">4.49564218521118</t>
   </si>
   <si>
     <t xml:space="preserve">4.43932962417603</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">4.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54257011413574</t>
+    <t xml:space="preserve">4.54256963729858</t>
   </si>
   <si>
     <t xml:space="preserve">4.48625707626343</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">4.40178775787354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44871520996094</t>
+    <t xml:space="preserve">4.44871473312378</t>
   </si>
   <si>
     <t xml:space="preserve">4.42994403839111</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">4.41117334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39240169525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24223470687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30793333053589</t>
+    <t xml:space="preserve">4.39240217208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2422342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30793285369873</t>
   </si>
   <si>
     <t xml:space="preserve">4.17653608322144</t>
@@ -1397,28 +1397,28 @@
     <t xml:space="preserve">4.62703895568848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61765336990356</t>
+    <t xml:space="preserve">4.61765384674072</t>
   </si>
   <si>
     <t xml:space="preserve">4.51441335678101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57072591781616</t>
+    <t xml:space="preserve">4.57072639465332</t>
   </si>
   <si>
     <t xml:space="preserve">4.67396640777588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80536270141602</t>
+    <t xml:space="preserve">4.80536317825317</t>
   </si>
   <si>
     <t xml:space="preserve">4.78659200668335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86167621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84290504455566</t>
+    <t xml:space="preserve">4.86167573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84290456771851</t>
   </si>
   <si>
     <t xml:space="preserve">4.89921760559082</t>
@@ -1430,10 +1430,10 @@
     <t xml:space="preserve">4.5988826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53318405151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58011150360107</t>
+    <t xml:space="preserve">4.53318452835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58011198043823</t>
   </si>
   <si>
     <t xml:space="preserve">4.6927375793457</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">4.74905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73027944564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71150827407837</t>
+    <t xml:space="preserve">4.73027896881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71150875091553</t>
   </si>
   <si>
     <t xml:space="preserve">4.76782131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95553112030029</t>
+    <t xml:space="preserve">4.95553064346313</t>
   </si>
   <si>
     <t xml:space="preserve">4.88044691085815</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">4.91798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99307250976562</t>
+    <t xml:space="preserve">4.99307298660278</t>
   </si>
   <si>
     <t xml:space="preserve">4.93675994873047</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">6.60737419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28826808929443</t>
+    <t xml:space="preserve">6.28826761245728</t>
   </si>
   <si>
     <t xml:space="preserve">6.1568717956543</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">5.96916246414185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70636892318726</t>
+    <t xml:space="preserve">5.7063684463501</t>
   </si>
   <si>
     <t xml:space="preserve">5.53743028640747</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">5.87530755996704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66882658004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68759727478027</t>
+    <t xml:space="preserve">5.66882705688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68759775161743</t>
   </si>
   <si>
     <t xml:space="preserve">5.83776521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59374284744263</t>
+    <t xml:space="preserve">5.59374332427979</t>
   </si>
   <si>
     <t xml:space="preserve">5.38726234436035</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">5.10569858551025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68335199356079</t>
+    <t xml:space="preserve">4.68335151672363</t>
   </si>
   <si>
     <t xml:space="preserve">4.14837980270386</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">3.62279319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55709481239319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37877082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50078225135803</t>
+    <t xml:space="preserve">3.55709505081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37877106666565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50078201293945</t>
   </si>
   <si>
     <t xml:space="preserve">3.5664803981781</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">3.75418996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70726251602173</t>
+    <t xml:space="preserve">3.70726275444031</t>
   </si>
   <si>
     <t xml:space="preserve">3.71664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8386595249176</t>
+    <t xml:space="preserve">3.83865928649902</t>
   </si>
   <si>
     <t xml:space="preserve">4.25162029266357</t>
@@ -1583,25 +1583,25 @@
     <t xml:space="preserve">4.12960910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16715049743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05452537536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76357555389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66972064971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65094995498657</t>
+    <t xml:space="preserve">4.16715097427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05452489852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76357579231262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66972088813782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65094971656799</t>
   </si>
   <si>
     <t xml:space="preserve">3.66033530235291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95128512382507</t>
+    <t xml:space="preserve">3.95128488540649</t>
   </si>
   <si>
     <t xml:space="preserve">4.29854726791382</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">4.31731843948364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15776491165161</t>
+    <t xml:space="preserve">4.15776538848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.10145235061646</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">4.13899421691895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88558626174927</t>
+    <t xml:space="preserve">3.88558650016785</t>
   </si>
   <si>
     <t xml:space="preserve">4.32670402526855</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">4.27977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.913743019104</t>
+    <t xml:space="preserve">3.91374325752258</t>
   </si>
   <si>
     <t xml:space="preserve">3.92312836647034</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">3.49139666557312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67910623550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38815641403198</t>
+    <t xml:space="preserve">3.67910599708557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3881561756134</t>
   </si>
   <si>
     <t xml:space="preserve">3.35999989509583</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.34122896194458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20044708251953</t>
+    <t xml:space="preserve">3.20044684410095</t>
   </si>
   <si>
     <t xml:space="preserve">3.24737429618835</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">3.47262573242188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57586574554443</t>
+    <t xml:space="preserve">3.57586598396301</t>
   </si>
   <si>
     <t xml:space="preserve">3.73541903495789</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">3.68849158287048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72603368759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52893853187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217878341675</t>
+    <t xml:space="preserve">3.72603344917297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52893877029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217854499817</t>
   </si>
   <si>
     <t xml:space="preserve">3.51016759872437</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">3.58525133132935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53832411766052</t>
+    <t xml:space="preserve">3.53832387924194</t>
   </si>
   <si>
     <t xml:space="preserve">3.80111742019653</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">3.48201107978821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46324014663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4444694519043</t>
+    <t xml:space="preserve">3.46324038505554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44446921348572</t>
   </si>
   <si>
     <t xml:space="preserve">3.42569851875305</t>
@@ -1742,13 +1742,13 @@
     <t xml:space="preserve">3.41631293296814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39754199981689</t>
+    <t xml:space="preserve">3.39754176139832</t>
   </si>
   <si>
     <t xml:space="preserve">3.21921801567078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1910617351532</t>
+    <t xml:space="preserve">3.19106149673462</t>
   </si>
   <si>
     <t xml:space="preserve">3.17229056358337</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">3.23798894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14413404464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25675964355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36938524246216</t>
+    <t xml:space="preserve">3.14413380622864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25675988197327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36938548088074</t>
   </si>
   <si>
     <t xml:space="preserve">3.15351939201355</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">3.18167614936829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29430174827576</t>
+    <t xml:space="preserve">3.29430150985718</t>
   </si>
   <si>
     <t xml:space="preserve">3.2661452293396</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">3.12536311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04089379310608</t>
+    <t xml:space="preserve">3.04089403152466</t>
   </si>
   <si>
     <t xml:space="preserve">3.05027914047241</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">2.93765377998352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95642447471619</t>
+    <t xml:space="preserve">2.95642471313477</t>
   </si>
   <si>
     <t xml:space="preserve">3.03150844573975</t>
@@ -1808,19 +1808,19 @@
     <t xml:space="preserve">3.02212285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92826795578003</t>
+    <t xml:space="preserve">2.92826819419861</t>
   </si>
   <si>
     <t xml:space="preserve">2.94703912734985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90011167526245</t>
+    <t xml:space="preserve">2.90011143684387</t>
   </si>
   <si>
     <t xml:space="preserve">2.97519564628601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27553057670593</t>
+    <t xml:space="preserve">3.27553081512451</t>
   </si>
   <si>
     <t xml:space="preserve">3.33184361457825</t>
@@ -18522,7 +18522,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18548,7 +18548,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18574,7 +18574,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18600,7 +18600,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18626,7 +18626,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18652,7 +18652,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18678,7 +18678,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18704,7 +18704,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18730,7 +18730,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18756,7 +18756,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18782,7 +18782,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18808,7 +18808,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18834,7 +18834,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18860,7 +18860,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18886,7 +18886,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18912,7 +18912,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18938,7 +18938,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18964,7 +18964,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18990,7 +18990,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19016,7 +19016,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19042,7 +19042,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19068,7 +19068,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19094,7 +19094,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19120,7 +19120,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19146,7 +19146,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19172,7 +19172,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19198,7 +19198,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19224,7 +19224,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19250,7 +19250,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19276,7 +19276,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19302,7 +19302,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19328,7 +19328,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19354,7 +19354,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19380,7 +19380,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19406,7 +19406,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19432,7 +19432,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19458,7 +19458,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19484,7 +19484,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19510,7 +19510,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19536,7 +19536,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19588,7 +19588,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19640,7 +19640,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19666,7 +19666,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19692,7 +19692,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19718,7 +19718,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19744,7 +19744,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19770,7 +19770,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19796,7 +19796,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19822,7 +19822,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19848,7 +19848,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19874,7 +19874,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19900,7 +19900,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19926,7 +19926,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19952,7 +19952,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19978,7 +19978,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20030,7 +20030,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20056,7 +20056,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20082,7 +20082,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20108,7 +20108,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20134,7 +20134,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20160,7 +20160,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20186,7 +20186,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20212,7 +20212,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20238,7 +20238,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20264,7 +20264,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20290,7 +20290,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20316,7 +20316,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20342,7 +20342,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20368,7 +20368,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20394,7 +20394,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20420,7 +20420,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20446,7 +20446,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20472,7 +20472,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20498,7 +20498,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20524,7 +20524,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20550,7 +20550,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20576,7 +20576,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20602,7 +20602,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20628,7 +20628,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20654,7 +20654,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20680,7 +20680,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20706,7 +20706,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20732,7 +20732,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20758,7 +20758,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20784,7 +20784,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20810,7 +20810,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20836,7 +20836,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20862,7 +20862,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20888,7 +20888,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20914,7 +20914,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20940,7 +20940,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20966,7 +20966,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20992,7 +20992,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21044,7 +21044,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21070,7 +21070,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21096,7 +21096,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21122,7 +21122,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21252,7 +21252,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21278,7 +21278,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21304,7 +21304,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21486,7 +21486,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21590,7 +21590,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21694,7 +21694,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21720,7 +21720,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21746,7 +21746,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21772,7 +21772,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21798,7 +21798,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21824,7 +21824,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21850,7 +21850,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21876,7 +21876,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21902,7 +21902,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21928,7 +21928,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21954,7 +21954,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21980,7 +21980,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22006,7 +22006,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22032,7 +22032,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22058,7 +22058,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22084,7 +22084,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22110,7 +22110,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22136,7 +22136,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22162,7 +22162,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22188,7 +22188,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22214,7 +22214,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22240,7 +22240,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22266,7 +22266,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22292,7 +22292,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22318,7 +22318,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22344,7 +22344,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G759" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22370,7 +22370,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G760" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22396,7 +22396,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G761" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22422,7 +22422,7 @@
         <v>2.75</v>
       </c>
       <c r="G762" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22448,7 +22448,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G763" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22474,7 +22474,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G764" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22500,7 +22500,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22552,7 +22552,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G767" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22578,7 +22578,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G768" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22604,7 +22604,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22630,7 +22630,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G770" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22656,7 +22656,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G771" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22682,7 +22682,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22708,7 +22708,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22734,7 +22734,7 @@
         <v>3</v>
       </c>
       <c r="G774" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22760,7 +22760,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22786,7 +22786,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G776" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22812,7 +22812,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G777" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22838,7 +22838,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G778" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22864,7 +22864,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22890,7 +22890,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22916,7 +22916,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G781" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22942,7 +22942,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G782" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22968,7 +22968,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22994,7 +22994,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G784" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23020,7 +23020,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G785" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23046,7 +23046,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23072,7 +23072,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G787" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23098,7 +23098,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23124,7 +23124,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G789" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23150,7 +23150,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G790" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23176,7 +23176,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G791" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23202,7 +23202,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G792" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23228,7 +23228,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G793" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23254,7 +23254,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23280,7 +23280,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G795" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23306,7 +23306,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23332,7 +23332,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G797" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23358,7 +23358,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G798" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23384,7 +23384,7 @@
         <v>3.5</v>
       </c>
       <c r="G799" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23410,7 +23410,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23436,7 +23436,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G801" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23462,7 +23462,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G802" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23488,7 +23488,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23514,7 +23514,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G804" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23540,7 +23540,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23566,7 +23566,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23592,7 +23592,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23618,7 +23618,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23644,7 +23644,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G809" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23670,7 +23670,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23696,7 +23696,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G811" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23722,7 +23722,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23748,7 +23748,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G813" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23774,7 +23774,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23800,7 +23800,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G815" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23826,7 +23826,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23852,7 +23852,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G817" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23878,7 +23878,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G818" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23904,7 +23904,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G819" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23930,7 +23930,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G820" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23956,7 +23956,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G821" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23982,7 +23982,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G822" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24008,7 +24008,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G823" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24034,7 +24034,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24060,7 +24060,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24086,7 +24086,7 @@
         <v>4</v>
       </c>
       <c r="G826" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24112,7 +24112,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G827" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24138,7 +24138,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G828" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24164,7 +24164,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24190,7 +24190,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G830" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24216,7 +24216,7 @@
         <v>4</v>
       </c>
       <c r="G831" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24242,7 +24242,7 @@
         <v>4</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24268,7 +24268,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G833" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24294,7 +24294,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24320,7 +24320,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24346,7 +24346,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G836" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24372,7 +24372,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24398,7 +24398,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G838" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24424,7 +24424,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G839" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24450,7 +24450,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24476,7 +24476,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G841" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24502,7 +24502,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24528,7 +24528,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24554,7 +24554,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G844" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24580,7 +24580,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G845" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24606,7 +24606,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G846" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24632,7 +24632,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24658,7 +24658,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24684,7 +24684,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G849" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24710,7 +24710,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24736,7 +24736,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G851" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24762,7 +24762,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24788,7 +24788,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G853" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24814,7 +24814,7 @@
         <v>4.25</v>
       </c>
       <c r="G854" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24840,7 +24840,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24866,7 +24866,7 @@
         <v>4.25</v>
       </c>
       <c r="G856" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24892,7 +24892,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G857" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24918,7 +24918,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24944,7 +24944,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G859" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24970,7 +24970,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24996,7 +24996,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G861" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25022,7 +25022,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G862" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25048,7 +25048,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G863" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25074,7 +25074,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G864" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25100,7 +25100,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25152,7 +25152,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G867" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25256,7 +25256,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G871" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25308,7 +25308,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25438,7 +25438,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G878" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25802,7 +25802,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25880,7 +25880,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G895" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26114,7 +26114,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G904" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -30300,7 +30300,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1065" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30586,7 +30586,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1076" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30612,7 +30612,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1077" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30846,7 +30846,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1086" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31210,7 +31210,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1100" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31314,7 +31314,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1104" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32822,7 +32822,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1162" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32848,7 +32848,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1163" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33290,7 +33290,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1180" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33420,7 +33420,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33628,7 +33628,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1193" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="756">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825955867767</t>
+    <t xml:space="preserve">1.85825932025909</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91323757171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92109143733978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88496327400208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9242330789566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642282962799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82998502254486</t>
+    <t xml:space="preserve">1.9132376909256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92109191417694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88496315479279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92423319816589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642306804657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998478412628</t>
   </si>
   <si>
     <t xml:space="preserve">1.79856896400452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76715314388275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354697704315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86925530433655</t>
+    <t xml:space="preserve">1.76715278625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354685783386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86925554275513</t>
   </si>
   <si>
     <t xml:space="preserve">1.87710905075073</t>
@@ -80,28 +80,28 @@
     <t xml:space="preserve">1.89281725883484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86768436431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584775447845</t>
+    <t xml:space="preserve">1.86768424510956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584787368774</t>
   </si>
   <si>
     <t xml:space="preserve">1.83783888816833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87553834915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82684338092804</t>
+    <t xml:space="preserve">1.87553811073303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82684326171875</t>
   </si>
   <si>
     <t xml:space="preserve">1.84569299221039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8189891576767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83626806735992</t>
+    <t xml:space="preserve">1.81898927688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83626818656921</t>
   </si>
   <si>
     <t xml:space="preserve">1.85983026027679</t>
@@ -110,61 +110,61 @@
     <t xml:space="preserve">1.80485212802887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82056033611298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.817418217659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85040533542633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88025069236755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81427681446075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85197651386261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84412217140198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84098052978516</t>
+    <t xml:space="preserve">1.82056021690369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81741869449615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85040545463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88025081157684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81427693367004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85197627544403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84412240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84098064899445</t>
   </si>
   <si>
     <t xml:space="preserve">1.82370173931122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81113541126251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8221310377121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679976463318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94622421264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407855510712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.963503241539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96507394313812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99334871768951</t>
+    <t xml:space="preserve">1.8111355304718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82213079929352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679964542389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94622433185577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407819747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96350312232971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9650741815567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99334859848022</t>
   </si>
   <si>
     <t xml:space="preserve">2.00434398651123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98706519603729</t>
+    <t xml:space="preserve">1.98706531524658</t>
   </si>
   <si>
     <t xml:space="preserve">2.00905656814575</t>
@@ -176,133 +176,133 @@
     <t xml:space="preserve">1.93051636219025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96193242073059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994092941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564913749695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637921333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87396764755249</t>
+    <t xml:space="preserve">1.9619323015213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994116783142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564925670624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637885570526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87396728992462</t>
   </si>
   <si>
     <t xml:space="preserve">1.93378698825836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95017528533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92231547832489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050968647003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656346321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509135723114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95836913585663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91739916801453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9354259967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94198107719421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248297691345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084384918213</t>
+    <t xml:space="preserve">1.95017564296722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92231559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050956726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95836925506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91739904880524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93542587757111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9419811964035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248285770416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084408760071</t>
   </si>
   <si>
     <t xml:space="preserve">1.83545911312103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8026829957962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84201431274414</t>
+    <t xml:space="preserve">1.80268275737762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84201419353485</t>
   </si>
   <si>
     <t xml:space="preserve">1.83218133449554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88298439979553</t>
+    <t xml:space="preserve">1.88298428058624</t>
   </si>
   <si>
     <t xml:space="preserve">1.86823523044586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90756618976593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281702041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592753887177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88462293148041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90920507907867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151265144348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8977335691452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82398748397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75843513011932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76662921905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78629493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77646195888519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75188004970551</t>
+    <t xml:space="preserve">1.9075665473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281713962555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90592741966248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88462316989899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90920495986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87151277065277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773344993591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82398760318756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75843524932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76662909984589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7862948179245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77646219730377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75187993049622</t>
   </si>
   <si>
     <t xml:space="preserve">1.75351905822754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77973961830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75024127960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72074258327484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6699401140213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72893679141998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69616079330444</t>
+    <t xml:space="preserve">1.77973985671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75024116039276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72074270248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66993999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72893667221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69616067409515</t>
   </si>
   <si>
     <t xml:space="preserve">1.76007401943207</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">1.73549211025238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73385298252106</t>
+    <t xml:space="preserve">1.73385322093964</t>
   </si>
   <si>
     <t xml:space="preserve">1.71254861354828</t>
@@ -323,22 +323,22 @@
     <t xml:space="preserve">1.63060879707336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67157876491547</t>
+    <t xml:space="preserve">1.67157864570618</t>
   </si>
   <si>
     <t xml:space="preserve">1.66666221618652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61012351512909</t>
+    <t xml:space="preserve">1.61012363433838</t>
   </si>
   <si>
     <t xml:space="preserve">1.62241470813751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66338467597961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67321753501892</t>
+    <t xml:space="preserve">1.6633847951889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67321765422821</t>
   </si>
   <si>
     <t xml:space="preserve">1.64535784721375</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">1.63880264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62569224834442</t>
+    <t xml:space="preserve">1.62569212913513</t>
   </si>
   <si>
     <t xml:space="preserve">1.66830110549927</t>
@@ -356,49 +356,49 @@
     <t xml:space="preserve">1.65519070625305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6469966173172</t>
+    <t xml:space="preserve">1.64699673652649</t>
   </si>
   <si>
     <t xml:space="preserve">1.63798320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59865212440491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6297892332077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58308351039886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.595374584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.578986287117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59127736091614</t>
+    <t xml:space="preserve">1.59865188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62978911399841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58308339118958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59537446498871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57898640632629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59127748012543</t>
   </si>
   <si>
     <t xml:space="preserve">1.54047453403473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56751489639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56997299194336</t>
+    <t xml:space="preserve">1.56751477718353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56997287273407</t>
   </si>
   <si>
     <t xml:space="preserve">1.56669533252716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5585013628006</t>
+    <t xml:space="preserve">1.55850124359131</t>
   </si>
   <si>
     <t xml:space="preserve">1.6027489900589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60356831550598</t>
+    <t xml:space="preserve">1.60356855392456</t>
   </si>
   <si>
     <t xml:space="preserve">1.6060266494751</t>
@@ -407,22 +407,22 @@
     <t xml:space="preserve">1.51917004585266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5617790222168</t>
+    <t xml:space="preserve">1.56177890300751</t>
   </si>
   <si>
     <t xml:space="preserve">1.54539096355438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37659406661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4126478433609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39462113380432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45771503448486</t>
+    <t xml:space="preserve">1.37659418582916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41264796257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39462101459503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45771491527557</t>
   </si>
   <si>
     <t xml:space="preserve">1.47082543373108</t>
@@ -434,22 +434,22 @@
     <t xml:space="preserve">1.61258184909821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61176252365112</t>
+    <t xml:space="preserve">1.61176240444183</t>
   </si>
   <si>
     <t xml:space="preserve">1.59783267974854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54211318492889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51179552078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5552237033844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56505644321442</t>
+    <t xml:space="preserve">1.54211330413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51179540157318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55522394180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56505656242371</t>
   </si>
   <si>
     <t xml:space="preserve">1.56423723697662</t>
@@ -461,25 +461,25 @@
     <t xml:space="preserve">1.55686259269714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52162837982178</t>
+    <t xml:space="preserve">1.52162826061249</t>
   </si>
   <si>
     <t xml:space="preserve">1.5412939786911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50442087650299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5109760761261</t>
+    <t xml:space="preserve">1.5044207572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51097619533539</t>
   </si>
   <si>
     <t xml:space="preserve">1.55112671852112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51589250564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55194616317749</t>
+    <t xml:space="preserve">1.51589238643646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55194628238678</t>
   </si>
   <si>
     <t xml:space="preserve">1.50851786136627</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">1.50933730602264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5076984167099</t>
+    <t xml:space="preserve">1.50769853591919</t>
   </si>
   <si>
     <t xml:space="preserve">1.50278198719025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49540758132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51015663146973</t>
+    <t xml:space="preserve">1.49540746212006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51015675067902</t>
   </si>
   <si>
     <t xml:space="preserve">1.57325053215027</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">1.58554148674011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59455490112305</t>
+    <t xml:space="preserve">1.59455513954163</t>
   </si>
   <si>
     <t xml:space="preserve">1.60684597492218</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">1.62159538269043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57161176204681</t>
+    <t xml:space="preserve">1.57161164283752</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375207424164</t>
@@ -527,10 +527,10 @@
     <t xml:space="preserve">1.57243120670319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58718049526215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54621040821075</t>
+    <t xml:space="preserve">1.58718025684357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54621028900146</t>
   </si>
   <si>
     <t xml:space="preserve">1.55768191814423</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">1.5347386598587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5822639465332</t>
+    <t xml:space="preserve">1.58226406574249</t>
   </si>
   <si>
     <t xml:space="preserve">1.54702973365784</t>
@@ -557,16 +557,16 @@
     <t xml:space="preserve">1.55276548862457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54948806762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53801620006561</t>
+    <t xml:space="preserve">1.54948794841766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5380163192749</t>
   </si>
   <si>
     <t xml:space="preserve">1.54866850376129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53637754917145</t>
+    <t xml:space="preserve">1.53637742996216</t>
   </si>
   <si>
     <t xml:space="preserve">1.53965508937836</t>
@@ -575,43 +575,43 @@
     <t xml:space="preserve">1.56915354728699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65191316604614</t>
+    <t xml:space="preserve">1.65191304683685</t>
   </si>
   <si>
     <t xml:space="preserve">1.69288313388824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65355181694031</t>
+    <t xml:space="preserve">1.65355169773102</t>
   </si>
   <si>
     <t xml:space="preserve">1.82070958614349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82890391349792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81743204593658</t>
+    <t xml:space="preserve">1.82890379428864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81743216514587</t>
   </si>
   <si>
     <t xml:space="preserve">1.81579351425171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87970638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79448914527893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80104434490204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72729802131653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74696362018585</t>
+    <t xml:space="preserve">1.87970626354218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79448890686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80104398727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73876965045929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72729814052582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74696350097656</t>
   </si>
   <si>
     <t xml:space="preserve">1.76335167884827</t>
@@ -620,28 +620,28 @@
     <t xml:space="preserve">1.8469306230545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81087696552277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80923819541931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81251561641693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86168003082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86495745182037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85840201377869</t>
+    <t xml:space="preserve">1.81087720394135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923807621002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81251573562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86167991161346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86495769023895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85840213298798</t>
   </si>
   <si>
     <t xml:space="preserve">1.87642896175385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89937257766724</t>
+    <t xml:space="preserve">1.89937233924866</t>
   </si>
   <si>
     <t xml:space="preserve">1.84856951236725</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">1.92479622364044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93679392337799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93850815296173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97107362747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92822456359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94193637371063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94364988803864</t>
+    <t xml:space="preserve">1.93679416179657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93850839138031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97107374668121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92822432518005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94193625450134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94365000724792</t>
   </si>
   <si>
     <t xml:space="preserve">1.95907580852509</t>
@@ -674,46 +674,46 @@
     <t xml:space="preserve">1.96764576435089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9265102148056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95393395423889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93336629867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594255924225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89394462108612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87166309356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92993807792664</t>
+    <t xml:space="preserve">1.92651033401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95393407344818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93336617946625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594267845154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8939448595047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8716629743576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92993831634521</t>
   </si>
   <si>
     <t xml:space="preserve">1.90080046653748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91451263427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88708865642548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87680518627167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9179402589798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88537490367889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994910240173</t>
+    <t xml:space="preserve">1.91451251506805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88708877563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87680494785309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91794049739838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8853747844696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994886398315</t>
   </si>
   <si>
     <t xml:space="preserve">1.88880288600922</t>
@@ -722,16 +722,16 @@
     <t xml:space="preserve">1.90937054157257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90251469612122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96421778202057</t>
+    <t xml:space="preserve">1.90251457691193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96421790122986</t>
   </si>
   <si>
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821341991425</t>
+    <t xml:space="preserve">1.98821353912354</t>
   </si>
   <si>
     <t xml:space="preserve">1.98649966716766</t>
@@ -740,19 +740,19 @@
     <t xml:space="preserve">1.97964346408844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12533140182495</t>
+    <t xml:space="preserve">2.12533164024353</t>
   </si>
   <si>
     <t xml:space="preserve">2.08591032028198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05677270889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07905459403992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08076810836792</t>
+    <t xml:space="preserve">2.0567729473114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07905435562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0807683467865</t>
   </si>
   <si>
     <t xml:space="preserve">2.06534266471863</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">2.06020045280457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07219862937927</t>
+    <t xml:space="preserve">2.07219839096069</t>
   </si>
   <si>
     <t xml:space="preserve">2.13390159606934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10819220542908</t>
+    <t xml:space="preserve">2.10819172859192</t>
   </si>
   <si>
     <t xml:space="preserve">2.09962201118469</t>
@@ -782,13 +782,13 @@
     <t xml:space="preserve">2.06877040863037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11504793167114</t>
+    <t xml:space="preserve">2.11504769325256</t>
   </si>
   <si>
     <t xml:space="preserve">2.07391238212585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09790802001953</t>
+    <t xml:space="preserve">2.09790778160095</t>
   </si>
   <si>
     <t xml:space="preserve">2.11676168441772</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">2.08248209953308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06705641746521</t>
+    <t xml:space="preserve">2.06705665588379</t>
   </si>
   <si>
     <t xml:space="preserve">2.12190389633179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647773742676</t>
+    <t xml:space="preserve">2.10647797584534</t>
   </si>
   <si>
     <t xml:space="preserve">2.08933806419373</t>
@@ -812,28 +812,28 @@
     <t xml:space="preserve">2.05163073539734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17675113677979</t>
+    <t xml:space="preserve">2.17675089836121</t>
   </si>
   <si>
     <t xml:space="preserve">2.14247155189514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1321873664856</t>
+    <t xml:space="preserve">2.13218760490417</t>
   </si>
   <si>
     <t xml:space="preserve">2.13047361373901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15961098670959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11847567558289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09105229377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12361741065979</t>
+    <t xml:space="preserve">2.15961122512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11847543716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09105205535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12361764907837</t>
   </si>
   <si>
     <t xml:space="preserve">2.11161994934082</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">2.15789723396301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15618348121643</t>
+    <t xml:space="preserve">2.15618324279785</t>
   </si>
   <si>
     <t xml:space="preserve">2.1441855430603</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">2.1407573223114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14932751655579</t>
+    <t xml:space="preserve">2.14932703971863</t>
   </si>
   <si>
     <t xml:space="preserve">2.13904333114624</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">2.17503714561462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15104150772095</t>
+    <t xml:space="preserve">2.15104126930237</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">2.04820275306702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07048439979553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04991674423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12875986099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08762431144714</t>
+    <t xml:space="preserve">2.07048416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0499165058136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12875938415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08762407302856</t>
   </si>
   <si>
     <t xml:space="preserve">2.02077913284302</t>
@@ -902,16 +902,16 @@
     <t xml:space="preserve">2.0224928855896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01392316818237</t>
+    <t xml:space="preserve">2.01392292976379</t>
   </si>
   <si>
     <t xml:space="preserve">2.00535321235657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1681809425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18532061576843</t>
+    <t xml:space="preserve">2.16818118095398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18532085418701</t>
   </si>
   <si>
     <t xml:space="preserve">2.29672932624817</t>
@@ -920,19 +920,19 @@
     <t xml:space="preserve">2.33100891113281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32243895530701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35671854019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44241738319397</t>
+    <t xml:space="preserve">2.32243919372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35671830177307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44241714477539</t>
   </si>
   <si>
     <t xml:space="preserve">2.49383664131165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46812701225281</t>
+    <t xml:space="preserve">2.46812725067139</t>
   </si>
   <si>
     <t xml:space="preserve">2.47669696807861</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">2.48526692390442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53668594360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57953548431396</t>
+    <t xml:space="preserve">2.53668642044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57953572273254</t>
   </si>
   <si>
     <t xml:space="preserve">2.59667539596558</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">2.61381506919861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55382609367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63447308540344</t>
+    <t xml:space="preserve">2.55382585525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63447332382202</t>
   </si>
   <si>
     <t xml:space="preserve">2.59862995147705</t>
@@ -965,13 +965,10 @@
     <t xml:space="preserve">2.5896692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61655163764954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382585525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52694368362427</t>
+    <t xml:space="preserve">2.61655139923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52694344520569</t>
   </si>
   <si>
     <t xml:space="preserve">2.437335729599</t>
@@ -980,16 +977,16 @@
     <t xml:space="preserve">2.46421790122986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50006103515625</t>
+    <t xml:space="preserve">2.50006127357483</t>
   </si>
   <si>
     <t xml:space="preserve">2.45525717735291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54486489295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57174730300903</t>
+    <t xml:space="preserve">2.54486513137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57174754142761</t>
   </si>
   <si>
     <t xml:space="preserve">2.51798272132874</t>
@@ -1001,7 +998,7 @@
     <t xml:space="preserve">2.53590416908264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4911003112793</t>
+    <t xml:space="preserve">2.49110054969788</t>
   </si>
   <si>
     <t xml:space="preserve">2.48213958740234</t>
@@ -1019,37 +1016,37 @@
     <t xml:space="preserve">2.7599241733551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77784562110901</t>
+    <t xml:space="preserve">2.77784585952759</t>
   </si>
   <si>
     <t xml:space="preserve">2.74200248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76888465881348</t>
+    <t xml:space="preserve">2.76888513565063</t>
   </si>
   <si>
     <t xml:space="preserve">2.71512031555176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75096344947815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67031645774841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72408080101013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65239453315735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68823766708374</t>
+    <t xml:space="preserve">2.75096321105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67031621932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72408103942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65239477157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68823790550232</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719862937927</t>
+    <t xml:space="preserve">2.69719886779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1058,25 +1055,25 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83161044120789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6434338092804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62551236152649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58070826530457</t>
+    <t xml:space="preserve">2.86745381355286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83161067962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64343404769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62551259994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58070850372314</t>
   </si>
   <si>
     <t xml:space="preserve">2.607590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41941428184509</t>
+    <t xml:space="preserve">2.41941404342651</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135549545288</t>
@@ -1085,7 +1082,7 @@
     <t xml:space="preserve">2.81368899345398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84057140350342</t>
+    <t xml:space="preserve">2.840571641922</t>
   </si>
   <si>
     <t xml:space="preserve">2.93914008140564</t>
@@ -1094,7 +1091,7 @@
     <t xml:space="preserve">2.87641453742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82264995574951</t>
+    <t xml:space="preserve">2.82264971733093</t>
   </si>
   <si>
     <t xml:space="preserve">2.80472826957703</t>
@@ -1106,34 +1103,34 @@
     <t xml:space="preserve">3.12731671333313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16315984725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13627767562866</t>
+    <t xml:space="preserve">3.16315960884094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13627743721008</t>
   </si>
   <si>
     <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25276803970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172876358032</t>
+    <t xml:space="preserve">3.25276780128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172852516174</t>
   </si>
   <si>
     <t xml:space="preserve">3.28861093521118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29757189750671</t>
+    <t xml:space="preserve">3.29757165908813</t>
   </si>
   <si>
     <t xml:space="preserve">3.35133647918701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33341503143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34237551689148</t>
+    <t xml:space="preserve">3.33341479301453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34237575531006</t>
   </si>
   <si>
     <t xml:space="preserve">3.42302274703979</t>
@@ -1148,19 +1145,19 @@
     <t xml:space="preserve">3.41406202316284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36925840377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37821865081787</t>
+    <t xml:space="preserve">3.36925792694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37821888923645</t>
   </si>
   <si>
     <t xml:space="preserve">3.45886588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48574829101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47678780555725</t>
+    <t xml:space="preserve">3.4857485294342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47678756713867</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1178,16 +1175,16 @@
     <t xml:space="preserve">3.59327816963196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55743455886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52159142494202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51263070106506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53951334953308</t>
+    <t xml:space="preserve">3.55743479728699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5215916633606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51263093948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5395131111145</t>
   </si>
   <si>
     <t xml:space="preserve">3.60223865509033</t>
@@ -1196,13 +1193,13 @@
     <t xml:space="preserve">3.65600347518921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66496419906616</t>
+    <t xml:space="preserve">3.66496443748474</t>
   </si>
   <si>
     <t xml:space="preserve">3.72768974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71872901916504</t>
+    <t xml:space="preserve">3.71872925758362</t>
   </si>
   <si>
     <t xml:space="preserve">3.6918466091156</t>
@@ -1211,7 +1208,7 @@
     <t xml:space="preserve">3.70976805686951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68288612365723</t>
+    <t xml:space="preserve">3.68288588523865</t>
   </si>
   <si>
     <t xml:space="preserve">3.7635326385498</t>
@@ -1220,7 +1217,7 @@
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833697319031</t>
+    <t xml:space="preserve">3.80833721160889</t>
   </si>
   <si>
     <t xml:space="preserve">3.79041528701782</t>
@@ -1229,24 +1226,27 @@
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
+    <t xml:space="preserve">3.96067070960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97005581855774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00759744644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0920672416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81988859176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87620115280151</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97005581855774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00759744644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0920672416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81988859176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87620115280151</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.02636861801147</t>
   </si>
   <si>
@@ -2277,6 +2277,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.24000000953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27999997138977</t>
   </si>
 </sst>
 </file>
@@ -18522,7 +18525,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18548,7 +18551,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18574,7 +18577,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18600,7 +18603,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18626,7 +18629,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18652,7 +18655,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18678,7 +18681,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18704,7 +18707,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18730,7 +18733,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18756,7 +18759,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18782,7 +18785,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18808,7 +18811,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18834,7 +18837,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18860,7 +18863,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18886,7 +18889,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18912,7 +18915,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18938,7 +18941,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18964,7 +18967,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18990,7 +18993,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19016,7 +19019,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19042,7 +19045,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19068,7 +19071,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19094,7 +19097,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19120,7 +19123,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19146,7 +19149,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19172,7 +19175,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19198,7 +19201,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19224,7 +19227,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19250,7 +19253,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19276,7 +19279,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19302,7 +19305,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19328,7 +19331,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19354,7 +19357,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19380,7 +19383,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19406,7 +19409,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19432,7 +19435,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19458,7 +19461,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19484,7 +19487,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19510,7 +19513,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19536,7 +19539,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19588,7 +19591,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19640,7 +19643,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19666,7 +19669,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19692,7 +19695,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19718,7 +19721,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19744,7 +19747,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19770,7 +19773,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19796,7 +19799,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19822,7 +19825,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19848,7 +19851,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19874,7 +19877,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19900,7 +19903,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19926,7 +19929,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19952,7 +19955,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19978,7 +19981,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20030,7 +20033,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20056,7 +20059,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20082,7 +20085,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20108,7 +20111,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20134,7 +20137,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20160,7 +20163,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20186,7 +20189,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20212,7 +20215,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20238,7 +20241,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20264,7 +20267,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20290,7 +20293,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20316,7 +20319,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20342,7 +20345,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20368,7 +20371,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20394,7 +20397,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20420,7 +20423,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20446,7 +20449,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20472,7 +20475,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20498,7 +20501,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20524,7 +20527,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20550,7 +20553,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20576,7 +20579,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20602,7 +20605,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20628,7 +20631,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20654,7 +20657,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20680,7 +20683,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20706,7 +20709,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20732,7 +20735,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20758,7 +20761,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20784,7 +20787,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20810,7 +20813,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20836,7 +20839,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20862,7 +20865,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20888,7 +20891,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20914,7 +20917,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20940,7 +20943,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20966,7 +20969,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20992,7 +20995,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21044,7 +21047,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21070,7 +21073,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21096,7 +21099,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21122,7 +21125,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21252,7 +21255,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21278,7 +21281,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21304,7 +21307,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21486,7 +21489,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21590,7 +21593,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21694,7 +21697,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21720,7 +21723,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21746,7 +21749,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21772,7 +21775,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21798,7 +21801,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21824,7 +21827,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21850,7 +21853,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21876,7 +21879,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21902,7 +21905,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21928,7 +21931,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21954,7 +21957,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21980,7 +21983,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22006,7 +22009,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22032,7 +22035,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22058,7 +22061,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22084,7 +22087,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22110,7 +22113,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22136,7 +22139,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22162,7 +22165,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22188,7 +22191,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22214,7 +22217,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22240,7 +22243,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22266,7 +22269,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22292,7 +22295,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22318,7 +22321,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22344,7 +22347,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G759" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22370,7 +22373,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G760" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22396,7 +22399,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G761" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22422,7 +22425,7 @@
         <v>2.75</v>
       </c>
       <c r="G762" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22448,7 +22451,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G763" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22474,7 +22477,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G764" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22500,7 +22503,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G765" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22552,7 +22555,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G767" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22578,7 +22581,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G768" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22604,7 +22607,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22630,7 +22633,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G770" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22656,7 +22659,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G771" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22682,7 +22685,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22708,7 +22711,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22734,7 +22737,7 @@
         <v>3</v>
       </c>
       <c r="G774" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22760,7 +22763,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22786,7 +22789,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G776" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22812,7 +22815,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G777" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22838,7 +22841,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G778" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22864,7 +22867,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22890,7 +22893,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22916,7 +22919,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G781" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22942,7 +22945,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G782" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22968,7 +22971,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22994,7 +22997,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G784" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23020,7 +23023,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G785" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23046,7 +23049,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23072,7 +23075,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G787" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23098,7 +23101,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23124,7 +23127,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G789" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23150,7 +23153,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G790" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23176,7 +23179,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G791" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23202,7 +23205,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G792" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23228,7 +23231,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G793" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23254,7 +23257,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23280,7 +23283,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G795" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23306,7 +23309,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23332,7 +23335,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G797" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23358,7 +23361,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G798" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23384,7 +23387,7 @@
         <v>3.5</v>
       </c>
       <c r="G799" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23410,7 +23413,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23436,7 +23439,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G801" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23462,7 +23465,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G802" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23488,7 +23491,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23514,7 +23517,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G804" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23540,7 +23543,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23566,7 +23569,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G806" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23592,7 +23595,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23618,7 +23621,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23644,7 +23647,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G809" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23670,7 +23673,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G810" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23696,7 +23699,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G811" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23722,7 +23725,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23748,7 +23751,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G813" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23774,7 +23777,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23800,7 +23803,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G815" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23826,7 +23829,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G816" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23852,7 +23855,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G817" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23878,7 +23881,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G818" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23904,7 +23907,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G819" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23930,7 +23933,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G820" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23956,7 +23959,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G821" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23982,7 +23985,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G822" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24008,7 +24011,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G823" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24034,7 +24037,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24060,7 +24063,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24086,7 +24089,7 @@
         <v>4</v>
       </c>
       <c r="G826" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24112,7 +24115,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G827" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24138,7 +24141,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G828" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24164,7 +24167,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24190,7 +24193,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G830" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24216,7 +24219,7 @@
         <v>4</v>
       </c>
       <c r="G831" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24242,7 +24245,7 @@
         <v>4</v>
       </c>
       <c r="G832" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24268,7 +24271,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G833" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24294,7 +24297,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24320,7 +24323,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24346,7 +24349,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G836" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24372,7 +24375,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24398,7 +24401,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G838" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24424,7 +24427,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G839" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24450,7 +24453,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24476,7 +24479,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G841" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24502,7 +24505,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24528,7 +24531,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24554,7 +24557,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G844" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24580,7 +24583,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G845" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24606,7 +24609,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G846" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24632,7 +24635,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24658,7 +24661,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24684,7 +24687,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G849" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24710,7 +24713,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24736,7 +24739,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G851" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24762,7 +24765,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24788,7 +24791,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G853" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24814,7 +24817,7 @@
         <v>4.25</v>
       </c>
       <c r="G854" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24840,7 +24843,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24866,7 +24869,7 @@
         <v>4.25</v>
       </c>
       <c r="G856" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24892,7 +24895,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G857" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24918,7 +24921,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24944,7 +24947,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G859" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24970,7 +24973,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24996,7 +24999,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G861" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25022,7 +25025,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G862" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25048,7 +25051,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G863" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25074,7 +25077,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G864" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25100,7 +25103,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25152,7 +25155,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G867" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25256,7 +25259,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G871" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25308,7 +25311,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25438,7 +25441,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G878" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25802,7 +25805,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25880,7 +25883,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G895" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26114,7 +26117,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G904" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -30300,7 +30303,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1065" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30586,7 +30589,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1076" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30612,7 +30615,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1077" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30846,7 +30849,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1086" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31210,7 +31213,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1100" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31314,7 +31317,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1104" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32822,7 +32825,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1162" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32848,7 +32851,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1163" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33290,7 +33293,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1180" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33420,7 +33423,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33628,7 +33631,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1193" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -58357,6 +58360,58 @@
         <v>754</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.2916666667</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>754</v>
+      </c>
+      <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6493865741</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>755</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">1.9132376909256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92109191417694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88496315479279</t>
+    <t xml:space="preserve">1.92109167575836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88496327400208</t>
   </si>
   <si>
     <t xml:space="preserve">1.92423319816589</t>
@@ -59,22 +59,22 @@
     <t xml:space="preserve">1.80642306804657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82998478412628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79856896400452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76715278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354685783386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86925554275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87710905075073</t>
+    <t xml:space="preserve">1.82998490333557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79856884479523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76715302467346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354697704315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86925506591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87710916996002</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281725883484</t>
@@ -86,43 +86,43 @@
     <t xml:space="preserve">1.81584787368774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83783888816833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87553811073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82684326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84569299221039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81898927688599</t>
+    <t xml:space="preserve">1.83783900737762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87553822994232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82684361934662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84569311141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81898939609528</t>
   </si>
   <si>
     <t xml:space="preserve">1.83626818656921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85983026027679</t>
+    <t xml:space="preserve">1.85983037948608</t>
   </si>
   <si>
     <t xml:space="preserve">1.80485212802887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82056021690369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81741869449615</t>
+    <t xml:space="preserve">1.82056033611298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81741833686829</t>
   </si>
   <si>
     <t xml:space="preserve">1.85040545463562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88025081157684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81427693367004</t>
+    <t xml:space="preserve">1.88025057315826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81427681446075</t>
   </si>
   <si>
     <t xml:space="preserve">1.85197627544403</t>
@@ -131,40 +131,40 @@
     <t xml:space="preserve">1.84412240982056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84098064899445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82370173931122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8111355304718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82213079929352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679964542389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94622433185577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407819747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350312232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9650741815567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99334859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00434398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98706531524658</t>
+    <t xml:space="preserve">1.84098052978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82370185852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81113529205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82213091850281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679976463318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94622445106506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407807826996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96350347995758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507406234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99334836006165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00434422492981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.987065076828</t>
   </si>
   <si>
     <t xml:space="preserve">2.00905656814575</t>
@@ -173,19 +173,19 @@
     <t xml:space="preserve">2.02476453781128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93051636219025</t>
+    <t xml:space="preserve">1.93051648139954</t>
   </si>
   <si>
     <t xml:space="preserve">1.9619323015213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93994116783142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564925670624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637885570526</t>
+    <t xml:space="preserve">1.93994128704071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564901828766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637921333313</t>
   </si>
   <si>
     <t xml:space="preserve">1.87396728992462</t>
@@ -194,19 +194,19 @@
     <t xml:space="preserve">1.93378698825836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95017564296722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92231559753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050956726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509147644043</t>
+    <t xml:space="preserve">1.95017516613007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9223153591156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050968647003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656334400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509135723114</t>
   </si>
   <si>
     <t xml:space="preserve">1.95836925506592</t>
@@ -218,79 +218,79 @@
     <t xml:space="preserve">1.93542587757111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9419811964035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248285770416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084408760071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83545911312103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80268275737762</t>
+    <t xml:space="preserve">1.94198107719421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248309612274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084396839142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83545899391174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8026829957962</t>
   </si>
   <si>
     <t xml:space="preserve">1.84201419353485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83218133449554</t>
+    <t xml:space="preserve">1.83218145370483</t>
   </si>
   <si>
     <t xml:space="preserve">1.88298428058624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86823523044586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9075665473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281713962555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592741966248</t>
+    <t xml:space="preserve">1.86823511123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90756618976593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281690120697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90592777729034</t>
   </si>
   <si>
     <t xml:space="preserve">1.88462316989899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90920495986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151277065277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89773344993591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82398760318756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75843524932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76662909984589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7862948179245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77646219730377</t>
+    <t xml:space="preserve">1.90920507907867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87151265144348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8977335691452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82398736476898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75843513011932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76662921905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78629493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77646195888519</t>
   </si>
   <si>
     <t xml:space="preserve">1.75187993049622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75351905822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77973985671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75024116039276</t>
+    <t xml:space="preserve">1.75351893901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77973973751068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75024127960205</t>
   </si>
   <si>
     <t xml:space="preserve">1.72074270248413</t>
@@ -299,13 +299,13 @@
     <t xml:space="preserve">1.66993999481201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72893667221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69616067409515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76007401943207</t>
+    <t xml:space="preserve">1.72893679141998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69616079330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76007413864136</t>
   </si>
   <si>
     <t xml:space="preserve">1.70435476303101</t>
@@ -317,19 +317,19 @@
     <t xml:space="preserve">1.73385322093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71254861354828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63060879707336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67157864570618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66666221618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61012363433838</t>
+    <t xml:space="preserve">1.71254873275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63060867786407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67157876491547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66666233539581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61012375354767</t>
   </si>
   <si>
     <t xml:space="preserve">1.62241470813751</t>
@@ -338,16 +338,16 @@
     <t xml:space="preserve">1.6633847951889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67321765422821</t>
+    <t xml:space="preserve">1.67321753501892</t>
   </si>
   <si>
     <t xml:space="preserve">1.64535784721375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63880264759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62569212913513</t>
+    <t xml:space="preserve">1.63880276679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62569224834442</t>
   </si>
   <si>
     <t xml:space="preserve">1.66830110549927</t>
@@ -362,13 +362,13 @@
     <t xml:space="preserve">1.63798320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59865188598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62978911399841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58308339118958</t>
+    <t xml:space="preserve">1.59865212440491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62978935241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58308351039886</t>
   </si>
   <si>
     <t xml:space="preserve">1.59537446498871</t>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">1.54047453403473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56751477718353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56997287273407</t>
+    <t xml:space="preserve">1.56751465797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56997299194336</t>
   </si>
   <si>
     <t xml:space="preserve">1.56669533252716</t>
@@ -398,55 +398,55 @@
     <t xml:space="preserve">1.6027489900589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60356855392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6060266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51917004585266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56177890300751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54539096355438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37659418582916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41264796257019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39462101459503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45771491527557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47082543373108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53391933441162</t>
+    <t xml:space="preserve">1.60356831550598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60602653026581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51916992664337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5617790222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54539108276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37659406661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4126478433609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39462113380432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45771503448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47082531452179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53391921520233</t>
   </si>
   <si>
     <t xml:space="preserve">1.61258184909821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61176240444183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59783267974854</t>
+    <t xml:space="preserve">1.61176252365112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59783256053925</t>
   </si>
   <si>
     <t xml:space="preserve">1.54211330413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51179540157318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55522394180298</t>
+    <t xml:space="preserve">1.51179563999176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5552237033844</t>
   </si>
   <si>
     <t xml:space="preserve">1.56505656242371</t>
@@ -455,34 +455,34 @@
     <t xml:space="preserve">1.56423723697662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59291625022888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55686259269714</t>
+    <t xml:space="preserve">1.59291613101959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55686247348785</t>
   </si>
   <si>
     <t xml:space="preserve">1.52162826061249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5412939786911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5044207572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51097619533539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55112671852112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51589238643646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55194628238678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50851786136627</t>
+    <t xml:space="preserve">1.54129385948181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50442087650299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51097595691681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55112683773041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51589250564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55194616317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50851774215698</t>
   </si>
   <si>
     <t xml:space="preserve">1.53228056430817</t>
@@ -494,31 +494,31 @@
     <t xml:space="preserve">1.50769853591919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50278198719025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49540746212006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51015675067902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57325053215027</t>
+    <t xml:space="preserve">1.50278210639954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49540758132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51015663146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57325041294098</t>
   </si>
   <si>
     <t xml:space="preserve">1.58554148674011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59455513954163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60684597492218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62159538269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57161164283752</t>
+    <t xml:space="preserve">1.59455490112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60684585571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62159526348114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57161176204681</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375207424164</t>
@@ -527,46 +527,46 @@
     <t xml:space="preserve">1.57243120670319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58718025684357</t>
+    <t xml:space="preserve">1.58718037605286</t>
   </si>
   <si>
     <t xml:space="preserve">1.54621028900146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55768191814423</t>
+    <t xml:space="preserve">1.55768203735352</t>
   </si>
   <si>
     <t xml:space="preserve">1.58799982070923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5347386598587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58226406574249</t>
+    <t xml:space="preserve">1.53473877906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5822639465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.54702973365784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53883576393127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54784917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55276548862457</t>
+    <t xml:space="preserve">1.53883564472198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54784905910492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55276560783386</t>
   </si>
   <si>
     <t xml:space="preserve">1.54948794841766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5380163192749</t>
+    <t xml:space="preserve">1.53801620006561</t>
   </si>
   <si>
     <t xml:space="preserve">1.54866850376129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53637742996216</t>
+    <t xml:space="preserve">1.53637754917145</t>
   </si>
   <si>
     <t xml:space="preserve">1.53965508937836</t>
@@ -581,13 +581,13 @@
     <t xml:space="preserve">1.69288313388824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65355169773102</t>
+    <t xml:space="preserve">1.65355181694031</t>
   </si>
   <si>
     <t xml:space="preserve">1.82070958614349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82890379428864</t>
+    <t xml:space="preserve">1.82890391349792</t>
   </si>
   <si>
     <t xml:space="preserve">1.81743216514587</t>
@@ -596,34 +596,34 @@
     <t xml:space="preserve">1.81579351425171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87970626354218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79448890686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80104398727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73876965045929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72729814052582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74696350097656</t>
+    <t xml:space="preserve">1.87970650196075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79448914527893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80104434490204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73876953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72729790210724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74696362018585</t>
   </si>
   <si>
     <t xml:space="preserve">1.76335167884827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8469306230545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81087720394135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80923807621002</t>
+    <t xml:space="preserve">1.84693050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81087696552277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923819541931</t>
   </si>
   <si>
     <t xml:space="preserve">1.81251573562622</t>
@@ -632,37 +632,37 @@
     <t xml:space="preserve">1.86167991161346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86495769023895</t>
+    <t xml:space="preserve">1.86495745182037</t>
   </si>
   <si>
     <t xml:space="preserve">1.85840213298798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87642896175385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89937233924866</t>
+    <t xml:space="preserve">1.87642908096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89937245845795</t>
   </si>
   <si>
     <t xml:space="preserve">1.84856951236725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92479622364044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679416179657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93850839138031</t>
+    <t xml:space="preserve">1.92479634284973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679404258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93850803375244</t>
   </si>
   <si>
     <t xml:space="preserve">1.97107374668121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92822432518005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94193625450134</t>
+    <t xml:space="preserve">1.92822444438934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94193613529205</t>
   </si>
   <si>
     <t xml:space="preserve">1.94365000724792</t>
@@ -671,88 +671,88 @@
     <t xml:space="preserve">1.95907580852509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96764576435089</t>
+    <t xml:space="preserve">1.96764588356018</t>
   </si>
   <si>
     <t xml:space="preserve">1.92651033401489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95393407344818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93336617946625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594267845154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8939448595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8716629743576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92993831634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080046653748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91451251506805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88708877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87680494785309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91794049739838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8853747844696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994886398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88880288600922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90937054157257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90251457691193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96421790122986</t>
+    <t xml:space="preserve">1.95393395423889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93336629867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594255924225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89394474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87166309356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92993819713593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080058574677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91451263427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88708865642548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87680518627167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9179402589798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88537490367889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994910240173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88880276679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90937042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90251469612122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96421778202057</t>
   </si>
   <si>
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821353912354</t>
+    <t xml:space="preserve">1.98821341991425</t>
   </si>
   <si>
     <t xml:space="preserve">1.98649966716766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97964346408844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12533164024353</t>
+    <t xml:space="preserve">1.97964334487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12533140182495</t>
   </si>
   <si>
     <t xml:space="preserve">2.08591032028198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0567729473114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07905435562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0807683467865</t>
+    <t xml:space="preserve">2.05677270889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07905459403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08076786994934</t>
   </si>
   <si>
     <t xml:space="preserve">2.06534266471863</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">2.06020045280457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07219839096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13390159606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10819172859192</t>
+    <t xml:space="preserve">2.07219862937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13390135765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1081919670105</t>
   </si>
   <si>
     <t xml:space="preserve">2.09962201118469</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">2.11504769325256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07391238212585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09790778160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11676168441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08248209953308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705665588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12190389633179</t>
+    <t xml:space="preserve">2.07391214370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09790802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1167619228363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08248233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705617904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12190365791321</t>
   </si>
   <si>
     <t xml:space="preserve">2.10647797584534</t>
@@ -809,28 +809,28 @@
     <t xml:space="preserve">2.08933806419373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05163073539734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17675089836121</t>
+    <t xml:space="preserve">2.05163049697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17675113677979</t>
   </si>
   <si>
     <t xml:space="preserve">2.14247155189514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13218760490417</t>
+    <t xml:space="preserve">2.1321873664856</t>
   </si>
   <si>
     <t xml:space="preserve">2.13047361373901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15961122512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11847543716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09105205535889</t>
+    <t xml:space="preserve">2.15961098670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11847567558289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09105229377747</t>
   </si>
   <si>
     <t xml:space="preserve">2.12361764907837</t>
@@ -854,16 +854,16 @@
     <t xml:space="preserve">2.1407573223114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14932703971863</t>
+    <t xml:space="preserve">2.14932727813721</t>
   </si>
   <si>
     <t xml:space="preserve">2.13904333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17503714561462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15104126930237</t>
+    <t xml:space="preserve">2.17503690719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15104150772095</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">2.04820275306702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07048416137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0499165058136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12875938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08762407302856</t>
+    <t xml:space="preserve">2.07048439979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04991674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12875986099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08762431144714</t>
   </si>
   <si>
     <t xml:space="preserve">2.02077913284302</t>
@@ -902,49 +902,49 @@
     <t xml:space="preserve">2.0224928855896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01392292976379</t>
+    <t xml:space="preserve">2.01392316818237</t>
   </si>
   <si>
     <t xml:space="preserve">2.00535321235657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16818118095398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18532085418701</t>
+    <t xml:space="preserve">2.1681809425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18532061576843</t>
   </si>
   <si>
     <t xml:space="preserve">2.29672932624817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33100891113281</t>
+    <t xml:space="preserve">2.33100914955139</t>
   </si>
   <si>
     <t xml:space="preserve">2.32243919372559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35671830177307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44241714477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49383664131165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46812725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47669696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48526692390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53668642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57953572273254</t>
+    <t xml:space="preserve">2.35671854019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44241738319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49383687973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46812701225281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47669720649719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48526668548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53668618202209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57953548431396</t>
   </si>
   <si>
     <t xml:space="preserve">2.59667539596558</t>
@@ -953,22 +953,25 @@
     <t xml:space="preserve">2.61381506919861</t>
   </si>
   <si>
+    <t xml:space="preserve">2.55382609367371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63447308540344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59862995147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5896692276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61655163764954</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.55382585525513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63447332382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59862995147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5896692276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61655139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52694344520569</t>
+    <t xml:space="preserve">2.52694368362427</t>
   </si>
   <si>
     <t xml:space="preserve">2.437335729599</t>
@@ -977,16 +980,16 @@
     <t xml:space="preserve">2.46421790122986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50006127357483</t>
+    <t xml:space="preserve">2.50006103515625</t>
   </si>
   <si>
     <t xml:space="preserve">2.45525717735291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54486513137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57174754142761</t>
+    <t xml:space="preserve">2.54486489295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57174730300903</t>
   </si>
   <si>
     <t xml:space="preserve">2.51798272132874</t>
@@ -998,7 +1001,7 @@
     <t xml:space="preserve">2.53590416908264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49110054969788</t>
+    <t xml:space="preserve">2.4911003112793</t>
   </si>
   <si>
     <t xml:space="preserve">2.48213958740234</t>
@@ -1016,37 +1019,37 @@
     <t xml:space="preserve">2.7599241733551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77784585952759</t>
+    <t xml:space="preserve">2.77784562110901</t>
   </si>
   <si>
     <t xml:space="preserve">2.74200248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76888513565063</t>
+    <t xml:space="preserve">2.76888465881348</t>
   </si>
   <si>
     <t xml:space="preserve">2.71512031555176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75096321105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67031621932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72408103942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65239477157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68823790550232</t>
+    <t xml:space="preserve">2.75096344947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67031645774841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72408080101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65239453315735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68823766708374</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719886779785</t>
+    <t xml:space="preserve">2.69719862937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1055,25 +1058,25 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745381355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83161067962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64343404769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62551259994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58070850372314</t>
+    <t xml:space="preserve">2.86745357513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83161044120789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6434338092804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62551236152649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58070826530457</t>
   </si>
   <si>
     <t xml:space="preserve">2.607590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41941404342651</t>
+    <t xml:space="preserve">2.41941428184509</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135549545288</t>
@@ -1082,7 +1085,7 @@
     <t xml:space="preserve">2.81368899345398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.840571641922</t>
+    <t xml:space="preserve">2.84057140350342</t>
   </si>
   <si>
     <t xml:space="preserve">2.93914008140564</t>
@@ -1091,7 +1094,7 @@
     <t xml:space="preserve">2.87641453742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82264971733093</t>
+    <t xml:space="preserve">2.82264995574951</t>
   </si>
   <si>
     <t xml:space="preserve">2.80472826957703</t>
@@ -1103,34 +1106,34 @@
     <t xml:space="preserve">3.12731671333313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16315960884094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13627743721008</t>
+    <t xml:space="preserve">3.16315984725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13627767562866</t>
   </si>
   <si>
     <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25276780128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172852516174</t>
+    <t xml:space="preserve">3.25276803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172876358032</t>
   </si>
   <si>
     <t xml:space="preserve">3.28861093521118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29757165908813</t>
+    <t xml:space="preserve">3.29757189750671</t>
   </si>
   <si>
     <t xml:space="preserve">3.35133647918701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33341479301453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34237575531006</t>
+    <t xml:space="preserve">3.33341503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34237551689148</t>
   </si>
   <si>
     <t xml:space="preserve">3.42302274703979</t>
@@ -1145,19 +1148,19 @@
     <t xml:space="preserve">3.41406202316284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36925792694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37821888923645</t>
+    <t xml:space="preserve">3.36925840377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37821865081787</t>
   </si>
   <si>
     <t xml:space="preserve">3.45886588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4857485294342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47678756713867</t>
+    <t xml:space="preserve">3.48574829101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47678780555725</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1175,16 +1178,16 @@
     <t xml:space="preserve">3.59327816963196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55743479728699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5215916633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51263093948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5395131111145</t>
+    <t xml:space="preserve">3.55743455886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52159142494202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51263070106506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53951334953308</t>
   </si>
   <si>
     <t xml:space="preserve">3.60223865509033</t>
@@ -1193,13 +1196,13 @@
     <t xml:space="preserve">3.65600347518921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66496443748474</t>
+    <t xml:space="preserve">3.66496419906616</t>
   </si>
   <si>
     <t xml:space="preserve">3.72768974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71872925758362</t>
+    <t xml:space="preserve">3.71872901916504</t>
   </si>
   <si>
     <t xml:space="preserve">3.6918466091156</t>
@@ -1208,7 +1211,7 @@
     <t xml:space="preserve">3.70976805686951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68288588523865</t>
+    <t xml:space="preserve">3.68288612365723</t>
   </si>
   <si>
     <t xml:space="preserve">3.7635326385498</t>
@@ -1217,7 +1220,7 @@
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833721160889</t>
+    <t xml:space="preserve">3.80833697319031</t>
   </si>
   <si>
     <t xml:space="preserve">3.79041528701782</t>
@@ -1226,7 +1229,7 @@
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067070960999</t>
+    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">3.97005581855774</t>
@@ -1242,9 +1245,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">4.02636861801147</t>
@@ -18525,7 +18525,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18551,7 +18551,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18577,7 +18577,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18603,7 +18603,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18629,7 +18629,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18655,7 +18655,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18681,7 +18681,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18707,7 +18707,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18733,7 +18733,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18759,7 +18759,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18785,7 +18785,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18811,7 +18811,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18837,7 +18837,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18863,7 +18863,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18889,7 +18889,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18915,7 +18915,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18941,7 +18941,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18967,7 +18967,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18993,7 +18993,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19019,7 +19019,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19045,7 +19045,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19071,7 +19071,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19097,7 +19097,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19123,7 +19123,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19149,7 +19149,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19175,7 +19175,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19201,7 +19201,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19227,7 +19227,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19253,7 +19253,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19279,7 +19279,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19305,7 +19305,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19331,7 +19331,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19357,7 +19357,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19383,7 +19383,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19409,7 +19409,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19435,7 +19435,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19461,7 +19461,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19487,7 +19487,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19513,7 +19513,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19539,7 +19539,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19591,7 +19591,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19643,7 +19643,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19669,7 +19669,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19695,7 +19695,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19721,7 +19721,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19747,7 +19747,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19773,7 +19773,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19799,7 +19799,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19825,7 +19825,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19851,7 +19851,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19877,7 +19877,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19903,7 +19903,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19929,7 +19929,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19955,7 +19955,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19981,7 +19981,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20033,7 +20033,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20059,7 +20059,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20085,7 +20085,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20111,7 +20111,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20137,7 +20137,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20163,7 +20163,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20189,7 +20189,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20215,7 +20215,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20241,7 +20241,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20267,7 +20267,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20293,7 +20293,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20319,7 +20319,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20345,7 +20345,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20371,7 +20371,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20397,7 +20397,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20423,7 +20423,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20449,7 +20449,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20475,7 +20475,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20501,7 +20501,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20527,7 +20527,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20553,7 +20553,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20579,7 +20579,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20605,7 +20605,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20631,7 +20631,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20657,7 +20657,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20683,7 +20683,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20709,7 +20709,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20735,7 +20735,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20761,7 +20761,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20787,7 +20787,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20813,7 +20813,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20839,7 +20839,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20865,7 +20865,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20891,7 +20891,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20917,7 +20917,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20943,7 +20943,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20969,7 +20969,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20995,7 +20995,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21047,7 +21047,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21073,7 +21073,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21099,7 +21099,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21125,7 +21125,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21255,7 +21255,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21281,7 +21281,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21307,7 +21307,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21489,7 +21489,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21593,7 +21593,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21697,7 +21697,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21723,7 +21723,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21749,7 +21749,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21775,7 +21775,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21801,7 +21801,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21827,7 +21827,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21853,7 +21853,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21879,7 +21879,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21905,7 +21905,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21931,7 +21931,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21957,7 +21957,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21983,7 +21983,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22009,7 +22009,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22035,7 +22035,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22061,7 +22061,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22087,7 +22087,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22113,7 +22113,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22139,7 +22139,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22165,7 +22165,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22191,7 +22191,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22217,7 +22217,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22243,7 +22243,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22269,7 +22269,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22295,7 +22295,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22321,7 +22321,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22347,7 +22347,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G759" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22373,7 +22373,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G760" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22399,7 +22399,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G761" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22425,7 +22425,7 @@
         <v>2.75</v>
       </c>
       <c r="G762" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22451,7 +22451,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G763" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22477,7 +22477,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G764" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22503,7 +22503,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22555,7 +22555,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G767" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22581,7 +22581,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G768" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22607,7 +22607,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22633,7 +22633,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G770" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22659,7 +22659,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G771" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22685,7 +22685,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22711,7 +22711,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22737,7 +22737,7 @@
         <v>3</v>
       </c>
       <c r="G774" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22763,7 +22763,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22789,7 +22789,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G776" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22815,7 +22815,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G777" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22841,7 +22841,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G778" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22867,7 +22867,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22893,7 +22893,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22919,7 +22919,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G781" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22945,7 +22945,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G782" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22971,7 +22971,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22997,7 +22997,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G784" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23023,7 +23023,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G785" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23049,7 +23049,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23075,7 +23075,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G787" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23101,7 +23101,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23127,7 +23127,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G789" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23153,7 +23153,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G790" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23179,7 +23179,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G791" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23205,7 +23205,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G792" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23231,7 +23231,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G793" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23257,7 +23257,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23283,7 +23283,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G795" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23309,7 +23309,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23335,7 +23335,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G797" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23361,7 +23361,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G798" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23387,7 +23387,7 @@
         <v>3.5</v>
       </c>
       <c r="G799" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23413,7 +23413,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23439,7 +23439,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G801" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23465,7 +23465,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G802" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23491,7 +23491,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23517,7 +23517,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G804" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23543,7 +23543,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23569,7 +23569,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23595,7 +23595,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23621,7 +23621,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23647,7 +23647,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G809" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23673,7 +23673,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23699,7 +23699,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G811" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23725,7 +23725,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23751,7 +23751,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G813" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23777,7 +23777,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23803,7 +23803,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G815" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23829,7 +23829,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23855,7 +23855,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G817" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23881,7 +23881,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G818" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23907,7 +23907,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G819" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23933,7 +23933,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G820" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23959,7 +23959,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G821" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23985,7 +23985,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G822" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24011,7 +24011,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G823" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24037,7 +24037,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24063,7 +24063,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24089,7 +24089,7 @@
         <v>4</v>
       </c>
       <c r="G826" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24115,7 +24115,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G827" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24141,7 +24141,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G828" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24167,7 +24167,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24193,7 +24193,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G830" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24219,7 +24219,7 @@
         <v>4</v>
       </c>
       <c r="G831" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24245,7 +24245,7 @@
         <v>4</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24271,7 +24271,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G833" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24297,7 +24297,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24323,7 +24323,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24349,7 +24349,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G836" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24375,7 +24375,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24401,7 +24401,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G838" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24427,7 +24427,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G839" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24453,7 +24453,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24479,7 +24479,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G841" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24505,7 +24505,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24531,7 +24531,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24557,7 +24557,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G844" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24583,7 +24583,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G845" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24609,7 +24609,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G846" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24635,7 +24635,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24661,7 +24661,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24687,7 +24687,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G849" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24713,7 +24713,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24739,7 +24739,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G851" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24765,7 +24765,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24791,7 +24791,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G853" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24817,7 +24817,7 @@
         <v>4.25</v>
       </c>
       <c r="G854" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24843,7 +24843,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24869,7 +24869,7 @@
         <v>4.25</v>
       </c>
       <c r="G856" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24895,7 +24895,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G857" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24921,7 +24921,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24947,7 +24947,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G859" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24973,7 +24973,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24999,7 +24999,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G861" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25025,7 +25025,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G862" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25051,7 +25051,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G863" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25077,7 +25077,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G864" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25103,7 +25103,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25155,7 +25155,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G867" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25259,7 +25259,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G871" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25311,7 +25311,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25441,7 +25441,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G878" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25805,7 +25805,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25883,7 +25883,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G895" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26117,7 +26117,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G904" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -30303,7 +30303,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1065" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30589,7 +30589,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1076" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30615,7 +30615,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1077" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30849,7 +30849,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1086" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31213,7 +31213,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1100" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31317,7 +31317,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1104" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32825,7 +32825,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1162" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32851,7 +32851,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1163" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33293,7 +33293,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1180" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33423,7 +33423,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33631,7 +33631,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1193" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -58391,13 +58391,13 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6493865741</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>1215</v>
       </c>
       <c r="C2146" t="n">
-        <v>2.24000000953674</v>
+        <v>2.27999997138977</v>
       </c>
       <c r="D2146" t="n">
         <v>2.24000000953674</v>
@@ -58412,6 +58412,32 @@
         <v>755</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.5144907407</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>45</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>755</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -44,58 +44,58 @@
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9132376909256</t>
+    <t xml:space="preserve">1.91323757171631</t>
   </si>
   <si>
     <t xml:space="preserve">1.92109167575836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88496327400208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92423343658447</t>
+    <t xml:space="preserve">1.8849630355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9242330789566</t>
   </si>
   <si>
     <t xml:space="preserve">1.80642306804657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82998478412628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79856908321381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76715278625488</t>
+    <t xml:space="preserve">1.82998502254486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79856884479523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76715290546417</t>
   </si>
   <si>
     <t xml:space="preserve">1.85354697704315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86925506591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87710916996002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281713962555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86768436431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584751605988</t>
+    <t xml:space="preserve">1.86925518512726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87710905075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281725883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86768400669098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584775447845</t>
   </si>
   <si>
     <t xml:space="preserve">1.83783900737762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87553799152374</t>
+    <t xml:space="preserve">1.87553822994232</t>
   </si>
   <si>
     <t xml:space="preserve">1.82684326171875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84569275379181</t>
+    <t xml:space="preserve">1.8456928730011</t>
   </si>
   <si>
     <t xml:space="preserve">1.81898927688599</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">1.80485212802887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82056033611298</t>
+    <t xml:space="preserve">1.82056045532227</t>
   </si>
   <si>
     <t xml:space="preserve">1.81741845607758</t>
@@ -119,13 +119,13 @@
     <t xml:space="preserve">1.85040545463562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88025081157684</t>
+    <t xml:space="preserve">1.88025057315826</t>
   </si>
   <si>
     <t xml:space="preserve">1.81427693367004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85197627544403</t>
+    <t xml:space="preserve">1.85197615623474</t>
   </si>
   <si>
     <t xml:space="preserve">1.84412217140198</t>
@@ -134,22 +134,22 @@
     <t xml:space="preserve">1.84098064899445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82370185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81113529205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8221310377121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679976463318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94622421264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407831668854</t>
+    <t xml:space="preserve">1.82370162010193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81113541126251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82213091850281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679964542389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94622457027435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407819747925</t>
   </si>
   <si>
     <t xml:space="preserve">1.96350336074829</t>
@@ -158,37 +158,37 @@
     <t xml:space="preserve">1.9650741815567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99334859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00434398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98706543445587</t>
+    <t xml:space="preserve">1.99334836006165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00434422492981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98706531524658</t>
   </si>
   <si>
     <t xml:space="preserve">2.00905656814575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02476477622986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051612377167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96193218231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994128704071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564901828766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637909412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87396717071533</t>
+    <t xml:space="preserve">2.02476453781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051636219025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9619323015213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564925670624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637885570526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87396764755249</t>
   </si>
   <si>
     <t xml:space="preserve">1.93378710746765</t>
@@ -197,25 +197,25 @@
     <t xml:space="preserve">1.95017540454865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92231571674347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050956726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656334400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95836925506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91739904880524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93542587757111</t>
+    <t xml:space="preserve">1.92231559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050968647003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509171485901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9583694934845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91739916801453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9354259967804</t>
   </si>
   <si>
     <t xml:space="preserve">1.9419811964035</t>
@@ -227,25 +227,25 @@
     <t xml:space="preserve">1.91084396839142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83545899391174</t>
+    <t xml:space="preserve">1.83545887470245</t>
   </si>
   <si>
     <t xml:space="preserve">1.80268287658691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84201431274414</t>
+    <t xml:space="preserve">1.84201419353485</t>
   </si>
   <si>
     <t xml:space="preserve">1.83218145370483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88298428058624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86823511123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9075665473938</t>
+    <t xml:space="preserve">1.88298416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86823523044586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90756630897522</t>
   </si>
   <si>
     <t xml:space="preserve">1.90592765808105</t>
@@ -254,10 +254,10 @@
     <t xml:space="preserve">1.88462316989899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90920519828796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151265144348</t>
+    <t xml:space="preserve">1.90920507907867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87151253223419</t>
   </si>
   <si>
     <t xml:space="preserve">1.89773333072662</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">1.82398748397827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7584353685379</t>
+    <t xml:space="preserve">1.75843524932861</t>
   </si>
   <si>
     <t xml:space="preserve">1.76662921905518</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">1.78629493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77646207809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75187993049622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75351893901825</t>
+    <t xml:space="preserve">1.77646219730377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75188004970551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75351905822754</t>
   </si>
   <si>
     <t xml:space="preserve">1.77973985671997</t>
@@ -293,25 +293,25 @@
     <t xml:space="preserve">1.72074282169342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6699401140213</t>
+    <t xml:space="preserve">1.66993999481201</t>
   </si>
   <si>
     <t xml:space="preserve">1.72893667221069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69616079330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76007413864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70435476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73549199104309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73385322093964</t>
+    <t xml:space="preserve">1.69616067409515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76007401943207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70435464382172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73549211025238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73385334014893</t>
   </si>
   <si>
     <t xml:space="preserve">1.71254861354828</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">1.63060879707336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67157876491547</t>
+    <t xml:space="preserve">1.67157864570618</t>
   </si>
   <si>
     <t xml:space="preserve">1.66666221618652</t>
@@ -332,19 +332,19 @@
     <t xml:space="preserve">1.62241458892822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66338467597961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67321753501892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64535784721375</t>
+    <t xml:space="preserve">1.6633847951889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67321765422821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64535772800446</t>
   </si>
   <si>
     <t xml:space="preserve">1.63880264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62569212913513</t>
+    <t xml:space="preserve">1.62569224834442</t>
   </si>
   <si>
     <t xml:space="preserve">1.66830110549927</t>
@@ -353,13 +353,13 @@
     <t xml:space="preserve">1.65519082546234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64699673652649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63798332214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59865200519562</t>
+    <t xml:space="preserve">1.6469966173172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63798320293427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59865188598633</t>
   </si>
   <si>
     <t xml:space="preserve">1.6297892332077</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">1.58308351039886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59537446498871</t>
+    <t xml:space="preserve">1.59537434577942</t>
   </si>
   <si>
     <t xml:space="preserve">1.57898640632629</t>
@@ -380,67 +380,67 @@
     <t xml:space="preserve">1.54047453403473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56751465797424</t>
+    <t xml:space="preserve">1.56751477718353</t>
   </si>
   <si>
     <t xml:space="preserve">1.56997299194336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56669533252716</t>
+    <t xml:space="preserve">1.56669521331787</t>
   </si>
   <si>
     <t xml:space="preserve">1.55850124359131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60274887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60356843471527</t>
+    <t xml:space="preserve">1.6027489900589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60356855392456</t>
   </si>
   <si>
     <t xml:space="preserve">1.6060266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51917016506195</t>
+    <t xml:space="preserve">1.51917004585266</t>
   </si>
   <si>
     <t xml:space="preserve">1.56177890300751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54539096355438</t>
+    <t xml:space="preserve">1.54539108276367</t>
   </si>
   <si>
     <t xml:space="preserve">1.37659418582916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4126478433609</t>
+    <t xml:space="preserve">1.41264796257019</t>
   </si>
   <si>
     <t xml:space="preserve">1.39462113380432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45771491527557</t>
+    <t xml:space="preserve">1.45771503448486</t>
   </si>
   <si>
     <t xml:space="preserve">1.47082543373108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53391945362091</t>
+    <t xml:space="preserve">1.53391933441162</t>
   </si>
   <si>
     <t xml:space="preserve">1.61258184909821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61176252365112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59783267974854</t>
+    <t xml:space="preserve">1.61176240444183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59783279895782</t>
   </si>
   <si>
     <t xml:space="preserve">1.54211330413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51179540157318</t>
+    <t xml:space="preserve">1.51179552078247</t>
   </si>
   <si>
     <t xml:space="preserve">1.55522382259369</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">1.56423723697662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59291625022888</t>
+    <t xml:space="preserve">1.59291613101959</t>
   </si>
   <si>
     <t xml:space="preserve">1.55686259269714</t>
@@ -461,22 +461,22 @@
     <t xml:space="preserve">1.52162826061249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54129385948181</t>
+    <t xml:space="preserve">1.54129374027252</t>
   </si>
   <si>
     <t xml:space="preserve">1.50442087650299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5109760761261</t>
+    <t xml:space="preserve">1.51097619533539</t>
   </si>
   <si>
     <t xml:space="preserve">1.55112683773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51589250564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55194616317749</t>
+    <t xml:space="preserve">1.51589238643646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55194628238678</t>
   </si>
   <si>
     <t xml:space="preserve">1.50851774215698</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">1.50933730602264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50769853591919</t>
+    <t xml:space="preserve">1.5076984167099</t>
   </si>
   <si>
     <t xml:space="preserve">1.50278210639954</t>
@@ -500,10 +500,10 @@
     <t xml:space="preserve">1.51015663146973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57325053215027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58554136753082</t>
+    <t xml:space="preserve">1.57325041294098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58554148674011</t>
   </si>
   <si>
     <t xml:space="preserve">1.59455502033234</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">1.60684585571289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62159514427185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5716118812561</t>
+    <t xml:space="preserve">1.62159526348114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57161176204681</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375207424164</t>
@@ -533,10 +533,10 @@
     <t xml:space="preserve">1.55768203735352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58799970149994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53473877906799</t>
+    <t xml:space="preserve">1.58799982070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5347386598587</t>
   </si>
   <si>
     <t xml:space="preserve">1.5822639465332</t>
@@ -545,46 +545,46 @@
     <t xml:space="preserve">1.54702973365784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53883576393127</t>
+    <t xml:space="preserve">1.53883588314056</t>
   </si>
   <si>
     <t xml:space="preserve">1.54784917831421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55276560783386</t>
+    <t xml:space="preserve">1.55276548862457</t>
   </si>
   <si>
     <t xml:space="preserve">1.54948794841766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53801643848419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.548668384552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53637766838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53965520858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5691534280777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65191316604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69288325309753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65355181694031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82070982456207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82890391349792</t>
+    <t xml:space="preserve">1.5380163192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54866850376129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53637754917145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53965508937836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56915354728699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65191304683685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69288313388824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65355169773102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82070970535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82890379428864</t>
   </si>
   <si>
     <t xml:space="preserve">1.81743204593658</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">1.81579351425171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87970650196075</t>
+    <t xml:space="preserve">1.87970662117004</t>
   </si>
   <si>
     <t xml:space="preserve">1.79448890686035</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">1.73876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72729802131653</t>
+    <t xml:space="preserve">1.72729814052582</t>
   </si>
   <si>
     <t xml:space="preserve">1.74696362018585</t>
@@ -614,40 +614,40 @@
     <t xml:space="preserve">1.76335155963898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84693050384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81087696552277</t>
+    <t xml:space="preserve">1.84693038463593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81087708473206</t>
   </si>
   <si>
     <t xml:space="preserve">1.80923795700073</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81251561641693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86167979240417</t>
+    <t xml:space="preserve">1.81251585483551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86168003082275</t>
   </si>
   <si>
     <t xml:space="preserve">1.86495757102966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85840213298798</t>
+    <t xml:space="preserve">1.85840225219727</t>
   </si>
   <si>
     <t xml:space="preserve">1.87642896175385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89937233924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84856927394867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479634284973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679392337799</t>
+    <t xml:space="preserve">1.89937245845795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84856939315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479622364044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679404258728</t>
   </si>
   <si>
     <t xml:space="preserve">1.93850827217102</t>
@@ -659,13 +659,13 @@
     <t xml:space="preserve">1.92822420597076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94193613529205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94364988803864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95907592773438</t>
+    <t xml:space="preserve">1.94193625450134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94365012645721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95907580852509</t>
   </si>
   <si>
     <t xml:space="preserve">1.96764576435089</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">1.92651033401489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95393395423889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93336606025696</t>
+    <t xml:space="preserve">1.95393407344818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93336617946625</t>
   </si>
   <si>
     <t xml:space="preserve">1.90594255924225</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">1.8716629743576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9299384355545</t>
+    <t xml:space="preserve">1.92993855476379</t>
   </si>
   <si>
     <t xml:space="preserve">1.90080046653748</t>
@@ -710,31 +710,31 @@
     <t xml:space="preserve">1.8853747844696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86994910240173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88880264759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90937042236328</t>
+    <t xml:space="preserve">1.86994898319244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88880276679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90937054157257</t>
   </si>
   <si>
     <t xml:space="preserve">1.90251469612122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96421778202057</t>
+    <t xml:space="preserve">1.96421790122986</t>
   </si>
   <si>
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821365833282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98649954795837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97964358329773</t>
+    <t xml:space="preserve">1.98821353912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98649966716766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97964370250702</t>
   </si>
   <si>
     <t xml:space="preserve">2.12533164024353</t>
@@ -743,10 +743,10 @@
     <t xml:space="preserve">2.08591032028198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05677247047424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07905459403992</t>
+    <t xml:space="preserve">2.05677270889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07905435562134</t>
   </si>
   <si>
     <t xml:space="preserve">2.0807683467865</t>
@@ -758,22 +758,22 @@
     <t xml:space="preserve">2.06020045280457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07219862937927</t>
+    <t xml:space="preserve">2.07219839096069</t>
   </si>
   <si>
     <t xml:space="preserve">2.13390159606934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10819220542908</t>
+    <t xml:space="preserve">2.1081919670105</t>
   </si>
   <si>
     <t xml:space="preserve">2.09962201118469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10304975509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03963303565979</t>
+    <t xml:space="preserve">2.10304999351501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03963279724121</t>
   </si>
   <si>
     <t xml:space="preserve">2.06877040863037</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">2.07391238212585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09790778160095</t>
+    <t xml:space="preserve">2.09790802001953</t>
   </si>
   <si>
     <t xml:space="preserve">2.1167619228363</t>
@@ -794,31 +794,31 @@
     <t xml:space="preserve">2.08248209953308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06705665588379</t>
+    <t xml:space="preserve">2.06705641746521</t>
   </si>
   <si>
     <t xml:space="preserve">2.12190365791321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647797584534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08933806419373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05163073539734</t>
+    <t xml:space="preserve">2.10647773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0893383026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05163049697876</t>
   </si>
   <si>
     <t xml:space="preserve">2.17675089836121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14247131347656</t>
+    <t xml:space="preserve">2.14247155189514</t>
   </si>
   <si>
     <t xml:space="preserve">2.1321873664856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13047361373901</t>
+    <t xml:space="preserve">2.13047385215759</t>
   </si>
   <si>
     <t xml:space="preserve">2.15961122512817</t>
@@ -836,25 +836,25 @@
     <t xml:space="preserve">2.11161994934082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10133576393127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15789699554443</t>
+    <t xml:space="preserve">2.10133600234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15789723396301</t>
   </si>
   <si>
     <t xml:space="preserve">2.15618348121643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14418530464172</t>
+    <t xml:space="preserve">2.1441855430603</t>
   </si>
   <si>
     <t xml:space="preserve">2.1407573223114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14932727813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13904333114624</t>
+    <t xml:space="preserve">2.14932703971863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13904356956482</t>
   </si>
   <si>
     <t xml:space="preserve">2.17503690719604</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">2.15104126930237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12018990516663</t>
+    <t xml:space="preserve">2.12018966674805</t>
   </si>
   <si>
     <t xml:space="preserve">2.1047637462616</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">2.03277707099915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04820275306702</t>
+    <t xml:space="preserve">2.0482029914856</t>
   </si>
   <si>
     <t xml:space="preserve">2.07048416137695</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">2.08762431144714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02077889442444</t>
+    <t xml:space="preserve">2.02077913284302</t>
   </si>
   <si>
     <t xml:space="preserve">2.08419609069824</t>
@@ -935,19 +935,19 @@
     <t xml:space="preserve">2.47669696807861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48526668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53668618202209</t>
+    <t xml:space="preserve">2.48526692390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53668642044067</t>
   </si>
   <si>
     <t xml:space="preserve">2.57953572273254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59667539596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61381483078003</t>
+    <t xml:space="preserve">2.596675157547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61381506919861</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382585525513</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">2.52694344520569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43733549118042</t>
+    <t xml:space="preserve">2.437335729599</t>
   </si>
   <si>
     <t xml:space="preserve">2.46421790122986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50006103515625</t>
+    <t xml:space="preserve">2.50006127357483</t>
   </si>
   <si>
     <t xml:space="preserve">2.45525717735291</t>
@@ -989,16 +989,16 @@
     <t xml:space="preserve">2.51798272132874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56278657913208</t>
+    <t xml:space="preserve">2.56278681755066</t>
   </si>
   <si>
     <t xml:space="preserve">2.53590416908264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4911003112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48213982582092</t>
+    <t xml:space="preserve">2.49110054969788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48213958740234</t>
   </si>
   <si>
     <t xml:space="preserve">2.50902199745178</t>
@@ -1010,19 +1010,19 @@
     <t xml:space="preserve">2.78680658340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75992441177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77784562110901</t>
+    <t xml:space="preserve">2.7599241733551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77784585952759</t>
   </si>
   <si>
     <t xml:space="preserve">2.74200248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76888489723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71512007713318</t>
+    <t xml:space="preserve">2.76888513565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71512031555176</t>
   </si>
   <si>
     <t xml:space="preserve">2.75096321105957</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">2.86745381355286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83161044120789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6434338092804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62551236152649</t>
+    <t xml:space="preserve">2.83161067962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64343404769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62551259994507</t>
   </si>
   <si>
     <t xml:space="preserve">2.58070850372314</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">2.607590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41941428184509</t>
+    <t xml:space="preserve">2.41941404342651</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135549545288</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">2.81368899345398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84057140350342</t>
+    <t xml:space="preserve">2.840571641922</t>
   </si>
   <si>
     <t xml:space="preserve">2.93914008140564</t>
@@ -1094,13 +1094,13 @@
     <t xml:space="preserve">2.80472826957703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90329670906067</t>
+    <t xml:space="preserve">2.90329694747925</t>
   </si>
   <si>
     <t xml:space="preserve">3.12731671333313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16315984725952</t>
+    <t xml:space="preserve">3.16315960884094</t>
   </si>
   <si>
     <t xml:space="preserve">3.13627743721008</t>
@@ -1118,19 +1118,19 @@
     <t xml:space="preserve">3.28861093521118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29757189750671</t>
+    <t xml:space="preserve">3.29757165908813</t>
   </si>
   <si>
     <t xml:space="preserve">3.35133647918701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33341503143311</t>
+    <t xml:space="preserve">3.33341479301453</t>
   </si>
   <si>
     <t xml:space="preserve">3.34237575531006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42302298545837</t>
+    <t xml:space="preserve">3.42302274703979</t>
   </si>
   <si>
     <t xml:space="preserve">3.3871796131134</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">3.37821888923645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45886564254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48574876785278</t>
+    <t xml:space="preserve">3.45886588096619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4857485294342</t>
   </si>
   <si>
     <t xml:space="preserve">3.47678756713867</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">3.67392492294312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58431696891785</t>
+    <t xml:space="preserve">3.58431720733643</t>
   </si>
   <si>
     <t xml:space="preserve">3.53055238723755</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">3.55743479728699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52159142494202</t>
+    <t xml:space="preserve">3.5215916633606</t>
   </si>
   <si>
     <t xml:space="preserve">3.51263093948364</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">3.80833721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79041504859924</t>
+    <t xml:space="preserve">3.79041528701782</t>
   </si>
   <si>
     <t xml:space="preserve">3.95170950889587</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">3.97005581855774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00759792327881</t>
+    <t xml:space="preserve">4.00759744644165</t>
   </si>
   <si>
     <t xml:space="preserve">4.0920672416687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81988835334778</t>
+    <t xml:space="preserve">3.81988859176636</t>
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
@@ -1259,40 +1259,40 @@
     <t xml:space="preserve">4.03575468063354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99821257591248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97944092750549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85743021965027</t>
+    <t xml:space="preserve">3.9982123374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97944116592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85743045806885</t>
   </si>
   <si>
     <t xml:space="preserve">3.84804463386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81050252914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7448046207428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89497232437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94189953804016</t>
+    <t xml:space="preserve">3.81050276756287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74480438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89497208595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.941899061203</t>
   </si>
   <si>
     <t xml:space="preserve">3.8668155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93251395225525</t>
+    <t xml:space="preserve">3.93251419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.08268165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11083793640137</t>
+    <t xml:space="preserve">4.11083841323853</t>
   </si>
   <si>
     <t xml:space="preserve">4.12022304534912</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">4.18592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19530725479126</t>
+    <t xml:space="preserve">4.1953067779541</t>
   </si>
   <si>
     <t xml:space="preserve">4.20469284057617</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">4.28916215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26100587844849</t>
+    <t xml:space="preserve">4.26100540161133</t>
   </si>
   <si>
     <t xml:space="preserve">4.2703914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34547472000122</t>
+    <t xml:space="preserve">4.34547519683838</t>
   </si>
   <si>
     <t xml:space="preserve">4.36424589157104</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">4.50502824783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49564266204834</t>
+    <t xml:space="preserve">4.49564218521118</t>
   </si>
   <si>
     <t xml:space="preserve">4.43932962417603</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">4.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54257011413574</t>
+    <t xml:space="preserve">4.54256963729858</t>
   </si>
   <si>
     <t xml:space="preserve">4.48625707626343</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">4.40178775787354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44871520996094</t>
+    <t xml:space="preserve">4.44871473312378</t>
   </si>
   <si>
     <t xml:space="preserve">4.42994403839111</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">4.41117334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39240169525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24223470687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30793333053589</t>
+    <t xml:space="preserve">4.39240217208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2422342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30793285369873</t>
   </si>
   <si>
     <t xml:space="preserve">4.17653608322144</t>
@@ -1394,28 +1394,28 @@
     <t xml:space="preserve">4.62703895568848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61765336990356</t>
+    <t xml:space="preserve">4.61765384674072</t>
   </si>
   <si>
     <t xml:space="preserve">4.51441335678101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57072591781616</t>
+    <t xml:space="preserve">4.57072639465332</t>
   </si>
   <si>
     <t xml:space="preserve">4.67396640777588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80536270141602</t>
+    <t xml:space="preserve">4.80536317825317</t>
   </si>
   <si>
     <t xml:space="preserve">4.78659200668335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86167621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84290504455566</t>
+    <t xml:space="preserve">4.86167573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84290456771851</t>
   </si>
   <si>
     <t xml:space="preserve">4.89921760559082</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">4.5988826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53318405151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58011150360107</t>
+    <t xml:space="preserve">4.53318452835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58011198043823</t>
   </si>
   <si>
     <t xml:space="preserve">4.6927375793457</t>
@@ -1439,16 +1439,16 @@
     <t xml:space="preserve">4.74905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73027944564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71150827407837</t>
+    <t xml:space="preserve">4.73027896881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71150875091553</t>
   </si>
   <si>
     <t xml:space="preserve">4.76782131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95553112030029</t>
+    <t xml:space="preserve">4.95553064346313</t>
   </si>
   <si>
     <t xml:space="preserve">4.88044691085815</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">4.91798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99307250976562</t>
+    <t xml:space="preserve">4.99307298660278</t>
   </si>
   <si>
     <t xml:space="preserve">4.93675994873047</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">6.60737419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28826808929443</t>
+    <t xml:space="preserve">6.28826761245728</t>
   </si>
   <si>
     <t xml:space="preserve">6.1568717956543</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">5.96916246414185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70636892318726</t>
+    <t xml:space="preserve">5.7063684463501</t>
   </si>
   <si>
     <t xml:space="preserve">5.53743028640747</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">5.87530755996704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66882658004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68759727478027</t>
+    <t xml:space="preserve">5.66882705688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68759775161743</t>
   </si>
   <si>
     <t xml:space="preserve">5.83776521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59374284744263</t>
+    <t xml:space="preserve">5.59374332427979</t>
   </si>
   <si>
     <t xml:space="preserve">5.38726234436035</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">5.10569858551025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68335199356079</t>
+    <t xml:space="preserve">4.68335151672363</t>
   </si>
   <si>
     <t xml:space="preserve">4.14837980270386</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">3.62279319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55709481239319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37877082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50078225135803</t>
+    <t xml:space="preserve">3.55709505081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37877106666565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50078201293945</t>
   </si>
   <si>
     <t xml:space="preserve">3.5664803981781</t>
@@ -1565,13 +1565,13 @@
     <t xml:space="preserve">3.75418996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70726251602173</t>
+    <t xml:space="preserve">3.70726275444031</t>
   </si>
   <si>
     <t xml:space="preserve">3.71664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8386595249176</t>
+    <t xml:space="preserve">3.83865928649902</t>
   </si>
   <si>
     <t xml:space="preserve">4.25162029266357</t>
@@ -1580,25 +1580,25 @@
     <t xml:space="preserve">4.12960910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16715049743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05452537536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76357555389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66972064971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65094995498657</t>
+    <t xml:space="preserve">4.16715097427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05452489852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76357579231262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66972088813782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65094971656799</t>
   </si>
   <si>
     <t xml:space="preserve">3.66033530235291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95128512382507</t>
+    <t xml:space="preserve">3.95128488540649</t>
   </si>
   <si>
     <t xml:space="preserve">4.29854726791382</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">4.31731843948364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15776491165161</t>
+    <t xml:space="preserve">4.15776538848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.10145235061646</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.13899421691895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88558626174927</t>
+    <t xml:space="preserve">3.88558650016785</t>
   </si>
   <si>
     <t xml:space="preserve">4.32670402526855</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">4.27977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.913743019104</t>
+    <t xml:space="preserve">3.91374325752258</t>
   </si>
   <si>
     <t xml:space="preserve">3.92312836647034</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">3.49139666557312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67910623550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38815641403198</t>
+    <t xml:space="preserve">3.67910599708557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3881561756134</t>
   </si>
   <si>
     <t xml:space="preserve">3.35999989509583</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">3.34122896194458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20044708251953</t>
+    <t xml:space="preserve">3.20044684410095</t>
   </si>
   <si>
     <t xml:space="preserve">3.24737429618835</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">3.47262573242188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57586574554443</t>
+    <t xml:space="preserve">3.57586598396301</t>
   </si>
   <si>
     <t xml:space="preserve">3.73541903495789</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">3.68849158287048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72603368759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52893853187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217878341675</t>
+    <t xml:space="preserve">3.72603344917297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52893877029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217854499817</t>
   </si>
   <si>
     <t xml:space="preserve">3.51016759872437</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">3.58525133132935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53832411766052</t>
+    <t xml:space="preserve">3.53832387924194</t>
   </si>
   <si>
     <t xml:space="preserve">3.80111742019653</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">3.48201107978821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46324014663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4444694519043</t>
+    <t xml:space="preserve">3.46324038505554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44446921348572</t>
   </si>
   <si>
     <t xml:space="preserve">3.42569851875305</t>
@@ -1739,13 +1739,13 @@
     <t xml:space="preserve">3.41631293296814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39754199981689</t>
+    <t xml:space="preserve">3.39754176139832</t>
   </si>
   <si>
     <t xml:space="preserve">3.21921801567078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1910617351532</t>
+    <t xml:space="preserve">3.19106149673462</t>
   </si>
   <si>
     <t xml:space="preserve">3.17229056358337</t>
@@ -1754,13 +1754,13 @@
     <t xml:space="preserve">3.23798894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14413404464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25675964355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36938524246216</t>
+    <t xml:space="preserve">3.14413380622864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25675988197327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36938548088074</t>
   </si>
   <si>
     <t xml:space="preserve">3.15351939201355</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">3.18167614936829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29430174827576</t>
+    <t xml:space="preserve">3.29430150985718</t>
   </si>
   <si>
     <t xml:space="preserve">3.2661452293396</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">3.12536311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04089379310608</t>
+    <t xml:space="preserve">3.04089403152466</t>
   </si>
   <si>
     <t xml:space="preserve">3.05027914047241</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">2.93765377998352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95642447471619</t>
+    <t xml:space="preserve">2.95642471313477</t>
   </si>
   <si>
     <t xml:space="preserve">3.03150844573975</t>
@@ -1805,19 +1805,19 @@
     <t xml:space="preserve">3.02212285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92826795578003</t>
+    <t xml:space="preserve">2.92826819419861</t>
   </si>
   <si>
     <t xml:space="preserve">2.94703912734985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90011167526245</t>
+    <t xml:space="preserve">2.90011143684387</t>
   </si>
   <si>
     <t xml:space="preserve">2.97519564628601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27553057670593</t>
+    <t xml:space="preserve">3.27553081512451</t>
   </si>
   <si>
     <t xml:space="preserve">3.33184361457825</t>
@@ -58443,7 +58443,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6346527778</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>1000</v>
@@ -58464,6 +58464,32 @@
         <v>755</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6494328704</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>1164</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>753</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="758">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825932025909</t>
+    <t xml:space="preserve">1.8582592010498</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
@@ -50,49 +50,49 @@
     <t xml:space="preserve">1.92109143733978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8849630355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92423343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642318725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82998478412628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79856896400452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76715290546417</t>
+    <t xml:space="preserve">1.88496327400208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92423295974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642294883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998502254486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79856884479523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76715302467346</t>
   </si>
   <si>
     <t xml:space="preserve">1.85354697704315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86925530433655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8771094083786</t>
+    <t xml:space="preserve">1.86925506591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87710905075073</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281713962555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86768412590027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584751605988</t>
+    <t xml:space="preserve">1.86768436431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584787368774</t>
   </si>
   <si>
     <t xml:space="preserve">1.83783876895905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87553799152374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82684326171875</t>
+    <t xml:space="preserve">1.87553834915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82684361934662</t>
   </si>
   <si>
     <t xml:space="preserve">1.8456928730011</t>
@@ -101,37 +101,37 @@
     <t xml:space="preserve">1.81898927688599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83626818656921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85983037948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80485212802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8205600976944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81741845607758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85040545463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88025057315826</t>
+    <t xml:space="preserve">1.83626806735992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85983002185822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80485224723816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82056033611298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81741833686829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85040533542633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88025069236755</t>
   </si>
   <si>
     <t xml:space="preserve">1.81427693367004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85197627544403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84412240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84098064899445</t>
+    <t xml:space="preserve">1.85197639465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84412229061127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84098041057587</t>
   </si>
   <si>
     <t xml:space="preserve">1.82370173931122</t>
@@ -140,64 +140,64 @@
     <t xml:space="preserve">1.81113541126251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82213115692139</t>
+    <t xml:space="preserve">1.8221310377121</t>
   </si>
   <si>
     <t xml:space="preserve">1.93679976463318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94622421264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407831668854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350312232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96507394313812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99334859848022</t>
+    <t xml:space="preserve">1.94622433185577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407819747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.963503241539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9650741815567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99334836006165</t>
   </si>
   <si>
     <t xml:space="preserve">2.00434422492981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98706543445587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00905656814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02476477622986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051612377167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96193242073059</t>
+    <t xml:space="preserve">1.987065076828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00905632972717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02476501464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051624298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96193218231201</t>
   </si>
   <si>
     <t xml:space="preserve">1.93994128704071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95564925670624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637909412384</t>
+    <t xml:space="preserve">1.95564937591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637945175171</t>
   </si>
   <si>
     <t xml:space="preserve">1.87396740913391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93378710746765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017540454865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92231547832489</t>
+    <t xml:space="preserve">1.93378674983978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017528533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92231559753418</t>
   </si>
   <si>
     <t xml:space="preserve">1.93050956726074</t>
@@ -206,28 +206,28 @@
     <t xml:space="preserve">1.96656334400177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95509147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9583694934845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91739881038666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93542587757111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9419811964035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248285770416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084396839142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83545899391174</t>
+    <t xml:space="preserve">1.95509135723114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95836925506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91739916801453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9354259967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94198107719421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248261928558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084420681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83545887470245</t>
   </si>
   <si>
     <t xml:space="preserve">1.8026829957962</t>
@@ -239,61 +239,64 @@
     <t xml:space="preserve">1.83218157291412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88298428058624</t>
+    <t xml:space="preserve">1.88298439979553</t>
   </si>
   <si>
     <t xml:space="preserve">1.86823511123657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9075665473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592741966248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88462316989899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90920495986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151265144348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8977335691452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82398736476898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75843524932861</t>
+    <t xml:space="preserve">1.90756618976593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281690120697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90592753887177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88462293148041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90920507907867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8715124130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773333072662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82398748397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75843513011932</t>
   </si>
   <si>
     <t xml:space="preserve">1.76662909984589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78629493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77646219730377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75187993049622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75351893901825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77973985671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75024116039276</t>
+    <t xml:space="preserve">1.78629505634308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77646195888519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75188004970551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75351881980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77973961830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75024127960205</t>
   </si>
   <si>
     <t xml:space="preserve">1.72074270248413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66993999481201</t>
+    <t xml:space="preserve">1.66993987560272</t>
   </si>
   <si>
     <t xml:space="preserve">1.72893667221069</t>
@@ -305,7 +308,7 @@
     <t xml:space="preserve">1.76007401943207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70435476303101</t>
+    <t xml:space="preserve">1.70435464382172</t>
   </si>
   <si>
     <t xml:space="preserve">1.73549199104309</t>
@@ -314,76 +317,76 @@
     <t xml:space="preserve">1.73385322093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71254873275757</t>
+    <t xml:space="preserve">1.71254885196686</t>
   </si>
   <si>
     <t xml:space="preserve">1.63060867786407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67157876491547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66666221618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61012363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62241458892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66338467597961</t>
+    <t xml:space="preserve">1.67157888412476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66666233539581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61012351512909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62241470813751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6633847951889</t>
   </si>
   <si>
     <t xml:space="preserve">1.67321753501892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64535784721375</t>
+    <t xml:space="preserve">1.64535772800446</t>
   </si>
   <si>
     <t xml:space="preserve">1.63880264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62569212913513</t>
+    <t xml:space="preserve">1.62569224834442</t>
   </si>
   <si>
     <t xml:space="preserve">1.66830110549927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65519082546234</t>
+    <t xml:space="preserve">1.65519070625305</t>
   </si>
   <si>
     <t xml:space="preserve">1.64699673652649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63798332214355</t>
+    <t xml:space="preserve">1.63798320293427</t>
   </si>
   <si>
     <t xml:space="preserve">1.59865200519562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62978911399841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58308351039886</t>
+    <t xml:space="preserve">1.6297892332077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58308339118958</t>
   </si>
   <si>
     <t xml:space="preserve">1.59537434577942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57898640632629</t>
+    <t xml:space="preserve">1.578986287117</t>
   </si>
   <si>
     <t xml:space="preserve">1.59127748012543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54047441482544</t>
+    <t xml:space="preserve">1.54047453403473</t>
   </si>
   <si>
     <t xml:space="preserve">1.56751477718353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56997299194336</t>
+    <t xml:space="preserve">1.56997311115265</t>
   </si>
   <si>
     <t xml:space="preserve">1.56669533252716</t>
@@ -395,112 +398,112 @@
     <t xml:space="preserve">1.6027489900589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60356843471527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6060266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51917016506195</t>
+    <t xml:space="preserve">1.60356831550598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60602653026581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51917004585266</t>
   </si>
   <si>
     <t xml:space="preserve">1.56177890300751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54539108276367</t>
+    <t xml:space="preserve">1.54539096355438</t>
   </si>
   <si>
     <t xml:space="preserve">1.37659418582916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4126478433609</t>
+    <t xml:space="preserve">1.41264796257019</t>
   </si>
   <si>
     <t xml:space="preserve">1.39462113380432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45771491527557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47082543373108</t>
+    <t xml:space="preserve">1.45771503448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47082531452179</t>
   </si>
   <si>
     <t xml:space="preserve">1.53391933441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61258172988892</t>
+    <t xml:space="preserve">1.61258184909821</t>
   </si>
   <si>
     <t xml:space="preserve">1.61176252365112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59783256053925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54211330413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51179540157318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5552237033844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.565056681633</t>
+    <t xml:space="preserve">1.59783267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54211342334747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51179552078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55522382259369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56505656242371</t>
   </si>
   <si>
     <t xml:space="preserve">1.56423711776733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59291613101959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55686259269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52162826061249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54129385948181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50442087650299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5109760761261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55112683773041</t>
+    <t xml:space="preserve">1.59291625022888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55686247348785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52162837982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5412939786911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5044207572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51097619533539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55112671852112</t>
   </si>
   <si>
     <t xml:space="preserve">1.51589250564575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55194616317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50851774215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53228056430817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50933730602264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50769865512848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50278198719025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49540758132935</t>
+    <t xml:space="preserve">1.55194628238678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50851786136627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53228044509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50933718681335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5076984167099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50278210639954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49540746212006</t>
   </si>
   <si>
     <t xml:space="preserve">1.51015675067902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57325053215027</t>
+    <t xml:space="preserve">1.57325065135956</t>
   </si>
   <si>
     <t xml:space="preserve">1.58554148674011</t>
@@ -512,19 +515,19 @@
     <t xml:space="preserve">1.60684597492218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62159514427185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5716118812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54375207424164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57243120670319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58718037605286</t>
+    <t xml:space="preserve">1.62159538269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57161176204681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54375195503235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5724310874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58718049526215</t>
   </si>
   <si>
     <t xml:space="preserve">1.54621028900146</t>
@@ -533,7 +536,7 @@
     <t xml:space="preserve">1.55768191814423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58799982070923</t>
+    <t xml:space="preserve">1.58799970149994</t>
   </si>
   <si>
     <t xml:space="preserve">1.53473877906799</t>
@@ -542,73 +545,73 @@
     <t xml:space="preserve">1.5822639465332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54702961444855</t>
+    <t xml:space="preserve">1.54702973365784</t>
   </si>
   <si>
     <t xml:space="preserve">1.53883576393127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5478492975235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55276548862457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54948806762695</t>
+    <t xml:space="preserve">1.54784905910492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55276572704315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54948794841766</t>
   </si>
   <si>
     <t xml:space="preserve">1.5380163192749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.548668384552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53637766838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53965520858765</t>
+    <t xml:space="preserve">1.54866862297058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53637754917145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53965508937836</t>
   </si>
   <si>
     <t xml:space="preserve">1.56915354728699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65191316604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69288325309753</t>
+    <t xml:space="preserve">1.65191304683685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69288313388824</t>
   </si>
   <si>
     <t xml:space="preserve">1.65355181694031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82070982456207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82890379428864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81743204593658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81579339504242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87970650196075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79448890686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80104398727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73876965045929</t>
+    <t xml:space="preserve">1.8207094669342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82890391349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81743228435516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81579327583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87970674037933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79448902606964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80104422569275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73876941204071</t>
   </si>
   <si>
     <t xml:space="preserve">1.72729802131653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74696362018585</t>
+    <t xml:space="preserve">1.74696373939514</t>
   </si>
   <si>
     <t xml:space="preserve">1.76335167884827</t>
@@ -617,25 +620,25 @@
     <t xml:space="preserve">1.84693050384521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81087696552277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80923819541931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81251549720764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86168003082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86495733261108</t>
+    <t xml:space="preserve">1.81087708473206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923807621002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81251573562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86167991161346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86495745182037</t>
   </si>
   <si>
     <t xml:space="preserve">1.85840213298798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87642896175385</t>
+    <t xml:space="preserve">1.87642872333527</t>
   </si>
   <si>
     <t xml:space="preserve">1.89937233924866</t>
@@ -647,31 +650,31 @@
     <t xml:space="preserve">1.92479634284973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93679392337799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93850827217102</t>
+    <t xml:space="preserve">1.93679404258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93850803375244</t>
   </si>
   <si>
     <t xml:space="preserve">1.97107374668121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92822432518005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94193637371063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94364988803864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95907592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96764576435089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92651009559631</t>
+    <t xml:space="preserve">1.92822444438934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94193613529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94365000724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95907580852509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96764588356018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92651033401489</t>
   </si>
   <si>
     <t xml:space="preserve">1.95393395423889</t>
@@ -683,28 +686,28 @@
     <t xml:space="preserve">1.90594255924225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8939448595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8716629743576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9299384355545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080046653748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91451239585876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88708877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87680494785309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91794049739838</t>
+    <t xml:space="preserve">1.89394474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87166309356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92993819713593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080058574677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91451263427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88708865642548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87680518627167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9179402589798</t>
   </si>
   <si>
     <t xml:space="preserve">1.88537490367889</t>
@@ -713,13 +716,13 @@
     <t xml:space="preserve">1.86994910240173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88880264759064</t>
+    <t xml:space="preserve">1.88880276679993</t>
   </si>
   <si>
     <t xml:space="preserve">1.90937042236328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90251457691193</t>
+    <t xml:space="preserve">1.90251469612122</t>
   </si>
   <si>
     <t xml:space="preserve">1.96421778202057</t>
@@ -728,13 +731,13 @@
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821365833282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98649954795837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97964358329773</t>
+    <t xml:space="preserve">1.98821341991425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98649966716766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97964334487915</t>
   </si>
   <si>
     <t xml:space="preserve">2.12533140182495</t>
@@ -743,37 +746,37 @@
     <t xml:space="preserve">2.08591032028198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05677247047424</t>
+    <t xml:space="preserve">2.05677270889282</t>
   </si>
   <si>
     <t xml:space="preserve">2.07905459403992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0807683467865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06534242630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06020069122314</t>
+    <t xml:space="preserve">2.08076786994934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06534266471863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06020045280457</t>
   </si>
   <si>
     <t xml:space="preserve">2.07219862937927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13390159606934</t>
+    <t xml:space="preserve">2.13390135765076</t>
   </si>
   <si>
     <t xml:space="preserve">2.1081919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09962224960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10304999351501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03963303565979</t>
+    <t xml:space="preserve">2.09962201118469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10304975509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03963279724121</t>
   </si>
   <si>
     <t xml:space="preserve">2.06877040863037</t>
@@ -782,73 +785,73 @@
     <t xml:space="preserve">2.11504769325256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07391238212585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09790778160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11676168441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08248209953308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705665588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12190389633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10647773742676</t>
+    <t xml:space="preserve">2.07391214370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09790802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1167619228363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08248233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705617904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12190365791321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10647797584534</t>
   </si>
   <si>
     <t xml:space="preserve">2.08933806419373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05163073539734</t>
+    <t xml:space="preserve">2.05163049697876</t>
   </si>
   <si>
     <t xml:space="preserve">2.17675113677979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14247131347656</t>
+    <t xml:space="preserve">2.14247155189514</t>
   </si>
   <si>
     <t xml:space="preserve">2.1321873664856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13047337532043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15961122512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11847543716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09105205535889</t>
+    <t xml:space="preserve">2.13047361373901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15961098670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11847567558289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09105229377747</t>
   </si>
   <si>
     <t xml:space="preserve">2.12361764907837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11161971092224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10133576393127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15789699554443</t>
+    <t xml:space="preserve">2.11161994934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10133600234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15789723396301</t>
   </si>
   <si>
     <t xml:space="preserve">2.15618324279785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14418530464172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14075756072998</t>
+    <t xml:space="preserve">2.1441855430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1407573223114</t>
   </si>
   <si>
     <t xml:space="preserve">2.14932727813721</t>
@@ -857,10 +860,10 @@
     <t xml:space="preserve">2.13904333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17503714561462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15104126930237</t>
+    <t xml:space="preserve">2.17503690719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15104150772095</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
@@ -875,16 +878,16 @@
     <t xml:space="preserve">2.03277683258057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0482029914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07048392295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0499165058136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12875962257385</t>
+    <t xml:space="preserve">2.04820275306702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07048439979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04991674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12875986099243</t>
   </si>
   <si>
     <t xml:space="preserve">2.08762431144714</t>
@@ -899,25 +902,25 @@
     <t xml:space="preserve">2.0224928855896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01392292976379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00535297393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16818118095398</t>
+    <t xml:space="preserve">2.01392316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00535321235657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1681809425354</t>
   </si>
   <si>
     <t xml:space="preserve">2.18532061576843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29672956466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33100891113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32243895530701</t>
+    <t xml:space="preserve">2.29672932624817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33100914955139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32243919372559</t>
   </si>
   <si>
     <t xml:space="preserve">2.35671854019165</t>
@@ -926,10 +929,10 @@
     <t xml:space="preserve">2.44241738319397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49383664131165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46812725067139</t>
+    <t xml:space="preserve">2.49383687973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46812701225281</t>
   </si>
   <si>
     <t xml:space="preserve">2.47669720649719</t>
@@ -938,22 +941,22 @@
     <t xml:space="preserve">2.48526668548584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53668642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57953572273254</t>
+    <t xml:space="preserve">2.53668618202209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57953548431396</t>
   </si>
   <si>
     <t xml:space="preserve">2.59667539596558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61381483078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382561683655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63447332382202</t>
+    <t xml:space="preserve">2.61381506919861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382609367371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63447308540344</t>
   </si>
   <si>
     <t xml:space="preserve">2.59862995147705</t>
@@ -962,16 +965,16 @@
     <t xml:space="preserve">2.5896692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61655139923096</t>
+    <t xml:space="preserve">2.61655163764954</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382585525513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52694344520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43733549118042</t>
+    <t xml:space="preserve">2.52694368362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.437335729599</t>
   </si>
   <si>
     <t xml:space="preserve">2.46421790122986</t>
@@ -983,16 +986,16 @@
     <t xml:space="preserve">2.45525717735291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54486513137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57174754142761</t>
+    <t xml:space="preserve">2.54486489295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57174730300903</t>
   </si>
   <si>
     <t xml:space="preserve">2.51798272132874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56278657913208</t>
+    <t xml:space="preserve">2.56278681755066</t>
   </si>
   <si>
     <t xml:space="preserve">2.53590416908264</t>
@@ -1001,7 +1004,7 @@
     <t xml:space="preserve">2.4911003112793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48213982582092</t>
+    <t xml:space="preserve">2.48213958740234</t>
   </si>
   <si>
     <t xml:space="preserve">2.50902199745178</t>
@@ -1013,7 +1016,7 @@
     <t xml:space="preserve">2.78680658340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75992441177368</t>
+    <t xml:space="preserve">2.7599241733551</t>
   </si>
   <si>
     <t xml:space="preserve">2.77784562110901</t>
@@ -1022,31 +1025,31 @@
     <t xml:space="preserve">2.74200248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76888489723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71512007713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75096321105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67031621932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72408103942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65239477157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68823790550232</t>
+    <t xml:space="preserve">2.76888465881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71512031555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75096344947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67031645774841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72408080101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65239453315735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68823766708374</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719886779785</t>
+    <t xml:space="preserve">2.69719862937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1055,7 +1058,7 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745381355286</t>
+    <t xml:space="preserve">2.86745357513428</t>
   </si>
   <si>
     <t xml:space="preserve">2.83161044120789</t>
@@ -1067,7 +1070,7 @@
     <t xml:space="preserve">2.62551236152649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58070850372314</t>
+    <t xml:space="preserve">2.58070826530457</t>
   </si>
   <si>
     <t xml:space="preserve">2.607590675354</t>
@@ -1091,13 +1094,13 @@
     <t xml:space="preserve">2.87641453742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82264971733093</t>
+    <t xml:space="preserve">2.82264995574951</t>
   </si>
   <si>
     <t xml:space="preserve">2.80472826957703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90329670906067</t>
+    <t xml:space="preserve">2.90329694747925</t>
   </si>
   <si>
     <t xml:space="preserve">3.12731671333313</t>
@@ -1106,16 +1109,16 @@
     <t xml:space="preserve">3.16315984725952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13627743721008</t>
+    <t xml:space="preserve">3.13627767562866</t>
   </si>
   <si>
     <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25276780128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172852516174</t>
+    <t xml:space="preserve">3.25276803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172876358032</t>
   </si>
   <si>
     <t xml:space="preserve">3.28861093521118</t>
@@ -1130,10 +1133,10 @@
     <t xml:space="preserve">3.33341503143311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34237575531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42302298545837</t>
+    <t xml:space="preserve">3.34237551689148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42302274703979</t>
   </si>
   <si>
     <t xml:space="preserve">3.3871796131134</t>
@@ -1145,19 +1148,19 @@
     <t xml:space="preserve">3.41406202316284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36925792694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37821888923645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45886564254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48574876785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47678756713867</t>
+    <t xml:space="preserve">3.36925840377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37821865081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45886588096619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48574829101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47678780555725</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1166,7 +1169,7 @@
     <t xml:space="preserve">3.67392492294312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58431696891785</t>
+    <t xml:space="preserve">3.58431720733643</t>
   </si>
   <si>
     <t xml:space="preserve">3.53055238723755</t>
@@ -1175,16 +1178,16 @@
     <t xml:space="preserve">3.59327816963196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55743479728699</t>
+    <t xml:space="preserve">3.55743455886841</t>
   </si>
   <si>
     <t xml:space="preserve">3.52159142494202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51263093948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5395131111145</t>
+    <t xml:space="preserve">3.51263070106506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53951334953308</t>
   </si>
   <si>
     <t xml:space="preserve">3.60223865509033</t>
@@ -1193,13 +1196,13 @@
     <t xml:space="preserve">3.65600347518921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66496443748474</t>
+    <t xml:space="preserve">3.66496419906616</t>
   </si>
   <si>
     <t xml:space="preserve">3.72768974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71872925758362</t>
+    <t xml:space="preserve">3.71872901916504</t>
   </si>
   <si>
     <t xml:space="preserve">3.6918466091156</t>
@@ -1208,7 +1211,7 @@
     <t xml:space="preserve">3.70976805686951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68288588523865</t>
+    <t xml:space="preserve">3.68288612365723</t>
   </si>
   <si>
     <t xml:space="preserve">3.7635326385498</t>
@@ -1217,36 +1220,33 @@
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833721160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79041504859924</t>
+    <t xml:space="preserve">3.80833697319031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79041528701782</t>
   </si>
   <si>
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067070960999</t>
+    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">3.97005581855774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00759792327881</t>
+    <t xml:space="preserve">4.00759744644165</t>
   </si>
   <si>
     <t xml:space="preserve">4.0920672416687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81988835334778</t>
+    <t xml:space="preserve">3.81988859176636</t>
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067023277283</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.02636861801147</t>
   </si>
   <si>
@@ -1262,40 +1262,40 @@
     <t xml:space="preserve">4.03575468063354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99821257591248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97944092750549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85743021965027</t>
+    <t xml:space="preserve">3.9982123374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97944116592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85743045806885</t>
   </si>
   <si>
     <t xml:space="preserve">3.84804463386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81050252914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7448046207428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89497232437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94189953804016</t>
+    <t xml:space="preserve">3.81050276756287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74480438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89497208595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.941899061203</t>
   </si>
   <si>
     <t xml:space="preserve">3.8668155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93251395225525</t>
+    <t xml:space="preserve">3.93251419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.08268165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11083793640137</t>
+    <t xml:space="preserve">4.11083841323853</t>
   </si>
   <si>
     <t xml:space="preserve">4.12022304534912</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">4.18592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19530725479126</t>
+    <t xml:space="preserve">4.1953067779541</t>
   </si>
   <si>
     <t xml:space="preserve">4.20469284057617</t>
@@ -1316,13 +1316,13 @@
     <t xml:space="preserve">4.28916215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26100587844849</t>
+    <t xml:space="preserve">4.26100540161133</t>
   </si>
   <si>
     <t xml:space="preserve">4.2703914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34547472000122</t>
+    <t xml:space="preserve">4.34547519683838</t>
   </si>
   <si>
     <t xml:space="preserve">4.36424589157104</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">4.50502824783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49564266204834</t>
+    <t xml:space="preserve">4.49564218521118</t>
   </si>
   <si>
     <t xml:space="preserve">4.43932962417603</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">4.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54257011413574</t>
+    <t xml:space="preserve">4.54256963729858</t>
   </si>
   <si>
     <t xml:space="preserve">4.48625707626343</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">4.40178775787354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44871520996094</t>
+    <t xml:space="preserve">4.44871473312378</t>
   </si>
   <si>
     <t xml:space="preserve">4.42994403839111</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">4.41117334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39240169525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24223470687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30793333053589</t>
+    <t xml:space="preserve">4.39240217208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2422342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30793285369873</t>
   </si>
   <si>
     <t xml:space="preserve">4.17653608322144</t>
@@ -1397,28 +1397,28 @@
     <t xml:space="preserve">4.62703895568848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61765336990356</t>
+    <t xml:space="preserve">4.61765384674072</t>
   </si>
   <si>
     <t xml:space="preserve">4.51441335678101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57072591781616</t>
+    <t xml:space="preserve">4.57072639465332</t>
   </si>
   <si>
     <t xml:space="preserve">4.67396640777588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80536270141602</t>
+    <t xml:space="preserve">4.80536317825317</t>
   </si>
   <si>
     <t xml:space="preserve">4.78659200668335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86167621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84290504455566</t>
+    <t xml:space="preserve">4.86167573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84290456771851</t>
   </si>
   <si>
     <t xml:space="preserve">4.89921760559082</t>
@@ -1430,10 +1430,10 @@
     <t xml:space="preserve">4.5988826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53318405151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58011150360107</t>
+    <t xml:space="preserve">4.53318452835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58011198043823</t>
   </si>
   <si>
     <t xml:space="preserve">4.6927375793457</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">4.74905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73027944564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71150827407837</t>
+    <t xml:space="preserve">4.73027896881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71150875091553</t>
   </si>
   <si>
     <t xml:space="preserve">4.76782131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95553112030029</t>
+    <t xml:space="preserve">4.95553064346313</t>
   </si>
   <si>
     <t xml:space="preserve">4.88044691085815</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">4.91798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99307250976562</t>
+    <t xml:space="preserve">4.99307298660278</t>
   </si>
   <si>
     <t xml:space="preserve">4.93675994873047</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">6.60737419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28826808929443</t>
+    <t xml:space="preserve">6.28826761245728</t>
   </si>
   <si>
     <t xml:space="preserve">6.1568717956543</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">5.96916246414185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70636892318726</t>
+    <t xml:space="preserve">5.7063684463501</t>
   </si>
   <si>
     <t xml:space="preserve">5.53743028640747</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">5.87530755996704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66882658004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68759727478027</t>
+    <t xml:space="preserve">5.66882705688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68759775161743</t>
   </si>
   <si>
     <t xml:space="preserve">5.83776521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59374284744263</t>
+    <t xml:space="preserve">5.59374332427979</t>
   </si>
   <si>
     <t xml:space="preserve">5.38726234436035</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">5.10569858551025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68335199356079</t>
+    <t xml:space="preserve">4.68335151672363</t>
   </si>
   <si>
     <t xml:space="preserve">4.14837980270386</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">3.62279319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55709481239319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37877082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50078225135803</t>
+    <t xml:space="preserve">3.55709505081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37877106666565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50078201293945</t>
   </si>
   <si>
     <t xml:space="preserve">3.5664803981781</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">3.75418996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70726251602173</t>
+    <t xml:space="preserve">3.70726275444031</t>
   </si>
   <si>
     <t xml:space="preserve">3.71664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8386595249176</t>
+    <t xml:space="preserve">3.83865928649902</t>
   </si>
   <si>
     <t xml:space="preserve">4.25162029266357</t>
@@ -1583,25 +1583,25 @@
     <t xml:space="preserve">4.12960910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16715049743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05452537536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76357555389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66972064971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65094995498657</t>
+    <t xml:space="preserve">4.16715097427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05452489852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76357579231262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66972088813782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65094971656799</t>
   </si>
   <si>
     <t xml:space="preserve">3.66033530235291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95128512382507</t>
+    <t xml:space="preserve">3.95128488540649</t>
   </si>
   <si>
     <t xml:space="preserve">4.29854726791382</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">4.31731843948364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15776491165161</t>
+    <t xml:space="preserve">4.15776538848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.10145235061646</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">4.13899421691895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88558626174927</t>
+    <t xml:space="preserve">3.88558650016785</t>
   </si>
   <si>
     <t xml:space="preserve">4.32670402526855</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">4.27977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.913743019104</t>
+    <t xml:space="preserve">3.91374325752258</t>
   </si>
   <si>
     <t xml:space="preserve">3.92312836647034</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">3.49139666557312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67910623550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38815641403198</t>
+    <t xml:space="preserve">3.67910599708557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3881561756134</t>
   </si>
   <si>
     <t xml:space="preserve">3.35999989509583</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.34122896194458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20044708251953</t>
+    <t xml:space="preserve">3.20044684410095</t>
   </si>
   <si>
     <t xml:space="preserve">3.24737429618835</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">3.47262573242188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57586574554443</t>
+    <t xml:space="preserve">3.57586598396301</t>
   </si>
   <si>
     <t xml:space="preserve">3.73541903495789</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">3.68849158287048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72603368759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52893853187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217878341675</t>
+    <t xml:space="preserve">3.72603344917297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52893877029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217854499817</t>
   </si>
   <si>
     <t xml:space="preserve">3.51016759872437</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">3.58525133132935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53832411766052</t>
+    <t xml:space="preserve">3.53832387924194</t>
   </si>
   <si>
     <t xml:space="preserve">3.80111742019653</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">3.48201107978821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46324014663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4444694519043</t>
+    <t xml:space="preserve">3.46324038505554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44446921348572</t>
   </si>
   <si>
     <t xml:space="preserve">3.42569851875305</t>
@@ -1742,13 +1742,13 @@
     <t xml:space="preserve">3.41631293296814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39754199981689</t>
+    <t xml:space="preserve">3.39754176139832</t>
   </si>
   <si>
     <t xml:space="preserve">3.21921801567078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1910617351532</t>
+    <t xml:space="preserve">3.19106149673462</t>
   </si>
   <si>
     <t xml:space="preserve">3.17229056358337</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">3.23798894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14413404464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25675964355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36938524246216</t>
+    <t xml:space="preserve">3.14413380622864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25675988197327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36938548088074</t>
   </si>
   <si>
     <t xml:space="preserve">3.15351939201355</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">3.18167614936829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29430174827576</t>
+    <t xml:space="preserve">3.29430150985718</t>
   </si>
   <si>
     <t xml:space="preserve">3.2661452293396</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">3.12536311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04089379310608</t>
+    <t xml:space="preserve">3.04089403152466</t>
   </si>
   <si>
     <t xml:space="preserve">3.05027914047241</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">2.93765377998352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95642447471619</t>
+    <t xml:space="preserve">2.95642471313477</t>
   </si>
   <si>
     <t xml:space="preserve">3.03150844573975</t>
@@ -1808,19 +1808,19 @@
     <t xml:space="preserve">3.02212285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92826795578003</t>
+    <t xml:space="preserve">2.92826819419861</t>
   </si>
   <si>
     <t xml:space="preserve">2.94703912734985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90011167526245</t>
+    <t xml:space="preserve">2.90011143684387</t>
   </si>
   <si>
     <t xml:space="preserve">2.97519564628601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27553057670593</t>
+    <t xml:space="preserve">3.27553081512451</t>
   </si>
   <si>
     <t xml:space="preserve">3.33184361457825</t>
@@ -2283,6 +2283,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.29999995231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20000004768372</t>
   </si>
 </sst>
 </file>
@@ -6152,7 +6155,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G136" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6178,7 +6181,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G137" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6204,7 +6207,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G138" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -6230,7 +6233,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6256,7 +6259,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G140" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -6282,7 +6285,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -6334,7 +6337,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G143" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6360,7 +6363,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G144" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6386,7 +6389,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G145" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -6412,7 +6415,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G146" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6438,7 +6441,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G147" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6464,7 +6467,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G148" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6490,7 +6493,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G149" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6516,7 +6519,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G150" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6542,7 +6545,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G151" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6568,7 +6571,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G152" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6594,7 +6597,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G153" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6620,7 +6623,7 @@
         <v>2.13800001144409</v>
       </c>
       <c r="G154" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6646,7 +6649,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G155" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -6672,7 +6675,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G156" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -6698,7 +6701,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G157" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -6724,7 +6727,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -6750,7 +6753,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G159" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -6776,7 +6779,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G160" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -6802,7 +6805,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G161" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6828,7 +6831,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G162" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6854,7 +6857,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G163" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6880,7 +6883,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G164" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6906,7 +6909,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G165" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6932,7 +6935,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G166" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6958,7 +6961,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G167" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6984,7 +6987,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G168" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7010,7 +7013,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G169" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7036,7 +7039,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G170" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7062,7 +7065,7 @@
         <v>2.11800003051758</v>
       </c>
       <c r="G171" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7088,7 +7091,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G172" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7114,7 +7117,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G173" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7140,7 +7143,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G174" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7166,7 +7169,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G175" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7192,7 +7195,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G176" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7218,7 +7221,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G177" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7244,7 +7247,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G178" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7270,7 +7273,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7296,7 +7299,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G180" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7322,7 +7325,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G181" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7348,7 +7351,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7374,7 +7377,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7400,7 +7403,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7426,7 +7429,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G185" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7452,7 +7455,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G186" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7478,7 +7481,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G187" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7504,7 +7507,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G188" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7530,7 +7533,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G189" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7556,7 +7559,7 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7582,7 +7585,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G191" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7608,7 +7611,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G192" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7634,7 +7637,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G193" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7660,7 +7663,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G194" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7686,7 +7689,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7712,7 +7715,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G196" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7738,7 +7741,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G197" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7764,7 +7767,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7790,7 +7793,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7816,7 +7819,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G200" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7842,7 +7845,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G201" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7868,7 +7871,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G202" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7894,7 +7897,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G203" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7920,7 +7923,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G204" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7946,7 +7949,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G205" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7972,7 +7975,7 @@
         <v>1.99899995326996</v>
       </c>
       <c r="G206" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -7998,7 +8001,7 @@
         <v>1.95099997520447</v>
       </c>
       <c r="G207" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8024,7 +8027,7 @@
         <v>1.9889999628067</v>
       </c>
       <c r="G208" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8050,7 +8053,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G209" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8076,7 +8079,7 @@
         <v>1.94700002670288</v>
       </c>
       <c r="G210" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8102,7 +8105,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G211" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8128,7 +8131,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G212" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8154,7 +8157,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G213" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8180,7 +8183,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G214" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8206,7 +8209,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G215" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8232,7 +8235,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G216" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8258,7 +8261,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G217" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8284,7 +8287,7 @@
         <v>1.90199995040894</v>
       </c>
       <c r="G218" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8310,7 +8313,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G219" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8336,7 +8339,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G220" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8362,7 +8365,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G221" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8388,7 +8391,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G222" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8414,7 +8417,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G223" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8440,7 +8443,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G224" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8466,7 +8469,7 @@
         <v>1.85399997234344</v>
       </c>
       <c r="G225" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8492,7 +8495,7 @@
         <v>1.90600001811981</v>
       </c>
       <c r="G226" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8518,7 +8521,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G227" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8544,7 +8547,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G228" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8570,7 +8573,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G229" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8596,7 +8599,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G230" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8622,7 +8625,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G231" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8648,7 +8651,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G232" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8674,7 +8677,7 @@
         <v>1.87199997901917</v>
       </c>
       <c r="G233" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8700,7 +8703,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G234" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8726,7 +8729,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G235" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8752,7 +8755,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G236" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8778,7 +8781,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G237" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8804,7 +8807,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G238" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8830,7 +8833,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G239" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8856,7 +8859,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G240" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8882,7 +8885,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G241" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8908,7 +8911,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8934,7 +8937,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G243" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8960,7 +8963,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G244" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8986,7 +8989,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G245" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9012,7 +9015,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G246" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9038,7 +9041,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G247" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9064,7 +9067,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G248" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9090,7 +9093,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G249" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9116,7 +9119,7 @@
         <v>1.85699999332428</v>
       </c>
       <c r="G250" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9142,7 +9145,7 @@
         <v>1.88100004196167</v>
       </c>
       <c r="G251" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9168,7 +9171,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G252" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9194,7 +9197,7 @@
         <v>1.84399998188019</v>
       </c>
       <c r="G253" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9220,7 +9223,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G254" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9246,7 +9249,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G255" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9272,7 +9275,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G256" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9298,7 +9301,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G257" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9324,7 +9327,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G258" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9350,7 +9353,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G259" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9376,7 +9379,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G260" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9402,7 +9405,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G261" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9428,7 +9431,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G262" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9454,7 +9457,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G263" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9480,7 +9483,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G264" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9506,7 +9509,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G265" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9532,7 +9535,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G266" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9558,7 +9561,7 @@
         <v>1.84300005435944</v>
       </c>
       <c r="G267" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9584,7 +9587,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G268" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9610,7 +9613,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G269" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9636,7 +9639,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G270" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9662,7 +9665,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G271" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9688,7 +9691,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G272" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9714,7 +9717,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G273" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9740,7 +9743,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G274" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9766,7 +9769,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G275" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9792,7 +9795,7 @@
         <v>1.97899997234344</v>
       </c>
       <c r="G276" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9818,7 +9821,7 @@
         <v>1.91799998283386</v>
       </c>
       <c r="G277" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9844,7 +9847,7 @@
         <v>1.88399994373322</v>
       </c>
       <c r="G278" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9870,7 +9873,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G279" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9896,7 +9899,7 @@
         <v>1.9190000295639</v>
       </c>
       <c r="G280" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9922,7 +9925,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G281" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9948,7 +9951,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G282" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9974,7 +9977,7 @@
         <v>1.90100002288818</v>
       </c>
       <c r="G283" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10000,7 +10003,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G284" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10026,7 +10029,7 @@
         <v>1.93799996376038</v>
       </c>
       <c r="G285" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10052,7 +10055,7 @@
         <v>1.87300002574921</v>
       </c>
       <c r="G286" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10078,7 +10081,7 @@
         <v>1.93099999427795</v>
       </c>
       <c r="G287" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10104,7 +10107,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G288" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10130,7 +10133,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G289" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10156,7 +10159,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G290" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10182,7 +10185,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G291" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10208,7 +10211,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G292" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10234,7 +10237,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G293" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10260,7 +10263,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G294" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10286,7 +10289,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G295" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10312,7 +10315,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G296" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10338,7 +10341,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G297" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10364,7 +10367,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G298" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10390,7 +10393,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G299" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10416,7 +10419,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G300" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10442,7 +10445,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G301" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10468,7 +10471,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G302" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10494,7 +10497,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G303" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10520,7 +10523,7 @@
         <v>1.875</v>
       </c>
       <c r="G304" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10546,7 +10549,7 @@
         <v>1.87899994850159</v>
       </c>
       <c r="G305" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10572,7 +10575,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G306" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10598,7 +10601,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10624,7 +10627,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G308" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10650,7 +10653,7 @@
         <v>2</v>
       </c>
       <c r="G309" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10676,7 +10679,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G310" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10702,7 +10705,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G311" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10728,7 +10731,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G312" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10754,7 +10757,7 @@
         <v>2.06599998474121</v>
       </c>
       <c r="G313" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10780,7 +10783,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G314" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10806,7 +10809,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G315" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10832,7 +10835,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G316" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10858,7 +10861,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G317" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10910,7 +10913,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G319" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10936,7 +10939,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G320" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10962,7 +10965,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G321" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10988,7 +10991,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G322" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11014,7 +11017,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G323" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11040,7 +11043,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G324" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11066,7 +11069,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G325" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11118,7 +11121,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G327" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11144,7 +11147,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G328" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11170,7 +11173,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G329" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11196,7 +11199,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G330" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11222,7 +11225,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G331" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11248,7 +11251,7 @@
         <v>2.12199997901917</v>
       </c>
       <c r="G332" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11274,7 +11277,7 @@
         <v>2.10800004005432</v>
       </c>
       <c r="G333" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11300,7 +11303,7 @@
         <v>2.13199996948242</v>
       </c>
       <c r="G334" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11326,7 +11329,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G335" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11352,7 +11355,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G336" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11456,7 +11459,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G340" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11482,7 +11485,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11508,7 +11511,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G342" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11534,7 +11537,7 @@
         <v>2.21199989318848</v>
       </c>
       <c r="G343" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11560,7 +11563,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G344" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11612,7 +11615,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G346" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11638,7 +11641,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G347" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11664,7 +11667,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G348" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11690,7 +11693,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G349" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11716,7 +11719,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G350" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11768,7 +11771,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G352" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11794,7 +11797,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G353" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11846,7 +11849,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G355" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11872,7 +11875,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G356" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11898,7 +11901,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G357" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11924,7 +11927,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G358" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11950,7 +11953,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G359" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11976,7 +11979,7 @@
         <v>2.25</v>
       </c>
       <c r="G360" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12002,7 +12005,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G361" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12028,7 +12031,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G362" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12054,7 +12057,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G363" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12080,7 +12083,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G364" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12106,7 +12109,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G365" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12132,7 +12135,7 @@
         <v>2.25</v>
       </c>
       <c r="G366" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12158,7 +12161,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G367" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12184,7 +12187,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G368" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12210,7 +12213,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G369" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12236,7 +12239,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G370" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12262,7 +12265,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G371" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12288,7 +12291,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12314,7 +12317,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G373" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12340,7 +12343,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G374" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12366,7 +12369,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G375" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12392,7 +12395,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G376" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12418,7 +12421,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G377" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12444,7 +12447,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G378" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12470,7 +12473,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G379" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12496,7 +12499,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12522,7 +12525,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G381" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12548,7 +12551,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G382" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12574,7 +12577,7 @@
         <v>2.18199992179871</v>
       </c>
       <c r="G383" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12600,7 +12603,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G384" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12626,7 +12629,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G385" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12652,7 +12655,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G386" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12678,7 +12681,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G387" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12704,7 +12707,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G388" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12730,7 +12733,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12756,7 +12759,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G390" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12782,7 +12785,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G391" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12808,7 +12811,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G392" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12834,7 +12837,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G393" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12860,7 +12863,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G394" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12886,7 +12889,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12912,7 +12915,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G396" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12938,7 +12941,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G397" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12964,7 +12967,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G398" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12990,7 +12993,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G399" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13016,7 +13019,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G400" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13042,7 +13045,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13068,7 +13071,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G402" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13094,7 +13097,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G403" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13120,7 +13123,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G404" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13146,7 +13149,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G405" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13172,7 +13175,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G406" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13198,7 +13201,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G407" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13224,7 +13227,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G408" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13250,7 +13253,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G409" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13276,7 +13279,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G410" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13302,7 +13305,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G411" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13328,7 +13331,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G412" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13354,7 +13357,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G413" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13380,7 +13383,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13406,7 +13409,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G415" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13432,7 +13435,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G416" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13458,7 +13461,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G417" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13484,7 +13487,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G418" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13510,7 +13513,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G419" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13536,7 +13539,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G420" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13562,7 +13565,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13588,7 +13591,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G422" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13614,7 +13617,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G423" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13640,7 +13643,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G424" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13666,7 +13669,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G425" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13692,7 +13695,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G426" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13718,7 +13721,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G427" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13744,7 +13747,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G428" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13770,7 +13773,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G429" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13796,7 +13799,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G430" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13822,7 +13825,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G431" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13848,7 +13851,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13874,7 +13877,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G433" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13900,7 +13903,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13926,7 +13929,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13952,7 +13955,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G436" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13978,7 +13981,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G437" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14004,7 +14007,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G438" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14030,7 +14033,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G439" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14056,7 +14059,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G440" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14082,7 +14085,7 @@
         <v>2.5</v>
       </c>
       <c r="G441" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14108,7 +14111,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G442" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14134,7 +14137,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G443" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14160,7 +14163,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G444" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14186,7 +14189,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G445" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14212,7 +14215,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G446" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14238,7 +14241,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G447" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14264,7 +14267,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G448" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14290,7 +14293,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G449" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14316,7 +14319,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G450" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14342,7 +14345,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14368,7 +14371,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G452" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14394,7 +14397,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G453" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14420,7 +14423,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G454" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14446,7 +14449,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G455" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14472,7 +14475,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G456" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14498,7 +14501,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G457" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14524,7 +14527,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G458" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14550,7 +14553,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G459" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14576,7 +14579,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G460" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14602,7 +14605,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G461" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14628,7 +14631,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G462" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14654,7 +14657,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G463" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14680,7 +14683,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G464" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14706,7 +14709,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G465" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14732,7 +14735,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G466" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14758,7 +14761,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G467" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14784,7 +14787,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G468" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14810,7 +14813,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G469" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14836,7 +14839,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G470" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14862,7 +14865,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G471" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14888,7 +14891,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G472" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14914,7 +14917,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G473" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14940,7 +14943,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14966,7 +14969,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G475" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14992,7 +14995,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G476" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15018,7 +15021,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G477" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15044,7 +15047,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G478" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15070,7 +15073,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G479" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15096,7 +15099,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G480" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15122,7 +15125,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G481" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15148,7 +15151,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G482" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15174,7 +15177,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G483" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15200,7 +15203,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G484" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15226,7 +15229,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G485" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15252,7 +15255,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G486" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15278,7 +15281,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G487" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15304,7 +15307,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G488" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15330,7 +15333,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G489" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15356,7 +15359,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G490" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15382,7 +15385,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G491" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15408,7 +15411,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G492" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15434,7 +15437,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G493" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15460,7 +15463,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G494" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15486,7 +15489,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G495" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15512,7 +15515,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G496" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15538,7 +15541,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G497" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15564,7 +15567,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G498" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15590,7 +15593,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G499" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15616,7 +15619,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G500" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15642,7 +15645,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G501" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15668,7 +15671,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G502" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15694,7 +15697,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G503" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15720,7 +15723,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G504" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15746,7 +15749,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G505" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15772,7 +15775,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G506" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15798,7 +15801,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G507" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15824,7 +15827,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G508" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15850,7 +15853,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G509" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15876,7 +15879,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G510" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15902,7 +15905,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G511" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15928,7 +15931,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G512" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15954,7 +15957,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G513" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15980,7 +15983,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16006,7 +16009,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G515" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16032,7 +16035,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G516" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16058,7 +16061,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16084,7 +16087,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G518" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16110,7 +16113,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G519" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16136,7 +16139,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G520" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16162,7 +16165,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G521" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16188,7 +16191,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G522" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16214,7 +16217,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G523" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16240,7 +16243,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G524" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16266,7 +16269,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G525" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16292,7 +16295,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G526" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16318,7 +16321,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G527" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16344,7 +16347,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G528" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16370,7 +16373,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G529" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16396,7 +16399,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G530" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16422,7 +16425,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G531" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16448,7 +16451,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16474,7 +16477,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G533" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16500,7 +16503,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G534" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16526,7 +16529,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G535" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16552,7 +16555,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G536" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16578,7 +16581,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G537" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16604,7 +16607,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G538" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16630,7 +16633,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G539" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16656,7 +16659,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16682,7 +16685,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G541" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16708,7 +16711,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G542" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16734,7 +16737,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16760,7 +16763,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G544" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16786,7 +16789,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G545" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16812,7 +16815,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G546" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16838,7 +16841,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G547" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16864,7 +16867,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G548" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16890,7 +16893,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G549" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16916,7 +16919,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G550" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16942,7 +16945,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G551" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16968,7 +16971,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G552" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16994,7 +16997,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G553" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17020,7 +17023,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G554" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17046,7 +17049,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G555" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17072,7 +17075,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G556" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17098,7 +17101,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G557" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17124,7 +17127,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17150,7 +17153,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G559" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17176,7 +17179,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G560" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17202,7 +17205,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G561" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17228,7 +17231,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G562" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17254,7 +17257,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G563" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17280,7 +17283,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17306,7 +17309,7 @@
         <v>2.5</v>
       </c>
       <c r="G565" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17332,7 +17335,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17358,7 +17361,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G567" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17384,7 +17387,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17410,7 +17413,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G569" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17436,7 +17439,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G570" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17462,7 +17465,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17488,7 +17491,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17514,7 +17517,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G573" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17540,7 +17543,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G574" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17566,7 +17569,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G575" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17592,7 +17595,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17618,7 +17621,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G577" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17644,7 +17647,7 @@
         <v>2.5</v>
       </c>
       <c r="G578" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17670,7 +17673,7 @@
         <v>2.5</v>
       </c>
       <c r="G579" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17696,7 +17699,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G580" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17722,7 +17725,7 @@
         <v>2.5</v>
       </c>
       <c r="G581" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17748,7 +17751,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G582" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17774,7 +17777,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G583" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17800,7 +17803,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17826,7 +17829,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17852,7 +17855,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G586" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17878,7 +17881,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G587" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17904,7 +17907,7 @@
         <v>2.5</v>
       </c>
       <c r="G588" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17930,7 +17933,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17956,7 +17959,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17982,7 +17985,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18008,7 +18011,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G592" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18034,7 +18037,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G593" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18060,7 +18063,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G594" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18086,7 +18089,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G595" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18112,7 +18115,7 @@
         <v>2.75</v>
       </c>
       <c r="G596" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18138,7 +18141,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18164,7 +18167,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G598" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18190,7 +18193,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G599" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18216,7 +18219,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G600" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18242,7 +18245,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G601" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18268,7 +18271,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G602" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18294,7 +18297,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18320,7 +18323,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G604" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18346,7 +18349,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G605" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18372,7 +18375,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G606" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18398,7 +18401,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G607" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18424,7 +18427,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G608" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18450,7 +18453,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G609" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18476,7 +18479,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G610" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18502,7 +18505,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G611" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18528,7 +18531,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18554,7 +18557,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18580,7 +18583,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18606,7 +18609,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18632,7 +18635,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18658,7 +18661,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18684,7 +18687,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18710,7 +18713,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18736,7 +18739,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18762,7 +18765,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18788,7 +18791,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18814,7 +18817,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18840,7 +18843,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18866,7 +18869,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18892,7 +18895,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18918,7 +18921,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18944,7 +18947,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18970,7 +18973,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18996,7 +18999,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19022,7 +19025,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19048,7 +19051,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19074,7 +19077,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19100,7 +19103,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19126,7 +19129,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19152,7 +19155,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19178,7 +19181,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19204,7 +19207,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19230,7 +19233,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19256,7 +19259,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19282,7 +19285,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19308,7 +19311,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19334,7 +19337,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19360,7 +19363,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19386,7 +19389,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19412,7 +19415,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19438,7 +19441,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19464,7 +19467,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19490,7 +19493,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19516,7 +19519,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19542,7 +19545,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19568,7 +19571,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19594,7 +19597,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19620,7 +19623,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G654" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19646,7 +19649,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19672,7 +19675,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19698,7 +19701,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19724,7 +19727,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19750,7 +19753,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19776,7 +19779,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19802,7 +19805,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19828,7 +19831,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19854,7 +19857,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19880,7 +19883,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19906,7 +19909,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19932,7 +19935,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19958,7 +19961,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19984,7 +19987,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20010,7 +20013,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G669" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20036,7 +20039,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20062,7 +20065,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20088,7 +20091,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20114,7 +20117,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20140,7 +20143,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20166,7 +20169,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20192,7 +20195,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20218,7 +20221,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20244,7 +20247,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20270,7 +20273,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20296,7 +20299,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20322,7 +20325,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20348,7 +20351,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20374,7 +20377,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20400,7 +20403,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20426,7 +20429,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20452,7 +20455,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20478,7 +20481,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20504,7 +20507,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20530,7 +20533,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20556,7 +20559,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20582,7 +20585,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20608,7 +20611,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20634,7 +20637,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20660,7 +20663,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20686,7 +20689,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20712,7 +20715,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20738,7 +20741,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20764,7 +20767,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20790,7 +20793,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20816,7 +20819,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20842,7 +20845,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20868,7 +20871,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20894,7 +20897,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20920,7 +20923,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20946,7 +20949,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20972,7 +20975,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20998,7 +21001,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21024,7 +21027,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G708" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21050,7 +21053,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21076,7 +21079,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21102,7 +21105,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21128,7 +21131,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21154,7 +21157,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G713" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21180,7 +21183,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G714" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21206,7 +21209,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G715" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21232,7 +21235,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G716" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21258,7 +21261,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21284,7 +21287,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21310,7 +21313,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21336,7 +21339,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21362,7 +21365,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G721" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21388,7 +21391,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G722" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21414,7 +21417,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21440,7 +21443,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G724" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21466,7 +21469,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G725" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21492,7 +21495,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21518,7 +21521,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G727" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21544,7 +21547,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21570,7 +21573,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G729" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21596,7 +21599,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21622,7 +21625,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G731" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21648,7 +21651,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G732" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21674,7 +21677,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G733" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21700,7 +21703,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21726,7 +21729,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21752,7 +21755,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21778,7 +21781,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21804,7 +21807,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21830,7 +21833,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21856,7 +21859,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21882,7 +21885,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21908,7 +21911,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21934,7 +21937,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21960,7 +21963,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21986,7 +21989,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22012,7 +22015,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22038,7 +22041,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22064,7 +22067,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22090,7 +22093,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22116,7 +22119,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22142,7 +22145,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22168,7 +22171,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22194,7 +22197,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22220,7 +22223,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22246,7 +22249,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22272,7 +22275,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22298,7 +22301,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22324,7 +22327,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22350,7 +22353,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G759" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22376,7 +22379,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G760" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22402,7 +22405,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G761" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22428,7 +22431,7 @@
         <v>2.75</v>
       </c>
       <c r="G762" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22454,7 +22457,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G763" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22480,7 +22483,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G764" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22506,7 +22509,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22532,7 +22535,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G766" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22558,7 +22561,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G767" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22584,7 +22587,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G768" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22610,7 +22613,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22636,7 +22639,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G770" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22662,7 +22665,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G771" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22688,7 +22691,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22714,7 +22717,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22740,7 +22743,7 @@
         <v>3</v>
       </c>
       <c r="G774" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22766,7 +22769,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22792,7 +22795,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G776" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22818,7 +22821,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G777" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22844,7 +22847,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G778" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22870,7 +22873,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22896,7 +22899,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22922,7 +22925,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G781" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22948,7 +22951,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G782" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22974,7 +22977,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23000,7 +23003,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G784" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23026,7 +23029,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G785" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23052,7 +23055,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23078,7 +23081,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G787" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23104,7 +23107,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23130,7 +23133,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G789" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23156,7 +23159,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G790" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23182,7 +23185,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G791" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23208,7 +23211,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G792" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23234,7 +23237,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G793" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23260,7 +23263,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23286,7 +23289,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G795" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23312,7 +23315,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23338,7 +23341,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G797" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23364,7 +23367,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G798" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23390,7 +23393,7 @@
         <v>3.5</v>
       </c>
       <c r="G799" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23416,7 +23419,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23442,7 +23445,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G801" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23468,7 +23471,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G802" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23494,7 +23497,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23520,7 +23523,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G804" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23546,7 +23549,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23572,7 +23575,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23598,7 +23601,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23624,7 +23627,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23650,7 +23653,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G809" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23676,7 +23679,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23702,7 +23705,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G811" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23728,7 +23731,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23754,7 +23757,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G813" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23780,7 +23783,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23806,7 +23809,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G815" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23832,7 +23835,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23858,7 +23861,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G817" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23884,7 +23887,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G818" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23910,7 +23913,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G819" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23936,7 +23939,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G820" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23962,7 +23965,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G821" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23988,7 +23991,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G822" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24014,7 +24017,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G823" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24040,7 +24043,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24066,7 +24069,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24092,7 +24095,7 @@
         <v>4</v>
       </c>
       <c r="G826" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24118,7 +24121,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G827" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24144,7 +24147,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G828" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24170,7 +24173,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24196,7 +24199,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G830" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24222,7 +24225,7 @@
         <v>4</v>
       </c>
       <c r="G831" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24248,7 +24251,7 @@
         <v>4</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24274,7 +24277,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G833" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24300,7 +24303,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24326,7 +24329,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24352,7 +24355,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G836" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24378,7 +24381,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24404,7 +24407,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G838" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24430,7 +24433,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G839" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24456,7 +24459,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24482,7 +24485,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G841" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24508,7 +24511,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24534,7 +24537,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24560,7 +24563,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G844" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24586,7 +24589,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G845" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24612,7 +24615,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G846" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24638,7 +24641,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24664,7 +24667,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24690,7 +24693,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G849" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24716,7 +24719,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24742,7 +24745,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G851" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24768,7 +24771,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24794,7 +24797,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G853" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24820,7 +24823,7 @@
         <v>4.25</v>
       </c>
       <c r="G854" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24846,7 +24849,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24872,7 +24875,7 @@
         <v>4.25</v>
       </c>
       <c r="G856" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24898,7 +24901,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G857" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24924,7 +24927,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24950,7 +24953,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G859" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24976,7 +24979,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25002,7 +25005,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G861" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25028,7 +25031,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G862" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25054,7 +25057,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G863" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25080,7 +25083,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G864" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25106,7 +25109,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25158,7 +25161,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G867" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25262,7 +25265,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G871" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25314,7 +25317,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25444,7 +25447,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G878" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25808,7 +25811,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25886,7 +25889,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G895" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26120,7 +26123,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G904" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -30306,7 +30309,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1065" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30592,7 +30595,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1076" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30618,7 +30621,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1077" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30852,7 +30855,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1086" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31216,7 +31219,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1100" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31320,7 +31323,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1104" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32828,7 +32831,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1162" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32854,7 +32857,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1163" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33296,7 +33299,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1180" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33426,7 +33429,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33634,7 +33637,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1193" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -58472,27 +58475,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6494328704</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>17829</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>2.33999991416931</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>2.1800000667572</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>757</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>1164</v>
       </c>
-      <c r="C2149" t="n">
+      <c r="C2150" t="n">
         <v>2.24000000953674</v>
       </c>
-      <c r="D2149" t="n">
+      <c r="D2150" t="n">
         <v>2.16000008583069</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>2.24000000953674</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>2.24000000953674</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>754</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6493518519</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>2.1800000667572</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>2.14000010490417</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>736</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825943946838</t>
+    <t xml:space="preserve">1.85825932025909</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">1.9132376909256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92109167575836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88496315479279</t>
+    <t xml:space="preserve">1.92109155654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88496327400208</t>
   </si>
   <si>
     <t xml:space="preserve">1.92423319816589</t>
@@ -62,193 +62,196 @@
     <t xml:space="preserve">1.82998490333557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79856896400452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76715302467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354685783386</t>
+    <t xml:space="preserve">1.79856884479523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76715278625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354709625244</t>
   </si>
   <si>
     <t xml:space="preserve">1.86925506591797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8771094083786</t>
+    <t xml:space="preserve">1.87710905075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281725883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86768424510956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584775447845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83783912658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87553858757019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82684326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8456928730011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81898951530457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83626842498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85983037948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80485236644745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82056033611298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81741869449615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85040545463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88025057315826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81427681446075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85197651386261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84412217140198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84098064899445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82370173931122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8111355304718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82213079929352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679976463318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94622433185577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407843589783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96350300312042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507394313812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9933488368988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00434398651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.987065076828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00905656814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02476453781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051624298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96193242073059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994104862213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564913749695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637945175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87396728992462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93378698825836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017504692078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9223153591156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050956726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656334400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509159564972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9583694934845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91739916801453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9354259967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94198131561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248285770416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084420681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83545911312103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8026829957962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84201407432556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83218157291412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88298439979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86823499202728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90756618976593</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281702041626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86768424510956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584775447845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83783888816833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87553811073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82684350013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84569275379181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81898939609528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83626842498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85983037948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80485200881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82056033611298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.817418217659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85040557384491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88025057315826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81427693367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85197651386261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84412229061127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84098052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82370185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81113541126251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8221310377121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679976463318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94622445106506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407819747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350347995758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9650741815567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99334871768951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00434398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98706519603729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00905656814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02476453781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051624298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96193242073059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564925670624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637909412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87396740913391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93378698825836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017516613007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9223153591156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050968647003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656334400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509159564972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9583694934845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91739904880524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93542611598969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94198107719421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248285770416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084396839142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83545899391174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80268287658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84201419353485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83218145370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88298416137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86823523044586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90756630897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592765808105</t>
+    <t xml:space="preserve">1.90592741966248</t>
   </si>
   <si>
     <t xml:space="preserve">1.88462293148041</t>
@@ -263,61 +266,61 @@
     <t xml:space="preserve">1.8977335691452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82398748397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75843524932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76662921905518</t>
+    <t xml:space="preserve">1.82398736476898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75843513011932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76662933826447</t>
   </si>
   <si>
     <t xml:space="preserve">1.78629505634308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77646219730377</t>
+    <t xml:space="preserve">1.77646207809448</t>
   </si>
   <si>
     <t xml:space="preserve">1.75188016891479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75351905822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77973973751068</t>
+    <t xml:space="preserve">1.75351893901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77973961830139</t>
   </si>
   <si>
     <t xml:space="preserve">1.75024127960205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72074282169342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66993999481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72893679141998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69616067409515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76007413864136</t>
+    <t xml:space="preserve">1.72074270248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66993987560272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72893667221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69616079330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76007401943207</t>
   </si>
   <si>
     <t xml:space="preserve">1.70435464382172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7354918718338</t>
+    <t xml:space="preserve">1.73549199104309</t>
   </si>
   <si>
     <t xml:space="preserve">1.73385322093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71254885196686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63060867786407</t>
+    <t xml:space="preserve">1.71254873275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63060855865479</t>
   </si>
   <si>
     <t xml:space="preserve">1.67157876491547</t>
@@ -326,13 +329,13 @@
     <t xml:space="preserve">1.66666233539581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61012375354767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62241470813751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6633847951889</t>
+    <t xml:space="preserve">1.61012363433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62241458892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66338467597961</t>
   </si>
   <si>
     <t xml:space="preserve">1.67321753501892</t>
@@ -344,22 +347,22 @@
     <t xml:space="preserve">1.63880264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62569224834442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66830122470856</t>
+    <t xml:space="preserve">1.62569236755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66830110549927</t>
   </si>
   <si>
     <t xml:space="preserve">1.65519070625305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64699673652649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63798308372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59865188598633</t>
+    <t xml:space="preserve">1.64699685573578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63798320293427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59865200519562</t>
   </si>
   <si>
     <t xml:space="preserve">1.62978911399841</t>
@@ -368,13 +371,13 @@
     <t xml:space="preserve">1.58308339118958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59537434577942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.578986287117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59127748012543</t>
+    <t xml:space="preserve">1.59537446498871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57898640632629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59127736091614</t>
   </si>
   <si>
     <t xml:space="preserve">1.54047453403473</t>
@@ -386,22 +389,22 @@
     <t xml:space="preserve">1.56997299194336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56669533252716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5585013628006</t>
+    <t xml:space="preserve">1.56669521331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55850124359131</t>
   </si>
   <si>
     <t xml:space="preserve">1.6027489900589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60356855392456</t>
+    <t xml:space="preserve">1.60356843471527</t>
   </si>
   <si>
     <t xml:space="preserve">1.6060266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51917004585266</t>
+    <t xml:space="preserve">1.51917016506195</t>
   </si>
   <si>
     <t xml:space="preserve">1.5617790222168</t>
@@ -410,13 +413,13 @@
     <t xml:space="preserve">1.54539108276367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37659430503845</t>
+    <t xml:space="preserve">1.37659418582916</t>
   </si>
   <si>
     <t xml:space="preserve">1.4126478433609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39462113380432</t>
+    <t xml:space="preserve">1.39462101459503</t>
   </si>
   <si>
     <t xml:space="preserve">1.45771503448486</t>
@@ -452,49 +455,49 @@
     <t xml:space="preserve">1.56423723697662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59291613101959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55686259269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52162826061249</t>
+    <t xml:space="preserve">1.59291625022888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55686247348785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52162837982178</t>
   </si>
   <si>
     <t xml:space="preserve">1.5412939786911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50442087650299</t>
+    <t xml:space="preserve">1.5044207572937</t>
   </si>
   <si>
     <t xml:space="preserve">1.5109760761261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55112683773041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51589262485504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55194616317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50851774215698</t>
+    <t xml:space="preserve">1.55112671852112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51589250564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55194628238678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50851786136627</t>
   </si>
   <si>
     <t xml:space="preserve">1.53228056430817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50933718681335</t>
+    <t xml:space="preserve">1.50933730602264</t>
   </si>
   <si>
     <t xml:space="preserve">1.5076984167099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50278210639954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49540746212006</t>
+    <t xml:space="preserve">1.50278198719025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49540734291077</t>
   </si>
   <si>
     <t xml:space="preserve">1.51015686988831</t>
@@ -503,25 +506,25 @@
     <t xml:space="preserve">1.57325053215027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58554148674011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59455490112305</t>
+    <t xml:space="preserve">1.5855416059494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59455502033234</t>
   </si>
   <si>
     <t xml:space="preserve">1.60684597492218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62159526348114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5716118812561</t>
+    <t xml:space="preserve">1.62159514427185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57161176204681</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375207424164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57243132591248</t>
+    <t xml:space="preserve">1.57243120670319</t>
   </si>
   <si>
     <t xml:space="preserve">1.58718037605286</t>
@@ -530,25 +533,25 @@
     <t xml:space="preserve">1.54621028900146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55768203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58799982070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5347386598587</t>
+    <t xml:space="preserve">1.55768191814423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58799970149994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53473877906799</t>
   </si>
   <si>
     <t xml:space="preserve">1.5822639465332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54702973365784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53883564472198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54784917831421</t>
+    <t xml:space="preserve">1.54702961444855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53883576393127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54784905910492</t>
   </si>
   <si>
     <t xml:space="preserve">1.55276560783386</t>
@@ -557,13 +560,13 @@
     <t xml:space="preserve">1.54948794841766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53801620006561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.548668384552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53637742996216</t>
+    <t xml:space="preserve">1.5380163192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54866850376129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53637754917145</t>
   </si>
   <si>
     <t xml:space="preserve">1.53965508937836</t>
@@ -575,58 +578,58 @@
     <t xml:space="preserve">1.65191304683685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69288325309753</t>
+    <t xml:space="preserve">1.69288313388824</t>
   </si>
   <si>
     <t xml:space="preserve">1.65355181694031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82070958614349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82890379428864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81743228435516</t>
+    <t xml:space="preserve">1.82070970535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82890391349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81743216514587</t>
   </si>
   <si>
     <t xml:space="preserve">1.81579351425171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87970662117004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79448890686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80104398727417</t>
+    <t xml:space="preserve">1.87970674037933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79448902606964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80104410648346</t>
   </si>
   <si>
     <t xml:space="preserve">1.73876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72729802131653</t>
+    <t xml:space="preserve">1.72729825973511</t>
   </si>
   <si>
     <t xml:space="preserve">1.74696373939514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76335167884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84693074226379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81087708473206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80923819541931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81251573562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86167967319489</t>
+    <t xml:space="preserve">1.76335144042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84693050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81087696552277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923807621002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81251561641693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86167979240417</t>
   </si>
   <si>
     <t xml:space="preserve">1.86495733261108</t>
@@ -635,70 +638,70 @@
     <t xml:space="preserve">1.85840201377869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87642908096313</t>
+    <t xml:space="preserve">1.87642896175385</t>
   </si>
   <si>
     <t xml:space="preserve">1.89937245845795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84856963157654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479646205902</t>
+    <t xml:space="preserve">1.84856975078583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479658126831</t>
   </si>
   <si>
     <t xml:space="preserve">1.93679428100586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93850803375244</t>
+    <t xml:space="preserve">1.93850827217102</t>
   </si>
   <si>
     <t xml:space="preserve">1.97107350826263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92822444438934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94193601608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94364988803864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95907580852509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96764576435089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92651033401489</t>
+    <t xml:space="preserve">1.92822420597076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94193613529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94365000724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95907604694366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9676456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92651009559631</t>
   </si>
   <si>
     <t xml:space="preserve">1.95393407344818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93336641788483</t>
+    <t xml:space="preserve">1.93336629867554</t>
   </si>
   <si>
     <t xml:space="preserve">1.90594255924225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8939448595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8716629743576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92993855476379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080070495605</t>
+    <t xml:space="preserve">1.89394474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87166309356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92993819713593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080058574677</t>
   </si>
   <si>
     <t xml:space="preserve">1.91451239585876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88708865642548</t>
+    <t xml:space="preserve">1.88708877563477</t>
   </si>
   <si>
     <t xml:space="preserve">1.87680494785309</t>
@@ -710,64 +713,64 @@
     <t xml:space="preserve">1.8853747844696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86994886398315</t>
+    <t xml:space="preserve">1.86994910240173</t>
   </si>
   <si>
     <t xml:space="preserve">1.88880300521851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90937054157257</t>
+    <t xml:space="preserve">1.90937030315399</t>
   </si>
   <si>
     <t xml:space="preserve">1.90251469612122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96421790122986</t>
+    <t xml:space="preserve">1.96421778202057</t>
   </si>
   <si>
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821353912354</t>
+    <t xml:space="preserve">1.98821341991425</t>
   </si>
   <si>
     <t xml:space="preserve">1.98649966716766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97964346408844</t>
+    <t xml:space="preserve">1.97964334487915</t>
   </si>
   <si>
     <t xml:space="preserve">2.12533164024353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08591032028198</t>
+    <t xml:space="preserve">2.0859100818634</t>
   </si>
   <si>
     <t xml:space="preserve">2.05677270889282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07905411720276</t>
+    <t xml:space="preserve">2.07905435562134</t>
   </si>
   <si>
     <t xml:space="preserve">2.0807683467865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06534242630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06020045280457</t>
+    <t xml:space="preserve">2.06534266471863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06020069122314</t>
   </si>
   <si>
     <t xml:space="preserve">2.07219815254211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13390159606934</t>
+    <t xml:space="preserve">2.13390135765076</t>
   </si>
   <si>
     <t xml:space="preserve">2.10819172859192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09962201118469</t>
+    <t xml:space="preserve">2.09962224960327</t>
   </si>
   <si>
     <t xml:space="preserve">2.10304999351501</t>
@@ -776,13 +779,13 @@
     <t xml:space="preserve">2.03963279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06877040863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11504793167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07391238212585</t>
+    <t xml:space="preserve">2.06877017021179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11504769325256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07391214370728</t>
   </si>
   <si>
     <t xml:space="preserve">2.09790802001953</t>
@@ -791,19 +794,19 @@
     <t xml:space="preserve">2.1167619228363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08248233795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705617904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12190389633179</t>
+    <t xml:space="preserve">2.08248257637024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705641746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12190365791321</t>
   </si>
   <si>
     <t xml:space="preserve">2.10647773742676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0893383026123</t>
+    <t xml:space="preserve">2.08933806419373</t>
   </si>
   <si>
     <t xml:space="preserve">2.05163049697876</t>
@@ -812,19 +815,19 @@
     <t xml:space="preserve">2.17675089836121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14247179031372</t>
+    <t xml:space="preserve">2.14247155189514</t>
   </si>
   <si>
     <t xml:space="preserve">2.1321873664856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13047385215759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15961098670959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11847567558289</t>
+    <t xml:space="preserve">2.13047361373901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15961122512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11847591400146</t>
   </si>
   <si>
     <t xml:space="preserve">2.09105205535889</t>
@@ -851,28 +854,28 @@
     <t xml:space="preserve">2.1407573223114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14932703971863</t>
+    <t xml:space="preserve">2.14932727813721</t>
   </si>
   <si>
     <t xml:space="preserve">2.13904356956482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17503714561462</t>
+    <t xml:space="preserve">2.17503690719604</t>
   </si>
   <si>
     <t xml:space="preserve">2.15104126930237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12018966674805</t>
+    <t xml:space="preserve">2.12018990516663</t>
   </si>
   <si>
     <t xml:space="preserve">2.1047637462616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06362819671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03277707099915</t>
+    <t xml:space="preserve">2.06362843513489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03277659416199</t>
   </si>
   <si>
     <t xml:space="preserve">2.0482029914856</t>
@@ -881,7 +884,7 @@
     <t xml:space="preserve">2.07048416137695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0499165058136</t>
+    <t xml:space="preserve">2.04991674423218</t>
   </si>
   <si>
     <t xml:space="preserve">2.12875962257385</t>
@@ -890,10 +893,10 @@
     <t xml:space="preserve">2.08762431144714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0207793712616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08419609069824</t>
+    <t xml:space="preserve">2.02077913284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08419632911682</t>
   </si>
   <si>
     <t xml:space="preserve">2.0224928855896</t>
@@ -917,13 +920,13 @@
     <t xml:space="preserve">2.33100891113281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32243895530701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35671854019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44241738319397</t>
+    <t xml:space="preserve">2.32243919372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35671830177307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44241714477539</t>
   </si>
   <si>
     <t xml:space="preserve">2.49383687973022</t>
@@ -938,13 +941,13 @@
     <t xml:space="preserve">2.48526692390442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53668642044067</t>
+    <t xml:space="preserve">2.53668618202209</t>
   </si>
   <si>
     <t xml:space="preserve">2.57953548431396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.596675157547</t>
+    <t xml:space="preserve">2.59667539596558</t>
   </si>
   <si>
     <t xml:space="preserve">2.61381506919861</t>
@@ -965,7 +968,7 @@
     <t xml:space="preserve">2.61655139923096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52694344520569</t>
+    <t xml:space="preserve">2.52694368362427</t>
   </si>
   <si>
     <t xml:space="preserve">2.437335729599</t>
@@ -974,19 +977,19 @@
     <t xml:space="preserve">2.46421790122986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50006127357483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45525717735291</t>
+    <t xml:space="preserve">2.50006103515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45525741577148</t>
   </si>
   <si>
     <t xml:space="preserve">2.54486513137817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57174754142761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51798272132874</t>
+    <t xml:space="preserve">2.57174730300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51798295974731</t>
   </si>
   <si>
     <t xml:space="preserve">2.56278681755066</t>
@@ -995,16 +998,16 @@
     <t xml:space="preserve">2.53590416908264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49110054969788</t>
+    <t xml:space="preserve">2.4911003112793</t>
   </si>
   <si>
     <t xml:space="preserve">2.48213958740234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50902199745178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47317886352539</t>
+    <t xml:space="preserve">2.5090217590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47317862510681</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680658340454</t>
@@ -1013,19 +1016,19 @@
     <t xml:space="preserve">2.7599241733551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77784585952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74200248718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76888513565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71512031555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75096321105957</t>
+    <t xml:space="preserve">2.77784562110901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7420027256012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76888489723206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71512007713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75096344947815</t>
   </si>
   <si>
     <t xml:space="preserve">2.67031621932983</t>
@@ -1037,13 +1040,13 @@
     <t xml:space="preserve">2.65239477157593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68823790550232</t>
+    <t xml:space="preserve">2.68823766708374</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719886779785</t>
+    <t xml:space="preserve">2.69719862937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1052,25 +1055,25 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745381355286</t>
+    <t xml:space="preserve">2.86745357513428</t>
   </si>
   <si>
     <t xml:space="preserve">2.83161067962646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64343404769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62551259994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58070850372314</t>
+    <t xml:space="preserve">2.6434338092804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62551236152649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58070826530457</t>
   </si>
   <si>
     <t xml:space="preserve">2.607590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41941404342651</t>
+    <t xml:space="preserve">2.41941428184509</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135549545288</t>
@@ -1079,7 +1082,7 @@
     <t xml:space="preserve">2.81368899345398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.840571641922</t>
+    <t xml:space="preserve">2.84057140350342</t>
   </si>
   <si>
     <t xml:space="preserve">2.93914008140564</t>
@@ -1094,37 +1097,37 @@
     <t xml:space="preserve">2.80472826957703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90329694747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12731671333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16315960884094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13627743721008</t>
+    <t xml:space="preserve">2.90329670906067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12731647491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16315984725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13627767562866</t>
   </si>
   <si>
     <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25276780128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172852516174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28861093521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29757165908813</t>
+    <t xml:space="preserve">3.25276803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172876358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28861117362976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29757189750671</t>
   </si>
   <si>
     <t xml:space="preserve">3.35133647918701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33341479301453</t>
+    <t xml:space="preserve">3.33341503143311</t>
   </si>
   <si>
     <t xml:space="preserve">3.34237575531006</t>
@@ -1139,10 +1142,10 @@
     <t xml:space="preserve">3.40510129928589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41406202316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36925792694092</t>
+    <t xml:space="preserve">3.41406178474426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3692581653595</t>
   </si>
   <si>
     <t xml:space="preserve">3.37821888923645</t>
@@ -1154,7 +1157,7 @@
     <t xml:space="preserve">3.4857485294342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47678756713867</t>
+    <t xml:space="preserve">3.47678780555725</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1169,13 +1172,13 @@
     <t xml:space="preserve">3.53055238723755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59327816963196</t>
+    <t xml:space="preserve">3.59327793121338</t>
   </si>
   <si>
     <t xml:space="preserve">3.55743479728699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5215916633606</t>
+    <t xml:space="preserve">3.52159142494202</t>
   </si>
   <si>
     <t xml:space="preserve">3.51263093948364</t>
@@ -1202,19 +1205,19 @@
     <t xml:space="preserve">3.6918466091156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70976805686951</t>
+    <t xml:space="preserve">3.70976781845093</t>
   </si>
   <si>
     <t xml:space="preserve">3.68288588523865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7635326385498</t>
+    <t xml:space="preserve">3.76353311538696</t>
   </si>
   <si>
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833721160889</t>
+    <t xml:space="preserve">3.80833697319031</t>
   </si>
   <si>
     <t xml:space="preserve">3.79041528701782</t>
@@ -1223,27 +1226,24 @@
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067070960999</t>
+    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">3.97005581855774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00759744644165</t>
+    <t xml:space="preserve">4.00759792327881</t>
   </si>
   <si>
     <t xml:space="preserve">4.0920672416687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81988859176636</t>
+    <t xml:space="preserve">3.81988835334778</t>
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067023277283</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.02636861801147</t>
   </si>
   <si>
@@ -1259,40 +1259,40 @@
     <t xml:space="preserve">4.03575468063354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9982123374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97944116592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85743045806885</t>
+    <t xml:space="preserve">3.99821257591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97944092750549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85743021965027</t>
   </si>
   <si>
     <t xml:space="preserve">3.84804463386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81050276756287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74480438232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89497208595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.941899061203</t>
+    <t xml:space="preserve">3.81050252914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7448046207428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89497232437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94189953804016</t>
   </si>
   <si>
     <t xml:space="preserve">3.8668155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93251419067383</t>
+    <t xml:space="preserve">3.93251395225525</t>
   </si>
   <si>
     <t xml:space="preserve">4.08268165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11083841323853</t>
+    <t xml:space="preserve">4.11083793640137</t>
   </si>
   <si>
     <t xml:space="preserve">4.12022304534912</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">4.18592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1953067779541</t>
+    <t xml:space="preserve">4.19530725479126</t>
   </si>
   <si>
     <t xml:space="preserve">4.20469284057617</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">4.28916215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26100540161133</t>
+    <t xml:space="preserve">4.26100587844849</t>
   </si>
   <si>
     <t xml:space="preserve">4.2703914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34547519683838</t>
+    <t xml:space="preserve">4.34547472000122</t>
   </si>
   <si>
     <t xml:space="preserve">4.36424589157104</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">4.50502824783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49564218521118</t>
+    <t xml:space="preserve">4.49564266204834</t>
   </si>
   <si>
     <t xml:space="preserve">4.43932962417603</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">4.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54256963729858</t>
+    <t xml:space="preserve">4.54257011413574</t>
   </si>
   <si>
     <t xml:space="preserve">4.48625707626343</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">4.40178775787354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44871473312378</t>
+    <t xml:space="preserve">4.44871520996094</t>
   </si>
   <si>
     <t xml:space="preserve">4.42994403839111</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">4.41117334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39240217208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2422342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30793285369873</t>
+    <t xml:space="preserve">4.39240169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24223470687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30793333053589</t>
   </si>
   <si>
     <t xml:space="preserve">4.17653608322144</t>
@@ -1394,28 +1394,28 @@
     <t xml:space="preserve">4.62703895568848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61765384674072</t>
+    <t xml:space="preserve">4.61765336990356</t>
   </si>
   <si>
     <t xml:space="preserve">4.51441335678101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57072639465332</t>
+    <t xml:space="preserve">4.57072591781616</t>
   </si>
   <si>
     <t xml:space="preserve">4.67396640777588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80536317825317</t>
+    <t xml:space="preserve">4.80536270141602</t>
   </si>
   <si>
     <t xml:space="preserve">4.78659200668335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86167573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84290456771851</t>
+    <t xml:space="preserve">4.86167621612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84290504455566</t>
   </si>
   <si>
     <t xml:space="preserve">4.89921760559082</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">4.5988826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53318452835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58011198043823</t>
+    <t xml:space="preserve">4.53318405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58011150360107</t>
   </si>
   <si>
     <t xml:space="preserve">4.6927375793457</t>
@@ -1439,16 +1439,16 @@
     <t xml:space="preserve">4.74905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73027896881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71150875091553</t>
+    <t xml:space="preserve">4.73027944564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71150827407837</t>
   </si>
   <si>
     <t xml:space="preserve">4.76782131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95553064346313</t>
+    <t xml:space="preserve">4.95553112030029</t>
   </si>
   <si>
     <t xml:space="preserve">4.88044691085815</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">4.91798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99307298660278</t>
+    <t xml:space="preserve">4.99307250976562</t>
   </si>
   <si>
     <t xml:space="preserve">4.93675994873047</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">6.60737419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28826761245728</t>
+    <t xml:space="preserve">6.28826808929443</t>
   </si>
   <si>
     <t xml:space="preserve">6.1568717956543</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">5.96916246414185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7063684463501</t>
+    <t xml:space="preserve">5.70636892318726</t>
   </si>
   <si>
     <t xml:space="preserve">5.53743028640747</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">5.87530755996704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66882705688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68759775161743</t>
+    <t xml:space="preserve">5.66882658004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68759727478027</t>
   </si>
   <si>
     <t xml:space="preserve">5.83776521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59374332427979</t>
+    <t xml:space="preserve">5.59374284744263</t>
   </si>
   <si>
     <t xml:space="preserve">5.38726234436035</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">5.10569858551025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68335151672363</t>
+    <t xml:space="preserve">4.68335199356079</t>
   </si>
   <si>
     <t xml:space="preserve">4.14837980270386</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">3.62279319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55709505081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37877106666565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50078201293945</t>
+    <t xml:space="preserve">3.55709481239319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37877082824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50078225135803</t>
   </si>
   <si>
     <t xml:space="preserve">3.5664803981781</t>
@@ -1565,13 +1565,13 @@
     <t xml:space="preserve">3.75418996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70726275444031</t>
+    <t xml:space="preserve">3.70726251602173</t>
   </si>
   <si>
     <t xml:space="preserve">3.71664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83865928649902</t>
+    <t xml:space="preserve">3.8386595249176</t>
   </si>
   <si>
     <t xml:space="preserve">4.25162029266357</t>
@@ -1580,25 +1580,25 @@
     <t xml:space="preserve">4.12960910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16715097427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05452489852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76357579231262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66972088813782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65094971656799</t>
+    <t xml:space="preserve">4.16715049743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05452537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76357555389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66972064971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65094995498657</t>
   </si>
   <si>
     <t xml:space="preserve">3.66033530235291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95128488540649</t>
+    <t xml:space="preserve">3.95128512382507</t>
   </si>
   <si>
     <t xml:space="preserve">4.29854726791382</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">4.31731843948364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15776538848877</t>
+    <t xml:space="preserve">4.15776491165161</t>
   </si>
   <si>
     <t xml:space="preserve">4.10145235061646</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.13899421691895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88558650016785</t>
+    <t xml:space="preserve">3.88558626174927</t>
   </si>
   <si>
     <t xml:space="preserve">4.32670402526855</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">4.27977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91374325752258</t>
+    <t xml:space="preserve">3.913743019104</t>
   </si>
   <si>
     <t xml:space="preserve">3.92312836647034</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">3.49139666557312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67910599708557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3881561756134</t>
+    <t xml:space="preserve">3.67910623550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38815641403198</t>
   </si>
   <si>
     <t xml:space="preserve">3.35999989509583</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">3.34122896194458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20044684410095</t>
+    <t xml:space="preserve">3.20044708251953</t>
   </si>
   <si>
     <t xml:space="preserve">3.24737429618835</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">3.47262573242188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57586598396301</t>
+    <t xml:space="preserve">3.57586574554443</t>
   </si>
   <si>
     <t xml:space="preserve">3.73541903495789</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">3.68849158287048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72603344917297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52893877029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217854499817</t>
+    <t xml:space="preserve">3.72603368759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52893853187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217878341675</t>
   </si>
   <si>
     <t xml:space="preserve">3.51016759872437</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">3.58525133132935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53832387924194</t>
+    <t xml:space="preserve">3.53832411766052</t>
   </si>
   <si>
     <t xml:space="preserve">3.80111742019653</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">3.48201107978821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46324038505554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44446921348572</t>
+    <t xml:space="preserve">3.46324014663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4444694519043</t>
   </si>
   <si>
     <t xml:space="preserve">3.42569851875305</t>
@@ -1739,13 +1739,13 @@
     <t xml:space="preserve">3.41631293296814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39754176139832</t>
+    <t xml:space="preserve">3.39754199981689</t>
   </si>
   <si>
     <t xml:space="preserve">3.21921801567078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19106149673462</t>
+    <t xml:space="preserve">3.1910617351532</t>
   </si>
   <si>
     <t xml:space="preserve">3.17229056358337</t>
@@ -1754,13 +1754,13 @@
     <t xml:space="preserve">3.23798894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14413380622864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25675988197327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36938548088074</t>
+    <t xml:space="preserve">3.14413404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25675964355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36938524246216</t>
   </si>
   <si>
     <t xml:space="preserve">3.15351939201355</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">3.18167614936829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29430150985718</t>
+    <t xml:space="preserve">3.29430174827576</t>
   </si>
   <si>
     <t xml:space="preserve">3.2661452293396</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">3.12536311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04089403152466</t>
+    <t xml:space="preserve">3.04089379310608</t>
   </si>
   <si>
     <t xml:space="preserve">3.05027914047241</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">2.93765377998352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95642471313477</t>
+    <t xml:space="preserve">2.95642447471619</t>
   </si>
   <si>
     <t xml:space="preserve">3.03150844573975</t>
@@ -1805,19 +1805,19 @@
     <t xml:space="preserve">3.02212285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92826819419861</t>
+    <t xml:space="preserve">2.92826795578003</t>
   </si>
   <si>
     <t xml:space="preserve">2.94703912734985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90011143684387</t>
+    <t xml:space="preserve">2.90011167526245</t>
   </si>
   <si>
     <t xml:space="preserve">2.97519564628601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27553081512451</t>
+    <t xml:space="preserve">3.27553057670593</t>
   </si>
   <si>
     <t xml:space="preserve">3.33184361457825</t>
@@ -6155,7 +6155,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G136" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6181,7 +6181,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G137" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6207,7 +6207,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G138" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -6233,7 +6233,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6259,7 +6259,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G140" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -6285,7 +6285,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -6337,7 +6337,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G143" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6363,7 +6363,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G144" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6389,7 +6389,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G145" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -6415,7 +6415,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G146" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6441,7 +6441,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G147" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6467,7 +6467,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G148" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6493,7 +6493,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G149" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6519,7 +6519,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G150" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6545,7 +6545,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G151" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6571,7 +6571,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G152" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6597,7 +6597,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G153" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6623,7 +6623,7 @@
         <v>2.13800001144409</v>
       </c>
       <c r="G154" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6649,7 +6649,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G155" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -6675,7 +6675,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G156" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -6701,7 +6701,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G157" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -6727,7 +6727,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -6753,7 +6753,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G159" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -6779,7 +6779,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G160" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -6805,7 +6805,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G161" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6831,7 +6831,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G162" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6857,7 +6857,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G163" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6883,7 +6883,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G164" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6909,7 +6909,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G165" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6935,7 +6935,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G166" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6961,7 +6961,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G167" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6987,7 +6987,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G168" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7013,7 +7013,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G169" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7039,7 +7039,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G170" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7065,7 +7065,7 @@
         <v>2.11800003051758</v>
       </c>
       <c r="G171" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7091,7 +7091,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G172" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7117,7 +7117,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G173" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7143,7 +7143,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G174" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7169,7 +7169,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G175" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7195,7 +7195,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G176" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7221,7 +7221,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G177" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7247,7 +7247,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G178" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7273,7 +7273,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7299,7 +7299,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G180" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7325,7 +7325,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G181" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7351,7 +7351,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7377,7 +7377,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7403,7 +7403,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7429,7 +7429,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G185" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7455,7 +7455,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G186" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7481,7 +7481,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G187" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7507,7 +7507,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G188" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7533,7 +7533,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G189" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7559,7 +7559,7 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7585,7 +7585,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G191" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7611,7 +7611,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G192" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7637,7 +7637,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G193" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7663,7 +7663,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G194" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7689,7 +7689,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7715,7 +7715,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G196" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7741,7 +7741,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G197" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7767,7 +7767,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7793,7 +7793,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7819,7 +7819,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G200" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7845,7 +7845,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G201" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7871,7 +7871,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G202" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7897,7 +7897,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G203" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7923,7 +7923,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G204" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7949,7 +7949,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G205" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7975,7 +7975,7 @@
         <v>1.99899995326996</v>
       </c>
       <c r="G206" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8001,7 +8001,7 @@
         <v>1.95099997520447</v>
       </c>
       <c r="G207" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8027,7 +8027,7 @@
         <v>1.9889999628067</v>
       </c>
       <c r="G208" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8053,7 +8053,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G209" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8079,7 +8079,7 @@
         <v>1.94700002670288</v>
       </c>
       <c r="G210" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8105,7 +8105,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G211" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8131,7 +8131,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G212" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8157,7 +8157,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G213" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8183,7 +8183,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G214" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8209,7 +8209,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G215" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8235,7 +8235,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G216" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8261,7 +8261,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G217" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8287,7 +8287,7 @@
         <v>1.90199995040894</v>
       </c>
       <c r="G218" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8313,7 +8313,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G219" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8339,7 +8339,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G220" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8365,7 +8365,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G221" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8391,7 +8391,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G222" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8417,7 +8417,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G223" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8443,7 +8443,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G224" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8469,7 +8469,7 @@
         <v>1.85399997234344</v>
       </c>
       <c r="G225" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8495,7 +8495,7 @@
         <v>1.90600001811981</v>
       </c>
       <c r="G226" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8521,7 +8521,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G227" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8547,7 +8547,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G228" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8573,7 +8573,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G229" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8599,7 +8599,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G230" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8625,7 +8625,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G231" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8651,7 +8651,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G232" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8677,7 +8677,7 @@
         <v>1.87199997901917</v>
       </c>
       <c r="G233" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8703,7 +8703,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G234" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8729,7 +8729,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G235" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8755,7 +8755,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G236" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8781,7 +8781,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G237" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8807,7 +8807,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G238" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8833,7 +8833,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G239" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8859,7 +8859,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G240" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8885,7 +8885,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G241" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8911,7 +8911,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8937,7 +8937,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G243" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8963,7 +8963,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G244" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8989,7 +8989,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G245" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9015,7 +9015,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G246" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9041,7 +9041,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G247" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9067,7 +9067,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G248" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9093,7 +9093,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G249" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9119,7 +9119,7 @@
         <v>1.85699999332428</v>
       </c>
       <c r="G250" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9145,7 +9145,7 @@
         <v>1.88100004196167</v>
       </c>
       <c r="G251" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9171,7 +9171,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G252" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9197,7 +9197,7 @@
         <v>1.84399998188019</v>
       </c>
       <c r="G253" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9223,7 +9223,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G254" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9249,7 +9249,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G255" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9275,7 +9275,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G256" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9301,7 +9301,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G257" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9327,7 +9327,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G258" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9353,7 +9353,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G259" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9379,7 +9379,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G260" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9405,7 +9405,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G261" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9431,7 +9431,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G262" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9457,7 +9457,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G263" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9483,7 +9483,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G264" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9509,7 +9509,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G265" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9535,7 +9535,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G266" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9561,7 +9561,7 @@
         <v>1.84300005435944</v>
       </c>
       <c r="G267" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9587,7 +9587,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G268" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9613,7 +9613,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G269" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9639,7 +9639,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G270" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9665,7 +9665,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G271" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9691,7 +9691,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G272" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9717,7 +9717,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G273" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9743,7 +9743,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G274" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9769,7 +9769,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G275" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9795,7 +9795,7 @@
         <v>1.97899997234344</v>
       </c>
       <c r="G276" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9821,7 +9821,7 @@
         <v>1.91799998283386</v>
       </c>
       <c r="G277" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9847,7 +9847,7 @@
         <v>1.88399994373322</v>
       </c>
       <c r="G278" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9873,7 +9873,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G279" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9899,7 +9899,7 @@
         <v>1.9190000295639</v>
       </c>
       <c r="G280" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9925,7 +9925,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G281" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9951,7 +9951,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G282" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9977,7 +9977,7 @@
         <v>1.90100002288818</v>
       </c>
       <c r="G283" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10003,7 +10003,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G284" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10029,7 +10029,7 @@
         <v>1.93799996376038</v>
       </c>
       <c r="G285" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10055,7 +10055,7 @@
         <v>1.87300002574921</v>
       </c>
       <c r="G286" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10081,7 +10081,7 @@
         <v>1.93099999427795</v>
       </c>
       <c r="G287" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10107,7 +10107,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G288" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10133,7 +10133,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G289" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10159,7 +10159,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G290" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10185,7 +10185,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G291" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10211,7 +10211,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G292" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10237,7 +10237,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G293" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10263,7 +10263,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G294" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10289,7 +10289,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G295" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10315,7 +10315,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G296" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10341,7 +10341,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G297" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10367,7 +10367,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G298" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10393,7 +10393,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G299" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10419,7 +10419,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G300" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10445,7 +10445,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G301" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10471,7 +10471,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G302" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10497,7 +10497,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G303" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10523,7 +10523,7 @@
         <v>1.875</v>
       </c>
       <c r="G304" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10549,7 +10549,7 @@
         <v>1.87899994850159</v>
       </c>
       <c r="G305" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10575,7 +10575,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G306" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10601,7 +10601,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10627,7 +10627,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G308" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10653,7 +10653,7 @@
         <v>2</v>
       </c>
       <c r="G309" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10679,7 +10679,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G310" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10705,7 +10705,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G311" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10731,7 +10731,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G312" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10757,7 +10757,7 @@
         <v>2.06599998474121</v>
       </c>
       <c r="G313" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10783,7 +10783,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G314" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10809,7 +10809,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G315" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10835,7 +10835,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G316" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10861,7 +10861,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G317" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10913,7 +10913,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G319" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10939,7 +10939,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G320" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10965,7 +10965,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G321" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10991,7 +10991,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G322" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11017,7 +11017,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G323" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11043,7 +11043,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G324" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11069,7 +11069,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G325" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11121,7 +11121,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G327" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11147,7 +11147,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G328" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11173,7 +11173,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G329" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11199,7 +11199,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G330" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11225,7 +11225,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G331" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11251,7 +11251,7 @@
         <v>2.12199997901917</v>
       </c>
       <c r="G332" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11277,7 +11277,7 @@
         <v>2.10800004005432</v>
       </c>
       <c r="G333" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11303,7 +11303,7 @@
         <v>2.13199996948242</v>
       </c>
       <c r="G334" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11329,7 +11329,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G335" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11355,7 +11355,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G336" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11459,7 +11459,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G340" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11485,7 +11485,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11511,7 +11511,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G342" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11537,7 +11537,7 @@
         <v>2.21199989318848</v>
       </c>
       <c r="G343" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11563,7 +11563,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G344" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11615,7 +11615,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G346" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11641,7 +11641,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G347" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11667,7 +11667,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G348" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11693,7 +11693,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G349" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11719,7 +11719,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G350" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11771,7 +11771,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G352" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11797,7 +11797,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G353" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11849,7 +11849,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G355" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11875,7 +11875,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G356" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11901,7 +11901,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G357" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11927,7 +11927,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G358" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11953,7 +11953,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G359" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11979,7 +11979,7 @@
         <v>2.25</v>
       </c>
       <c r="G360" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12005,7 +12005,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G361" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12031,7 +12031,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G362" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12057,7 +12057,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G363" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12083,7 +12083,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G364" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12109,7 +12109,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G365" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12135,7 +12135,7 @@
         <v>2.25</v>
       </c>
       <c r="G366" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12161,7 +12161,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G367" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12187,7 +12187,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G368" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12213,7 +12213,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G369" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12239,7 +12239,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G370" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12265,7 +12265,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G371" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12291,7 +12291,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12317,7 +12317,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G373" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12343,7 +12343,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G374" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12369,7 +12369,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G375" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12395,7 +12395,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G376" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12421,7 +12421,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G377" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12447,7 +12447,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G378" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12473,7 +12473,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G379" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12499,7 +12499,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12525,7 +12525,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G381" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12551,7 +12551,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G382" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12577,7 +12577,7 @@
         <v>2.18199992179871</v>
       </c>
       <c r="G383" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12603,7 +12603,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G384" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12629,7 +12629,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G385" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12655,7 +12655,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G386" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12681,7 +12681,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G387" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12707,7 +12707,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G388" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12733,7 +12733,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12759,7 +12759,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G390" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12785,7 +12785,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G391" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12811,7 +12811,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G392" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12837,7 +12837,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G393" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12863,7 +12863,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G394" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12889,7 +12889,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12915,7 +12915,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G396" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12941,7 +12941,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G397" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12967,7 +12967,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G398" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12993,7 +12993,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G399" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13019,7 +13019,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G400" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13045,7 +13045,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13071,7 +13071,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G402" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13097,7 +13097,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G403" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13123,7 +13123,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G404" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13149,7 +13149,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G405" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13175,7 +13175,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G406" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13201,7 +13201,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G407" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13227,7 +13227,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G408" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13253,7 +13253,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G409" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13279,7 +13279,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G410" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13305,7 +13305,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G411" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13331,7 +13331,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G412" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13357,7 +13357,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G413" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13383,7 +13383,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13409,7 +13409,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G415" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13435,7 +13435,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G416" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13461,7 +13461,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G417" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13487,7 +13487,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G418" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13513,7 +13513,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G419" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13539,7 +13539,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G420" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13565,7 +13565,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13591,7 +13591,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G422" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13617,7 +13617,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G423" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13643,7 +13643,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G424" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13669,7 +13669,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G425" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13695,7 +13695,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G426" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13721,7 +13721,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G427" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13747,7 +13747,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G428" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13773,7 +13773,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G429" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13799,7 +13799,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G430" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13825,7 +13825,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G431" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13851,7 +13851,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13877,7 +13877,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G433" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13903,7 +13903,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13929,7 +13929,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13955,7 +13955,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G436" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13981,7 +13981,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G437" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14007,7 +14007,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G438" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14033,7 +14033,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G439" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14059,7 +14059,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G440" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14085,7 +14085,7 @@
         <v>2.5</v>
       </c>
       <c r="G441" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14111,7 +14111,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G442" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14137,7 +14137,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G443" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14163,7 +14163,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G444" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14189,7 +14189,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G445" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14215,7 +14215,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G446" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14241,7 +14241,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G447" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14267,7 +14267,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G448" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14293,7 +14293,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G449" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14319,7 +14319,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G450" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14345,7 +14345,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14371,7 +14371,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G452" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14397,7 +14397,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G453" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14423,7 +14423,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G454" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14449,7 +14449,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G455" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14475,7 +14475,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G456" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14501,7 +14501,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G457" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14527,7 +14527,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G458" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14553,7 +14553,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G459" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14579,7 +14579,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G460" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14605,7 +14605,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G461" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14631,7 +14631,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G462" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14657,7 +14657,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G463" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14683,7 +14683,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G464" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14709,7 +14709,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G465" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14735,7 +14735,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G466" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14761,7 +14761,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G467" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14787,7 +14787,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G468" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14813,7 +14813,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G469" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14839,7 +14839,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G470" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14865,7 +14865,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G471" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14891,7 +14891,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G472" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14917,7 +14917,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G473" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14943,7 +14943,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14969,7 +14969,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G475" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14995,7 +14995,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G476" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15021,7 +15021,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G477" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15047,7 +15047,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G478" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15073,7 +15073,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G479" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15099,7 +15099,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G480" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15125,7 +15125,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G481" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15151,7 +15151,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G482" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15177,7 +15177,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G483" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15203,7 +15203,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G484" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15229,7 +15229,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G485" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15255,7 +15255,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G486" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15281,7 +15281,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G487" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15307,7 +15307,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G488" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15333,7 +15333,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G489" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15359,7 +15359,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G490" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15385,7 +15385,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G491" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15411,7 +15411,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G492" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15437,7 +15437,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G493" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15463,7 +15463,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G494" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15489,7 +15489,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G495" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15515,7 +15515,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G496" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15541,7 +15541,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G497" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15567,7 +15567,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G498" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15593,7 +15593,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G499" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15619,7 +15619,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G500" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15645,7 +15645,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G501" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15671,7 +15671,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G502" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15697,7 +15697,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G503" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15723,7 +15723,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G504" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15749,7 +15749,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G505" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15775,7 +15775,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G506" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15801,7 +15801,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G507" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15827,7 +15827,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G508" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15853,7 +15853,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G509" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15879,7 +15879,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G510" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15905,7 +15905,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G511" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15931,7 +15931,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G512" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15957,7 +15957,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G513" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15983,7 +15983,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16009,7 +16009,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G515" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16035,7 +16035,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G516" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16061,7 +16061,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16087,7 +16087,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G518" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16113,7 +16113,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G519" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16139,7 +16139,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G520" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16165,7 +16165,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G521" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16191,7 +16191,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G522" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16217,7 +16217,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G523" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16243,7 +16243,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G524" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16269,7 +16269,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G525" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16295,7 +16295,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G526" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16321,7 +16321,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G527" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16347,7 +16347,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G528" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16373,7 +16373,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G529" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16399,7 +16399,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G530" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16425,7 +16425,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G531" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16451,7 +16451,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16477,7 +16477,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G533" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16503,7 +16503,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G534" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16529,7 +16529,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G535" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16555,7 +16555,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G536" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16581,7 +16581,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G537" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16607,7 +16607,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G538" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16633,7 +16633,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G539" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16659,7 +16659,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16685,7 +16685,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G541" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16711,7 +16711,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G542" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16737,7 +16737,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16763,7 +16763,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G544" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16789,7 +16789,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G545" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16815,7 +16815,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G546" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16841,7 +16841,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G547" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16867,7 +16867,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G548" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16893,7 +16893,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G549" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16919,7 +16919,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G550" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16945,7 +16945,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G551" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16971,7 +16971,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G552" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16997,7 +16997,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G553" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17023,7 +17023,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G554" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17049,7 +17049,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G555" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17075,7 +17075,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G556" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17101,7 +17101,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G557" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17127,7 +17127,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17153,7 +17153,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G559" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17179,7 +17179,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G560" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17205,7 +17205,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G561" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17231,7 +17231,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G562" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17257,7 +17257,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G563" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17283,7 +17283,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17309,7 +17309,7 @@
         <v>2.5</v>
       </c>
       <c r="G565" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17335,7 +17335,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17361,7 +17361,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G567" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17387,7 +17387,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17413,7 +17413,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G569" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17439,7 +17439,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G570" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17465,7 +17465,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17491,7 +17491,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17517,7 +17517,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G573" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17543,7 +17543,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G574" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17569,7 +17569,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G575" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17595,7 +17595,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17621,7 +17621,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G577" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17647,7 +17647,7 @@
         <v>2.5</v>
       </c>
       <c r="G578" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17673,7 +17673,7 @@
         <v>2.5</v>
       </c>
       <c r="G579" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17699,7 +17699,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G580" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17725,7 +17725,7 @@
         <v>2.5</v>
       </c>
       <c r="G581" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17751,7 +17751,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G582" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17777,7 +17777,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G583" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17803,7 +17803,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17829,7 +17829,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17855,7 +17855,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G586" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17881,7 +17881,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G587" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17907,7 +17907,7 @@
         <v>2.5</v>
       </c>
       <c r="G588" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17933,7 +17933,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17959,7 +17959,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17985,7 +17985,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18011,7 +18011,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G592" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18037,7 +18037,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G593" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18063,7 +18063,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G594" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18089,7 +18089,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G595" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18115,7 +18115,7 @@
         <v>2.75</v>
       </c>
       <c r="G596" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18141,7 +18141,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18167,7 +18167,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G598" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18193,7 +18193,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G599" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18219,7 +18219,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G600" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18245,7 +18245,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G601" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18271,7 +18271,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G602" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18297,7 +18297,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18323,7 +18323,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G604" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18349,7 +18349,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G605" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18375,7 +18375,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G606" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18401,7 +18401,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G607" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18427,7 +18427,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G608" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18453,7 +18453,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G609" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18479,7 +18479,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G610" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18505,7 +18505,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G611" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18531,7 +18531,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18557,7 +18557,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18583,7 +18583,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18609,7 +18609,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18635,7 +18635,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18661,7 +18661,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18687,7 +18687,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18713,7 +18713,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18739,7 +18739,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18765,7 +18765,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18791,7 +18791,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18817,7 +18817,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18843,7 +18843,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18869,7 +18869,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18895,7 +18895,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18921,7 +18921,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18947,7 +18947,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18973,7 +18973,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18999,7 +18999,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19025,7 +19025,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19051,7 +19051,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19077,7 +19077,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19103,7 +19103,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19129,7 +19129,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19155,7 +19155,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19181,7 +19181,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19207,7 +19207,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19233,7 +19233,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19259,7 +19259,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19285,7 +19285,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19311,7 +19311,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19337,7 +19337,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19363,7 +19363,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19389,7 +19389,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19415,7 +19415,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19441,7 +19441,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19467,7 +19467,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19493,7 +19493,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19519,7 +19519,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19545,7 +19545,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19571,7 +19571,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19597,7 +19597,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19623,7 +19623,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G654" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19649,7 +19649,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19675,7 +19675,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19701,7 +19701,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19727,7 +19727,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19753,7 +19753,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19779,7 +19779,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19805,7 +19805,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19831,7 +19831,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19857,7 +19857,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19883,7 +19883,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19909,7 +19909,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19935,7 +19935,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19961,7 +19961,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19987,7 +19987,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20013,7 +20013,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G669" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20039,7 +20039,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20065,7 +20065,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20091,7 +20091,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20117,7 +20117,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20143,7 +20143,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20169,7 +20169,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20195,7 +20195,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20221,7 +20221,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20247,7 +20247,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20273,7 +20273,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20299,7 +20299,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20325,7 +20325,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20351,7 +20351,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20377,7 +20377,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20403,7 +20403,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20429,7 +20429,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20455,7 +20455,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20481,7 +20481,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20507,7 +20507,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20533,7 +20533,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20559,7 +20559,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20585,7 +20585,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20611,7 +20611,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20637,7 +20637,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20663,7 +20663,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20689,7 +20689,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20715,7 +20715,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20741,7 +20741,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20767,7 +20767,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20793,7 +20793,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20819,7 +20819,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20845,7 +20845,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20871,7 +20871,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20897,7 +20897,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20923,7 +20923,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20949,7 +20949,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20975,7 +20975,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21001,7 +21001,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21027,7 +21027,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G708" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21053,7 +21053,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21079,7 +21079,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21105,7 +21105,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21131,7 +21131,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21157,7 +21157,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G713" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21183,7 +21183,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G714" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21209,7 +21209,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G715" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21235,7 +21235,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G716" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21261,7 +21261,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21287,7 +21287,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21313,7 +21313,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21339,7 +21339,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21365,7 +21365,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G721" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21391,7 +21391,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G722" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21417,7 +21417,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21443,7 +21443,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G724" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21469,7 +21469,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G725" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21495,7 +21495,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21521,7 +21521,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G727" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21547,7 +21547,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21573,7 +21573,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G729" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21599,7 +21599,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21625,7 +21625,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G731" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21651,7 +21651,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G732" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21677,7 +21677,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G733" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21703,7 +21703,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21729,7 +21729,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21755,7 +21755,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21781,7 +21781,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21807,7 +21807,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21833,7 +21833,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21859,7 +21859,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21885,7 +21885,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21911,7 +21911,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21937,7 +21937,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21963,7 +21963,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21989,7 +21989,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22015,7 +22015,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22041,7 +22041,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22067,7 +22067,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22093,7 +22093,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22119,7 +22119,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22145,7 +22145,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22171,7 +22171,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22197,7 +22197,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22223,7 +22223,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22249,7 +22249,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22275,7 +22275,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22301,7 +22301,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22327,7 +22327,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22353,7 +22353,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G759" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22379,7 +22379,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G760" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22405,7 +22405,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G761" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22431,7 +22431,7 @@
         <v>2.75</v>
       </c>
       <c r="G762" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22457,7 +22457,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G763" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22483,7 +22483,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G764" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22509,7 +22509,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G765" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22535,7 +22535,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G766" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22561,7 +22561,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G767" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22587,7 +22587,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G768" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22613,7 +22613,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22639,7 +22639,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G770" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22665,7 +22665,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G771" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22691,7 +22691,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22717,7 +22717,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22743,7 +22743,7 @@
         <v>3</v>
       </c>
       <c r="G774" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22769,7 +22769,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22795,7 +22795,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G776" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22821,7 +22821,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G777" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22847,7 +22847,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G778" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22873,7 +22873,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22899,7 +22899,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22925,7 +22925,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G781" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22951,7 +22951,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G782" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22977,7 +22977,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23003,7 +23003,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G784" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23029,7 +23029,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G785" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23055,7 +23055,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23081,7 +23081,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G787" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23107,7 +23107,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23133,7 +23133,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G789" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23159,7 +23159,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G790" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23185,7 +23185,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G791" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23211,7 +23211,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G792" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23237,7 +23237,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G793" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23263,7 +23263,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23289,7 +23289,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G795" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23315,7 +23315,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23341,7 +23341,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G797" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23367,7 +23367,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G798" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23393,7 +23393,7 @@
         <v>3.5</v>
       </c>
       <c r="G799" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23419,7 +23419,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23445,7 +23445,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G801" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23471,7 +23471,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G802" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23497,7 +23497,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23523,7 +23523,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G804" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23549,7 +23549,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23575,7 +23575,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G806" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23601,7 +23601,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23627,7 +23627,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23653,7 +23653,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G809" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23679,7 +23679,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G810" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23705,7 +23705,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G811" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23731,7 +23731,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23757,7 +23757,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G813" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23783,7 +23783,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23809,7 +23809,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G815" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23835,7 +23835,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G816" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23861,7 +23861,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G817" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23887,7 +23887,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G818" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23913,7 +23913,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G819" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23939,7 +23939,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G820" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23965,7 +23965,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G821" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23991,7 +23991,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G822" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24017,7 +24017,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G823" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24043,7 +24043,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24069,7 +24069,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24095,7 +24095,7 @@
         <v>4</v>
       </c>
       <c r="G826" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24121,7 +24121,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G827" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24147,7 +24147,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G828" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24173,7 +24173,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24199,7 +24199,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G830" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24225,7 +24225,7 @@
         <v>4</v>
       </c>
       <c r="G831" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24251,7 +24251,7 @@
         <v>4</v>
       </c>
       <c r="G832" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24277,7 +24277,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G833" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24303,7 +24303,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24329,7 +24329,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24355,7 +24355,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G836" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24381,7 +24381,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24407,7 +24407,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G838" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24433,7 +24433,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G839" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24459,7 +24459,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24485,7 +24485,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G841" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24511,7 +24511,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24537,7 +24537,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24563,7 +24563,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G844" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24589,7 +24589,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G845" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24615,7 +24615,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G846" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24641,7 +24641,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24667,7 +24667,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24693,7 +24693,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G849" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24719,7 +24719,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24745,7 +24745,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G851" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24771,7 +24771,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24797,7 +24797,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G853" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24823,7 +24823,7 @@
         <v>4.25</v>
       </c>
       <c r="G854" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24849,7 +24849,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24875,7 +24875,7 @@
         <v>4.25</v>
       </c>
       <c r="G856" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24901,7 +24901,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G857" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24927,7 +24927,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24953,7 +24953,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G859" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24979,7 +24979,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25005,7 +25005,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G861" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25031,7 +25031,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G862" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25057,7 +25057,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G863" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25083,7 +25083,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G864" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25109,7 +25109,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25161,7 +25161,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G867" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25265,7 +25265,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G871" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25317,7 +25317,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25447,7 +25447,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G878" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25811,7 +25811,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25889,7 +25889,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G895" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26123,7 +26123,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G904" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -30309,7 +30309,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1065" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30595,7 +30595,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1076" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30621,7 +30621,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1077" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30855,7 +30855,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1086" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31219,7 +31219,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1100" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31323,7 +31323,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1104" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32831,7 +32831,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1162" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32857,7 +32857,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1163" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33299,7 +33299,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1180" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33429,7 +33429,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33637,7 +33637,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1193" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -58605,7 +58605,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6495601852</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>1933</v>
@@ -58626,6 +58626,32 @@
         <v>757</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6494560185</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>4286</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>741</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91323757171631</t>
+    <t xml:space="preserve">1.91323781013489</t>
   </si>
   <si>
     <t xml:space="preserve">1.92109167575836</t>
@@ -53,19 +53,19 @@
     <t xml:space="preserve">1.88496315479279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92423319816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642306804657</t>
+    <t xml:space="preserve">1.92423295974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642282962799</t>
   </si>
   <si>
     <t xml:space="preserve">1.82998478412628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79856884479523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76715290546417</t>
+    <t xml:space="preserve">1.79856896400452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76715278625488</t>
   </si>
   <si>
     <t xml:space="preserve">1.85354697704315</t>
@@ -74,217 +74,217 @@
     <t xml:space="preserve">1.86925530433655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87710916996002</t>
+    <t xml:space="preserve">1.8771094083786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281725883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86768424510956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584775447845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83783888816833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87553834915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82684326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8456928730011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81898939609528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83626842498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85983002185822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80485212802887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82056021690369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81741857528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85040521621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88025069236755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81427693367004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85197615623474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84412205219269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84098076820374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82370185852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8111355304718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82213091850281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9367995262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94622421264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407843589783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96350300312042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9650741815567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99334847927094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00434398651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98706519603729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00905632972717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02476453781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051600456238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96193242073059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994116783142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564901828766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637933254242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8739675283432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93378710746765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017540454865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9223153591156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050932884216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656334400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509171485901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9583694934845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91739904880524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93542611598969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9419811964035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248297691345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084420681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83545911312103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80268275737762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84201431274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83218157291412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88298428058624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86823487281799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90756630897522</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281702041626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86768424510956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584787368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83783864974976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87553834915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82684350013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84569275379181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81898939609528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8362683057785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85983026027679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80485212802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82056021690369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81741857528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85040545463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88025069236755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81427705287933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85197615623474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84412217140198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84098064899445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82370173931122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8111355304718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82213115692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9367995262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94622421264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407843589783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.963503241539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96507441997528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99334847927094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00434422492981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98706543445587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00905656814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02476453781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051624298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96193265914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994116783142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564901828766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637909412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87396740913391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93378710746765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017540454865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92231523990631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050956726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656334400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95836925506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91739881038666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93542587757111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9419811964035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248261928558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084396839142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83545899391174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8026829957962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84201407432556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83218157291412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88298428058624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86823511123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90756630897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281713962555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592765808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88462316989899</t>
+    <t xml:space="preserve">1.90592741966248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88462293148041</t>
   </si>
   <si>
     <t xml:space="preserve">1.90920495986938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87151265144348</t>
+    <t xml:space="preserve">1.87151277065277</t>
   </si>
   <si>
     <t xml:space="preserve">1.8977335691452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82398760318756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75843524932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76662933826447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78629493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77646219730377</t>
+    <t xml:space="preserve">1.82398748397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75843513011932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76662921905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78629505634308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77646207809448</t>
   </si>
   <si>
     <t xml:space="preserve">1.75188004970551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75351881980896</t>
+    <t xml:space="preserve">1.75351893901825</t>
   </si>
   <si>
     <t xml:space="preserve">1.77973961830139</t>
@@ -293,28 +293,28 @@
     <t xml:space="preserve">1.75024116039276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72074282169342</t>
+    <t xml:space="preserve">1.72074258327484</t>
   </si>
   <si>
     <t xml:space="preserve">1.66993999481201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72893667221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69616067409515</t>
+    <t xml:space="preserve">1.72893679141998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69616079330444</t>
   </si>
   <si>
     <t xml:space="preserve">1.76007413864136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7043548822403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73549211025238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73385322093964</t>
+    <t xml:space="preserve">1.70435476303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73549199104309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73385310173035</t>
   </si>
   <si>
     <t xml:space="preserve">1.71254873275757</t>
@@ -323,19 +323,19 @@
     <t xml:space="preserve">1.63060867786407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67157864570618</t>
+    <t xml:space="preserve">1.67157876491547</t>
   </si>
   <si>
     <t xml:space="preserve">1.66666221618652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61012363433838</t>
+    <t xml:space="preserve">1.61012375354767</t>
   </si>
   <si>
     <t xml:space="preserve">1.62241458892822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66338455677032</t>
+    <t xml:space="preserve">1.66338467597961</t>
   </si>
   <si>
     <t xml:space="preserve">1.67321753501892</t>
@@ -347,22 +347,22 @@
     <t xml:space="preserve">1.63880264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62569212913513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66830110549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65519082546234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64699685573578</t>
+    <t xml:space="preserve">1.62569224834442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66830122470856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65519070625305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64699673652649</t>
   </si>
   <si>
     <t xml:space="preserve">1.63798320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59865212440491</t>
+    <t xml:space="preserve">1.59865200519562</t>
   </si>
   <si>
     <t xml:space="preserve">1.6297892332077</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">1.59127748012543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54047441482544</t>
+    <t xml:space="preserve">1.54047453403473</t>
   </si>
   <si>
     <t xml:space="preserve">1.56751477718353</t>
@@ -392,13 +392,13 @@
     <t xml:space="preserve">1.56669533252716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5585013628006</t>
+    <t xml:space="preserve">1.55850124359131</t>
   </si>
   <si>
     <t xml:space="preserve">1.6027489900589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60356843471527</t>
+    <t xml:space="preserve">1.60356855392456</t>
   </si>
   <si>
     <t xml:space="preserve">1.6060266494751</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">1.56177890300751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54539096355438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37659418582916</t>
+    <t xml:space="preserve">1.54539084434509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37659430503845</t>
   </si>
   <si>
     <t xml:space="preserve">1.4126478433609</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">1.39462113380432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45771491527557</t>
+    <t xml:space="preserve">1.45771503448486</t>
   </si>
   <si>
     <t xml:space="preserve">1.47082543373108</t>
@@ -431,25 +431,25 @@
     <t xml:space="preserve">1.53391933441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61258172988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61176252365112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59783256053925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54211330413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51179540157318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55522358417511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.565056681633</t>
+    <t xml:space="preserve">1.61258184909821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61176240444183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59783267974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54211318492889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51179552078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5552237033844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56505656242371</t>
   </si>
   <si>
     <t xml:space="preserve">1.56423723697662</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">1.59291625022888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55686259269714</t>
+    <t xml:space="preserve">1.55686235427856</t>
   </si>
   <si>
     <t xml:space="preserve">1.52162826061249</t>
@@ -473,13 +473,13 @@
     <t xml:space="preserve">1.5109760761261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55112671852112</t>
+    <t xml:space="preserve">1.55112683773041</t>
   </si>
   <si>
     <t xml:space="preserve">1.51589250564575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55194616317749</t>
+    <t xml:space="preserve">1.55194628238678</t>
   </si>
   <si>
     <t xml:space="preserve">1.50851786136627</t>
@@ -488,22 +488,22 @@
     <t xml:space="preserve">1.53228056430817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50933730602264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50769865512848</t>
+    <t xml:space="preserve">1.50933742523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50769853591919</t>
   </si>
   <si>
     <t xml:space="preserve">1.50278210639954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49540746212006</t>
+    <t xml:space="preserve">1.49540734291077</t>
   </si>
   <si>
     <t xml:space="preserve">1.51015675067902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57325041294098</t>
+    <t xml:space="preserve">1.57325065135956</t>
   </si>
   <si>
     <t xml:space="preserve">1.5855416059494</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">1.59455502033234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60684597492218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62159526348114</t>
+    <t xml:space="preserve">1.60684609413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62159514427185</t>
   </si>
   <si>
     <t xml:space="preserve">1.5716118812561</t>
@@ -527,52 +527,52 @@
     <t xml:space="preserve">1.57243120670319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58718049526215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54621028900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55768203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58799982070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53473877906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58226382732391</t>
+    <t xml:space="preserve">1.58718037605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54621040821075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55768191814423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58799970149994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53473889827728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58226406574249</t>
   </si>
   <si>
     <t xml:space="preserve">1.54702973365784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53883576393127</t>
+    <t xml:space="preserve">1.53883564472198</t>
   </si>
   <si>
     <t xml:space="preserve">1.54784917831421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55276548862457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54948806762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5380163192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.548668384552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53637766838074</t>
+    <t xml:space="preserve">1.55276560783386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54948794841766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53801620006561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54866850376129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53637754917145</t>
   </si>
   <si>
     <t xml:space="preserve">1.53965520858765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56915354728699</t>
+    <t xml:space="preserve">1.5691534280777</t>
   </si>
   <si>
     <t xml:space="preserve">1.65191316604614</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">1.65355181694031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82070982456207</t>
+    <t xml:space="preserve">1.82070970535278</t>
   </si>
   <si>
     <t xml:space="preserve">1.82890403270721</t>
@@ -599,52 +599,52 @@
     <t xml:space="preserve">1.87970674037933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79448890686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80104398727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73876965045929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72729790210724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74696350097656</t>
+    <t xml:space="preserve">1.79448902606964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80104410648346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73876953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72729814052582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74696362018585</t>
   </si>
   <si>
     <t xml:space="preserve">1.76335167884827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84693050384521</t>
+    <t xml:space="preserve">1.84693026542664</t>
   </si>
   <si>
     <t xml:space="preserve">1.81087696552277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80923819541931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81251573562622</t>
+    <t xml:space="preserve">1.80923807621002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81251561641693</t>
   </si>
   <si>
     <t xml:space="preserve">1.86167979240417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86495733261108</t>
+    <t xml:space="preserve">1.86495745182037</t>
   </si>
   <si>
     <t xml:space="preserve">1.85840213298798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87642896175385</t>
+    <t xml:space="preserve">1.87642908096313</t>
   </si>
   <si>
     <t xml:space="preserve">1.89937233924866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84856951236725</t>
+    <t xml:space="preserve">1.84856963157654</t>
   </si>
   <si>
     <t xml:space="preserve">1.92479634284973</t>
@@ -58660,7 +58660,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.649375</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>3086</v>
@@ -58681,6 +58681,32 @@
         <v>742</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6493865741</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>955</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>1.99000000953674</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>1.99000000953674</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>740</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825932025909</t>
+    <t xml:space="preserve">1.85825955867767</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
@@ -53,58 +53,58 @@
     <t xml:space="preserve">1.88496315479279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92423295974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642282962799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82998478412628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79856896400452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76715278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354697704315</t>
+    <t xml:space="preserve">1.9242330789566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642294883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998514175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79856884479523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76715302467346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354709625244</t>
   </si>
   <si>
     <t xml:space="preserve">1.86925530433655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8771094083786</t>
+    <t xml:space="preserve">1.87710893154144</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281725883484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86768424510956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584775447845</t>
+    <t xml:space="preserve">1.86768436431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584751605988</t>
   </si>
   <si>
     <t xml:space="preserve">1.83783888816833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87553834915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82684326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8456928730011</t>
+    <t xml:space="preserve">1.87553811073303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82684350013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84569299221039</t>
   </si>
   <si>
     <t xml:space="preserve">1.81898939609528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83626842498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85983002185822</t>
+    <t xml:space="preserve">1.83626818656921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85983026027679</t>
   </si>
   <si>
     <t xml:space="preserve">1.80485212802887</t>
@@ -116,136 +116,136 @@
     <t xml:space="preserve">1.81741857528687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85040521621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88025069236755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81427693367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85197615623474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84412205219269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84098076820374</t>
+    <t xml:space="preserve">1.85040545463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88025057315826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81427681446075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85197627544403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84412217140198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84098052978516</t>
   </si>
   <si>
     <t xml:space="preserve">1.82370185852051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8111355304718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82213091850281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9367995262146</t>
+    <t xml:space="preserve">1.81113541126251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8221310377121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679976463318</t>
   </si>
   <si>
     <t xml:space="preserve">1.94622421264648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95407843589783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350300312042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9650741815567</t>
+    <t xml:space="preserve">1.95407855510712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.963503241539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507394313812</t>
   </si>
   <si>
     <t xml:space="preserve">1.99334847927094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00434398651123</t>
+    <t xml:space="preserve">2.00434422492981</t>
   </si>
   <si>
     <t xml:space="preserve">1.98706519603729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00905632972717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02476453781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051600456238</t>
+    <t xml:space="preserve">2.00905656814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02476477622986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051636219025</t>
   </si>
   <si>
     <t xml:space="preserve">1.96193242073059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93994116783142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564901828766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637933254242</t>
+    <t xml:space="preserve">1.93994092941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564937591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637921333313</t>
   </si>
   <si>
     <t xml:space="preserve">1.8739675283432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93378710746765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017540454865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9223153591156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050932884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656334400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509171485901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9583694934845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91739904880524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93542611598969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9419811964035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248297691345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084420681</t>
+    <t xml:space="preserve">1.93378722667694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017552375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92231559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050944805145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509159564972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95836937427521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91739916801453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9354259967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94198107719421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248285770416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084396839142</t>
   </si>
   <si>
     <t xml:space="preserve">1.83545911312103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80268275737762</t>
+    <t xml:space="preserve">1.80268287658691</t>
   </si>
   <si>
     <t xml:space="preserve">1.84201431274414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83218157291412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88298428058624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86823487281799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90756630897522</t>
+    <t xml:space="preserve">1.83218133449554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88298439979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86823523044586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9075665473938</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281702041626</t>
@@ -254,19 +254,19 @@
     <t xml:space="preserve">1.90592741966248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88462293148041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90920495986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151277065277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8977335691452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82398748397827</t>
+    <t xml:space="preserve">1.88462328910828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9092048406601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87151265144348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773333072662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82398760318756</t>
   </si>
   <si>
     <t xml:space="preserve">1.75843513011932</t>
@@ -275,88 +275,88 @@
     <t xml:space="preserve">1.76662921905518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78629505634308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77646207809448</t>
+    <t xml:space="preserve">1.78629493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77646219730377</t>
   </si>
   <si>
     <t xml:space="preserve">1.75188004970551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75351893901825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77973961830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75024116039276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72074258327484</t>
+    <t xml:space="preserve">1.75351905822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77973973751068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75024127960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72074270248413</t>
   </si>
   <si>
     <t xml:space="preserve">1.66993999481201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72893679141998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69616079330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76007413864136</t>
+    <t xml:space="preserve">1.72893667221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69616067409515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76007401943207</t>
   </si>
   <si>
     <t xml:space="preserve">1.70435476303101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73549199104309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73385310173035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71254873275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63060867786407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67157876491547</t>
+    <t xml:space="preserve">1.73549211025238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73385322093964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71254861354828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63060879707336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67157864570618</t>
   </si>
   <si>
     <t xml:space="preserve">1.66666221618652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61012375354767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62241458892822</t>
+    <t xml:space="preserve">1.61012363433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62241470813751</t>
   </si>
   <si>
     <t xml:space="preserve">1.66338467597961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67321753501892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64535784721375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63880264759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62569224834442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66830122470856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65519070625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64699673652649</t>
+    <t xml:space="preserve">1.6732177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64535772800446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63880252838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62569212913513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66830110549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65519082546234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6469966173172</t>
   </si>
   <si>
     <t xml:space="preserve">1.63798320293427</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">1.59865200519562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6297892332077</t>
+    <t xml:space="preserve">1.62978911399841</t>
   </si>
   <si>
     <t xml:space="preserve">1.58308351039886</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">1.578986287117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59127748012543</t>
+    <t xml:space="preserve">1.59127736091614</t>
   </si>
   <si>
     <t xml:space="preserve">1.54047453403473</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">1.56751477718353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56997311115265</t>
+    <t xml:space="preserve">1.56997287273407</t>
   </si>
   <si>
     <t xml:space="preserve">1.56669533252716</t>
@@ -398,31 +398,31 @@
     <t xml:space="preserve">1.6027489900589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60356855392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6060266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51917016506195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56177890300751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54539084434509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37659430503845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4126478433609</t>
+    <t xml:space="preserve">1.60356843471527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60602676868439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51916992664337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5617790222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54539096355438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37659418582916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41264796257019</t>
   </si>
   <si>
     <t xml:space="preserve">1.39462113380432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45771503448486</t>
+    <t xml:space="preserve">1.45771491527557</t>
   </si>
   <si>
     <t xml:space="preserve">1.47082543373108</t>
@@ -431,13 +431,13 @@
     <t xml:space="preserve">1.53391933441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61258184909821</t>
+    <t xml:space="preserve">1.61258172988892</t>
   </si>
   <si>
     <t xml:space="preserve">1.61176240444183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59783267974854</t>
+    <t xml:space="preserve">1.59783279895782</t>
   </si>
   <si>
     <t xml:space="preserve">1.54211318492889</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">1.51179552078247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5552237033844</t>
+    <t xml:space="preserve">1.55522382259369</t>
   </si>
   <si>
     <t xml:space="preserve">1.56505656242371</t>
@@ -455,10 +455,10 @@
     <t xml:space="preserve">1.56423723697662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59291625022888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55686235427856</t>
+    <t xml:space="preserve">1.59291613101959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55686259269714</t>
   </si>
   <si>
     <t xml:space="preserve">1.52162826061249</t>
@@ -479,52 +479,52 @@
     <t xml:space="preserve">1.51589250564575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55194628238678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50851786136627</t>
+    <t xml:space="preserve">1.55194616317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50851774215698</t>
   </si>
   <si>
     <t xml:space="preserve">1.53228056430817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50933742523193</t>
+    <t xml:space="preserve">1.50933730602264</t>
   </si>
   <si>
     <t xml:space="preserve">1.50769853591919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50278210639954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49540734291077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51015675067902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57325065135956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5855416059494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59455502033234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60684609413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62159514427185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5716118812561</t>
+    <t xml:space="preserve">1.50278198719025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49540758132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51015663146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57325053215027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58554148674011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59455490112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60684597492218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62159526348114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57161176204681</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375207424164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57243120670319</t>
+    <t xml:space="preserve">1.57243132591248</t>
   </si>
   <si>
     <t xml:space="preserve">1.58718037605286</t>
@@ -536,10 +536,10 @@
     <t xml:space="preserve">1.55768191814423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58799970149994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53473889827728</t>
+    <t xml:space="preserve">1.58799982070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5347386598587</t>
   </si>
   <si>
     <t xml:space="preserve">1.58226406574249</t>
@@ -548,64 +548,64 @@
     <t xml:space="preserve">1.54702973365784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53883564472198</t>
+    <t xml:space="preserve">1.53883576393127</t>
   </si>
   <si>
     <t xml:space="preserve">1.54784917831421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55276560783386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54948794841766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53801620006561</t>
+    <t xml:space="preserve">1.55276548862457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54948806762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53801643848419</t>
   </si>
   <si>
     <t xml:space="preserve">1.54866850376129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53637754917145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53965520858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5691534280777</t>
+    <t xml:space="preserve">1.53637742996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53965508937836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56915354728699</t>
   </si>
   <si>
     <t xml:space="preserve">1.65191316604614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69288325309753</t>
+    <t xml:space="preserve">1.69288313388824</t>
   </si>
   <si>
     <t xml:space="preserve">1.65355181694031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82070970535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82890403270721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81743216514587</t>
+    <t xml:space="preserve">1.82070958614349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82890379428864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81743204593658</t>
   </si>
   <si>
     <t xml:space="preserve">1.81579339504242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87970674037933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79448902606964</t>
+    <t xml:space="preserve">1.87970626354218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79448890686035</t>
   </si>
   <si>
     <t xml:space="preserve">1.80104410648346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73876953125</t>
+    <t xml:space="preserve">1.73876965045929</t>
   </si>
   <si>
     <t xml:space="preserve">1.72729814052582</t>
@@ -614,25 +614,25 @@
     <t xml:space="preserve">1.74696362018585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76335167884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84693026542664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81087696552277</t>
+    <t xml:space="preserve">1.76335155963898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84693050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81087708473206</t>
   </si>
   <si>
     <t xml:space="preserve">1.80923807621002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81251561641693</t>
+    <t xml:space="preserve">1.81251573562622</t>
   </si>
   <si>
     <t xml:space="preserve">1.86167979240417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86495745182037</t>
+    <t xml:space="preserve">1.86495769023895</t>
   </si>
   <si>
     <t xml:space="preserve">1.85840213298798</t>
@@ -641,40 +641,40 @@
     <t xml:space="preserve">1.87642908096313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89937233924866</t>
+    <t xml:space="preserve">1.89937257766724</t>
   </si>
   <si>
     <t xml:space="preserve">1.84856963157654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92479634284973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679392337799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93850827217102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97107374668121</t>
+    <t xml:space="preserve">1.92479622364044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679404258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93850815296173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9710738658905</t>
   </si>
   <si>
     <t xml:space="preserve">1.92822432518005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94193613529205</t>
+    <t xml:space="preserve">1.94193637371063</t>
   </si>
   <si>
     <t xml:space="preserve">1.94364988803864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95907592773438</t>
+    <t xml:space="preserve">1.95907604694366</t>
   </si>
   <si>
     <t xml:space="preserve">1.96764576435089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92651009559631</t>
+    <t xml:space="preserve">1.9265102148056</t>
   </si>
   <si>
     <t xml:space="preserve">1.95393395423889</t>
@@ -692,16 +692,16 @@
     <t xml:space="preserve">1.8716629743576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92993819713593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080070495605</t>
+    <t xml:space="preserve">1.92993855476379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080046653748</t>
   </si>
   <si>
     <t xml:space="preserve">1.91451239585876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88708853721619</t>
+    <t xml:space="preserve">1.88708889484406</t>
   </si>
   <si>
     <t xml:space="preserve">1.87680494785309</t>
@@ -710,76 +710,76 @@
     <t xml:space="preserve">1.91794049739838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88537490367889</t>
+    <t xml:space="preserve">1.8853747844696</t>
   </si>
   <si>
     <t xml:space="preserve">1.86994910240173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88880264759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90937042236328</t>
+    <t xml:space="preserve">1.88880276679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90937054157257</t>
   </si>
   <si>
     <t xml:space="preserve">1.90251457691193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96421778202057</t>
+    <t xml:space="preserve">1.96421802043915</t>
   </si>
   <si>
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821365833282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98649954795837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97964358329773</t>
+    <t xml:space="preserve">1.98821341991425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98649966716766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97964346408844</t>
   </si>
   <si>
     <t xml:space="preserve">2.12533140182495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08591032028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05677247047424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07905435562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0807683467865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06534242630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06020045280457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07219839096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13390135765076</t>
+    <t xml:space="preserve">2.0859100818634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05677270889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07905459403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08076810836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06534218788147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06020069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07219862937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13390159606934</t>
   </si>
   <si>
     <t xml:space="preserve">2.1081919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09962224960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10304999351501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03963303565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06877040863037</t>
+    <t xml:space="preserve">2.09962201118469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10304975509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03963279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06877064704895</t>
   </si>
   <si>
     <t xml:space="preserve">2.11504769325256</t>
@@ -788,25 +788,25 @@
     <t xml:space="preserve">2.07391238212585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09790778160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11676168441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08248233795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705641746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12190389633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10647797584534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0893383026123</t>
+    <t xml:space="preserve">2.09790802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1167619228363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08248209953308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705665588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12190365791321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10647773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08933806419373</t>
   </si>
   <si>
     <t xml:space="preserve">2.05163073539734</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">2.17675113677979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14247155189514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1321873664856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13047337532043</t>
+    <t xml:space="preserve">2.14247131347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13218760490417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13047361373901</t>
   </si>
   <si>
     <t xml:space="preserve">2.15961122512817</t>
@@ -830,40 +830,40 @@
     <t xml:space="preserve">2.11847543716431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09105205535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12361741065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11161971092224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10133600234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15789699554443</t>
+    <t xml:space="preserve">2.09105229377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12361764907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11161994934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10133576393127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15789723396301</t>
   </si>
   <si>
     <t xml:space="preserve">2.15618324279785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1441855430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14075756072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14932751655579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13904333114624</t>
+    <t xml:space="preserve">2.14418530464172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1407573223114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14932727813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13904356956482</t>
   </si>
   <si>
     <t xml:space="preserve">2.17503714561462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15104126930237</t>
+    <t xml:space="preserve">2.15104150772095</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
@@ -878,22 +878,22 @@
     <t xml:space="preserve">2.03277683258057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04820275306702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07048392295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0499165058136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12875938415527</t>
+    <t xml:space="preserve">2.0482029914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07048416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04991674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12875962257385</t>
   </si>
   <si>
     <t xml:space="preserve">2.08762431144714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02077913284302</t>
+    <t xml:space="preserve">2.02077889442444</t>
   </si>
   <si>
     <t xml:space="preserve">2.08419609069824</t>
@@ -905,55 +905,55 @@
     <t xml:space="preserve">2.01392292976379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00535297393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16818118095398</t>
+    <t xml:space="preserve">2.00535321235657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1681809425354</t>
   </si>
   <si>
     <t xml:space="preserve">2.18532061576843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29672956466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33100914955139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32243871688843</t>
+    <t xml:space="preserve">2.29672932624817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33100867271423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32243919372559</t>
   </si>
   <si>
     <t xml:space="preserve">2.35671854019165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44241714477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49383687973022</t>
+    <t xml:space="preserve">2.44241738319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49383664131165</t>
   </si>
   <si>
     <t xml:space="preserve">2.46812725067139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47669720649719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48526668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53668642044067</t>
+    <t xml:space="preserve">2.47669696807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48526692390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53668618202209</t>
   </si>
   <si>
     <t xml:space="preserve">2.57953572273254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59667539596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61381483078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382561683655</t>
+    <t xml:space="preserve">2.596675157547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61381506919861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382585525513</t>
   </si>
   <si>
     <t xml:space="preserve">2.63447332382202</t>
@@ -971,16 +971,16 @@
     <t xml:space="preserve">2.52694344520569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.437335729599</t>
+    <t xml:space="preserve">2.43733549118042</t>
   </si>
   <si>
     <t xml:space="preserve">2.46421790122986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50006127357483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45525741577148</t>
+    <t xml:space="preserve">2.50006103515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45525717735291</t>
   </si>
   <si>
     <t xml:space="preserve">2.54486513137817</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">2.57174754142761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798295974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56278681755066</t>
+    <t xml:space="preserve">2.51798272132874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56278657913208</t>
   </si>
   <si>
     <t xml:space="preserve">2.53590416908264</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">2.4911003112793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48213958740234</t>
+    <t xml:space="preserve">2.48213982582092</t>
   </si>
   <si>
     <t xml:space="preserve">2.50902199745178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47317862510681</t>
+    <t xml:space="preserve">2.47317886352539</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680658340454</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.65239477157593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68823766708374</t>
+    <t xml:space="preserve">2.68823790550232</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83161067962646</t>
+    <t xml:space="preserve">2.86745381355286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83161044120789</t>
   </si>
   <si>
     <t xml:space="preserve">2.6434338092804</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">2.58070850372314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60759091377258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41941404342651</t>
+    <t xml:space="preserve">2.607590675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41941428184509</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135549545288</t>
@@ -1097,10 +1097,10 @@
     <t xml:space="preserve">2.80472826957703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90329694747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12731647491455</t>
+    <t xml:space="preserve">2.90329670906067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12731671333313</t>
   </si>
   <si>
     <t xml:space="preserve">3.16315984725952</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">3.13627743721008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19004201889038</t>
+    <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
     <t xml:space="preserve">3.25276780128479</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">3.26172852516174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28861117362976</t>
+    <t xml:space="preserve">3.28861093521118</t>
   </si>
   <si>
     <t xml:space="preserve">3.29757189750671</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">3.48574876785278</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47678780555725</t>
+    <t xml:space="preserve">3.47678756713867</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">3.53055238723755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59327793121338</t>
+    <t xml:space="preserve">3.59327816963196</t>
   </si>
   <si>
     <t xml:space="preserve">3.55743479728699</t>
@@ -1184,19 +1184,19 @@
     <t xml:space="preserve">3.51263093948364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53951334953308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60223889350891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65600323677063</t>
+    <t xml:space="preserve">3.5395131111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60223865509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65600347518921</t>
   </si>
   <si>
     <t xml:space="preserve">3.66496443748474</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72768998146057</t>
+    <t xml:space="preserve">3.72768974304199</t>
   </si>
   <si>
     <t xml:space="preserve">3.71872925758362</t>
@@ -1205,13 +1205,13 @@
     <t xml:space="preserve">3.6918466091156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70976781845093</t>
+    <t xml:space="preserve">3.70976805686951</t>
   </si>
   <si>
     <t xml:space="preserve">3.68288588523865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76353287696838</t>
+    <t xml:space="preserve">3.7635326385498</t>
   </si>
   <si>
     <t xml:space="preserve">3.78145432472229</t>
@@ -58686,7 +58686,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6493865741</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>955</v>
@@ -58707,6 +58707,32 @@
         <v>740</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6496296296</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>1.99000000953674</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>1.99000000953674</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>738</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825943946838</t>
+    <t xml:space="preserve">1.85825932025909</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9132376909256</t>
+    <t xml:space="preserve">1.91323781013489</t>
   </si>
   <si>
     <t xml:space="preserve">1.92109143733978</t>
@@ -56,199 +56,202 @@
     <t xml:space="preserve">1.92423319816589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80642294883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82998502254486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79856884479523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76715290546417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354721546173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86925494670868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87710928916931</t>
+    <t xml:space="preserve">1.80642282962799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998490333557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79856908321381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76715278625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354685783386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86925518512726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87710916996002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281713962555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86768412590027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584775447845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83783900737762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8755384683609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82684314250946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84569263458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81898939609528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83626842498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85983037948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80485200881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82056021690369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81741857528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85040521621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88025081157684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81427681446075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85197639465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84412217140198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84098064899445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82370173931122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81113541126251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8221310377121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9367995262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94622421264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407867431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.963503241539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507394313812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99334847927094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00434398651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98706543445587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00905632972717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0247642993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051600456238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96193218231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564925670624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637945175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87396740913391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93378698825836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017528533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9223153591156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050932884216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656310558319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509159564972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95836925506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91739916801453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9354259967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94198107719421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248285770416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084420681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83545911312103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80268287658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84201431274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83218157291412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88298416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86823487281799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90756642818451</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281690120697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86768436431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584811210632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83783900737762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87553834915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82684338092804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84569275379181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81898951530457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83626806735992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85983026027679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80485224723816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82056033611298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81741833686829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85040509700775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88025069236755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81427693367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85197615623474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84412229061127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84098041057587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82370173931122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81113541126251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82213079929352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679976463318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94622433185577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407843589783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350347995758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9650741815567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99334859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00434422492981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98706531524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00905632972717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02476477622986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051648139954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96193218231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994128704071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564937591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637921333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87396717071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93378698825836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017504692078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92231559753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050932884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656310558319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509135723114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95836925506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91739916801453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9354259967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94198107719421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248261928558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084420681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83545887470245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8026829957962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84201407432556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83218157291412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88298439979553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86823487281799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90756618976593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592753887177</t>
+    <t xml:space="preserve">1.90592730045319</t>
   </si>
   <si>
     <t xml:space="preserve">1.88462293148041</t>
@@ -269,7 +272,7 @@
     <t xml:space="preserve">1.75843513011932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76662921905518</t>
+    <t xml:space="preserve">1.76662909984589</t>
   </si>
   <si>
     <t xml:space="preserve">1.78629517555237</t>
@@ -278,7 +281,7 @@
     <t xml:space="preserve">1.77646195888519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75188004970551</t>
+    <t xml:space="preserve">1.75188016891479</t>
   </si>
   <si>
     <t xml:space="preserve">1.75351881980896</t>
@@ -293,7 +296,7 @@
     <t xml:space="preserve">1.72074258327484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66993987560272</t>
+    <t xml:space="preserve">1.66993999481201</t>
   </si>
   <si>
     <t xml:space="preserve">1.72893679141998</t>
@@ -302,7 +305,7 @@
     <t xml:space="preserve">1.69616079330444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76007401943207</t>
+    <t xml:space="preserve">1.76007390022278</t>
   </si>
   <si>
     <t xml:space="preserve">1.70435464382172</t>
@@ -311,10 +314,10 @@
     <t xml:space="preserve">1.73549199104309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73385322093964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71254873275757</t>
+    <t xml:space="preserve">1.73385310173035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71254885196686</t>
   </si>
   <si>
     <t xml:space="preserve">1.63060867786407</t>
@@ -326,7 +329,7 @@
     <t xml:space="preserve">1.66666233539581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61012351512909</t>
+    <t xml:space="preserve">1.61012363433838</t>
   </si>
   <si>
     <t xml:space="preserve">1.62241458892822</t>
@@ -344,7 +347,7 @@
     <t xml:space="preserve">1.63880264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62569224834442</t>
+    <t xml:space="preserve">1.62569236755371</t>
   </si>
   <si>
     <t xml:space="preserve">1.66830110549927</t>
@@ -353,7 +356,7 @@
     <t xml:space="preserve">1.65519070625305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64699673652649</t>
+    <t xml:space="preserve">1.64699685573578</t>
   </si>
   <si>
     <t xml:space="preserve">1.63798320293427</t>
@@ -437,13 +440,13 @@
     <t xml:space="preserve">1.59783267974854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54211342334747</t>
+    <t xml:space="preserve">1.54211330413818</t>
   </si>
   <si>
     <t xml:space="preserve">1.51179552078247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55522382259369</t>
+    <t xml:space="preserve">1.5552237033844</t>
   </si>
   <si>
     <t xml:space="preserve">1.56505656242371</t>
@@ -470,7 +473,7 @@
     <t xml:space="preserve">1.51097619533539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55112671852112</t>
+    <t xml:space="preserve">1.55112683773041</t>
   </si>
   <si>
     <t xml:space="preserve">1.51589250564575</t>
@@ -482,7 +485,7 @@
     <t xml:space="preserve">1.50851786136627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53228056430817</t>
+    <t xml:space="preserve">1.53228068351746</t>
   </si>
   <si>
     <t xml:space="preserve">1.50933730602264</t>
@@ -494,7 +497,7 @@
     <t xml:space="preserve">1.50278198719025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49540746212006</t>
+    <t xml:space="preserve">1.49540734291077</t>
   </si>
   <si>
     <t xml:space="preserve">1.51015675067902</t>
@@ -515,7 +518,7 @@
     <t xml:space="preserve">1.62159526348114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57161176204681</t>
+    <t xml:space="preserve">1.5716118812561</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375207424164</t>
@@ -524,13 +527,13 @@
     <t xml:space="preserve">1.57243120670319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58718037605286</t>
+    <t xml:space="preserve">1.58718049526215</t>
   </si>
   <si>
     <t xml:space="preserve">1.54621028900146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55768191814423</t>
+    <t xml:space="preserve">1.55768179893494</t>
   </si>
   <si>
     <t xml:space="preserve">1.58799982070923</t>
@@ -560,13 +563,13 @@
     <t xml:space="preserve">1.5380163192749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54866850376129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53637754917145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53965520858765</t>
+    <t xml:space="preserve">1.54866862297058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53637742996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53965508937836</t>
   </si>
   <si>
     <t xml:space="preserve">1.56915354728699</t>
@@ -581,13 +584,13 @@
     <t xml:space="preserve">1.65355181694031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82070970535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8289041519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81743228435516</t>
+    <t xml:space="preserve">1.82070958614349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82890391349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81743216514587</t>
   </si>
   <si>
     <t xml:space="preserve">1.81579327583313</t>
@@ -596,13 +599,13 @@
     <t xml:space="preserve">1.87970674037933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79448902606964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80104398727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73876953125</t>
+    <t xml:space="preserve">1.79448914527893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80104422569275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73876941204071</t>
   </si>
   <si>
     <t xml:space="preserve">1.72729814052582</t>
@@ -611,7 +614,7 @@
     <t xml:space="preserve">1.74696373939514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76335144042969</t>
+    <t xml:space="preserve">1.76335167884827</t>
   </si>
   <si>
     <t xml:space="preserve">1.84693038463593</t>
@@ -620,10 +623,10 @@
     <t xml:space="preserve">1.81087708473206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8092383146286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81251549720764</t>
+    <t xml:space="preserve">1.80923807621002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81251561641693</t>
   </si>
   <si>
     <t xml:space="preserve">1.86167979240417</t>
@@ -635,22 +638,22 @@
     <t xml:space="preserve">1.85840213298798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87642896175385</t>
+    <t xml:space="preserve">1.87642920017242</t>
   </si>
   <si>
     <t xml:space="preserve">1.89937233924866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84856975078583</t>
+    <t xml:space="preserve">1.84856951236725</t>
   </si>
   <si>
     <t xml:space="preserve">1.92479634284973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93679404258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93850803375244</t>
+    <t xml:space="preserve">1.93679428100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93850827217102</t>
   </si>
   <si>
     <t xml:space="preserve">1.97107374668121</t>
@@ -659,7 +662,7 @@
     <t xml:space="preserve">1.92822444438934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94193613529205</t>
+    <t xml:space="preserve">1.94193601608276</t>
   </si>
   <si>
     <t xml:space="preserve">1.94365000724792</t>
@@ -668,7 +671,7 @@
     <t xml:space="preserve">1.95907580852509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96764588356018</t>
+    <t xml:space="preserve">1.9676456451416</t>
   </si>
   <si>
     <t xml:space="preserve">1.92651033401489</t>
@@ -692,19 +695,19 @@
     <t xml:space="preserve">1.92993819713593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90080058574677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91451263427734</t>
+    <t xml:space="preserve">1.90080070495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91451239585876</t>
   </si>
   <si>
     <t xml:space="preserve">1.88708865642548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87680518627167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9179402589798</t>
+    <t xml:space="preserve">1.87680494785309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91794049739838</t>
   </si>
   <si>
     <t xml:space="preserve">1.88537490367889</t>
@@ -719,7 +722,7 @@
     <t xml:space="preserve">1.90937042236328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90251469612122</t>
+    <t xml:space="preserve">1.90251445770264</t>
   </si>
   <si>
     <t xml:space="preserve">1.96421778202057</t>
@@ -737,10 +740,10 @@
     <t xml:space="preserve">1.97964334487915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12533140182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08591032028198</t>
+    <t xml:space="preserve">2.12533164024353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0859100818634</t>
   </si>
   <si>
     <t xml:space="preserve">2.05677270889282</t>
@@ -752,19 +755,19 @@
     <t xml:space="preserve">2.08076786994934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06534266471863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06020045280457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07219862937927</t>
+    <t xml:space="preserve">2.06534242630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06020069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07219839096069</t>
   </si>
   <si>
     <t xml:space="preserve">2.13390135765076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1081919670105</t>
+    <t xml:space="preserve">2.10819172859192</t>
   </si>
   <si>
     <t xml:space="preserve">2.09962201118469</t>
@@ -776,13 +779,13 @@
     <t xml:space="preserve">2.03963279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06877040863037</t>
+    <t xml:space="preserve">2.06877064704895</t>
   </si>
   <si>
     <t xml:space="preserve">2.11504769325256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07391214370728</t>
+    <t xml:space="preserve">2.07391238212585</t>
   </si>
   <si>
     <t xml:space="preserve">2.09790802001953</t>
@@ -794,7 +797,7 @@
     <t xml:space="preserve">2.08248233795166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06705617904663</t>
+    <t xml:space="preserve">2.06705641746521</t>
   </si>
   <si>
     <t xml:space="preserve">2.12190365791321</t>
@@ -815,19 +818,19 @@
     <t xml:space="preserve">2.14247155189514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1321873664856</t>
+    <t xml:space="preserve">2.13218760490417</t>
   </si>
   <si>
     <t xml:space="preserve">2.13047361373901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15961098670959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11847567558289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09105229377747</t>
+    <t xml:space="preserve">2.15961122512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11847543716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09105205535889</t>
   </si>
   <si>
     <t xml:space="preserve">2.12361764907837</t>
@@ -842,7 +845,7 @@
     <t xml:space="preserve">2.15789723396301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15618324279785</t>
+    <t xml:space="preserve">2.15618300437927</t>
   </si>
   <si>
     <t xml:space="preserve">2.1441855430603</t>
@@ -854,13 +857,13 @@
     <t xml:space="preserve">2.14932727813721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13904333114624</t>
+    <t xml:space="preserve">2.13904356956482</t>
   </si>
   <si>
     <t xml:space="preserve">2.17503690719604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15104150772095</t>
+    <t xml:space="preserve">2.15104126930237</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
@@ -884,13 +887,13 @@
     <t xml:space="preserve">2.04991674423218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12875986099243</t>
+    <t xml:space="preserve">2.12875962257385</t>
   </si>
   <si>
     <t xml:space="preserve">2.08762431144714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02077913284302</t>
+    <t xml:space="preserve">2.02077889442444</t>
   </si>
   <si>
     <t xml:space="preserve">2.08419609069824</t>
@@ -938,22 +941,22 @@
     <t xml:space="preserve">2.48526668548584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53668618202209</t>
+    <t xml:space="preserve">2.53668642044067</t>
   </si>
   <si>
     <t xml:space="preserve">2.57953548431396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59667539596558</t>
+    <t xml:space="preserve">2.596675157547</t>
   </si>
   <si>
     <t xml:space="preserve">2.61381506919861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55382609367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63447308540344</t>
+    <t xml:space="preserve">2.55382585525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63447332382202</t>
   </si>
   <si>
     <t xml:space="preserve">2.59862995147705</t>
@@ -962,10 +965,7 @@
     <t xml:space="preserve">2.5896692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61655163764954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382585525513</t>
+    <t xml:space="preserve">2.61655139923096</t>
   </si>
   <si>
     <t xml:space="preserve">2.52694368362427</t>
@@ -980,16 +980,16 @@
     <t xml:space="preserve">2.50006103515625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45525717735291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54486489295959</t>
+    <t xml:space="preserve">2.45525741577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54486513137817</t>
   </si>
   <si>
     <t xml:space="preserve">2.57174730300903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798272132874</t>
+    <t xml:space="preserve">2.51798295974731</t>
   </si>
   <si>
     <t xml:space="preserve">2.56278681755066</t>
@@ -1004,10 +1004,10 @@
     <t xml:space="preserve">2.48213958740234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50902199745178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47317886352539</t>
+    <t xml:space="preserve">2.5090217590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47317862510681</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680658340454</t>
@@ -1019,25 +1019,25 @@
     <t xml:space="preserve">2.77784562110901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74200248718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76888465881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71512031555176</t>
+    <t xml:space="preserve">2.7420027256012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76888489723206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71512007713318</t>
   </si>
   <si>
     <t xml:space="preserve">2.75096344947815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67031645774841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72408080101013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65239453315735</t>
+    <t xml:space="preserve">2.67031621932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72408103942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65239477157593</t>
   </si>
   <si>
     <t xml:space="preserve">2.68823766708374</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">2.86745357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83161044120789</t>
+    <t xml:space="preserve">2.83161067962646</t>
   </si>
   <si>
     <t xml:space="preserve">2.6434338092804</t>
@@ -1091,16 +1091,16 @@
     <t xml:space="preserve">2.87641453742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82264995574951</t>
+    <t xml:space="preserve">2.82264971733093</t>
   </si>
   <si>
     <t xml:space="preserve">2.80472826957703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90329694747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12731671333313</t>
+    <t xml:space="preserve">2.90329670906067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12731647491455</t>
   </si>
   <si>
     <t xml:space="preserve">3.16315984725952</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">3.26172876358032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28861093521118</t>
+    <t xml:space="preserve">3.28861117362976</t>
   </si>
   <si>
     <t xml:space="preserve">3.29757189750671</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">3.33341503143311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34237551689148</t>
+    <t xml:space="preserve">3.34237575531006</t>
   </si>
   <si>
     <t xml:space="preserve">3.42302274703979</t>
@@ -1142,19 +1142,19 @@
     <t xml:space="preserve">3.40510129928589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41406202316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36925840377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37821865081787</t>
+    <t xml:space="preserve">3.41406178474426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3692581653595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37821888923645</t>
   </si>
   <si>
     <t xml:space="preserve">3.45886588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48574829101562</t>
+    <t xml:space="preserve">3.4857485294342</t>
   </si>
   <si>
     <t xml:space="preserve">3.47678780555725</t>
@@ -1172,19 +1172,19 @@
     <t xml:space="preserve">3.53055238723755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59327816963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55743455886841</t>
+    <t xml:space="preserve">3.59327793121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55743479728699</t>
   </si>
   <si>
     <t xml:space="preserve">3.52159142494202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51263070106506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53951334953308</t>
+    <t xml:space="preserve">3.51263093948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5395131111145</t>
   </si>
   <si>
     <t xml:space="preserve">3.60223865509033</t>
@@ -1193,25 +1193,25 @@
     <t xml:space="preserve">3.65600347518921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66496419906616</t>
+    <t xml:space="preserve">3.66496443748474</t>
   </si>
   <si>
     <t xml:space="preserve">3.72768974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71872901916504</t>
+    <t xml:space="preserve">3.71872925758362</t>
   </si>
   <si>
     <t xml:space="preserve">3.6918466091156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70976805686951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68288612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7635326385498</t>
+    <t xml:space="preserve">3.70976781845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68288588523865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76353311538696</t>
   </si>
   <si>
     <t xml:space="preserve">3.78145432472229</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">3.97005581855774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00759744644165</t>
+    <t xml:space="preserve">4.00759792327881</t>
   </si>
   <si>
     <t xml:space="preserve">4.0920672416687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81988859176636</t>
+    <t xml:space="preserve">3.81988835334778</t>
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
@@ -1259,40 +1259,40 @@
     <t xml:space="preserve">4.03575468063354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9982123374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97944116592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85743045806885</t>
+    <t xml:space="preserve">3.99821257591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97944092750549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85743021965027</t>
   </si>
   <si>
     <t xml:space="preserve">3.84804463386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81050276756287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74480438232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89497208595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.941899061203</t>
+    <t xml:space="preserve">3.81050252914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7448046207428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89497232437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94189953804016</t>
   </si>
   <si>
     <t xml:space="preserve">3.8668155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93251419067383</t>
+    <t xml:space="preserve">3.93251395225525</t>
   </si>
   <si>
     <t xml:space="preserve">4.08268165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11083841323853</t>
+    <t xml:space="preserve">4.11083793640137</t>
   </si>
   <si>
     <t xml:space="preserve">4.12022304534912</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">4.18592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1953067779541</t>
+    <t xml:space="preserve">4.19530725479126</t>
   </si>
   <si>
     <t xml:space="preserve">4.20469284057617</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">4.28916215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26100540161133</t>
+    <t xml:space="preserve">4.26100587844849</t>
   </si>
   <si>
     <t xml:space="preserve">4.2703914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34547519683838</t>
+    <t xml:space="preserve">4.34547472000122</t>
   </si>
   <si>
     <t xml:space="preserve">4.36424589157104</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">4.50502824783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49564218521118</t>
+    <t xml:space="preserve">4.49564266204834</t>
   </si>
   <si>
     <t xml:space="preserve">4.43932962417603</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">4.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54256963729858</t>
+    <t xml:space="preserve">4.54257011413574</t>
   </si>
   <si>
     <t xml:space="preserve">4.48625707626343</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">4.40178775787354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44871473312378</t>
+    <t xml:space="preserve">4.44871520996094</t>
   </si>
   <si>
     <t xml:space="preserve">4.42994403839111</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">4.41117334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39240217208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2422342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30793285369873</t>
+    <t xml:space="preserve">4.39240169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24223470687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30793333053589</t>
   </si>
   <si>
     <t xml:space="preserve">4.17653608322144</t>
@@ -1394,28 +1394,28 @@
     <t xml:space="preserve">4.62703895568848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61765384674072</t>
+    <t xml:space="preserve">4.61765336990356</t>
   </si>
   <si>
     <t xml:space="preserve">4.51441335678101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57072639465332</t>
+    <t xml:space="preserve">4.57072591781616</t>
   </si>
   <si>
     <t xml:space="preserve">4.67396640777588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80536317825317</t>
+    <t xml:space="preserve">4.80536270141602</t>
   </si>
   <si>
     <t xml:space="preserve">4.78659200668335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86167573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84290456771851</t>
+    <t xml:space="preserve">4.86167621612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84290504455566</t>
   </si>
   <si>
     <t xml:space="preserve">4.89921760559082</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">4.5988826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53318452835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58011198043823</t>
+    <t xml:space="preserve">4.53318405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58011150360107</t>
   </si>
   <si>
     <t xml:space="preserve">4.6927375793457</t>
@@ -1439,16 +1439,16 @@
     <t xml:space="preserve">4.74905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73027896881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71150875091553</t>
+    <t xml:space="preserve">4.73027944564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71150827407837</t>
   </si>
   <si>
     <t xml:space="preserve">4.76782131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95553064346313</t>
+    <t xml:space="preserve">4.95553112030029</t>
   </si>
   <si>
     <t xml:space="preserve">4.88044691085815</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">4.91798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99307298660278</t>
+    <t xml:space="preserve">4.99307250976562</t>
   </si>
   <si>
     <t xml:space="preserve">4.93675994873047</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">6.60737419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28826761245728</t>
+    <t xml:space="preserve">6.28826808929443</t>
   </si>
   <si>
     <t xml:space="preserve">6.1568717956543</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">5.96916246414185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7063684463501</t>
+    <t xml:space="preserve">5.70636892318726</t>
   </si>
   <si>
     <t xml:space="preserve">5.53743028640747</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">5.87530755996704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66882705688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68759775161743</t>
+    <t xml:space="preserve">5.66882658004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68759727478027</t>
   </si>
   <si>
     <t xml:space="preserve">5.83776521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59374332427979</t>
+    <t xml:space="preserve">5.59374284744263</t>
   </si>
   <si>
     <t xml:space="preserve">5.38726234436035</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">5.10569858551025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68335151672363</t>
+    <t xml:space="preserve">4.68335199356079</t>
   </si>
   <si>
     <t xml:space="preserve">4.14837980270386</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">3.62279319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55709505081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37877106666565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50078201293945</t>
+    <t xml:space="preserve">3.55709481239319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37877082824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50078225135803</t>
   </si>
   <si>
     <t xml:space="preserve">3.5664803981781</t>
@@ -1565,13 +1565,13 @@
     <t xml:space="preserve">3.75418996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70726275444031</t>
+    <t xml:space="preserve">3.70726251602173</t>
   </si>
   <si>
     <t xml:space="preserve">3.71664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83865928649902</t>
+    <t xml:space="preserve">3.8386595249176</t>
   </si>
   <si>
     <t xml:space="preserve">4.25162029266357</t>
@@ -1580,25 +1580,25 @@
     <t xml:space="preserve">4.12960910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16715097427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05452489852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76357579231262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66972088813782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65094971656799</t>
+    <t xml:space="preserve">4.16715049743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05452537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76357555389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66972064971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65094995498657</t>
   </si>
   <si>
     <t xml:space="preserve">3.66033530235291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95128488540649</t>
+    <t xml:space="preserve">3.95128512382507</t>
   </si>
   <si>
     <t xml:space="preserve">4.29854726791382</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">4.31731843948364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15776538848877</t>
+    <t xml:space="preserve">4.15776491165161</t>
   </si>
   <si>
     <t xml:space="preserve">4.10145235061646</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.13899421691895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88558650016785</t>
+    <t xml:space="preserve">3.88558626174927</t>
   </si>
   <si>
     <t xml:space="preserve">4.32670402526855</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">4.27977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91374325752258</t>
+    <t xml:space="preserve">3.913743019104</t>
   </si>
   <si>
     <t xml:space="preserve">3.92312836647034</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">3.49139666557312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67910599708557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3881561756134</t>
+    <t xml:space="preserve">3.67910623550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38815641403198</t>
   </si>
   <si>
     <t xml:space="preserve">3.35999989509583</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">3.34122896194458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20044684410095</t>
+    <t xml:space="preserve">3.20044708251953</t>
   </si>
   <si>
     <t xml:space="preserve">3.24737429618835</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">3.47262573242188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57586598396301</t>
+    <t xml:space="preserve">3.57586574554443</t>
   </si>
   <si>
     <t xml:space="preserve">3.73541903495789</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">3.68849158287048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72603344917297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52893877029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217854499817</t>
+    <t xml:space="preserve">3.72603368759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52893853187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217878341675</t>
   </si>
   <si>
     <t xml:space="preserve">3.51016759872437</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">3.58525133132935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53832387924194</t>
+    <t xml:space="preserve">3.53832411766052</t>
   </si>
   <si>
     <t xml:space="preserve">3.80111742019653</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">3.48201107978821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46324038505554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44446921348572</t>
+    <t xml:space="preserve">3.46324014663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4444694519043</t>
   </si>
   <si>
     <t xml:space="preserve">3.42569851875305</t>
@@ -1739,13 +1739,13 @@
     <t xml:space="preserve">3.41631293296814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39754176139832</t>
+    <t xml:space="preserve">3.39754199981689</t>
   </si>
   <si>
     <t xml:space="preserve">3.21921801567078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19106149673462</t>
+    <t xml:space="preserve">3.1910617351532</t>
   </si>
   <si>
     <t xml:space="preserve">3.17229056358337</t>
@@ -1754,13 +1754,13 @@
     <t xml:space="preserve">3.23798894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14413380622864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25675988197327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36938548088074</t>
+    <t xml:space="preserve">3.14413404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25675964355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36938524246216</t>
   </si>
   <si>
     <t xml:space="preserve">3.15351939201355</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">3.18167614936829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29430150985718</t>
+    <t xml:space="preserve">3.29430174827576</t>
   </si>
   <si>
     <t xml:space="preserve">3.2661452293396</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">3.12536311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04089403152466</t>
+    <t xml:space="preserve">3.04089379310608</t>
   </si>
   <si>
     <t xml:space="preserve">3.05027914047241</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">2.93765377998352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95642471313477</t>
+    <t xml:space="preserve">2.95642447471619</t>
   </si>
   <si>
     <t xml:space="preserve">3.03150844573975</t>
@@ -1805,19 +1805,19 @@
     <t xml:space="preserve">3.02212285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92826819419861</t>
+    <t xml:space="preserve">2.92826795578003</t>
   </si>
   <si>
     <t xml:space="preserve">2.94703912734985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90011143684387</t>
+    <t xml:space="preserve">2.90011167526245</t>
   </si>
   <si>
     <t xml:space="preserve">2.97519564628601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27553081512451</t>
+    <t xml:space="preserve">3.27553057670593</t>
   </si>
   <si>
     <t xml:space="preserve">3.33184361457825</t>
@@ -6155,7 +6155,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G136" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6181,7 +6181,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G137" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6207,7 +6207,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G138" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -6233,7 +6233,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6259,7 +6259,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G140" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -6285,7 +6285,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -6337,7 +6337,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G143" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6363,7 +6363,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G144" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6389,7 +6389,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G145" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -6415,7 +6415,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G146" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6441,7 +6441,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G147" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6467,7 +6467,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G148" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6493,7 +6493,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G149" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6519,7 +6519,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G150" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6545,7 +6545,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G151" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6571,7 +6571,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G152" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6597,7 +6597,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G153" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6623,7 +6623,7 @@
         <v>2.13800001144409</v>
       </c>
       <c r="G154" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6649,7 +6649,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G155" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -6675,7 +6675,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G156" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -6701,7 +6701,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G157" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -6727,7 +6727,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -6753,7 +6753,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G159" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -6779,7 +6779,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G160" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -6805,7 +6805,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G161" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6831,7 +6831,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G162" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6857,7 +6857,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G163" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6883,7 +6883,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G164" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6909,7 +6909,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G165" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6935,7 +6935,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G166" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6961,7 +6961,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G167" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6987,7 +6987,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G168" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7013,7 +7013,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G169" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7039,7 +7039,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G170" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7065,7 +7065,7 @@
         <v>2.11800003051758</v>
       </c>
       <c r="G171" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7091,7 +7091,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G172" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7117,7 +7117,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G173" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7143,7 +7143,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G174" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7169,7 +7169,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G175" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7195,7 +7195,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G176" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7221,7 +7221,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G177" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7247,7 +7247,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G178" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7273,7 +7273,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7299,7 +7299,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G180" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7325,7 +7325,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G181" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7351,7 +7351,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7377,7 +7377,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7403,7 +7403,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7429,7 +7429,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G185" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7455,7 +7455,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G186" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7481,7 +7481,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G187" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7507,7 +7507,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G188" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7533,7 +7533,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G189" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7559,7 +7559,7 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7585,7 +7585,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G191" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7611,7 +7611,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G192" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7637,7 +7637,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G193" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7663,7 +7663,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G194" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7689,7 +7689,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7715,7 +7715,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G196" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7741,7 +7741,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G197" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7767,7 +7767,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7793,7 +7793,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7819,7 +7819,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G200" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7845,7 +7845,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G201" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7871,7 +7871,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G202" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7897,7 +7897,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G203" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7923,7 +7923,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G204" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7949,7 +7949,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G205" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7975,7 +7975,7 @@
         <v>1.99899995326996</v>
       </c>
       <c r="G206" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8001,7 +8001,7 @@
         <v>1.95099997520447</v>
       </c>
       <c r="G207" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8027,7 +8027,7 @@
         <v>1.9889999628067</v>
       </c>
       <c r="G208" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8053,7 +8053,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G209" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8079,7 +8079,7 @@
         <v>1.94700002670288</v>
       </c>
       <c r="G210" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8105,7 +8105,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G211" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8131,7 +8131,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G212" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8157,7 +8157,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G213" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8183,7 +8183,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G214" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8209,7 +8209,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G215" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8235,7 +8235,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G216" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8261,7 +8261,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G217" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8287,7 +8287,7 @@
         <v>1.90199995040894</v>
       </c>
       <c r="G218" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8313,7 +8313,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G219" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8339,7 +8339,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G220" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8365,7 +8365,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G221" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8391,7 +8391,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G222" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8417,7 +8417,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G223" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8443,7 +8443,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G224" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8469,7 +8469,7 @@
         <v>1.85399997234344</v>
       </c>
       <c r="G225" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8495,7 +8495,7 @@
         <v>1.90600001811981</v>
       </c>
       <c r="G226" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8521,7 +8521,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G227" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8547,7 +8547,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G228" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8573,7 +8573,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G229" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8599,7 +8599,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G230" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8625,7 +8625,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G231" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8651,7 +8651,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G232" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8677,7 +8677,7 @@
         <v>1.87199997901917</v>
       </c>
       <c r="G233" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8703,7 +8703,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G234" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8729,7 +8729,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G235" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8755,7 +8755,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G236" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8781,7 +8781,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G237" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8807,7 +8807,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G238" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8833,7 +8833,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G239" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8859,7 +8859,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G240" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8885,7 +8885,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G241" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8911,7 +8911,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8937,7 +8937,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G243" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8963,7 +8963,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G244" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8989,7 +8989,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G245" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9015,7 +9015,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G246" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9041,7 +9041,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G247" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9067,7 +9067,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G248" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9093,7 +9093,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G249" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9119,7 +9119,7 @@
         <v>1.85699999332428</v>
       </c>
       <c r="G250" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9145,7 +9145,7 @@
         <v>1.88100004196167</v>
       </c>
       <c r="G251" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9171,7 +9171,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G252" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9197,7 +9197,7 @@
         <v>1.84399998188019</v>
       </c>
       <c r="G253" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9223,7 +9223,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G254" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9249,7 +9249,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G255" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9275,7 +9275,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G256" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9301,7 +9301,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G257" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9327,7 +9327,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G258" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9353,7 +9353,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G259" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9379,7 +9379,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G260" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9405,7 +9405,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G261" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9431,7 +9431,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G262" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9457,7 +9457,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G263" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9483,7 +9483,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G264" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9509,7 +9509,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G265" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9535,7 +9535,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G266" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9561,7 +9561,7 @@
         <v>1.84300005435944</v>
       </c>
       <c r="G267" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9587,7 +9587,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G268" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9613,7 +9613,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G269" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9639,7 +9639,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G270" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9665,7 +9665,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G271" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9691,7 +9691,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G272" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9717,7 +9717,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G273" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9743,7 +9743,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G274" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9769,7 +9769,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G275" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9795,7 +9795,7 @@
         <v>1.97899997234344</v>
       </c>
       <c r="G276" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9821,7 +9821,7 @@
         <v>1.91799998283386</v>
       </c>
       <c r="G277" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9847,7 +9847,7 @@
         <v>1.88399994373322</v>
       </c>
       <c r="G278" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9873,7 +9873,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G279" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9899,7 +9899,7 @@
         <v>1.9190000295639</v>
       </c>
       <c r="G280" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9925,7 +9925,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G281" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9951,7 +9951,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G282" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9977,7 +9977,7 @@
         <v>1.90100002288818</v>
       </c>
       <c r="G283" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10003,7 +10003,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G284" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10029,7 +10029,7 @@
         <v>1.93799996376038</v>
       </c>
       <c r="G285" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10055,7 +10055,7 @@
         <v>1.87300002574921</v>
       </c>
       <c r="G286" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10081,7 +10081,7 @@
         <v>1.93099999427795</v>
       </c>
       <c r="G287" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10107,7 +10107,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G288" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10133,7 +10133,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G289" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10159,7 +10159,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G290" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10185,7 +10185,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G291" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10211,7 +10211,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G292" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10237,7 +10237,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G293" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10263,7 +10263,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G294" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10289,7 +10289,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G295" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10315,7 +10315,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G296" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10341,7 +10341,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G297" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10367,7 +10367,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G298" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10393,7 +10393,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G299" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10419,7 +10419,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G300" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10445,7 +10445,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G301" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10471,7 +10471,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G302" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10497,7 +10497,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G303" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10523,7 +10523,7 @@
         <v>1.875</v>
       </c>
       <c r="G304" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10549,7 +10549,7 @@
         <v>1.87899994850159</v>
       </c>
       <c r="G305" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10575,7 +10575,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G306" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10601,7 +10601,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10627,7 +10627,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G308" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10653,7 +10653,7 @@
         <v>2</v>
       </c>
       <c r="G309" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10679,7 +10679,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G310" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10705,7 +10705,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G311" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10731,7 +10731,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G312" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10757,7 +10757,7 @@
         <v>2.06599998474121</v>
       </c>
       <c r="G313" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10783,7 +10783,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G314" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10809,7 +10809,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G315" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10835,7 +10835,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G316" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10861,7 +10861,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G317" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10913,7 +10913,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G319" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10939,7 +10939,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G320" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10965,7 +10965,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G321" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10991,7 +10991,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G322" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11017,7 +11017,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G323" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11043,7 +11043,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G324" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11069,7 +11069,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G325" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11121,7 +11121,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G327" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11147,7 +11147,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G328" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11173,7 +11173,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G329" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11199,7 +11199,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G330" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11225,7 +11225,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G331" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11251,7 +11251,7 @@
         <v>2.12199997901917</v>
       </c>
       <c r="G332" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11277,7 +11277,7 @@
         <v>2.10800004005432</v>
       </c>
       <c r="G333" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11303,7 +11303,7 @@
         <v>2.13199996948242</v>
       </c>
       <c r="G334" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11329,7 +11329,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G335" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11355,7 +11355,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G336" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11459,7 +11459,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G340" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11485,7 +11485,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11511,7 +11511,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G342" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11537,7 +11537,7 @@
         <v>2.21199989318848</v>
       </c>
       <c r="G343" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11563,7 +11563,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G344" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11615,7 +11615,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G346" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11641,7 +11641,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G347" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11667,7 +11667,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G348" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11693,7 +11693,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G349" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11719,7 +11719,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G350" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11771,7 +11771,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G352" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11797,7 +11797,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G353" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11849,7 +11849,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G355" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11875,7 +11875,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G356" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11901,7 +11901,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G357" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11927,7 +11927,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G358" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11953,7 +11953,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G359" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11979,7 +11979,7 @@
         <v>2.25</v>
       </c>
       <c r="G360" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12005,7 +12005,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G361" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12031,7 +12031,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G362" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12057,7 +12057,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G363" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12083,7 +12083,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G364" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12109,7 +12109,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G365" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12135,7 +12135,7 @@
         <v>2.25</v>
       </c>
       <c r="G366" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12161,7 +12161,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G367" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12187,7 +12187,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G368" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12213,7 +12213,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G369" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12239,7 +12239,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G370" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12265,7 +12265,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G371" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12291,7 +12291,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12317,7 +12317,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G373" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12343,7 +12343,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G374" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12369,7 +12369,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G375" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12395,7 +12395,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G376" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12421,7 +12421,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G377" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12447,7 +12447,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G378" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12473,7 +12473,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G379" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12499,7 +12499,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12525,7 +12525,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G381" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12551,7 +12551,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G382" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12577,7 +12577,7 @@
         <v>2.18199992179871</v>
       </c>
       <c r="G383" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12603,7 +12603,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G384" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12629,7 +12629,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G385" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12655,7 +12655,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G386" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12681,7 +12681,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G387" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12707,7 +12707,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G388" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12733,7 +12733,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12759,7 +12759,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G390" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12785,7 +12785,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G391" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12811,7 +12811,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G392" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12837,7 +12837,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G393" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12863,7 +12863,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G394" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12889,7 +12889,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12915,7 +12915,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G396" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12941,7 +12941,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G397" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12967,7 +12967,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G398" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12993,7 +12993,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G399" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13019,7 +13019,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G400" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13045,7 +13045,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13071,7 +13071,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G402" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13097,7 +13097,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G403" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13123,7 +13123,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G404" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13149,7 +13149,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G405" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13175,7 +13175,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G406" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13201,7 +13201,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G407" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13227,7 +13227,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G408" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13253,7 +13253,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G409" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13279,7 +13279,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G410" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13305,7 +13305,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G411" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13331,7 +13331,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G412" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13357,7 +13357,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G413" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13383,7 +13383,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13409,7 +13409,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G415" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13435,7 +13435,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G416" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13461,7 +13461,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G417" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13487,7 +13487,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G418" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13513,7 +13513,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G419" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13539,7 +13539,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G420" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13565,7 +13565,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13591,7 +13591,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G422" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13617,7 +13617,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G423" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13643,7 +13643,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G424" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13669,7 +13669,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G425" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13695,7 +13695,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G426" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13721,7 +13721,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G427" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13747,7 +13747,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G428" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13773,7 +13773,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G429" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13799,7 +13799,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G430" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13825,7 +13825,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G431" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13851,7 +13851,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13877,7 +13877,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G433" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13903,7 +13903,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13929,7 +13929,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13955,7 +13955,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G436" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13981,7 +13981,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G437" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14007,7 +14007,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G438" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14033,7 +14033,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G439" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14059,7 +14059,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G440" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14085,7 +14085,7 @@
         <v>2.5</v>
       </c>
       <c r="G441" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14111,7 +14111,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G442" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14137,7 +14137,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G443" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14163,7 +14163,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G444" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14189,7 +14189,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G445" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14215,7 +14215,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G446" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14241,7 +14241,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G447" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14267,7 +14267,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G448" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14293,7 +14293,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G449" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14319,7 +14319,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G450" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14345,7 +14345,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14371,7 +14371,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G452" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14397,7 +14397,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G453" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14423,7 +14423,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G454" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14449,7 +14449,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G455" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14475,7 +14475,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G456" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14501,7 +14501,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G457" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14527,7 +14527,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G458" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14553,7 +14553,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G459" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14579,7 +14579,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G460" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14605,7 +14605,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G461" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14631,7 +14631,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G462" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14657,7 +14657,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G463" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14683,7 +14683,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G464" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14709,7 +14709,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G465" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14735,7 +14735,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G466" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14761,7 +14761,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G467" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14787,7 +14787,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G468" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14813,7 +14813,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G469" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14839,7 +14839,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G470" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14865,7 +14865,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G471" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14891,7 +14891,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G472" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14917,7 +14917,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G473" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14943,7 +14943,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14969,7 +14969,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G475" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14995,7 +14995,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G476" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15021,7 +15021,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G477" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15047,7 +15047,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G478" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15073,7 +15073,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G479" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15099,7 +15099,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G480" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15125,7 +15125,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G481" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15151,7 +15151,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G482" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15177,7 +15177,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G483" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15203,7 +15203,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G484" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15229,7 +15229,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G485" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15255,7 +15255,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G486" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15281,7 +15281,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G487" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15307,7 +15307,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G488" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15333,7 +15333,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G489" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15359,7 +15359,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G490" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15385,7 +15385,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G491" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15411,7 +15411,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G492" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15437,7 +15437,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G493" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15463,7 +15463,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G494" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15489,7 +15489,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G495" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15515,7 +15515,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G496" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15541,7 +15541,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G497" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15567,7 +15567,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G498" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15593,7 +15593,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G499" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15619,7 +15619,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G500" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15645,7 +15645,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G501" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15671,7 +15671,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G502" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15697,7 +15697,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G503" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15723,7 +15723,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G504" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15749,7 +15749,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G505" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15775,7 +15775,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G506" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15801,7 +15801,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G507" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15827,7 +15827,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G508" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15853,7 +15853,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G509" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15879,7 +15879,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G510" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15905,7 +15905,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G511" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15931,7 +15931,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G512" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15957,7 +15957,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G513" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15983,7 +15983,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16009,7 +16009,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G515" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16035,7 +16035,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G516" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16061,7 +16061,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16087,7 +16087,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G518" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16113,7 +16113,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G519" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16139,7 +16139,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G520" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16165,7 +16165,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G521" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16191,7 +16191,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G522" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16217,7 +16217,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G523" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16243,7 +16243,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G524" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16269,7 +16269,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G525" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16295,7 +16295,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G526" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16321,7 +16321,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G527" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16347,7 +16347,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G528" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16373,7 +16373,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G529" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16399,7 +16399,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G530" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16425,7 +16425,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G531" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16451,7 +16451,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16477,7 +16477,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G533" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16503,7 +16503,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G534" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16529,7 +16529,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G535" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16555,7 +16555,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G536" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16581,7 +16581,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G537" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16607,7 +16607,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G538" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16633,7 +16633,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G539" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16659,7 +16659,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16685,7 +16685,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G541" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16711,7 +16711,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G542" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16737,7 +16737,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16763,7 +16763,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G544" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16789,7 +16789,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G545" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16815,7 +16815,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G546" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16841,7 +16841,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G547" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16867,7 +16867,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G548" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16893,7 +16893,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G549" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16919,7 +16919,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G550" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16945,7 +16945,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G551" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16971,7 +16971,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G552" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16997,7 +16997,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G553" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17023,7 +17023,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G554" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17049,7 +17049,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G555" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17075,7 +17075,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G556" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17101,7 +17101,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G557" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17127,7 +17127,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17153,7 +17153,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G559" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17179,7 +17179,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G560" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17205,7 +17205,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G561" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17231,7 +17231,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G562" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17257,7 +17257,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G563" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17283,7 +17283,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17309,7 +17309,7 @@
         <v>2.5</v>
       </c>
       <c r="G565" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17335,7 +17335,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17361,7 +17361,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G567" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17387,7 +17387,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17413,7 +17413,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G569" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17439,7 +17439,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G570" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17465,7 +17465,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17491,7 +17491,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17517,7 +17517,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G573" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17543,7 +17543,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G574" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17569,7 +17569,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G575" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17595,7 +17595,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17621,7 +17621,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G577" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17647,7 +17647,7 @@
         <v>2.5</v>
       </c>
       <c r="G578" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17673,7 +17673,7 @@
         <v>2.5</v>
       </c>
       <c r="G579" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17699,7 +17699,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G580" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17725,7 +17725,7 @@
         <v>2.5</v>
       </c>
       <c r="G581" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17751,7 +17751,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G582" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17777,7 +17777,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G583" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17803,7 +17803,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17829,7 +17829,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17855,7 +17855,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G586" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17881,7 +17881,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G587" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17907,7 +17907,7 @@
         <v>2.5</v>
       </c>
       <c r="G588" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17933,7 +17933,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17959,7 +17959,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17985,7 +17985,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18011,7 +18011,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G592" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18037,7 +18037,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G593" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18063,7 +18063,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G594" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18089,7 +18089,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G595" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18115,7 +18115,7 @@
         <v>2.75</v>
       </c>
       <c r="G596" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18141,7 +18141,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18167,7 +18167,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G598" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18193,7 +18193,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G599" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18219,7 +18219,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G600" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18245,7 +18245,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G601" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18271,7 +18271,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G602" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18297,7 +18297,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18323,7 +18323,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G604" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18349,7 +18349,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G605" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18375,7 +18375,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G606" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18401,7 +18401,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G607" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18427,7 +18427,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G608" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18453,7 +18453,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G609" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18479,7 +18479,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G610" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18505,7 +18505,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G611" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18531,7 +18531,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18817,7 +18817,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18895,7 +18895,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19181,7 +19181,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19207,7 +19207,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19571,7 +19571,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19623,7 +19623,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G654" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19649,7 +19649,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20013,7 +20013,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G669" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21027,7 +21027,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G708" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21131,7 +21131,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21157,7 +21157,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G713" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21183,7 +21183,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G714" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21209,7 +21209,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G715" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21235,7 +21235,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G716" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21339,7 +21339,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21365,7 +21365,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G721" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21391,7 +21391,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G722" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21417,7 +21417,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21443,7 +21443,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G724" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21469,7 +21469,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G725" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21521,7 +21521,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G727" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21547,7 +21547,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21573,7 +21573,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G729" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21625,7 +21625,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G731" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21651,7 +21651,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G732" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21677,7 +21677,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G733" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22223,7 +22223,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22249,7 +22249,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22535,7 +22535,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G766" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -58735,7 +58735,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.4116782407</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>851</v>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8582592010498</t>
+    <t xml:space="preserve">1.85825932025909</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91323757171631</t>
+    <t xml:space="preserve">1.9132376909256</t>
   </si>
   <si>
     <t xml:space="preserve">1.92109167575836</t>
@@ -53,13 +53,13 @@
     <t xml:space="preserve">1.88496315479279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92423331737518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642294883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82998514175415</t>
+    <t xml:space="preserve">1.92423319816589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642282962799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998490333557</t>
   </si>
   <si>
     <t xml:space="preserve">1.79856884479523</t>
@@ -68,103 +68,103 @@
     <t xml:space="preserve">1.76715302467346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85354709625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86925494670868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87710905075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281737804413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86768424510956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584787368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83783900737762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87553822994232</t>
+    <t xml:space="preserve">1.85354721546173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86925506591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87710916996002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281725883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86768448352814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584775447845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83783912658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87553834915161</t>
   </si>
   <si>
     <t xml:space="preserve">1.82684338092804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84569275379181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8189891576767</t>
+    <t xml:space="preserve">1.84569323062897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81898939609528</t>
   </si>
   <si>
     <t xml:space="preserve">1.83626818656921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85983026027679</t>
+    <t xml:space="preserve">1.85983037948608</t>
   </si>
   <si>
     <t xml:space="preserve">1.80485212802887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82056021690369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81741845607758</t>
+    <t xml:space="preserve">1.82056045532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81741857528687</t>
   </si>
   <si>
     <t xml:space="preserve">1.85040545463562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88025069236755</t>
+    <t xml:space="preserve">1.88025057315826</t>
   </si>
   <si>
     <t xml:space="preserve">1.81427681446075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85197651386261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84412217140198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84098052978516</t>
+    <t xml:space="preserve">1.85197639465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84412240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84098041057587</t>
   </si>
   <si>
     <t xml:space="preserve">1.82370185852051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81113541126251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82213079929352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679976463318</t>
+    <t xml:space="preserve">1.81113529205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82213091850281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9367995262146</t>
   </si>
   <si>
     <t xml:space="preserve">1.94622421264648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95407855510712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350300312042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96507394313812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99334871768951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00434398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98706519603729</t>
+    <t xml:space="preserve">1.95407807826996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.963503241539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507430076599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99334859848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00434446334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98706531524658</t>
   </si>
   <si>
     <t xml:space="preserve">2.00905656814575</t>
@@ -173,97 +173,97 @@
     <t xml:space="preserve">2.02476453781128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93051636219025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96193218231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994116783142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564937591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637897491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87396764755249</t>
+    <t xml:space="preserve">1.93051624298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9619323015213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994104862213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564901828766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637921333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87396740913391</t>
   </si>
   <si>
     <t xml:space="preserve">1.93378698825836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95017528533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92231559753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050920963287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656346321106</t>
+    <t xml:space="preserve">1.95017516613007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9223153591156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050968647003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656334400177</t>
   </si>
   <si>
     <t xml:space="preserve">1.95509135723114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95836913585663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91739916801453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9354259967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94198131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248285770416</t>
+    <t xml:space="preserve">1.95836925506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91739904880524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93542587757111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94198107719421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248309612274</t>
   </si>
   <si>
     <t xml:space="preserve">1.91084396839142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83545911312103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80268287658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84201407432556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83218157291412</t>
+    <t xml:space="preserve">1.83545899391174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8026829957962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84201419353485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83218145370483</t>
   </si>
   <si>
     <t xml:space="preserve">1.88298428058624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86823499202728</t>
+    <t xml:space="preserve">1.86823511123657</t>
   </si>
   <si>
     <t xml:space="preserve">1.90756618976593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89281713962555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592730045319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88462293148041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9092048406601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151277065277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89773368835449</t>
+    <t xml:space="preserve">1.89281690120697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90592777729034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88462316989899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90920507907867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87151265144348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8977335691452</t>
   </si>
   <si>
     <t xml:space="preserve">1.82398736476898</t>
@@ -278,22 +278,22 @@
     <t xml:space="preserve">1.78629493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77646207809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75188016891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75351905822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77973961830139</t>
+    <t xml:space="preserve">1.77646195888519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75187993049622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75351893901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77973973751068</t>
   </si>
   <si>
     <t xml:space="preserve">1.75024127960205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72074258327484</t>
+    <t xml:space="preserve">1.72074270248413</t>
   </si>
   <si>
     <t xml:space="preserve">1.66993999481201</t>
@@ -305,16 +305,16 @@
     <t xml:space="preserve">1.69616079330444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76007390022278</t>
+    <t xml:space="preserve">1.76007413864136</t>
   </si>
   <si>
     <t xml:space="preserve">1.70435476303101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73549199104309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73385310173035</t>
+    <t xml:space="preserve">1.73549211025238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73385322093964</t>
   </si>
   <si>
     <t xml:space="preserve">1.71254873275757</t>
@@ -323,19 +323,19 @@
     <t xml:space="preserve">1.63060867786407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67157864570618</t>
+    <t xml:space="preserve">1.67157876491547</t>
   </si>
   <si>
     <t xml:space="preserve">1.66666233539581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61012363433838</t>
+    <t xml:space="preserve">1.61012375354767</t>
   </si>
   <si>
     <t xml:space="preserve">1.62241470813751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66338467597961</t>
+    <t xml:space="preserve">1.6633847951889</t>
   </si>
   <si>
     <t xml:space="preserve">1.67321753501892</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">1.64535784721375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63880252838135</t>
+    <t xml:space="preserve">1.63880276679993</t>
   </si>
   <si>
     <t xml:space="preserve">1.62569224834442</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">1.66830110549927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65519082546234</t>
+    <t xml:space="preserve">1.65519070625305</t>
   </si>
   <si>
     <t xml:space="preserve">1.64699673652649</t>
@@ -362,13 +362,13 @@
     <t xml:space="preserve">1.63798320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59865188598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62978911399841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58308339118958</t>
+    <t xml:space="preserve">1.59865212440491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62978935241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58308351039886</t>
   </si>
   <si>
     <t xml:space="preserve">1.59537446498871</t>
@@ -377,16 +377,16 @@
     <t xml:space="preserve">1.57898640632629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59127736091614</t>
+    <t xml:space="preserve">1.59127748012543</t>
   </si>
   <si>
     <t xml:space="preserve">1.54047453403473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56751477718353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56997287273407</t>
+    <t xml:space="preserve">1.56751465797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56997299194336</t>
   </si>
   <si>
     <t xml:space="preserve">1.56669533252716</t>
@@ -395,25 +395,25 @@
     <t xml:space="preserve">1.55850124359131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60274910926819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60356843471527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60602676868439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51917004585266</t>
+    <t xml:space="preserve">1.6027489900589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60356831550598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60602653026581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51916992664337</t>
   </si>
   <si>
     <t xml:space="preserve">1.5617790222168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54539096355438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37659418582916</t>
+    <t xml:space="preserve">1.54539108276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37659406661987</t>
   </si>
   <si>
     <t xml:space="preserve">1.4126478433609</t>
@@ -425,16 +425,16 @@
     <t xml:space="preserve">1.45771503448486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47082543373108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53391933441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61258172988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61176240444183</t>
+    <t xml:space="preserve">1.47082531452179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53391921520233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61258184909821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61176252365112</t>
   </si>
   <si>
     <t xml:space="preserve">1.59783256053925</t>
@@ -443,34 +443,34 @@
     <t xml:space="preserve">1.54211330413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51179552078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55522382259369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56505644321442</t>
+    <t xml:space="preserve">1.51179563999176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5552237033844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56505656242371</t>
   </si>
   <si>
     <t xml:space="preserve">1.56423723697662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59291625022888</t>
+    <t xml:space="preserve">1.59291613101959</t>
   </si>
   <si>
     <t xml:space="preserve">1.55686247348785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52162837982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5412939786911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5044207572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51097619533539</t>
+    <t xml:space="preserve">1.52162826061249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54129385948181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50442087650299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51097595691681</t>
   </si>
   <si>
     <t xml:space="preserve">1.55112683773041</t>
@@ -488,34 +488,34 @@
     <t xml:space="preserve">1.53228056430817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50933742523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5076984167099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50278198719025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49540746212006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51015675067902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57325053215027</t>
+    <t xml:space="preserve">1.50933730602264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50769853591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50278210639954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49540758132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51015663146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57325041294098</t>
   </si>
   <si>
     <t xml:space="preserve">1.58554148674011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59455502033234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60684597492218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62159538269043</t>
+    <t xml:space="preserve">1.59455490112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60684585571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62159526348114</t>
   </si>
   <si>
     <t xml:space="preserve">1.57161176204681</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">1.54621028900146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55768191814423</t>
+    <t xml:space="preserve">1.55768203735352</t>
   </si>
   <si>
     <t xml:space="preserve">1.58799982070923</t>
@@ -542,19 +542,19 @@
     <t xml:space="preserve">1.53473877906799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58226406574249</t>
+    <t xml:space="preserve">1.5822639465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.54702973365784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53883576393127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54784917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55276548862457</t>
+    <t xml:space="preserve">1.53883564472198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54784905910492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55276560783386</t>
   </si>
   <si>
     <t xml:space="preserve">1.54948794841766</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">1.54866850376129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53637742996216</t>
+    <t xml:space="preserve">1.53637754917145</t>
   </si>
   <si>
     <t xml:space="preserve">1.53965508937836</t>
@@ -581,49 +581,49 @@
     <t xml:space="preserve">1.69288313388824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65355169773102</t>
+    <t xml:space="preserve">1.65355181694031</t>
   </si>
   <si>
     <t xml:space="preserve">1.82070958614349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82890379428864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81743204593658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81579339504242</t>
+    <t xml:space="preserve">1.82890391349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81743216514587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81579351425171</t>
   </si>
   <si>
     <t xml:space="preserve">1.87970650196075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79448902606964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80104398727417</t>
+    <t xml:space="preserve">1.79448914527893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80104434490204</t>
   </si>
   <si>
     <t xml:space="preserve">1.73876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72729814052582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74696373939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76335144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84693038463593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81087720394135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8092383146286</t>
+    <t xml:space="preserve">1.72729790210724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74696362018585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76335167884827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84693050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81087696552277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923819541931</t>
   </si>
   <si>
     <t xml:space="preserve">1.81251573562622</t>
@@ -638,88 +638,88 @@
     <t xml:space="preserve">1.85840213298798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87642896175385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89937233924866</t>
+    <t xml:space="preserve">1.87642908096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89937245845795</t>
   </si>
   <si>
     <t xml:space="preserve">1.84856951236725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92479622364044</t>
+    <t xml:space="preserve">1.92479634284973</t>
   </si>
   <si>
     <t xml:space="preserve">1.93679404258728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93850839138031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97107362747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92822432518005</t>
+    <t xml:space="preserve">1.93850803375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97107374668121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92822444438934</t>
   </si>
   <si>
     <t xml:space="preserve">1.94193613529205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94364988803864</t>
+    <t xml:space="preserve">1.94365000724792</t>
   </si>
   <si>
     <t xml:space="preserve">1.95907580852509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96764576435089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9265102148056</t>
+    <t xml:space="preserve">1.96764588356018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92651033401489</t>
   </si>
   <si>
     <t xml:space="preserve">1.95393395423889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93336606025696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594267845154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8939448595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8716629743576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92993831634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080046653748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91451239585876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88708889484406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87680506706238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91794049739838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8853747844696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994898319244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88880288600922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90937054157257</t>
+    <t xml:space="preserve">1.93336629867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594255924225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89394474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87166309356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92993819713593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080058574677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91451263427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88708865642548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87680518627167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9179402589798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88537490367889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994910240173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88880276679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90937042236328</t>
   </si>
   <si>
     <t xml:space="preserve">1.90251469612122</t>
@@ -737,34 +737,34 @@
     <t xml:space="preserve">1.98649966716766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97964346408844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12533164024353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0859100818634</t>
+    <t xml:space="preserve">1.97964334487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12533140182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08591032028198</t>
   </si>
   <si>
     <t xml:space="preserve">2.05677270889282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07905435562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08076810836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06534242630005</t>
+    <t xml:space="preserve">2.07905459403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08076786994934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06534266471863</t>
   </si>
   <si>
     <t xml:space="preserve">2.06020045280457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07219839096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13390159606934</t>
+    <t xml:space="preserve">2.07219862937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13390135765076</t>
   </si>
   <si>
     <t xml:space="preserve">2.1081919670105</t>
@@ -785,52 +785,52 @@
     <t xml:space="preserve">2.11504769325256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07391238212585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09790778160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11676168441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08248209953308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705665588379</t>
+    <t xml:space="preserve">2.07391214370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09790802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1167619228363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08248233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705617904663</t>
   </si>
   <si>
     <t xml:space="preserve">2.12190365791321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647773742676</t>
+    <t xml:space="preserve">2.10647797584534</t>
   </si>
   <si>
     <t xml:space="preserve">2.08933806419373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05163073539734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17675089836121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14247131347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13218760490417</t>
+    <t xml:space="preserve">2.05163049697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17675113677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14247155189514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1321873664856</t>
   </si>
   <si>
     <t xml:space="preserve">2.13047361373901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15961122512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11847543716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09105205535889</t>
+    <t xml:space="preserve">2.15961098670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11847567558289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09105229377747</t>
   </si>
   <si>
     <t xml:space="preserve">2.12361764907837</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">2.11161994934082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10133576393127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15789699554443</t>
+    <t xml:space="preserve">2.10133600234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15789723396301</t>
   </si>
   <si>
     <t xml:space="preserve">2.15618324279785</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">2.13904333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17503714561462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15104126930237</t>
+    <t xml:space="preserve">2.17503690719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15104150772095</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
@@ -881,19 +881,19 @@
     <t xml:space="preserve">2.04820275306702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07048416137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0499165058136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12875962257385</t>
+    <t xml:space="preserve">2.07048439979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04991674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12875986099243</t>
   </si>
   <si>
     <t xml:space="preserve">2.08762431144714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02077889442444</t>
+    <t xml:space="preserve">2.02077913284302</t>
   </si>
   <si>
     <t xml:space="preserve">2.08419609069824</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">2.0224928855896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01392292976379</t>
+    <t xml:space="preserve">2.01392316818237</t>
   </si>
   <si>
     <t xml:space="preserve">2.00535321235657</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">2.1681809425354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18532085418701</t>
+    <t xml:space="preserve">2.18532061576843</t>
   </si>
   <si>
     <t xml:space="preserve">2.29672932624817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33100891113281</t>
+    <t xml:space="preserve">2.33100914955139</t>
   </si>
   <si>
     <t xml:space="preserve">2.32243919372559</t>
@@ -929,22 +929,22 @@
     <t xml:space="preserve">2.44241738319397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49383664131165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46812725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47669696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48526692390442</t>
+    <t xml:space="preserve">2.49383687973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46812701225281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47669720649719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48526668548584</t>
   </si>
   <si>
     <t xml:space="preserve">2.53668618202209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57953572273254</t>
+    <t xml:space="preserve">2.57953548431396</t>
   </si>
   <si>
     <t xml:space="preserve">2.59667539596558</t>
@@ -953,22 +953,25 @@
     <t xml:space="preserve">2.61381506919861</t>
   </si>
   <si>
+    <t xml:space="preserve">2.55382609367371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63447308540344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59862995147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5896692276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61655163764954</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.55382585525513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63447332382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59862995147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5896692276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61655139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52694344520569</t>
+    <t xml:space="preserve">2.52694368362427</t>
   </si>
   <si>
     <t xml:space="preserve">2.437335729599</t>
@@ -977,16 +980,16 @@
     <t xml:space="preserve">2.46421790122986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50006127357483</t>
+    <t xml:space="preserve">2.50006103515625</t>
   </si>
   <si>
     <t xml:space="preserve">2.45525717735291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54486513137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57174754142761</t>
+    <t xml:space="preserve">2.54486489295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57174730300903</t>
   </si>
   <si>
     <t xml:space="preserve">2.51798272132874</t>
@@ -998,7 +1001,7 @@
     <t xml:space="preserve">2.53590416908264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49110054969788</t>
+    <t xml:space="preserve">2.4911003112793</t>
   </si>
   <si>
     <t xml:space="preserve">2.48213958740234</t>
@@ -1016,37 +1019,37 @@
     <t xml:space="preserve">2.7599241733551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77784585952759</t>
+    <t xml:space="preserve">2.77784562110901</t>
   </si>
   <si>
     <t xml:space="preserve">2.74200248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76888513565063</t>
+    <t xml:space="preserve">2.76888465881348</t>
   </si>
   <si>
     <t xml:space="preserve">2.71512031555176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75096321105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67031621932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72408103942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65239477157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68823790550232</t>
+    <t xml:space="preserve">2.75096344947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67031645774841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72408080101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65239453315735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68823766708374</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719886779785</t>
+    <t xml:space="preserve">2.69719862937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1055,25 +1058,25 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745381355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83161067962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64343404769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62551259994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58070850372314</t>
+    <t xml:space="preserve">2.86745357513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83161044120789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6434338092804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62551236152649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58070826530457</t>
   </si>
   <si>
     <t xml:space="preserve">2.607590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41941404342651</t>
+    <t xml:space="preserve">2.41941428184509</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135549545288</t>
@@ -1082,7 +1085,7 @@
     <t xml:space="preserve">2.81368899345398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.840571641922</t>
+    <t xml:space="preserve">2.84057140350342</t>
   </si>
   <si>
     <t xml:space="preserve">2.93914008140564</t>
@@ -1091,7 +1094,7 @@
     <t xml:space="preserve">2.87641453742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82264971733093</t>
+    <t xml:space="preserve">2.82264995574951</t>
   </si>
   <si>
     <t xml:space="preserve">2.80472826957703</t>
@@ -1103,34 +1106,34 @@
     <t xml:space="preserve">3.12731671333313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16315960884094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13627743721008</t>
+    <t xml:space="preserve">3.16315984725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13627767562866</t>
   </si>
   <si>
     <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25276780128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172852516174</t>
+    <t xml:space="preserve">3.25276803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172876358032</t>
   </si>
   <si>
     <t xml:space="preserve">3.28861093521118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29757165908813</t>
+    <t xml:space="preserve">3.29757189750671</t>
   </si>
   <si>
     <t xml:space="preserve">3.35133647918701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33341479301453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34237575531006</t>
+    <t xml:space="preserve">3.33341503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34237551689148</t>
   </si>
   <si>
     <t xml:space="preserve">3.42302274703979</t>
@@ -1145,19 +1148,19 @@
     <t xml:space="preserve">3.41406202316284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36925792694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37821888923645</t>
+    <t xml:space="preserve">3.36925840377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37821865081787</t>
   </si>
   <si>
     <t xml:space="preserve">3.45886588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4857485294342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47678756713867</t>
+    <t xml:space="preserve">3.48574829101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47678780555725</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1175,16 +1178,16 @@
     <t xml:space="preserve">3.59327816963196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55743479728699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5215916633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51263093948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5395131111145</t>
+    <t xml:space="preserve">3.55743455886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52159142494202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51263070106506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53951334953308</t>
   </si>
   <si>
     <t xml:space="preserve">3.60223865509033</t>
@@ -1193,13 +1196,13 @@
     <t xml:space="preserve">3.65600347518921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66496443748474</t>
+    <t xml:space="preserve">3.66496419906616</t>
   </si>
   <si>
     <t xml:space="preserve">3.72768974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71872925758362</t>
+    <t xml:space="preserve">3.71872901916504</t>
   </si>
   <si>
     <t xml:space="preserve">3.6918466091156</t>
@@ -1208,7 +1211,7 @@
     <t xml:space="preserve">3.70976805686951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68288588523865</t>
+    <t xml:space="preserve">3.68288612365723</t>
   </si>
   <si>
     <t xml:space="preserve">3.7635326385498</t>
@@ -1217,7 +1220,7 @@
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833721160889</t>
+    <t xml:space="preserve">3.80833697319031</t>
   </si>
   <si>
     <t xml:space="preserve">3.79041528701782</t>
@@ -1226,7 +1229,7 @@
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067070960999</t>
+    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">3.97005581855774</t>
@@ -1242,9 +1245,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">4.02636861801147</t>
@@ -18534,7 +18534,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18560,7 +18560,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18586,7 +18586,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18612,7 +18612,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18638,7 +18638,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18664,7 +18664,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18690,7 +18690,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18716,7 +18716,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18742,7 +18742,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18768,7 +18768,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18794,7 +18794,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18820,7 +18820,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18846,7 +18846,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18872,7 +18872,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18898,7 +18898,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18924,7 +18924,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18950,7 +18950,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18976,7 +18976,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19002,7 +19002,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19028,7 +19028,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19054,7 +19054,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19080,7 +19080,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19106,7 +19106,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19132,7 +19132,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19158,7 +19158,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19184,7 +19184,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19210,7 +19210,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19236,7 +19236,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19262,7 +19262,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19288,7 +19288,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19314,7 +19314,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19340,7 +19340,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19366,7 +19366,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19392,7 +19392,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19418,7 +19418,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19444,7 +19444,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19470,7 +19470,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19496,7 +19496,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19522,7 +19522,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19548,7 +19548,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19600,7 +19600,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19652,7 +19652,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19678,7 +19678,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19704,7 +19704,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19730,7 +19730,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19756,7 +19756,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19782,7 +19782,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19808,7 +19808,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19834,7 +19834,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19860,7 +19860,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19886,7 +19886,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19912,7 +19912,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19938,7 +19938,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19964,7 +19964,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19990,7 +19990,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20042,7 +20042,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20068,7 +20068,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20094,7 +20094,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20120,7 +20120,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20146,7 +20146,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20172,7 +20172,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20198,7 +20198,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20224,7 +20224,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20250,7 +20250,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20276,7 +20276,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20302,7 +20302,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20328,7 +20328,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20354,7 +20354,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20380,7 +20380,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20406,7 +20406,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20432,7 +20432,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20458,7 +20458,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20484,7 +20484,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20510,7 +20510,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20536,7 +20536,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20562,7 +20562,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20588,7 +20588,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20614,7 +20614,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20640,7 +20640,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20666,7 +20666,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20692,7 +20692,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20718,7 +20718,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20744,7 +20744,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20770,7 +20770,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20796,7 +20796,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20822,7 +20822,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20848,7 +20848,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20874,7 +20874,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20900,7 +20900,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20926,7 +20926,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20952,7 +20952,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20978,7 +20978,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21004,7 +21004,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21056,7 +21056,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21082,7 +21082,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21108,7 +21108,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21134,7 +21134,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21264,7 +21264,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21290,7 +21290,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21316,7 +21316,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21498,7 +21498,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21602,7 +21602,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21706,7 +21706,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21732,7 +21732,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21758,7 +21758,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21784,7 +21784,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21810,7 +21810,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21836,7 +21836,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21862,7 +21862,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21888,7 +21888,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21914,7 +21914,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21940,7 +21940,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21966,7 +21966,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21992,7 +21992,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22018,7 +22018,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22044,7 +22044,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22070,7 +22070,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22096,7 +22096,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22122,7 +22122,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22148,7 +22148,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22174,7 +22174,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22200,7 +22200,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22226,7 +22226,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22252,7 +22252,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22278,7 +22278,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22304,7 +22304,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22330,7 +22330,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22356,7 +22356,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G759" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22382,7 +22382,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G760" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22408,7 +22408,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G761" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22434,7 +22434,7 @@
         <v>2.75</v>
       </c>
       <c r="G762" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22460,7 +22460,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G763" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22486,7 +22486,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G764" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22512,7 +22512,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22564,7 +22564,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G767" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22590,7 +22590,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G768" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22616,7 +22616,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22642,7 +22642,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G770" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22668,7 +22668,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G771" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22694,7 +22694,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22720,7 +22720,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22746,7 +22746,7 @@
         <v>3</v>
       </c>
       <c r="G774" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22772,7 +22772,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22798,7 +22798,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G776" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22824,7 +22824,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G777" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22850,7 +22850,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G778" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22876,7 +22876,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22902,7 +22902,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22928,7 +22928,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G781" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22954,7 +22954,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G782" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22980,7 +22980,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23006,7 +23006,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G784" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23032,7 +23032,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G785" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23058,7 +23058,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23084,7 +23084,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G787" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23110,7 +23110,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23136,7 +23136,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G789" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23162,7 +23162,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G790" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23188,7 +23188,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G791" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23214,7 +23214,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G792" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23240,7 +23240,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G793" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23266,7 +23266,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23292,7 +23292,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G795" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23318,7 +23318,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23344,7 +23344,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G797" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23370,7 +23370,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G798" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23396,7 +23396,7 @@
         <v>3.5</v>
       </c>
       <c r="G799" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23422,7 +23422,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23448,7 +23448,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G801" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23474,7 +23474,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G802" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23500,7 +23500,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23526,7 +23526,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G804" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23552,7 +23552,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23578,7 +23578,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23604,7 +23604,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23630,7 +23630,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23656,7 +23656,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G809" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23682,7 +23682,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23708,7 +23708,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G811" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23734,7 +23734,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23760,7 +23760,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G813" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23786,7 +23786,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23812,7 +23812,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G815" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23838,7 +23838,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23864,7 +23864,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G817" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23890,7 +23890,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G818" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23916,7 +23916,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G819" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23942,7 +23942,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G820" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23968,7 +23968,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G821" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23994,7 +23994,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G822" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24020,7 +24020,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G823" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24046,7 +24046,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24072,7 +24072,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24098,7 +24098,7 @@
         <v>4</v>
       </c>
       <c r="G826" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24124,7 +24124,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G827" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24150,7 +24150,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G828" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24176,7 +24176,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24202,7 +24202,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G830" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24228,7 +24228,7 @@
         <v>4</v>
       </c>
       <c r="G831" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24254,7 +24254,7 @@
         <v>4</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24280,7 +24280,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G833" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24306,7 +24306,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24332,7 +24332,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24358,7 +24358,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G836" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24384,7 +24384,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24410,7 +24410,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G838" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24436,7 +24436,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G839" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24462,7 +24462,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24488,7 +24488,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G841" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24514,7 +24514,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24540,7 +24540,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24566,7 +24566,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G844" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24592,7 +24592,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G845" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24618,7 +24618,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G846" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24644,7 +24644,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24670,7 +24670,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24696,7 +24696,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G849" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24722,7 +24722,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24748,7 +24748,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G851" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24774,7 +24774,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24800,7 +24800,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G853" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24826,7 +24826,7 @@
         <v>4.25</v>
       </c>
       <c r="G854" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24852,7 +24852,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24878,7 +24878,7 @@
         <v>4.25</v>
       </c>
       <c r="G856" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24904,7 +24904,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G857" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24930,7 +24930,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24956,7 +24956,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G859" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24982,7 +24982,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25008,7 +25008,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G861" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25034,7 +25034,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G862" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25060,7 +25060,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G863" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25086,7 +25086,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G864" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25112,7 +25112,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25164,7 +25164,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G867" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25268,7 +25268,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G871" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25320,7 +25320,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25450,7 +25450,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G878" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25814,7 +25814,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25892,7 +25892,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G895" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26126,7 +26126,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G904" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -30312,7 +30312,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1065" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30598,7 +30598,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1076" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30624,7 +30624,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1077" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30858,7 +30858,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1086" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31222,7 +31222,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1100" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31326,7 +31326,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1104" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32834,7 +32834,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1162" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32860,7 +32860,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1163" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33302,7 +33302,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1180" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33432,7 +33432,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33640,7 +33640,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1193" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -58842,7 +58842,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6496296296</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>3379</v>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,226 +38,226 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825943946838</t>
+    <t xml:space="preserve">1.85825932025909</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91323745250702</t>
+    <t xml:space="preserve">1.91323757171631</t>
   </si>
   <si>
     <t xml:space="preserve">1.92109167575836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88496327400208</t>
+    <t xml:space="preserve">1.88496315479279</t>
   </si>
   <si>
     <t xml:space="preserve">1.92423295974731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80642282962799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82998490333557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79856872558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76715290546417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354685783386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86925518512726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87710905075073</t>
+    <t xml:space="preserve">1.80642294883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998478412628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79856896400452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76715278625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354697704315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86925530433655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87710916996002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281725883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86768424510956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584775447845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83783888816833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87553834915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82684326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8456928730011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81898939609528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83626842498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85983002185822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80485224723816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82056045532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81741857528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85040521621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88025069236755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81427693367004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85197615623474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84412229061127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84098076820374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82370185852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8111355304718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82213115692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9367995262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94622421264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407843589783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96350300312042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507394313812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99334871768951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00434398651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98706519603729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00905632972717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0247642993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051600456238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96193242073059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994116783142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564925670624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637909412384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8739675283432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93378710746765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017540454865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92231559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050932884216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656334400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509171485901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95836925506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91739904880524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93542611598969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9419811964035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248285770416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084396839142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83545911312103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80268287658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84201407432556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83218157291412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88298439979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86823487281799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90756630897522</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281702041626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86768412590027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584787368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8378392457962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8755384683609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82684338092804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84569299221039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81898939609528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8362683057785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8598301410675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80485212802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82056021690369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81741857528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85040533542633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88025081157684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81427705287933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85197627544403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84412229061127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84098052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82370173931122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8111355304718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82213115692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9367995262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94622421264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407819747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.963503241539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96507441997528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99334847927094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00434422492981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98706519603729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00905656814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02476477622986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051600456238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96193242073059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994116783142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564925670624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637921333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87396728992462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93378698825836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017528533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92231547832489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050944805145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656346321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509135723114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95836913585663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91739940643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9354259967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94198131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248285770416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084396839142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83545899391174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8026829957962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84201407432556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83218157291412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88298428058624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86823523044586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90756618976593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281713962555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592753887177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88462293148041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90920507907867</t>
+    <t xml:space="preserve">1.90592741966248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8846230506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90920495986938</t>
   </si>
   <si>
     <t xml:space="preserve">1.87151253223419</t>
@@ -266,82 +266,82 @@
     <t xml:space="preserve">1.8977335691452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82398748397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75843501091003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76662909984589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7862948179245</t>
+    <t xml:space="preserve">1.82398736476898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75843524932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76662933826447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78629505634308</t>
   </si>
   <si>
     <t xml:space="preserve">1.77646207809448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75188016891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75351905822754</t>
+    <t xml:space="preserve">1.75188004970551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75351893901825</t>
   </si>
   <si>
     <t xml:space="preserve">1.77973961830139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75024127960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72074270248413</t>
+    <t xml:space="preserve">1.75024116039276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72074258327484</t>
   </si>
   <si>
     <t xml:space="preserve">1.66993999481201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72893667221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69616091251373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76007401943207</t>
+    <t xml:space="preserve">1.72893679141998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69616079330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76007413864136</t>
   </si>
   <si>
     <t xml:space="preserve">1.70435476303101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73549199104309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73385310173035</t>
+    <t xml:space="preserve">1.73549211025238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73385322093964</t>
   </si>
   <si>
     <t xml:space="preserve">1.71254873275757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63060879707336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67157876491547</t>
+    <t xml:space="preserve">1.63060867786407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67157864570618</t>
   </si>
   <si>
     <t xml:space="preserve">1.66666233539581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61012363433838</t>
+    <t xml:space="preserve">1.61012375354767</t>
   </si>
   <si>
     <t xml:space="preserve">1.62241470813751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66338467597961</t>
+    <t xml:space="preserve">1.66338455677032</t>
   </si>
   <si>
     <t xml:space="preserve">1.67321753501892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64535772800446</t>
+    <t xml:space="preserve">1.64535784721375</t>
   </si>
   <si>
     <t xml:space="preserve">1.63880264759064</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">1.62569224834442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66830110549927</t>
+    <t xml:space="preserve">1.66830122470856</t>
   </si>
   <si>
     <t xml:space="preserve">1.65519070625305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6469966173172</t>
+    <t xml:space="preserve">1.64699673652649</t>
   </si>
   <si>
     <t xml:space="preserve">1.63798320293427</t>
@@ -371,19 +371,19 @@
     <t xml:space="preserve">1.58308351039886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59537434577942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57898640632629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59127736091614</t>
+    <t xml:space="preserve">1.59537446498871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.578986287117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59127748012543</t>
   </si>
   <si>
     <t xml:space="preserve">1.54047453403473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56751465797424</t>
+    <t xml:space="preserve">1.56751477718353</t>
   </si>
   <si>
     <t xml:space="preserve">1.56997299194336</t>
@@ -392,13 +392,13 @@
     <t xml:space="preserve">1.56669533252716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5585013628006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60274910926819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60356831550598</t>
+    <t xml:space="preserve">1.55850124359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6027489900589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60356855392456</t>
   </si>
   <si>
     <t xml:space="preserve">1.6060266494751</t>
@@ -407,13 +407,13 @@
     <t xml:space="preserve">1.51917004585266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5617790222168</t>
+    <t xml:space="preserve">1.56177890300751</t>
   </si>
   <si>
     <t xml:space="preserve">1.54539096355438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37659406661987</t>
+    <t xml:space="preserve">1.37659430503845</t>
   </si>
   <si>
     <t xml:space="preserve">1.4126478433609</t>
@@ -434,16 +434,16 @@
     <t xml:space="preserve">1.61258172988892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61176252365112</t>
+    <t xml:space="preserve">1.61176240444183</t>
   </si>
   <si>
     <t xml:space="preserve">1.59783267974854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54211330413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51179540157318</t>
+    <t xml:space="preserve">1.54211318492889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51179552078247</t>
   </si>
   <si>
     <t xml:space="preserve">1.55522382259369</t>
@@ -461,19 +461,19 @@
     <t xml:space="preserve">1.55686247348785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52162826061249</t>
+    <t xml:space="preserve">1.52162837982178</t>
   </si>
   <si>
     <t xml:space="preserve">1.5412939786911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5044207572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51097619533539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55112683773041</t>
+    <t xml:space="preserve">1.50442087650299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5109760761261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55112671852112</t>
   </si>
   <si>
     <t xml:space="preserve">1.51589250564575</t>
@@ -485,22 +485,22 @@
     <t xml:space="preserve">1.50851774215698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53228044509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50933730602264</t>
+    <t xml:space="preserve">1.53228056430817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50933742523193</t>
   </si>
   <si>
     <t xml:space="preserve">1.5076984167099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50278210639954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49540758132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51015663146973</t>
+    <t xml:space="preserve">1.50278222560883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49540746212006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51015675067902</t>
   </si>
   <si>
     <t xml:space="preserve">1.57325065135956</t>
@@ -512,82 +512,82 @@
     <t xml:space="preserve">1.59455502033234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60684597492218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62159538269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57161176204681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54375195503235</t>
+    <t xml:space="preserve">1.60684609413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62159514427185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5716118812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54375207424164</t>
   </si>
   <si>
     <t xml:space="preserve">1.57243120670319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58718049526215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54621028900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55768191814423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58799970149994</t>
+    <t xml:space="preserve">1.58718025684357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54621040821075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55768203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58799982070923</t>
   </si>
   <si>
     <t xml:space="preserve">1.53473877906799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5822639465332</t>
+    <t xml:space="preserve">1.58226406574249</t>
   </si>
   <si>
     <t xml:space="preserve">1.54702973365784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53883588314056</t>
+    <t xml:space="preserve">1.53883564472198</t>
   </si>
   <si>
     <t xml:space="preserve">1.54784917831421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55276560783386</t>
+    <t xml:space="preserve">1.55276548862457</t>
   </si>
   <si>
     <t xml:space="preserve">1.54948794841766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53801620006561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54866862297058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53637742996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53965497016907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56915354728699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65191316604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69288313388824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65355181694031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8207094669342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82890379428864</t>
+    <t xml:space="preserve">1.5380163192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54866850376129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53637754917145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53965520858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5691534280777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65191304683685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69288325309753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65355169773102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82070970535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82890391349792</t>
   </si>
   <si>
     <t xml:space="preserve">1.81743216514587</t>
@@ -602,79 +602,79 @@
     <t xml:space="preserve">1.79448902606964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80104422569275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73876941204071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72729802131653</t>
+    <t xml:space="preserve">1.80104398727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73876953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72729814052582</t>
   </si>
   <si>
     <t xml:space="preserve">1.74696362018585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76335167884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8469306230545</t>
+    <t xml:space="preserve">1.76335155963898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84693026542664</t>
   </si>
   <si>
     <t xml:space="preserve">1.81087708473206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80923807621002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81251585483551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86168015003204</t>
+    <t xml:space="preserve">1.80923819541931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81251573562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86167979240417</t>
   </si>
   <si>
     <t xml:space="preserve">1.86495745182037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85840201377869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87642884254456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89937233924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84856939315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479622364044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679404258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93850815296173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97107362747192</t>
+    <t xml:space="preserve">1.85840213298798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87642908096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89937257766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84856963157654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479634284973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679392337799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93850827217102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97107374668121</t>
   </si>
   <si>
     <t xml:space="preserve">1.92822432518005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94193613529205</t>
+    <t xml:space="preserve">1.94193637371063</t>
   </si>
   <si>
     <t xml:space="preserve">1.94364988803864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95907580852509</t>
+    <t xml:space="preserve">1.95907592773438</t>
   </si>
   <si>
     <t xml:space="preserve">1.96764576435089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9265102148056</t>
+    <t xml:space="preserve">1.92651009559631</t>
   </si>
   <si>
     <t xml:space="preserve">1.95393395423889</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">1.93336629867554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90594244003296</t>
+    <t xml:space="preserve">1.90594255924225</t>
   </si>
   <si>
     <t xml:space="preserve">1.8939448595047</t>
@@ -692,76 +692,76 @@
     <t xml:space="preserve">1.8716629743576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92993831634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080070495605</t>
+    <t xml:space="preserve">1.9299384355545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080046653748</t>
   </si>
   <si>
     <t xml:space="preserve">1.91451239585876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88708889484406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87680518627167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9179402589798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8853747844696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994922161102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88880288600922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90937054157257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90251469612122</t>
+    <t xml:space="preserve">1.88708877563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87680494785309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91794049739838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88537490367889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994910240173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88880264759064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90937042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90251457691193</t>
   </si>
   <si>
     <t xml:space="preserve">1.96421778202057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96250355243683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98821341991425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98649942874908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97964346408844</t>
+    <t xml:space="preserve">1.96250379085541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98821365833282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98649954795837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97964358329773</t>
   </si>
   <si>
     <t xml:space="preserve">2.12533140182495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0859100818634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05677270889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07905435562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08076810836792</t>
+    <t xml:space="preserve">2.08591032028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05677247047424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07905459403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0807683467865</t>
   </si>
   <si>
     <t xml:space="preserve">2.06534242630005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06020045280457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07219839096069</t>
+    <t xml:space="preserve">2.06020069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07219862937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.13390159606934</t>
@@ -770,13 +770,13 @@
     <t xml:space="preserve">2.1081919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09962177276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10304975509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03963279724121</t>
+    <t xml:space="preserve">2.09962224960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10304999351501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03963303565979</t>
   </si>
   <si>
     <t xml:space="preserve">2.06877040863037</t>
@@ -788,19 +788,19 @@
     <t xml:space="preserve">2.07391238212585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09790802001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1167619228363</t>
+    <t xml:space="preserve">2.09790778160095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11676168441772</t>
   </si>
   <si>
     <t xml:space="preserve">2.08248209953308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06705641746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12190365791321</t>
+    <t xml:space="preserve">2.06705665588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12190389633179</t>
   </si>
   <si>
     <t xml:space="preserve">2.10647773742676</t>
@@ -821,37 +821,37 @@
     <t xml:space="preserve">2.1321873664856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13047385215759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15961098670959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11847567558289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09105229377747</t>
+    <t xml:space="preserve">2.13047337532043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15961122512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11847543716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09105205535889</t>
   </si>
   <si>
     <t xml:space="preserve">2.12361764907837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11161994934082</t>
+    <t xml:space="preserve">2.11161971092224</t>
   </si>
   <si>
     <t xml:space="preserve">2.10133576393127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15789723396301</t>
+    <t xml:space="preserve">2.15789699554443</t>
   </si>
   <si>
     <t xml:space="preserve">2.15618324279785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1441855430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1407573223114</t>
+    <t xml:space="preserve">2.14418530464172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14075756072998</t>
   </si>
   <si>
     <t xml:space="preserve">2.14932727813721</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">2.17503714561462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15104150772095</t>
+    <t xml:space="preserve">2.15104126930237</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
@@ -878,13 +878,13 @@
     <t xml:space="preserve">2.03277683258057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04820275306702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07048439979553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04991674423218</t>
+    <t xml:space="preserve">2.0482029914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07048392295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0499165058136</t>
   </si>
   <si>
     <t xml:space="preserve">2.12875962257385</t>
@@ -899,22 +899,22 @@
     <t xml:space="preserve">2.08419609069824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02249264717102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01392316818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00535321235657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1681809425354</t>
+    <t xml:space="preserve">2.0224928855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01392292976379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00535297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16818118095398</t>
   </si>
   <si>
     <t xml:space="preserve">2.18532061576843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29672932624817</t>
+    <t xml:space="preserve">2.29672956466675</t>
   </si>
   <si>
     <t xml:space="preserve">2.33100891113281</t>
@@ -929,34 +929,34 @@
     <t xml:space="preserve">2.44241738319397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49383687973022</t>
+    <t xml:space="preserve">2.49383664131165</t>
   </si>
   <si>
     <t xml:space="preserve">2.46812725067139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47669696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48526692390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53668594360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57953548431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.596675157547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61381530761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382609367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63447308540344</t>
+    <t xml:space="preserve">2.47669720649719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48526668548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53668642044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57953572273254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59667539596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61381483078003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382561683655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63447332382202</t>
   </si>
   <si>
     <t xml:space="preserve">2.59862995147705</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">2.5896692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61655163764954</t>
+    <t xml:space="preserve">2.61655139923096</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382585525513</t>
@@ -974,13 +974,13 @@
     <t xml:space="preserve">2.52694344520569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.437335729599</t>
+    <t xml:space="preserve">2.43733549118042</t>
   </si>
   <si>
     <t xml:space="preserve">2.46421790122986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50006127357483</t>
+    <t xml:space="preserve">2.50006103515625</t>
   </si>
   <si>
     <t xml:space="preserve">2.45525717735291</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">2.54486513137817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57174730300903</t>
+    <t xml:space="preserve">2.57174754142761</t>
   </si>
   <si>
     <t xml:space="preserve">2.51798272132874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56278681755066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53590440750122</t>
+    <t xml:space="preserve">2.56278657913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53590416908264</t>
   </si>
   <si>
     <t xml:space="preserve">2.4911003112793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48213958740234</t>
+    <t xml:space="preserve">2.48213982582092</t>
   </si>
   <si>
     <t xml:space="preserve">2.50902199745178</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">2.78680658340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7599241733551</t>
+    <t xml:space="preserve">2.75992441177368</t>
   </si>
   <si>
     <t xml:space="preserve">2.77784562110901</t>
@@ -1031,28 +1031,28 @@
     <t xml:space="preserve">2.71512007713318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75096344947815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67031645774841</t>
+    <t xml:space="preserve">2.75096321105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67031621932983</t>
   </si>
   <si>
     <t xml:space="preserve">2.72408103942871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65239453315735</t>
+    <t xml:space="preserve">2.65239477157593</t>
   </si>
   <si>
     <t xml:space="preserve">2.68823790550232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73304200172424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69719862937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67927718162537</t>
+    <t xml:space="preserve">2.73304176330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69719886779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67927694320679</t>
   </si>
   <si>
     <t xml:space="preserve">2.84953236579895</t>
@@ -1061,10 +1061,10 @@
     <t xml:space="preserve">2.86745381355286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83161067962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64343404769897</t>
+    <t xml:space="preserve">2.83161044120789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6434338092804</t>
   </si>
   <si>
     <t xml:space="preserve">2.62551236152649</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">2.58070850372314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60759091377258</t>
+    <t xml:space="preserve">2.607590675354</t>
   </si>
   <si>
     <t xml:space="preserve">2.41941428184509</t>
@@ -1082,25 +1082,25 @@
     <t xml:space="preserve">2.66135549545288</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81368923187256</t>
+    <t xml:space="preserve">2.81368899345398</t>
   </si>
   <si>
     <t xml:space="preserve">2.84057140350342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93914031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87641477584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82264995574951</t>
+    <t xml:space="preserve">2.93914008140564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87641453742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82264971733093</t>
   </si>
   <si>
     <t xml:space="preserve">2.80472826957703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90329694747925</t>
+    <t xml:space="preserve">2.90329670906067</t>
   </si>
   <si>
     <t xml:space="preserve">3.12731671333313</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25276803970337</t>
+    <t xml:space="preserve">3.25276780128479</t>
   </si>
   <si>
     <t xml:space="preserve">3.26172852516174</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">3.28861093521118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29757165908813</t>
+    <t xml:space="preserve">3.29757189750671</t>
   </si>
   <si>
     <t xml:space="preserve">3.35133647918701</t>
@@ -1133,34 +1133,34 @@
     <t xml:space="preserve">3.33341503143311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34237551689148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42302274703979</t>
+    <t xml:space="preserve">3.34237575531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42302298545837</t>
   </si>
   <si>
     <t xml:space="preserve">3.3871796131134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40510106086731</t>
+    <t xml:space="preserve">3.40510129928589</t>
   </si>
   <si>
     <t xml:space="preserve">3.41406202316284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3692581653595</t>
+    <t xml:space="preserve">3.36925792694092</t>
   </si>
   <si>
     <t xml:space="preserve">3.37821888923645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45886588096619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48574829101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47678780555725</t>
+    <t xml:space="preserve">3.45886564254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48574876785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47678756713867</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">3.67392492294312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58431720733643</t>
+    <t xml:space="preserve">3.58431696891785</t>
   </si>
   <si>
     <t xml:space="preserve">3.53055238723755</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">3.55743479728699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5215916633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51263070106506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53951334953308</t>
+    <t xml:space="preserve">3.52159142494202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51263093948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5395131111145</t>
   </si>
   <si>
     <t xml:space="preserve">3.60223865509033</t>
@@ -1202,16 +1202,16 @@
     <t xml:space="preserve">3.72768974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71872901916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69184637069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70976829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68288612365723</t>
+    <t xml:space="preserve">3.71872925758362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6918466091156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70976805686951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68288588523865</t>
   </si>
   <si>
     <t xml:space="preserve">3.7635326385498</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">3.80833721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7904155254364</t>
+    <t xml:space="preserve">3.79041504859924</t>
   </si>
   <si>
     <t xml:space="preserve">3.95170950889587</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">3.97005581855774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00759744644165</t>
+    <t xml:space="preserve">4.00759792327881</t>
   </si>
   <si>
     <t xml:space="preserve">4.0920672416687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81988859176636</t>
+    <t xml:space="preserve">3.81988835334778</t>
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
@@ -1265,40 +1265,40 @@
     <t xml:space="preserve">4.03575468063354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9982123374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97944116592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85743045806885</t>
+    <t xml:space="preserve">3.99821257591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97944092750549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85743021965027</t>
   </si>
   <si>
     <t xml:space="preserve">3.84804463386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81050276756287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74480438232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89497208595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.941899061203</t>
+    <t xml:space="preserve">3.81050252914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7448046207428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89497232437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94189953804016</t>
   </si>
   <si>
     <t xml:space="preserve">3.8668155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93251419067383</t>
+    <t xml:space="preserve">3.93251395225525</t>
   </si>
   <si>
     <t xml:space="preserve">4.08268165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11083841323853</t>
+    <t xml:space="preserve">4.11083793640137</t>
   </si>
   <si>
     <t xml:space="preserve">4.12022304534912</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">4.18592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1953067779541</t>
+    <t xml:space="preserve">4.19530725479126</t>
   </si>
   <si>
     <t xml:space="preserve">4.20469284057617</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">4.28916215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26100540161133</t>
+    <t xml:space="preserve">4.26100587844849</t>
   </si>
   <si>
     <t xml:space="preserve">4.2703914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34547519683838</t>
+    <t xml:space="preserve">4.34547472000122</t>
   </si>
   <si>
     <t xml:space="preserve">4.36424589157104</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">4.50502824783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49564218521118</t>
+    <t xml:space="preserve">4.49564266204834</t>
   </si>
   <si>
     <t xml:space="preserve">4.43932962417603</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">4.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54256963729858</t>
+    <t xml:space="preserve">4.54257011413574</t>
   </si>
   <si>
     <t xml:space="preserve">4.48625707626343</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">4.40178775787354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44871473312378</t>
+    <t xml:space="preserve">4.44871520996094</t>
   </si>
   <si>
     <t xml:space="preserve">4.42994403839111</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">4.41117334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39240217208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2422342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30793285369873</t>
+    <t xml:space="preserve">4.39240169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24223470687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30793333053589</t>
   </si>
   <si>
     <t xml:space="preserve">4.17653608322144</t>
@@ -1400,28 +1400,28 @@
     <t xml:space="preserve">4.62703895568848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61765384674072</t>
+    <t xml:space="preserve">4.61765336990356</t>
   </si>
   <si>
     <t xml:space="preserve">4.51441335678101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57072639465332</t>
+    <t xml:space="preserve">4.57072591781616</t>
   </si>
   <si>
     <t xml:space="preserve">4.67396640777588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80536317825317</t>
+    <t xml:space="preserve">4.80536270141602</t>
   </si>
   <si>
     <t xml:space="preserve">4.78659200668335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86167573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84290456771851</t>
+    <t xml:space="preserve">4.86167621612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84290504455566</t>
   </si>
   <si>
     <t xml:space="preserve">4.89921760559082</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">4.5988826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53318452835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58011198043823</t>
+    <t xml:space="preserve">4.53318405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58011150360107</t>
   </si>
   <si>
     <t xml:space="preserve">4.6927375793457</t>
@@ -1445,16 +1445,16 @@
     <t xml:space="preserve">4.74905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73027896881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71150875091553</t>
+    <t xml:space="preserve">4.73027944564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71150827407837</t>
   </si>
   <si>
     <t xml:space="preserve">4.76782131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95553064346313</t>
+    <t xml:space="preserve">4.95553112030029</t>
   </si>
   <si>
     <t xml:space="preserve">4.88044691085815</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">4.91798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99307298660278</t>
+    <t xml:space="preserve">4.99307250976562</t>
   </si>
   <si>
     <t xml:space="preserve">4.93675994873047</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">6.60737419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28826761245728</t>
+    <t xml:space="preserve">6.28826808929443</t>
   </si>
   <si>
     <t xml:space="preserve">6.1568717956543</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">5.96916246414185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7063684463501</t>
+    <t xml:space="preserve">5.70636892318726</t>
   </si>
   <si>
     <t xml:space="preserve">5.53743028640747</t>
@@ -1508,16 +1508,16 @@
     <t xml:space="preserve">5.87530755996704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66882705688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68759775161743</t>
+    <t xml:space="preserve">5.66882658004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68759727478027</t>
   </si>
   <si>
     <t xml:space="preserve">5.83776521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59374332427979</t>
+    <t xml:space="preserve">5.59374284744263</t>
   </si>
   <si>
     <t xml:space="preserve">5.38726234436035</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">5.10569858551025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68335151672363</t>
+    <t xml:space="preserve">4.68335199356079</t>
   </si>
   <si>
     <t xml:space="preserve">4.14837980270386</t>
@@ -1547,13 +1547,13 @@
     <t xml:space="preserve">3.62279319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55709505081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37877106666565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50078201293945</t>
+    <t xml:space="preserve">3.55709481239319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37877082824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50078225135803</t>
   </si>
   <si>
     <t xml:space="preserve">3.5664803981781</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">3.75418996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70726275444031</t>
+    <t xml:space="preserve">3.70726251602173</t>
   </si>
   <si>
     <t xml:space="preserve">3.71664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83865928649902</t>
+    <t xml:space="preserve">3.8386595249176</t>
   </si>
   <si>
     <t xml:space="preserve">4.25162029266357</t>
@@ -1586,25 +1586,25 @@
     <t xml:space="preserve">4.12960910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16715097427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05452489852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76357579231262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66972088813782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65094971656799</t>
+    <t xml:space="preserve">4.16715049743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05452537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76357555389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66972064971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65094995498657</t>
   </si>
   <si>
     <t xml:space="preserve">3.66033530235291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95128488540649</t>
+    <t xml:space="preserve">3.95128512382507</t>
   </si>
   <si>
     <t xml:space="preserve">4.29854726791382</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">4.31731843948364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15776538848877</t>
+    <t xml:space="preserve">4.15776491165161</t>
   </si>
   <si>
     <t xml:space="preserve">4.10145235061646</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">4.13899421691895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88558650016785</t>
+    <t xml:space="preserve">3.88558626174927</t>
   </si>
   <si>
     <t xml:space="preserve">4.32670402526855</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">4.27977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91374325752258</t>
+    <t xml:space="preserve">3.913743019104</t>
   </si>
   <si>
     <t xml:space="preserve">3.92312836647034</t>
@@ -1664,10 +1664,10 @@
     <t xml:space="preserve">3.49139666557312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67910599708557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3881561756134</t>
+    <t xml:space="preserve">3.67910623550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38815641403198</t>
   </si>
   <si>
     <t xml:space="preserve">3.35999989509583</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">3.34122896194458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20044684410095</t>
+    <t xml:space="preserve">3.20044708251953</t>
   </si>
   <si>
     <t xml:space="preserve">3.24737429618835</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">3.47262573242188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57586598396301</t>
+    <t xml:space="preserve">3.57586574554443</t>
   </si>
   <si>
     <t xml:space="preserve">3.73541903495789</t>
@@ -1700,13 +1700,13 @@
     <t xml:space="preserve">3.68849158287048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72603344917297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52893877029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217854499817</t>
+    <t xml:space="preserve">3.72603368759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52893853187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217878341675</t>
   </si>
   <si>
     <t xml:space="preserve">3.51016759872437</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">3.58525133132935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53832387924194</t>
+    <t xml:space="preserve">3.53832411766052</t>
   </si>
   <si>
     <t xml:space="preserve">3.80111742019653</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">3.48201107978821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46324038505554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44446921348572</t>
+    <t xml:space="preserve">3.46324014663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4444694519043</t>
   </si>
   <si>
     <t xml:space="preserve">3.42569851875305</t>
@@ -1745,13 +1745,13 @@
     <t xml:space="preserve">3.41631293296814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39754176139832</t>
+    <t xml:space="preserve">3.39754199981689</t>
   </si>
   <si>
     <t xml:space="preserve">3.21921801567078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19106149673462</t>
+    <t xml:space="preserve">3.1910617351532</t>
   </si>
   <si>
     <t xml:space="preserve">3.17229056358337</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">3.23798894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14413380622864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25675988197327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36938548088074</t>
+    <t xml:space="preserve">3.14413404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25675964355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36938524246216</t>
   </si>
   <si>
     <t xml:space="preserve">3.15351939201355</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">3.18167614936829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29430150985718</t>
+    <t xml:space="preserve">3.29430174827576</t>
   </si>
   <si>
     <t xml:space="preserve">3.2661452293396</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">3.12536311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04089403152466</t>
+    <t xml:space="preserve">3.04089379310608</t>
   </si>
   <si>
     <t xml:space="preserve">3.05027914047241</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">2.93765377998352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95642471313477</t>
+    <t xml:space="preserve">2.95642447471619</t>
   </si>
   <si>
     <t xml:space="preserve">3.03150844573975</t>
@@ -1811,19 +1811,19 @@
     <t xml:space="preserve">3.02212285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92826819419861</t>
+    <t xml:space="preserve">2.92826795578003</t>
   </si>
   <si>
     <t xml:space="preserve">2.94703912734985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90011143684387</t>
+    <t xml:space="preserve">2.90011167526245</t>
   </si>
   <si>
     <t xml:space="preserve">2.97519564628601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27553081512451</t>
+    <t xml:space="preserve">3.27553057670593</t>
   </si>
   <si>
     <t xml:space="preserve">3.33184361457825</t>
@@ -58897,7 +58897,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.5611921296</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>539</v>
@@ -58918,6 +58918,32 @@
         <v>739</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.5745833333</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>741</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825955867767</t>
+    <t xml:space="preserve">1.85825943946838</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9132376909256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92109155654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88496327400208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92423319816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642318725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82998490333557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79856872558594</t>
+    <t xml:space="preserve">1.91323792934418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92109143733978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88496315479279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92423331737518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642282962799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998502254486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79856896400452</t>
   </si>
   <si>
     <t xml:space="preserve">1.76715290546417</t>
@@ -71,31 +71,31 @@
     <t xml:space="preserve">1.85354709625244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86925530433655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87710905075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281725883484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86768424510956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584787368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83783888816833</t>
+    <t xml:space="preserve">1.86925506591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87710928916931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281713962555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86768412590027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584775447845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83783912658691</t>
   </si>
   <si>
     <t xml:space="preserve">1.87553834915161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82684350013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84569311141968</t>
+    <t xml:space="preserve">1.82684361934662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84569275379181</t>
   </si>
   <si>
     <t xml:space="preserve">1.81898951530457</t>
@@ -104,55 +104,55 @@
     <t xml:space="preserve">1.8362683057785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8598301410675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80485236644745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8205600976944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81741857528687</t>
+    <t xml:space="preserve">1.85983026027679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80485224723816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82056021690369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81741833686829</t>
   </si>
   <si>
     <t xml:space="preserve">1.85040545463562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88025081157684</t>
+    <t xml:space="preserve">1.88025069236755</t>
   </si>
   <si>
     <t xml:space="preserve">1.81427693367004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85197603702545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84412240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84098088741302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82370173931122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81113529205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82213115692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9367995262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94622433185577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407819747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.963503241539</t>
+    <t xml:space="preserve">1.85197627544403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84412205219269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84098064899445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82370162010193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81113541126251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8221310377121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679976463318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94622445106506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407831668854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96350336074829</t>
   </si>
   <si>
     <t xml:space="preserve">1.9650741815567</t>
@@ -161,73 +161,73 @@
     <t xml:space="preserve">1.99334859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00434398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98706531524658</t>
+    <t xml:space="preserve">2.00434422492981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98706519603729</t>
   </si>
   <si>
     <t xml:space="preserve">2.00905656814575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02476453781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051648139954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96193242073059</t>
+    <t xml:space="preserve">2.02476477622986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051624298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96193218231201</t>
   </si>
   <si>
     <t xml:space="preserve">1.93994128704071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95564913749695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637921333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87396728992462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93378698825836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017528533936</t>
+    <t xml:space="preserve">1.95564925670624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637909412384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87396740913391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93378710746765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017516613007</t>
   </si>
   <si>
     <t xml:space="preserve">1.9223153591156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93050956726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656334400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509135723114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95836925506592</t>
+    <t xml:space="preserve">1.93050968647003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656310558319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9583694934845</t>
   </si>
   <si>
     <t xml:space="preserve">1.91739904880524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9354259967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94198107719421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248261928558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084420681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83545899391174</t>
+    <t xml:space="preserve">1.93542587757111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9419811964035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248285770416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084396839142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83545887470245</t>
   </si>
   <si>
     <t xml:space="preserve">1.8026829957962</t>
@@ -236,85 +236,82 @@
     <t xml:space="preserve">1.84201419353485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83218157291412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88298451900482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86823499202728</t>
+    <t xml:space="preserve">1.83218145370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88298428058624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86823511123657</t>
   </si>
   <si>
     <t xml:space="preserve">1.90756642818451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89281702041626</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.90592765808105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88462316989899</t>
+    <t xml:space="preserve">1.8846230506897</t>
   </si>
   <si>
     <t xml:space="preserve">1.90920507907867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87151253223419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8977335691452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82398760318756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75843513011932</t>
+    <t xml:space="preserve">1.87151265144348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773344993591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82398736476898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75843524932861</t>
   </si>
   <si>
     <t xml:space="preserve">1.76662921905518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78629517555237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77646195888519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75188016891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75351893901825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77973961830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75024127960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72074294090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66993999481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7289365530014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69616055488586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76007413864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70435476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73549199104309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73385334014893</t>
+    <t xml:space="preserve">1.78629505634308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77646219730377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75188004970551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75351905822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77973985671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75024116039276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72074270248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66993987560272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72893667221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69616079330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76007425785065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70435464382172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73549211025238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73385322093964</t>
   </si>
   <si>
     <t xml:space="preserve">1.71254873275757</t>
@@ -323,7 +320,7 @@
     <t xml:space="preserve">1.63060867786407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67157876491547</t>
+    <t xml:space="preserve">1.67157864570618</t>
   </si>
   <si>
     <t xml:space="preserve">1.66666233539581</t>
@@ -332,37 +329,37 @@
     <t xml:space="preserve">1.61012363433838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62241458892822</t>
+    <t xml:space="preserve">1.62241470813751</t>
   </si>
   <si>
     <t xml:space="preserve">1.66338467597961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67321765422821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64535772800446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63880264759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62569236755371</t>
+    <t xml:space="preserve">1.67321753501892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64535784721375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63880276679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62569212913513</t>
   </si>
   <si>
     <t xml:space="preserve">1.66830110549927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65519058704376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64699685573578</t>
+    <t xml:space="preserve">1.65519070625305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64699673652649</t>
   </si>
   <si>
     <t xml:space="preserve">1.63798320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59865212440491</t>
+    <t xml:space="preserve">1.59865200519562</t>
   </si>
   <si>
     <t xml:space="preserve">1.6297892332077</t>
@@ -371,16 +368,16 @@
     <t xml:space="preserve">1.58308339118958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59537434577942</t>
+    <t xml:space="preserve">1.59537446498871</t>
   </si>
   <si>
     <t xml:space="preserve">1.57898640632629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59127748012543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54047441482544</t>
+    <t xml:space="preserve">1.59127736091614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54047453403473</t>
   </si>
   <si>
     <t xml:space="preserve">1.56751465797424</t>
@@ -398,10 +395,10 @@
     <t xml:space="preserve">1.6027489900589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60356843471527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60602676868439</t>
+    <t xml:space="preserve">1.60356855392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6060266494751</t>
   </si>
   <si>
     <t xml:space="preserve">1.51917016506195</t>
@@ -410,7 +407,7 @@
     <t xml:space="preserve">1.56177890300751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54539108276367</t>
+    <t xml:space="preserve">1.54539096355438</t>
   </si>
   <si>
     <t xml:space="preserve">1.37659418582916</t>
@@ -419,22 +416,22 @@
     <t xml:space="preserve">1.4126478433609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39462101459503</t>
+    <t xml:space="preserve">1.39462113380432</t>
   </si>
   <si>
     <t xml:space="preserve">1.45771503448486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47082531452179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53391921520233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6125819683075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61176252365112</t>
+    <t xml:space="preserve">1.47082543373108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53391933441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61258184909821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61176240444183</t>
   </si>
   <si>
     <t xml:space="preserve">1.59783267974854</t>
@@ -452,22 +449,22 @@
     <t xml:space="preserve">1.56505656242371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56423723697662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59291625022888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55686259269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52162826061249</t>
+    <t xml:space="preserve">1.56423711776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59291613101959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55686247348785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5216281414032</t>
   </si>
   <si>
     <t xml:space="preserve">1.5412939786911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50442087650299</t>
+    <t xml:space="preserve">1.5044207572937</t>
   </si>
   <si>
     <t xml:space="preserve">1.51097619533539</t>
@@ -479,22 +476,22 @@
     <t xml:space="preserve">1.51589250564575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55194628238678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50851786136627</t>
+    <t xml:space="preserve">1.55194616317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50851774215698</t>
   </si>
   <si>
     <t xml:space="preserve">1.53228056430817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50933718681335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5076984167099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50278198719025</t>
+    <t xml:space="preserve">1.50933730602264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50769853591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50278210639954</t>
   </si>
   <si>
     <t xml:space="preserve">1.49540746212006</t>
@@ -506,22 +503,22 @@
     <t xml:space="preserve">1.57325053215027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5855416059494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59455490112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60684597492218</t>
+    <t xml:space="preserve">1.58554148674011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59455502033234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60684621334076</t>
   </si>
   <si>
     <t xml:space="preserve">1.62159526348114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57161176204681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54375207424164</t>
+    <t xml:space="preserve">1.5716118812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54375219345093</t>
   </si>
   <si>
     <t xml:space="preserve">1.57243120670319</t>
@@ -530,16 +527,16 @@
     <t xml:space="preserve">1.58718037605286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54621028900146</t>
+    <t xml:space="preserve">1.54621040821075</t>
   </si>
   <si>
     <t xml:space="preserve">1.55768203735352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58799970149994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5347386598587</t>
+    <t xml:space="preserve">1.58799993991852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53473877906799</t>
   </si>
   <si>
     <t xml:space="preserve">1.5822639465332</t>
@@ -548,22 +545,22 @@
     <t xml:space="preserve">1.54702961444855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53883588314056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54784905910492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55276560783386</t>
+    <t xml:space="preserve">1.53883564472198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54784917831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55276548862457</t>
   </si>
   <si>
     <t xml:space="preserve">1.54948794841766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53801643848419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54866850376129</t>
+    <t xml:space="preserve">1.5380163192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.548668384552</t>
   </si>
   <si>
     <t xml:space="preserve">1.53637754917145</t>
@@ -581,7 +578,7 @@
     <t xml:space="preserve">1.69288325309753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6535519361496</t>
+    <t xml:space="preserve">1.65355181694031</t>
   </si>
   <si>
     <t xml:space="preserve">1.82070970535278</t>
@@ -590,10 +587,10 @@
     <t xml:space="preserve">1.82890391349792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81743204593658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81579327583313</t>
+    <t xml:space="preserve">1.81743216514587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81579351425171</t>
   </si>
   <si>
     <t xml:space="preserve">1.87970674037933</t>
@@ -602,28 +599,28 @@
     <t xml:space="preserve">1.79448890686035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80104422569275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73876965045929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72729814052582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74696362018585</t>
+    <t xml:space="preserve">1.80104410648346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73876941204071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72729802131653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74696373939514</t>
   </si>
   <si>
     <t xml:space="preserve">1.76335155963898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84693050384521</t>
+    <t xml:space="preserve">1.8469306230545</t>
   </si>
   <si>
     <t xml:space="preserve">1.81087696552277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80923795700073</t>
+    <t xml:space="preserve">1.80923807621002</t>
   </si>
   <si>
     <t xml:space="preserve">1.81251561641693</t>
@@ -632,52 +629,52 @@
     <t xml:space="preserve">1.86167979240417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86495757102966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85840225219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87642896175385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89937222003937</t>
+    <t xml:space="preserve">1.86495745182037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85840213298798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87642884254456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89937233924866</t>
   </si>
   <si>
     <t xml:space="preserve">1.84856951236725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92479634284973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679428100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93850827217102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97107350826263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92822420597076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94193613529205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94365000724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95907580852509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9676456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92651009559631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95393407344818</t>
+    <t xml:space="preserve">1.92479658126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679416179657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93850803375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97107362747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92822444438934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94193589687347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94364976882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95907592773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96764576435089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92651033401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95393395423889</t>
   </si>
   <si>
     <t xml:space="preserve">1.93336629867554</t>
@@ -686,43 +683,43 @@
     <t xml:space="preserve">1.90594255924225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89394474029541</t>
+    <t xml:space="preserve">1.8939448595047</t>
   </si>
   <si>
     <t xml:space="preserve">1.8716629743576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92993819713593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080058574677</t>
+    <t xml:space="preserve">1.9299384355545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080070495605</t>
   </si>
   <si>
     <t xml:space="preserve">1.91451239585876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88708877563477</t>
+    <t xml:space="preserve">1.88708865642548</t>
   </si>
   <si>
     <t xml:space="preserve">1.87680494785309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91794049739838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88537502288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994910240173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88880276679993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90937030315399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90251445770264</t>
+    <t xml:space="preserve">1.91794037818909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8853747844696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994898319244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88880288600922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90937042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90251469612122</t>
   </si>
   <si>
     <t xml:space="preserve">1.96421778202057</t>
@@ -731,64 +728,64 @@
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821341991425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98649966716766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97964358329773</t>
+    <t xml:space="preserve">1.98821365833282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98649954795837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97964334487915</t>
   </si>
   <si>
     <t xml:space="preserve">2.12533164024353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0859100818634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05677270889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07905459403992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08076810836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06534266471863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06020069122314</t>
+    <t xml:space="preserve">2.08591032028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05677247047424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07905435562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0807683467865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06534242630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06020045280457</t>
   </si>
   <si>
     <t xml:space="preserve">2.07219839096069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13390135765076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10819172859192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09962224960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10304999351501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03963279724121</t>
+    <t xml:space="preserve">2.13390159606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1081919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09962201118469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10304975509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03963303565979</t>
   </si>
   <si>
     <t xml:space="preserve">2.06877040863037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11504769325256</t>
+    <t xml:space="preserve">2.11504793167114</t>
   </si>
   <si>
     <t xml:space="preserve">2.07391238212585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09790802001953</t>
+    <t xml:space="preserve">2.09790778160095</t>
   </si>
   <si>
     <t xml:space="preserve">2.1167619228363</t>
@@ -809,7 +806,7 @@
     <t xml:space="preserve">2.08933806419373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05163049697876</t>
+    <t xml:space="preserve">2.05163073539734</t>
   </si>
   <si>
     <t xml:space="preserve">2.17675089836121</t>
@@ -824,7 +821,7 @@
     <t xml:space="preserve">2.13047361373901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15961146354675</t>
+    <t xml:space="preserve">2.15961098670959</t>
   </si>
   <si>
     <t xml:space="preserve">2.11847567558289</t>
@@ -839,43 +836,43 @@
     <t xml:space="preserve">2.11161994934082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10133600234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15789723396301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15618300437927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1441855430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14075756072998</t>
+    <t xml:space="preserve">2.10133576393127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15789699554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15618324279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14418530464172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1407573223114</t>
   </si>
   <si>
     <t xml:space="preserve">2.14932727813721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13904356956482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17503690719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15104103088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12018966674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10476398468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06362843513489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03277659416199</t>
+    <t xml:space="preserve">2.13904333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17503714561462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15104126930237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12018990516663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1047637462616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06362819671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03277707099915</t>
   </si>
   <si>
     <t xml:space="preserve">2.04820275306702</t>
@@ -893,10 +890,10 @@
     <t xml:space="preserve">2.08762431144714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02077889442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08419632911682</t>
+    <t xml:space="preserve">2.02077913284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08419609069824</t>
   </si>
   <si>
     <t xml:space="preserve">2.0224928855896</t>
@@ -920,25 +917,25 @@
     <t xml:space="preserve">2.33100891113281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32243919372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35671830177307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44241714477539</t>
+    <t xml:space="preserve">2.32243895530701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35671854019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44241738319397</t>
   </si>
   <si>
     <t xml:space="preserve">2.49383687973022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46812701225281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47669720649719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48526692390442</t>
+    <t xml:space="preserve">2.46812725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47669696807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48526668548584</t>
   </si>
   <si>
     <t xml:space="preserve">2.53668618202209</t>
@@ -947,10 +944,10 @@
     <t xml:space="preserve">2.57953548431396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.596675157547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61381506919861</t>
+    <t xml:space="preserve">2.59667539596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61381483078003</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382585525513</t>
@@ -968,10 +965,10 @@
     <t xml:space="preserve">2.61655139923096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52694368362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.437335729599</t>
+    <t xml:space="preserve">2.52694344520569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43733549118042</t>
   </si>
   <si>
     <t xml:space="preserve">2.46421790122986</t>
@@ -980,19 +977,19 @@
     <t xml:space="preserve">2.50006103515625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45525741577148</t>
+    <t xml:space="preserve">2.45525717735291</t>
   </si>
   <si>
     <t xml:space="preserve">2.54486513137817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57174730300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51798295974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56278681755066</t>
+    <t xml:space="preserve">2.57174754142761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51798272132874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56278657913208</t>
   </si>
   <si>
     <t xml:space="preserve">2.53590416908264</t>
@@ -1001,25 +998,25 @@
     <t xml:space="preserve">2.4911003112793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48213958740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5090217590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47317862510681</t>
+    <t xml:space="preserve">2.48213982582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50902199745178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47317886352539</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680658340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7599241733551</t>
+    <t xml:space="preserve">2.75992441177368</t>
   </si>
   <si>
     <t xml:space="preserve">2.77784562110901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7420027256012</t>
+    <t xml:space="preserve">2.74200248718262</t>
   </si>
   <si>
     <t xml:space="preserve">2.76888489723206</t>
@@ -1028,7 +1025,7 @@
     <t xml:space="preserve">2.71512007713318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75096344947815</t>
+    <t xml:space="preserve">2.75096321105957</t>
   </si>
   <si>
     <t xml:space="preserve">2.67031621932983</t>
@@ -1040,13 +1037,13 @@
     <t xml:space="preserve">2.65239477157593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68823766708374</t>
+    <t xml:space="preserve">2.68823790550232</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719862937927</t>
+    <t xml:space="preserve">2.69719886779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1055,10 +1052,10 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83161067962646</t>
+    <t xml:space="preserve">2.86745381355286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83161044120789</t>
   </si>
   <si>
     <t xml:space="preserve">2.6434338092804</t>
@@ -1067,7 +1064,7 @@
     <t xml:space="preserve">2.62551236152649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58070826530457</t>
+    <t xml:space="preserve">2.58070850372314</t>
   </si>
   <si>
     <t xml:space="preserve">2.607590675354</t>
@@ -1100,25 +1097,25 @@
     <t xml:space="preserve">2.90329670906067</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12731647491455</t>
+    <t xml:space="preserve">3.12731671333313</t>
   </si>
   <si>
     <t xml:space="preserve">3.16315984725952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13627767562866</t>
+    <t xml:space="preserve">3.13627743721008</t>
   </si>
   <si>
     <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25276803970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172876358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28861117362976</t>
+    <t xml:space="preserve">3.25276780128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172852516174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28861093521118</t>
   </si>
   <si>
     <t xml:space="preserve">3.29757189750671</t>
@@ -1133,7 +1130,7 @@
     <t xml:space="preserve">3.34237575531006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42302274703979</t>
+    <t xml:space="preserve">3.42302298545837</t>
   </si>
   <si>
     <t xml:space="preserve">3.3871796131134</t>
@@ -1142,22 +1139,22 @@
     <t xml:space="preserve">3.40510129928589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41406178474426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3692581653595</t>
+    <t xml:space="preserve">3.41406202316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36925792694092</t>
   </si>
   <si>
     <t xml:space="preserve">3.37821888923645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45886588096619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4857485294342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47678780555725</t>
+    <t xml:space="preserve">3.45886564254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48574876785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47678756713867</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1166,13 +1163,13 @@
     <t xml:space="preserve">3.67392492294312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58431720733643</t>
+    <t xml:space="preserve">3.58431696891785</t>
   </si>
   <si>
     <t xml:space="preserve">3.53055238723755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59327793121338</t>
+    <t xml:space="preserve">3.59327816963196</t>
   </si>
   <si>
     <t xml:space="preserve">3.55743479728699</t>
@@ -1205,43 +1202,46 @@
     <t xml:space="preserve">3.6918466091156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70976781845093</t>
+    <t xml:space="preserve">3.70976805686951</t>
   </si>
   <si>
     <t xml:space="preserve">3.68288588523865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76353311538696</t>
+    <t xml:space="preserve">3.7635326385498</t>
   </si>
   <si>
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833697319031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79041528701782</t>
+    <t xml:space="preserve">3.80833721160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79041504859924</t>
   </si>
   <si>
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
+    <t xml:space="preserve">3.96067070960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97005581855774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00759792327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0920672416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81988835334778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87620115280151</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.96067023277283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97005581855774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00759792327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0920672416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81988835334778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87620115280151</t>
   </si>
   <si>
     <t xml:space="preserve">4.02636861801147</t>
@@ -6155,7 +6155,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G136" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6181,7 +6181,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6207,7 +6207,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -6233,7 +6233,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6259,7 +6259,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G140" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -6285,7 +6285,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -6337,7 +6337,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6363,7 +6363,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6389,7 +6389,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -6415,7 +6415,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G146" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6441,7 +6441,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6467,7 +6467,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G148" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6493,7 +6493,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G149" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6519,7 +6519,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G150" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6545,7 +6545,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6571,7 +6571,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6597,7 +6597,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G153" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6623,7 +6623,7 @@
         <v>2.13800001144409</v>
       </c>
       <c r="G154" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6649,7 +6649,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -6675,7 +6675,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G156" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -6701,7 +6701,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G157" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -6727,7 +6727,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G158" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -6753,7 +6753,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -6779,7 +6779,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G160" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -6805,7 +6805,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6831,7 +6831,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G162" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6857,7 +6857,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G163" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6883,7 +6883,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G164" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6909,7 +6909,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G165" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6935,7 +6935,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G166" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6961,7 +6961,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G167" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6987,7 +6987,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G168" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7013,7 +7013,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G169" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7039,7 +7039,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7065,7 +7065,7 @@
         <v>2.11800003051758</v>
       </c>
       <c r="G171" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7091,7 +7091,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G172" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7117,7 +7117,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G173" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7143,7 +7143,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G174" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7169,7 +7169,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G175" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7195,7 +7195,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G176" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7221,7 +7221,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G177" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7247,7 +7247,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G178" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7273,7 +7273,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7299,7 +7299,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7325,7 +7325,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G181" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7351,7 +7351,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7377,7 +7377,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7403,7 +7403,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G184" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7429,7 +7429,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G185" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7455,7 +7455,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G186" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7481,7 +7481,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G187" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7507,7 +7507,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G188" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7533,7 +7533,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G189" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7559,7 +7559,7 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7585,7 +7585,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G191" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7611,7 +7611,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G192" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7637,7 +7637,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G193" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7663,7 +7663,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7689,7 +7689,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7715,7 +7715,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G196" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7741,7 +7741,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G197" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7767,7 +7767,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7793,7 +7793,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7819,7 +7819,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G200" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7845,7 +7845,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G201" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7871,7 +7871,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G202" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7897,7 +7897,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G203" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7923,7 +7923,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G204" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7949,7 +7949,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G205" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7975,7 +7975,7 @@
         <v>1.99899995326996</v>
       </c>
       <c r="G206" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8001,7 +8001,7 @@
         <v>1.95099997520447</v>
       </c>
       <c r="G207" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8027,7 +8027,7 @@
         <v>1.9889999628067</v>
       </c>
       <c r="G208" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8053,7 +8053,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G209" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8079,7 +8079,7 @@
         <v>1.94700002670288</v>
       </c>
       <c r="G210" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8105,7 +8105,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G211" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8131,7 +8131,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G212" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8157,7 +8157,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G213" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8183,7 +8183,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G214" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8209,7 +8209,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G215" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8235,7 +8235,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G216" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8261,7 +8261,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G217" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8287,7 +8287,7 @@
         <v>1.90199995040894</v>
       </c>
       <c r="G218" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8313,7 +8313,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G219" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8339,7 +8339,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G220" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8365,7 +8365,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G221" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8391,7 +8391,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G222" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8417,7 +8417,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G223" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8443,7 +8443,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G224" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8469,7 +8469,7 @@
         <v>1.85399997234344</v>
       </c>
       <c r="G225" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8495,7 +8495,7 @@
         <v>1.90600001811981</v>
       </c>
       <c r="G226" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8521,7 +8521,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G227" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8547,7 +8547,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G228" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8573,7 +8573,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G229" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8599,7 +8599,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G230" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8625,7 +8625,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G231" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8651,7 +8651,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G232" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8677,7 +8677,7 @@
         <v>1.87199997901917</v>
       </c>
       <c r="G233" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8703,7 +8703,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G234" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8729,7 +8729,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G235" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8755,7 +8755,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G236" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8781,7 +8781,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G237" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8807,7 +8807,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G238" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8833,7 +8833,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G239" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8859,7 +8859,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G240" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8885,7 +8885,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G241" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8911,7 +8911,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8937,7 +8937,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G243" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8963,7 +8963,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G244" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8989,7 +8989,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G245" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9015,7 +9015,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G246" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9041,7 +9041,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G247" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9067,7 +9067,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G248" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9093,7 +9093,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G249" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9119,7 +9119,7 @@
         <v>1.85699999332428</v>
       </c>
       <c r="G250" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9145,7 +9145,7 @@
         <v>1.88100004196167</v>
       </c>
       <c r="G251" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9171,7 +9171,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G252" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9197,7 +9197,7 @@
         <v>1.84399998188019</v>
       </c>
       <c r="G253" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9223,7 +9223,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G254" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9249,7 +9249,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G255" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9275,7 +9275,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G256" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9301,7 +9301,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G257" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9327,7 +9327,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G258" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9353,7 +9353,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G259" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9379,7 +9379,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G260" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9405,7 +9405,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G261" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9431,7 +9431,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G262" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9457,7 +9457,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9483,7 +9483,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G264" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9509,7 +9509,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G265" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9535,7 +9535,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G266" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9561,7 +9561,7 @@
         <v>1.84300005435944</v>
       </c>
       <c r="G267" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9587,7 +9587,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G268" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9613,7 +9613,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G269" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9639,7 +9639,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G270" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9665,7 +9665,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G271" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9691,7 +9691,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G272" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9717,7 +9717,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G273" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9743,7 +9743,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G274" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9769,7 +9769,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G275" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9795,7 +9795,7 @@
         <v>1.97899997234344</v>
       </c>
       <c r="G276" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9821,7 +9821,7 @@
         <v>1.91799998283386</v>
       </c>
       <c r="G277" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9847,7 +9847,7 @@
         <v>1.88399994373322</v>
       </c>
       <c r="G278" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9873,7 +9873,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G279" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9899,7 +9899,7 @@
         <v>1.9190000295639</v>
       </c>
       <c r="G280" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9925,7 +9925,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G281" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9951,7 +9951,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G282" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9977,7 +9977,7 @@
         <v>1.90100002288818</v>
       </c>
       <c r="G283" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10003,7 +10003,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G284" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10029,7 +10029,7 @@
         <v>1.93799996376038</v>
       </c>
       <c r="G285" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10055,7 +10055,7 @@
         <v>1.87300002574921</v>
       </c>
       <c r="G286" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10081,7 +10081,7 @@
         <v>1.93099999427795</v>
       </c>
       <c r="G287" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10107,7 +10107,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G288" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10133,7 +10133,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G289" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10159,7 +10159,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G290" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10185,7 +10185,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G291" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10211,7 +10211,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G292" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10237,7 +10237,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G293" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10263,7 +10263,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G294" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10289,7 +10289,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G295" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10315,7 +10315,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G296" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10341,7 +10341,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G297" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10367,7 +10367,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G298" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10393,7 +10393,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G299" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10419,7 +10419,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G300" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10445,7 +10445,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G301" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10471,7 +10471,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G302" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10497,7 +10497,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G303" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10523,7 +10523,7 @@
         <v>1.875</v>
       </c>
       <c r="G304" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10549,7 +10549,7 @@
         <v>1.87899994850159</v>
       </c>
       <c r="G305" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10575,7 +10575,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G306" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10601,7 +10601,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10627,7 +10627,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G308" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10653,7 +10653,7 @@
         <v>2</v>
       </c>
       <c r="G309" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10679,7 +10679,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G310" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10705,7 +10705,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G311" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10731,7 +10731,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G312" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10757,7 +10757,7 @@
         <v>2.06599998474121</v>
       </c>
       <c r="G313" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10783,7 +10783,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G314" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10809,7 +10809,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G315" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10835,7 +10835,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G316" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10861,7 +10861,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G317" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10913,7 +10913,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G319" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10939,7 +10939,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G320" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10965,7 +10965,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G321" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10991,7 +10991,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G322" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11017,7 +11017,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G323" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11043,7 +11043,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G324" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11069,7 +11069,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G325" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11121,7 +11121,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G327" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11147,7 +11147,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G328" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11173,7 +11173,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G329" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11199,7 +11199,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G330" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11225,7 +11225,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G331" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11251,7 +11251,7 @@
         <v>2.12199997901917</v>
       </c>
       <c r="G332" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11277,7 +11277,7 @@
         <v>2.10800004005432</v>
       </c>
       <c r="G333" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11303,7 +11303,7 @@
         <v>2.13199996948242</v>
       </c>
       <c r="G334" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11329,7 +11329,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G335" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11355,7 +11355,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G336" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11459,7 +11459,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G340" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11485,7 +11485,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11511,7 +11511,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G342" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11537,7 +11537,7 @@
         <v>2.21199989318848</v>
       </c>
       <c r="G343" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11563,7 +11563,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G344" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11615,7 +11615,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G346" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11641,7 +11641,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G347" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11667,7 +11667,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G348" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11693,7 +11693,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G349" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11719,7 +11719,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G350" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11771,7 +11771,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G352" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11797,7 +11797,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G353" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11849,7 +11849,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G355" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11875,7 +11875,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G356" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11901,7 +11901,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G357" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11927,7 +11927,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G358" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11953,7 +11953,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G359" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11979,7 +11979,7 @@
         <v>2.25</v>
       </c>
       <c r="G360" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12005,7 +12005,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G361" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12031,7 +12031,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G362" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12057,7 +12057,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G363" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12083,7 +12083,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G364" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12109,7 +12109,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G365" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12135,7 +12135,7 @@
         <v>2.25</v>
       </c>
       <c r="G366" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12161,7 +12161,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G367" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12187,7 +12187,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G368" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12213,7 +12213,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G369" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12239,7 +12239,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G370" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12265,7 +12265,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G371" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12291,7 +12291,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12317,7 +12317,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G373" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12343,7 +12343,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G374" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12369,7 +12369,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G375" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12395,7 +12395,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G376" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12421,7 +12421,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G377" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12447,7 +12447,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G378" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12473,7 +12473,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G379" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12499,7 +12499,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12525,7 +12525,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G381" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12551,7 +12551,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G382" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12577,7 +12577,7 @@
         <v>2.18199992179871</v>
       </c>
       <c r="G383" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12603,7 +12603,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G384" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12629,7 +12629,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G385" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12655,7 +12655,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G386" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12681,7 +12681,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G387" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12707,7 +12707,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G388" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12733,7 +12733,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12759,7 +12759,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G390" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12785,7 +12785,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G391" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12811,7 +12811,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G392" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12837,7 +12837,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G393" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12863,7 +12863,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G394" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12889,7 +12889,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12915,7 +12915,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G396" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12941,7 +12941,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G397" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12967,7 +12967,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G398" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12993,7 +12993,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G399" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13019,7 +13019,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G400" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13045,7 +13045,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13071,7 +13071,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G402" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13097,7 +13097,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G403" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13123,7 +13123,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G404" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13149,7 +13149,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G405" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13175,7 +13175,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G406" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13201,7 +13201,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G407" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13227,7 +13227,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G408" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13253,7 +13253,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G409" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13279,7 +13279,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G410" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13305,7 +13305,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G411" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13331,7 +13331,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G412" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13357,7 +13357,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G413" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13383,7 +13383,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13409,7 +13409,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G415" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13435,7 +13435,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G416" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13461,7 +13461,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G417" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13487,7 +13487,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G418" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13513,7 +13513,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G419" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13539,7 +13539,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G420" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13565,7 +13565,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13591,7 +13591,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G422" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13617,7 +13617,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G423" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13643,7 +13643,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G424" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13669,7 +13669,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G425" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13695,7 +13695,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G426" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13721,7 +13721,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G427" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13747,7 +13747,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G428" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13773,7 +13773,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G429" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13799,7 +13799,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G430" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13825,7 +13825,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G431" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13851,7 +13851,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13877,7 +13877,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G433" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13903,7 +13903,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13929,7 +13929,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G435" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13955,7 +13955,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G436" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13981,7 +13981,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G437" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14007,7 +14007,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G438" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14033,7 +14033,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G439" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14059,7 +14059,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G440" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14085,7 +14085,7 @@
         <v>2.5</v>
       </c>
       <c r="G441" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14111,7 +14111,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G442" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14137,7 +14137,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G443" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14163,7 +14163,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G444" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14189,7 +14189,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G445" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14215,7 +14215,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G446" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14241,7 +14241,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G447" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14267,7 +14267,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G448" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14293,7 +14293,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G449" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14319,7 +14319,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G450" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14345,7 +14345,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14371,7 +14371,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G452" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14397,7 +14397,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G453" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14423,7 +14423,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G454" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14449,7 +14449,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G455" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14475,7 +14475,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G456" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14501,7 +14501,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G457" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14527,7 +14527,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G458" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14553,7 +14553,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G459" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14579,7 +14579,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G460" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14605,7 +14605,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G461" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14631,7 +14631,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G462" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14657,7 +14657,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G463" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14683,7 +14683,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G464" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14709,7 +14709,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G465" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14735,7 +14735,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G466" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14761,7 +14761,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G467" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14787,7 +14787,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G468" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14813,7 +14813,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G469" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14839,7 +14839,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G470" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14865,7 +14865,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G471" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14891,7 +14891,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G472" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14917,7 +14917,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G473" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14943,7 +14943,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14969,7 +14969,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G475" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14995,7 +14995,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G476" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15021,7 +15021,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G477" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15047,7 +15047,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G478" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15073,7 +15073,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G479" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15099,7 +15099,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G480" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15125,7 +15125,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G481" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15151,7 +15151,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G482" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15177,7 +15177,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G483" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15203,7 +15203,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G484" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15229,7 +15229,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G485" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15255,7 +15255,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G486" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15281,7 +15281,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G487" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15307,7 +15307,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G488" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15333,7 +15333,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G489" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15359,7 +15359,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G490" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15385,7 +15385,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G491" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15411,7 +15411,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G492" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15437,7 +15437,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G493" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15463,7 +15463,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G494" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15489,7 +15489,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G495" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15515,7 +15515,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G496" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15541,7 +15541,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G497" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15567,7 +15567,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G498" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15593,7 +15593,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G499" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15619,7 +15619,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G500" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15645,7 +15645,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G501" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15671,7 +15671,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G502" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15697,7 +15697,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G503" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15723,7 +15723,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G504" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15749,7 +15749,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G505" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15775,7 +15775,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G506" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15801,7 +15801,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G507" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15827,7 +15827,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G508" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15853,7 +15853,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G509" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15879,7 +15879,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G510" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15905,7 +15905,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G511" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15931,7 +15931,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G512" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15957,7 +15957,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G513" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15983,7 +15983,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16009,7 +16009,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G515" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16035,7 +16035,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G516" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16061,7 +16061,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16087,7 +16087,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G518" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16113,7 +16113,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G519" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16139,7 +16139,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G520" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16165,7 +16165,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G521" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16191,7 +16191,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G522" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16217,7 +16217,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G523" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16243,7 +16243,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G524" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16269,7 +16269,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G525" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16295,7 +16295,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G526" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16321,7 +16321,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G527" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16347,7 +16347,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G528" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16373,7 +16373,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G529" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16399,7 +16399,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G530" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16425,7 +16425,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G531" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16451,7 +16451,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16477,7 +16477,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G533" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16503,7 +16503,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G534" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16529,7 +16529,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G535" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16555,7 +16555,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G536" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16581,7 +16581,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G537" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16607,7 +16607,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G538" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16633,7 +16633,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G539" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16659,7 +16659,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16685,7 +16685,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G541" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16711,7 +16711,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G542" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16737,7 +16737,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16763,7 +16763,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G544" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16789,7 +16789,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G545" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16815,7 +16815,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G546" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16841,7 +16841,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G547" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16867,7 +16867,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G548" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16893,7 +16893,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G549" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16919,7 +16919,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G550" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16945,7 +16945,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G551" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16971,7 +16971,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G552" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16997,7 +16997,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G553" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17023,7 +17023,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G554" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17049,7 +17049,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G555" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17075,7 +17075,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G556" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17101,7 +17101,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G557" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17127,7 +17127,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17153,7 +17153,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G559" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17179,7 +17179,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G560" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17205,7 +17205,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G561" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17231,7 +17231,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G562" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17257,7 +17257,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G563" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17283,7 +17283,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17309,7 +17309,7 @@
         <v>2.5</v>
       </c>
       <c r="G565" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17335,7 +17335,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17361,7 +17361,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G567" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17387,7 +17387,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17413,7 +17413,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G569" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17439,7 +17439,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G570" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17465,7 +17465,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17491,7 +17491,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17517,7 +17517,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G573" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17543,7 +17543,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G574" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17569,7 +17569,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G575" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17595,7 +17595,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17621,7 +17621,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G577" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17647,7 +17647,7 @@
         <v>2.5</v>
       </c>
       <c r="G578" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17673,7 +17673,7 @@
         <v>2.5</v>
       </c>
       <c r="G579" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17699,7 +17699,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G580" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17725,7 +17725,7 @@
         <v>2.5</v>
       </c>
       <c r="G581" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17751,7 +17751,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G582" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17777,7 +17777,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G583" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17803,7 +17803,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17829,7 +17829,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17855,7 +17855,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G586" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17881,7 +17881,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G587" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17907,7 +17907,7 @@
         <v>2.5</v>
       </c>
       <c r="G588" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17933,7 +17933,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17959,7 +17959,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17985,7 +17985,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18011,7 +18011,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G592" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18037,7 +18037,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G593" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18063,7 +18063,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G594" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18089,7 +18089,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G595" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18115,7 +18115,7 @@
         <v>2.75</v>
       </c>
       <c r="G596" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18141,7 +18141,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18167,7 +18167,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G598" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18193,7 +18193,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G599" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18219,7 +18219,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G600" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18245,7 +18245,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G601" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18271,7 +18271,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G602" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18297,7 +18297,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18323,7 +18323,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G604" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18349,7 +18349,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G605" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18375,7 +18375,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G606" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18401,7 +18401,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G607" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18427,7 +18427,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G608" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18453,7 +18453,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G609" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18479,7 +18479,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G610" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18505,7 +18505,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G611" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18531,7 +18531,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18557,7 +18557,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18583,7 +18583,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18609,7 +18609,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18635,7 +18635,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18661,7 +18661,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18687,7 +18687,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18713,7 +18713,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18739,7 +18739,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18765,7 +18765,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18791,7 +18791,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18817,7 +18817,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18843,7 +18843,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18869,7 +18869,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18895,7 +18895,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18921,7 +18921,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18947,7 +18947,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18973,7 +18973,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18999,7 +18999,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19025,7 +19025,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19051,7 +19051,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19077,7 +19077,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19103,7 +19103,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19129,7 +19129,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19155,7 +19155,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19181,7 +19181,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19207,7 +19207,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19233,7 +19233,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19259,7 +19259,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19285,7 +19285,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19311,7 +19311,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19337,7 +19337,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19363,7 +19363,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19389,7 +19389,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19415,7 +19415,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19441,7 +19441,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19467,7 +19467,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19493,7 +19493,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19519,7 +19519,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19545,7 +19545,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19571,7 +19571,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19597,7 +19597,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19623,7 +19623,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G654" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19649,7 +19649,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19675,7 +19675,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19701,7 +19701,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19727,7 +19727,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19753,7 +19753,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19779,7 +19779,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19805,7 +19805,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19831,7 +19831,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19857,7 +19857,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19883,7 +19883,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19909,7 +19909,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19935,7 +19935,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19961,7 +19961,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19987,7 +19987,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20013,7 +20013,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G669" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20039,7 +20039,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20065,7 +20065,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20091,7 +20091,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20117,7 +20117,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20143,7 +20143,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20169,7 +20169,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20195,7 +20195,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20221,7 +20221,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20247,7 +20247,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20273,7 +20273,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20299,7 +20299,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20325,7 +20325,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20351,7 +20351,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20377,7 +20377,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20403,7 +20403,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20429,7 +20429,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20455,7 +20455,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20481,7 +20481,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20507,7 +20507,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20533,7 +20533,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20559,7 +20559,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20585,7 +20585,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20611,7 +20611,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20637,7 +20637,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20663,7 +20663,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20689,7 +20689,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20715,7 +20715,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20741,7 +20741,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20767,7 +20767,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20793,7 +20793,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20819,7 +20819,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20845,7 +20845,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20871,7 +20871,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20897,7 +20897,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20923,7 +20923,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20949,7 +20949,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20975,7 +20975,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21001,7 +21001,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21027,7 +21027,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G708" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21053,7 +21053,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21079,7 +21079,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21105,7 +21105,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21131,7 +21131,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21157,7 +21157,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G713" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21183,7 +21183,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G714" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21209,7 +21209,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G715" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21235,7 +21235,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G716" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21261,7 +21261,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21287,7 +21287,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21313,7 +21313,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21339,7 +21339,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21365,7 +21365,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G721" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21391,7 +21391,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G722" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21417,7 +21417,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21443,7 +21443,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G724" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21469,7 +21469,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G725" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21495,7 +21495,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21521,7 +21521,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G727" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21547,7 +21547,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21573,7 +21573,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G729" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21599,7 +21599,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21625,7 +21625,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G731" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21651,7 +21651,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G732" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21677,7 +21677,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G733" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21703,7 +21703,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21729,7 +21729,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21755,7 +21755,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21781,7 +21781,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21807,7 +21807,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21833,7 +21833,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21859,7 +21859,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21885,7 +21885,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21911,7 +21911,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21937,7 +21937,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21963,7 +21963,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21989,7 +21989,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22015,7 +22015,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22041,7 +22041,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22067,7 +22067,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22093,7 +22093,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22119,7 +22119,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22145,7 +22145,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22171,7 +22171,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22197,7 +22197,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22223,7 +22223,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22249,7 +22249,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22275,7 +22275,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22301,7 +22301,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22327,7 +22327,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22353,7 +22353,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G759" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22379,7 +22379,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G760" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22405,7 +22405,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G761" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22431,7 +22431,7 @@
         <v>2.75</v>
       </c>
       <c r="G762" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22457,7 +22457,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G763" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22483,7 +22483,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G764" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22509,7 +22509,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22535,7 +22535,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G766" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22561,7 +22561,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G767" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22587,7 +22587,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G768" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22613,7 +22613,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22639,7 +22639,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G770" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22665,7 +22665,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G771" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22691,7 +22691,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22717,7 +22717,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22743,7 +22743,7 @@
         <v>3</v>
       </c>
       <c r="G774" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22769,7 +22769,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22795,7 +22795,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G776" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22821,7 +22821,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G777" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22847,7 +22847,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G778" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22873,7 +22873,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22899,7 +22899,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22925,7 +22925,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G781" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22951,7 +22951,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G782" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22977,7 +22977,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23003,7 +23003,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G784" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23029,7 +23029,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G785" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23055,7 +23055,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23081,7 +23081,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G787" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23107,7 +23107,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23133,7 +23133,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G789" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23159,7 +23159,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G790" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23185,7 +23185,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G791" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23211,7 +23211,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G792" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23237,7 +23237,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G793" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23263,7 +23263,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23289,7 +23289,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G795" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23315,7 +23315,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23341,7 +23341,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G797" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23367,7 +23367,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G798" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23393,7 +23393,7 @@
         <v>3.5</v>
       </c>
       <c r="G799" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23419,7 +23419,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23445,7 +23445,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G801" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23471,7 +23471,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G802" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23497,7 +23497,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23523,7 +23523,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G804" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23549,7 +23549,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23575,7 +23575,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23601,7 +23601,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23627,7 +23627,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23653,7 +23653,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G809" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23679,7 +23679,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23705,7 +23705,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G811" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23731,7 +23731,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23757,7 +23757,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G813" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23783,7 +23783,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23809,7 +23809,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G815" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23835,7 +23835,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23861,7 +23861,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G817" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23887,7 +23887,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G818" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23913,7 +23913,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G819" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23939,7 +23939,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G820" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23965,7 +23965,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G821" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23991,7 +23991,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G822" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24017,7 +24017,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G823" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24043,7 +24043,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24069,7 +24069,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24095,7 +24095,7 @@
         <v>4</v>
       </c>
       <c r="G826" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24121,7 +24121,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G827" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24147,7 +24147,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G828" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24173,7 +24173,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24199,7 +24199,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G830" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24225,7 +24225,7 @@
         <v>4</v>
       </c>
       <c r="G831" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24251,7 +24251,7 @@
         <v>4</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24277,7 +24277,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G833" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24303,7 +24303,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24329,7 +24329,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24355,7 +24355,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G836" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24381,7 +24381,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24407,7 +24407,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G838" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24433,7 +24433,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G839" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24459,7 +24459,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24485,7 +24485,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G841" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24511,7 +24511,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24537,7 +24537,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24563,7 +24563,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G844" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24589,7 +24589,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G845" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24615,7 +24615,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G846" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24641,7 +24641,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24667,7 +24667,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24693,7 +24693,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G849" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24719,7 +24719,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24745,7 +24745,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G851" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24771,7 +24771,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24797,7 +24797,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G853" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24823,7 +24823,7 @@
         <v>4.25</v>
       </c>
       <c r="G854" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24849,7 +24849,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24875,7 +24875,7 @@
         <v>4.25</v>
       </c>
       <c r="G856" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24901,7 +24901,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G857" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24927,7 +24927,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24953,7 +24953,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G859" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24979,7 +24979,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25005,7 +25005,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G861" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25031,7 +25031,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G862" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25057,7 +25057,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G863" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25083,7 +25083,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G864" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25109,7 +25109,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25161,7 +25161,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G867" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25265,7 +25265,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G871" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25317,7 +25317,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25447,7 +25447,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G878" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25811,7 +25811,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25889,7 +25889,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G895" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26123,7 +26123,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G904" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -30309,7 +30309,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1065" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30595,7 +30595,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1076" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30621,7 +30621,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1077" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30855,7 +30855,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1086" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31219,7 +31219,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1100" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31323,7 +31323,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1104" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32831,7 +32831,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1162" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32857,7 +32857,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1163" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33299,7 +33299,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1180" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33429,7 +33429,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33637,7 +33637,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1193" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -58943,13 +58943,13 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6495601852</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>183</v>
       </c>
       <c r="C2167" t="n">
-        <v>2</v>
+        <v>2.01999998092651</v>
       </c>
       <c r="D2167" t="n">
         <v>1.95000004768372</v>
@@ -58964,6 +58964,32 @@
         <v>738</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6030324074</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>5300</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>1.97000002861023</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>1.97000002861023</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>752</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="760">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8582592010498</t>
+    <t xml:space="preserve">1.85825932025909</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">1.91323757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92109167575836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88496315479279</t>
+    <t xml:space="preserve">1.92109143733978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88496327400208</t>
   </si>
   <si>
     <t xml:space="preserve">1.92423331737518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80642282962799</t>
+    <t xml:space="preserve">1.80642294883728</t>
   </si>
   <si>
     <t xml:space="preserve">1.82998478412628</t>
@@ -65,49 +65,49 @@
     <t xml:space="preserve">1.79856884479523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76715278625488</t>
+    <t xml:space="preserve">1.76715290546417</t>
   </si>
   <si>
     <t xml:space="preserve">1.85354709625244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86925494670868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87710928916931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281725883484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86768412590027</t>
+    <t xml:space="preserve">1.86925530433655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87710916996002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281737804413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86768424510956</t>
   </si>
   <si>
     <t xml:space="preserve">1.81584787368774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83783912658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8755384683609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82684338092804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84569275379181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81898939609528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83626842498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85983049869537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80485212802887</t>
+    <t xml:space="preserve">1.83783888816833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87553811073303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82684350013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84569299221039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81898951530457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8362683057785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85983037948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80485224723816</t>
   </si>
   <si>
     <t xml:space="preserve">1.82056021690369</t>
@@ -116,70 +116,70 @@
     <t xml:space="preserve">1.81741857528687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85040533542633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88025069236755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81427705287933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85197651386261</t>
+    <t xml:space="preserve">1.85040545463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88025057315826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81427693367004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85197603702545</t>
   </si>
   <si>
     <t xml:space="preserve">1.84412217140198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84098052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82370185852051</t>
+    <t xml:space="preserve">1.84098064899445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82370173931122</t>
   </si>
   <si>
     <t xml:space="preserve">1.81113541126251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82213079929352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679976463318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94622409343719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407843589783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350312232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96507370471954</t>
+    <t xml:space="preserve">1.82213091850281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9367995262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94622421264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407831668854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96350336074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9650741815567</t>
   </si>
   <si>
     <t xml:space="preserve">1.99334859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00434398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.987065076828</t>
+    <t xml:space="preserve">2.00434446334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98706519603729</t>
   </si>
   <si>
     <t xml:space="preserve">2.00905656814575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0247642993927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051624298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9619323015213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994116783142</t>
+    <t xml:space="preserve">2.02476453781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051660060883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96193242073059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994128704071</t>
   </si>
   <si>
     <t xml:space="preserve">1.95564925670624</t>
@@ -188,22 +188,22 @@
     <t xml:space="preserve">1.91637921333313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87396740913391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93378698825836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017540454865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92231559753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050932884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656322479248</t>
+    <t xml:space="preserve">1.87396728992462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93378710746765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017516613007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9223153591156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050944805145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656334400177</t>
   </si>
   <si>
     <t xml:space="preserve">1.95509147644043</t>
@@ -212,73 +212,73 @@
     <t xml:space="preserve">1.95836925506592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91739904880524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93542587757111</t>
+    <t xml:space="preserve">1.91739892959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93542611598969</t>
   </si>
   <si>
     <t xml:space="preserve">1.9419811964035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91248285770416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084408760071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83545911312103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80268275737762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84201395511627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83218157291412</t>
+    <t xml:space="preserve">1.91248261928558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084396839142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83545899391174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80268323421478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84201419353485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83218133449554</t>
   </si>
   <si>
     <t xml:space="preserve">1.88298428058624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86823499202728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90756630897522</t>
+    <t xml:space="preserve">1.86823523044586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90756642818451</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281713962555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90592741966248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88462293148041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90920495986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151277065277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89773368835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82398736476898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75843524932861</t>
+    <t xml:space="preserve">1.90592765808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8846230506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90920507907867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87151253223419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8977335691452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82398748397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75843513011932</t>
   </si>
   <si>
     <t xml:space="preserve">1.76662921905518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78629493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77646207809448</t>
+    <t xml:space="preserve">1.78629505634308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77646219730377</t>
   </si>
   <si>
     <t xml:space="preserve">1.75188004970551</t>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">1.77973973751068</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75024116039276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72074258327484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66993999481201</t>
+    <t xml:space="preserve">1.75024104118347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72074282169342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66993987560272</t>
   </si>
   <si>
     <t xml:space="preserve">1.72893679141998</t>
@@ -305,34 +305,34 @@
     <t xml:space="preserve">1.69616067409515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76007401943207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70435476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73549211025238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73385322093964</t>
+    <t xml:space="preserve">1.76007413864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7043548822403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73549199104309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73385310173035</t>
   </si>
   <si>
     <t xml:space="preserve">1.71254873275757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63060867786407</t>
+    <t xml:space="preserve">1.63060879707336</t>
   </si>
   <si>
     <t xml:space="preserve">1.67157864570618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66666233539581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61012363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62241470813751</t>
+    <t xml:space="preserve">1.66666221618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61012375354767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62241458892822</t>
   </si>
   <si>
     <t xml:space="preserve">1.66338467597961</t>
@@ -341,13 +341,13 @@
     <t xml:space="preserve">1.67321753501892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64535796642303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63880264759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62569224834442</t>
+    <t xml:space="preserve">1.64535772800446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63880276679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62569212913513</t>
   </si>
   <si>
     <t xml:space="preserve">1.66830122470856</t>
@@ -356,19 +356,19 @@
     <t xml:space="preserve">1.65519070625305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64699673652649</t>
+    <t xml:space="preserve">1.64699685573578</t>
   </si>
   <si>
     <t xml:space="preserve">1.63798320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59865188598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62978911399841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58308339118958</t>
+    <t xml:space="preserve">1.59865200519562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62978935241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58308351039886</t>
   </si>
   <si>
     <t xml:space="preserve">1.59537446498871</t>
@@ -380,16 +380,16 @@
     <t xml:space="preserve">1.59127748012543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54047453403473</t>
+    <t xml:space="preserve">1.54047441482544</t>
   </si>
   <si>
     <t xml:space="preserve">1.56751477718353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56997287273407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56669533252716</t>
+    <t xml:space="preserve">1.56997311115265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56669545173645</t>
   </si>
   <si>
     <t xml:space="preserve">1.55850124359131</t>
@@ -401,73 +401,73 @@
     <t xml:space="preserve">1.60356855392456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6060266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51917004585266</t>
+    <t xml:space="preserve">1.60602676868439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51917016506195</t>
   </si>
   <si>
     <t xml:space="preserve">1.56177890300751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54539096355438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37659418582916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4126478433609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39462101459503</t>
+    <t xml:space="preserve">1.54539084434509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37659430503845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41264796257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39462125301361</t>
   </si>
   <si>
     <t xml:space="preserve">1.45771503448486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47082543373108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53391933441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61258184909821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61176240444183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59783256053925</t>
+    <t xml:space="preserve">1.47082531452179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53391945362091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61258172988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61176252365112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59783267974854</t>
   </si>
   <si>
     <t xml:space="preserve">1.54211330413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51179552078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55522394180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56505644321442</t>
+    <t xml:space="preserve">1.51179540157318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55522358417511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.565056681633</t>
   </si>
   <si>
     <t xml:space="preserve">1.56423723697662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59291636943817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55686259269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52162837982178</t>
+    <t xml:space="preserve">1.59291625022888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55686247348785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52162826061249</t>
   </si>
   <si>
     <t xml:space="preserve">1.5412939786911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5044207572937</t>
+    <t xml:space="preserve">1.50442087650299</t>
   </si>
   <si>
     <t xml:space="preserve">1.51097619533539</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">1.55112671852112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51589238643646</t>
+    <t xml:space="preserve">1.51589250564575</t>
   </si>
   <si>
     <t xml:space="preserve">1.55194628238678</t>
@@ -485,37 +485,37 @@
     <t xml:space="preserve">1.50851786136627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53228056430817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50933742523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5076984167099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50278198719025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49540734291077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51015686988831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57325053215027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58554148674011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59455513954163</t>
+    <t xml:space="preserve">1.53228044509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50933730602264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50769853591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50278210639954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49540758132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51015675067902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57325065135956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5855416059494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59455490112305</t>
   </si>
   <si>
     <t xml:space="preserve">1.60684597492218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62159538269043</t>
+    <t xml:space="preserve">1.62159526348114</t>
   </si>
   <si>
     <t xml:space="preserve">1.57161176204681</t>
@@ -524,31 +524,31 @@
     <t xml:space="preserve">1.54375207424164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57243120670319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58718025684357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54621028900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55768191814423</t>
+    <t xml:space="preserve">1.57243132591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58718049526215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54621040821075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55768203735352</t>
   </si>
   <si>
     <t xml:space="preserve">1.58799982070923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5347386598587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58226406574249</t>
+    <t xml:space="preserve">1.53473877906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5822639465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.54702973365784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53883576393127</t>
+    <t xml:space="preserve">1.53883564472198</t>
   </si>
   <si>
     <t xml:space="preserve">1.54784917831421</t>
@@ -557,148 +557,148 @@
     <t xml:space="preserve">1.55276548862457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54948782920837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53801620006561</t>
+    <t xml:space="preserve">1.54948806762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5380163192749</t>
   </si>
   <si>
     <t xml:space="preserve">1.54866850376129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53637742996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53965508937836</t>
+    <t xml:space="preserve">1.53637754917145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53965520858765</t>
   </si>
   <si>
     <t xml:space="preserve">1.56915354728699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65191292762756</t>
+    <t xml:space="preserve">1.65191304683685</t>
   </si>
   <si>
     <t xml:space="preserve">1.69288313388824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65355157852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82070958614349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82890379428864</t>
+    <t xml:space="preserve">1.65355169773102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82070982456207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82890403270721</t>
   </si>
   <si>
     <t xml:space="preserve">1.81743216514587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81579351425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87970650196075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79448902606964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80104398727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72729814052582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74696362018585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76335155963898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84693038463593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81087720394135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8092383146286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81251573562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86167991161346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86495745182037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85840213298798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87642896175385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89937233924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84856951236725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479622364044</t>
+    <t xml:space="preserve">1.81579339504242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87970662117004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79448890686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80104410648346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73876965045929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72729802131653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74696350097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76335167884827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84693050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81087696552277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923807621002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81251561641693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86167979240417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86495757102966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85840225219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87642884254456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89937257766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84856939315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479634284973</t>
   </si>
   <si>
     <t xml:space="preserve">1.93679416179657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93850839138031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97107374668121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92822432518005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94193625450134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94365000724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95907580852509</t>
+    <t xml:space="preserve">1.93850827217102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97107362747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92822420597076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94193613529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94364988803864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9590756893158</t>
   </si>
   <si>
     <t xml:space="preserve">1.96764576435089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92651033401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95393407344818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93336617946625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594267845154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8939448595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8716629743576</t>
+    <t xml:space="preserve">1.92651009559631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95393395423889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93336629867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594255924225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89394474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87166285514832</t>
   </si>
   <si>
     <t xml:space="preserve">1.92993831634521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90080046653748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91451251506805</t>
+    <t xml:space="preserve">1.90080058574677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91451239585876</t>
   </si>
   <si>
     <t xml:space="preserve">1.88708877563477</t>
@@ -710,58 +710,58 @@
     <t xml:space="preserve">1.91794049739838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8853747844696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994886398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88880288600922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90937054157257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90251457691193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96421790122986</t>
+    <t xml:space="preserve">1.88537502288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994910240173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88880276679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90937030315399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90251445770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96421778202057</t>
   </si>
   <si>
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821353912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98649966716766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97964346408844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12533164024353</t>
+    <t xml:space="preserve">1.98821365833282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98649954795837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97964358329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12533140182495</t>
   </si>
   <si>
     <t xml:space="preserve">2.08591032028198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0567729473114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07905435562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0807683467865</t>
+    <t xml:space="preserve">2.05677247047424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07905459403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08076810836792</t>
   </si>
   <si>
     <t xml:space="preserve">2.06534266471863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06020045280457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07219839096069</t>
+    <t xml:space="preserve">2.06020069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07219862937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.13390159606934</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">2.10819172859192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09962201118469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10304975509644</t>
+    <t xml:space="preserve">2.09962224960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10304999351501</t>
   </si>
   <si>
     <t xml:space="preserve">2.03963279724121</t>
@@ -782,22 +782,22 @@
     <t xml:space="preserve">2.06877040863037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11504769325256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07391238212585</t>
+    <t xml:space="preserve">2.11504793167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07391262054443</t>
   </si>
   <si>
     <t xml:space="preserve">2.09790778160095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11676168441772</t>
+    <t xml:space="preserve">2.1167619228363</t>
   </si>
   <si>
     <t xml:space="preserve">2.08248209953308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06705665588379</t>
+    <t xml:space="preserve">2.06705641746521</t>
   </si>
   <si>
     <t xml:space="preserve">2.12190389633179</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">2.14247155189514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13218760490417</t>
+    <t xml:space="preserve">2.1321873664856</t>
   </si>
   <si>
     <t xml:space="preserve">2.13047361373901</t>
@@ -833,16 +833,16 @@
     <t xml:space="preserve">2.09105205535889</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12361764907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11161994934082</t>
+    <t xml:space="preserve">2.12361741065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11161971092224</t>
   </si>
   <si>
     <t xml:space="preserve">2.10133600234985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15789723396301</t>
+    <t xml:space="preserve">2.15789699554443</t>
   </si>
   <si>
     <t xml:space="preserve">2.15618324279785</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">2.1441855430603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1407573223114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14932703971863</t>
+    <t xml:space="preserve">2.14075756072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14932727813721</t>
   </si>
   <si>
     <t xml:space="preserve">2.13904333114624</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">2.17503714561462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15104126930237</t>
+    <t xml:space="preserve">2.15104103088379</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">2.0499165058136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12875938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08762407302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02077913284302</t>
+    <t xml:space="preserve">2.12875962257385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08762431144714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02077889442444</t>
   </si>
   <si>
     <t xml:space="preserve">2.08419609069824</t>
@@ -914,13 +914,13 @@
     <t xml:space="preserve">2.18532085418701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29672932624817</t>
+    <t xml:space="preserve">2.29672956466675</t>
   </si>
   <si>
     <t xml:space="preserve">2.33100891113281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32243919372559</t>
+    <t xml:space="preserve">2.32243895530701</t>
   </si>
   <si>
     <t xml:space="preserve">2.35671830177307</t>
@@ -929,22 +929,22 @@
     <t xml:space="preserve">2.44241714477539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49383664131165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46812725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47669696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48526692390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53668642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57953572273254</t>
+    <t xml:space="preserve">2.49383687973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46812701225281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47669720649719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48526668548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53668618202209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57953548431396</t>
   </si>
   <si>
     <t xml:space="preserve">2.59667539596558</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">2.61381506919861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55382585525513</t>
+    <t xml:space="preserve">2.55382561683655</t>
   </si>
   <si>
     <t xml:space="preserve">2.63447332382202</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">2.50006127357483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45525717735291</t>
+    <t xml:space="preserve">2.45525741577148</t>
   </si>
   <si>
     <t xml:space="preserve">2.54486513137817</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">2.57174754142761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798272132874</t>
+    <t xml:space="preserve">2.51798295974731</t>
   </si>
   <si>
     <t xml:space="preserve">2.56278681755066</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">2.53590416908264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49110054969788</t>
+    <t xml:space="preserve">2.4911003112793</t>
   </si>
   <si>
     <t xml:space="preserve">2.48213958740234</t>
@@ -1007,25 +1007,25 @@
     <t xml:space="preserve">2.50902199745178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47317886352539</t>
+    <t xml:space="preserve">2.47317862510681</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680658340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7599241733551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77784585952759</t>
+    <t xml:space="preserve">2.75992441177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77784562110901</t>
   </si>
   <si>
     <t xml:space="preserve">2.74200248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76888513565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71512031555176</t>
+    <t xml:space="preserve">2.76888489723206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71512007713318</t>
   </si>
   <si>
     <t xml:space="preserve">2.75096321105957</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.65239477157593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68823790550232</t>
+    <t xml:space="preserve">2.68823766708374</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
@@ -1055,22 +1055,22 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745381355286</t>
+    <t xml:space="preserve">2.86745357513428</t>
   </si>
   <si>
     <t xml:space="preserve">2.83161067962646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64343404769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62551259994507</t>
+    <t xml:space="preserve">2.6434338092804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62551236152649</t>
   </si>
   <si>
     <t xml:space="preserve">2.58070850372314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.607590675354</t>
+    <t xml:space="preserve">2.60759091377258</t>
   </si>
   <si>
     <t xml:space="preserve">2.41941404342651</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">2.81368899345398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.840571641922</t>
+    <t xml:space="preserve">2.84057140350342</t>
   </si>
   <si>
     <t xml:space="preserve">2.93914008140564</t>
@@ -1100,16 +1100,16 @@
     <t xml:space="preserve">2.90329694747925</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12731671333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16315960884094</t>
+    <t xml:space="preserve">3.12731647491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16315984725952</t>
   </si>
   <si>
     <t xml:space="preserve">3.13627743721008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19004225730896</t>
+    <t xml:space="preserve">3.19004201889038</t>
   </si>
   <si>
     <t xml:space="preserve">3.25276780128479</t>
@@ -1118,22 +1118,22 @@
     <t xml:space="preserve">3.26172852516174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28861093521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29757165908813</t>
+    <t xml:space="preserve">3.28861117362976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29757189750671</t>
   </si>
   <si>
     <t xml:space="preserve">3.35133647918701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33341479301453</t>
+    <t xml:space="preserve">3.33341503143311</t>
   </si>
   <si>
     <t xml:space="preserve">3.34237575531006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42302274703979</t>
+    <t xml:space="preserve">3.42302298545837</t>
   </si>
   <si>
     <t xml:space="preserve">3.3871796131134</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">3.37821888923645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45886588096619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4857485294342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47678756713867</t>
+    <t xml:space="preserve">3.45886564254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48574876785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47678780555725</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1166,37 +1166,37 @@
     <t xml:space="preserve">3.67392492294312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58431720733643</t>
+    <t xml:space="preserve">3.58431696891785</t>
   </si>
   <si>
     <t xml:space="preserve">3.53055238723755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59327816963196</t>
+    <t xml:space="preserve">3.59327793121338</t>
   </si>
   <si>
     <t xml:space="preserve">3.55743479728699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5215916633606</t>
+    <t xml:space="preserve">3.52159142494202</t>
   </si>
   <si>
     <t xml:space="preserve">3.51263093948364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5395131111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60223865509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65600347518921</t>
+    <t xml:space="preserve">3.53951334953308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60223889350891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65600323677063</t>
   </si>
   <si>
     <t xml:space="preserve">3.66496443748474</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72768974304199</t>
+    <t xml:space="preserve">3.72768998146057</t>
   </si>
   <si>
     <t xml:space="preserve">3.71872925758362</t>
@@ -1205,13 +1205,13 @@
     <t xml:space="preserve">3.6918466091156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70976805686951</t>
+    <t xml:space="preserve">3.70976781845093</t>
   </si>
   <si>
     <t xml:space="preserve">3.68288588523865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7635326385498</t>
+    <t xml:space="preserve">3.76353287696838</t>
   </si>
   <si>
     <t xml:space="preserve">3.78145432472229</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">3.80833721160889</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79041528701782</t>
+    <t xml:space="preserve">3.79041504859924</t>
   </si>
   <si>
     <t xml:space="preserve">3.95170950889587</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">3.97005581855774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00759744644165</t>
+    <t xml:space="preserve">4.00759792327881</t>
   </si>
   <si>
     <t xml:space="preserve">4.0920672416687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81988859176636</t>
+    <t xml:space="preserve">3.81988835334778</t>
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
@@ -1262,40 +1262,40 @@
     <t xml:space="preserve">4.03575468063354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9982123374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97944116592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85743045806885</t>
+    <t xml:space="preserve">3.99821257591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97944092750549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85743021965027</t>
   </si>
   <si>
     <t xml:space="preserve">3.84804463386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81050276756287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74480438232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89497208595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.941899061203</t>
+    <t xml:space="preserve">3.81050252914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7448046207428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89497232437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94189953804016</t>
   </si>
   <si>
     <t xml:space="preserve">3.8668155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93251419067383</t>
+    <t xml:space="preserve">3.93251395225525</t>
   </si>
   <si>
     <t xml:space="preserve">4.08268165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11083841323853</t>
+    <t xml:space="preserve">4.11083793640137</t>
   </si>
   <si>
     <t xml:space="preserve">4.12022304534912</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">4.18592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1953067779541</t>
+    <t xml:space="preserve">4.19530725479126</t>
   </si>
   <si>
     <t xml:space="preserve">4.20469284057617</t>
@@ -1316,13 +1316,13 @@
     <t xml:space="preserve">4.28916215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26100540161133</t>
+    <t xml:space="preserve">4.26100587844849</t>
   </si>
   <si>
     <t xml:space="preserve">4.2703914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34547519683838</t>
+    <t xml:space="preserve">4.34547472000122</t>
   </si>
   <si>
     <t xml:space="preserve">4.36424589157104</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">4.50502824783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49564218521118</t>
+    <t xml:space="preserve">4.49564266204834</t>
   </si>
   <si>
     <t xml:space="preserve">4.43932962417603</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">4.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54256963729858</t>
+    <t xml:space="preserve">4.54257011413574</t>
   </si>
   <si>
     <t xml:space="preserve">4.48625707626343</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">4.40178775787354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44871473312378</t>
+    <t xml:space="preserve">4.44871520996094</t>
   </si>
   <si>
     <t xml:space="preserve">4.42994403839111</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">4.41117334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39240217208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2422342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30793285369873</t>
+    <t xml:space="preserve">4.39240169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24223470687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30793333053589</t>
   </si>
   <si>
     <t xml:space="preserve">4.17653608322144</t>
@@ -1397,28 +1397,28 @@
     <t xml:space="preserve">4.62703895568848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61765384674072</t>
+    <t xml:space="preserve">4.61765336990356</t>
   </si>
   <si>
     <t xml:space="preserve">4.51441335678101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57072639465332</t>
+    <t xml:space="preserve">4.57072591781616</t>
   </si>
   <si>
     <t xml:space="preserve">4.67396640777588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80536317825317</t>
+    <t xml:space="preserve">4.80536270141602</t>
   </si>
   <si>
     <t xml:space="preserve">4.78659200668335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86167573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84290456771851</t>
+    <t xml:space="preserve">4.86167621612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84290504455566</t>
   </si>
   <si>
     <t xml:space="preserve">4.89921760559082</t>
@@ -1430,10 +1430,10 @@
     <t xml:space="preserve">4.5988826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53318452835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58011198043823</t>
+    <t xml:space="preserve">4.53318405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58011150360107</t>
   </si>
   <si>
     <t xml:space="preserve">4.6927375793457</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">4.74905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73027896881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71150875091553</t>
+    <t xml:space="preserve">4.73027944564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71150827407837</t>
   </si>
   <si>
     <t xml:space="preserve">4.76782131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95553064346313</t>
+    <t xml:space="preserve">4.95553112030029</t>
   </si>
   <si>
     <t xml:space="preserve">4.88044691085815</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">4.91798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99307298660278</t>
+    <t xml:space="preserve">4.99307250976562</t>
   </si>
   <si>
     <t xml:space="preserve">4.93675994873047</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">6.60737419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28826761245728</t>
+    <t xml:space="preserve">6.28826808929443</t>
   </si>
   <si>
     <t xml:space="preserve">6.1568717956543</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">5.96916246414185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7063684463501</t>
+    <t xml:space="preserve">5.70636892318726</t>
   </si>
   <si>
     <t xml:space="preserve">5.53743028640747</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">5.87530755996704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66882705688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68759775161743</t>
+    <t xml:space="preserve">5.66882658004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68759727478027</t>
   </si>
   <si>
     <t xml:space="preserve">5.83776521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59374332427979</t>
+    <t xml:space="preserve">5.59374284744263</t>
   </si>
   <si>
     <t xml:space="preserve">5.38726234436035</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">5.10569858551025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68335151672363</t>
+    <t xml:space="preserve">4.68335199356079</t>
   </si>
   <si>
     <t xml:space="preserve">4.14837980270386</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">3.62279319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55709505081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37877106666565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50078201293945</t>
+    <t xml:space="preserve">3.55709481239319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37877082824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50078225135803</t>
   </si>
   <si>
     <t xml:space="preserve">3.5664803981781</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">3.75418996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70726275444031</t>
+    <t xml:space="preserve">3.70726251602173</t>
   </si>
   <si>
     <t xml:space="preserve">3.71664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83865928649902</t>
+    <t xml:space="preserve">3.8386595249176</t>
   </si>
   <si>
     <t xml:space="preserve">4.25162029266357</t>
@@ -1583,25 +1583,25 @@
     <t xml:space="preserve">4.12960910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16715097427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05452489852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76357579231262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66972088813782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65094971656799</t>
+    <t xml:space="preserve">4.16715049743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05452537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76357555389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66972064971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65094995498657</t>
   </si>
   <si>
     <t xml:space="preserve">3.66033530235291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95128488540649</t>
+    <t xml:space="preserve">3.95128512382507</t>
   </si>
   <si>
     <t xml:space="preserve">4.29854726791382</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">4.31731843948364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15776538848877</t>
+    <t xml:space="preserve">4.15776491165161</t>
   </si>
   <si>
     <t xml:space="preserve">4.10145235061646</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">4.13899421691895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88558650016785</t>
+    <t xml:space="preserve">3.88558626174927</t>
   </si>
   <si>
     <t xml:space="preserve">4.32670402526855</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">4.27977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91374325752258</t>
+    <t xml:space="preserve">3.913743019104</t>
   </si>
   <si>
     <t xml:space="preserve">3.92312836647034</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">3.49139666557312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67910599708557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3881561756134</t>
+    <t xml:space="preserve">3.67910623550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38815641403198</t>
   </si>
   <si>
     <t xml:space="preserve">3.35999989509583</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.34122896194458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20044684410095</t>
+    <t xml:space="preserve">3.20044708251953</t>
   </si>
   <si>
     <t xml:space="preserve">3.24737429618835</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">3.47262573242188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57586598396301</t>
+    <t xml:space="preserve">3.57586574554443</t>
   </si>
   <si>
     <t xml:space="preserve">3.73541903495789</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">3.68849158287048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72603344917297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52893877029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217854499817</t>
+    <t xml:space="preserve">3.72603368759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52893853187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217878341675</t>
   </si>
   <si>
     <t xml:space="preserve">3.51016759872437</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">3.58525133132935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53832387924194</t>
+    <t xml:space="preserve">3.53832411766052</t>
   </si>
   <si>
     <t xml:space="preserve">3.80111742019653</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">3.48201107978821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46324038505554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44446921348572</t>
+    <t xml:space="preserve">3.46324014663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4444694519043</t>
   </si>
   <si>
     <t xml:space="preserve">3.42569851875305</t>
@@ -1742,13 +1742,13 @@
     <t xml:space="preserve">3.41631293296814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39754176139832</t>
+    <t xml:space="preserve">3.39754199981689</t>
   </si>
   <si>
     <t xml:space="preserve">3.21921801567078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19106149673462</t>
+    <t xml:space="preserve">3.1910617351532</t>
   </si>
   <si>
     <t xml:space="preserve">3.17229056358337</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">3.23798894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14413380622864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25675988197327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36938548088074</t>
+    <t xml:space="preserve">3.14413404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25675964355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36938524246216</t>
   </si>
   <si>
     <t xml:space="preserve">3.15351939201355</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">3.18167614936829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29430150985718</t>
+    <t xml:space="preserve">3.29430174827576</t>
   </si>
   <si>
     <t xml:space="preserve">3.2661452293396</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">3.12536311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04089403152466</t>
+    <t xml:space="preserve">3.04089379310608</t>
   </si>
   <si>
     <t xml:space="preserve">3.05027914047241</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">2.93765377998352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95642471313477</t>
+    <t xml:space="preserve">2.95642447471619</t>
   </si>
   <si>
     <t xml:space="preserve">3.03150844573975</t>
@@ -1808,19 +1808,19 @@
     <t xml:space="preserve">3.02212285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92826819419861</t>
+    <t xml:space="preserve">2.92826795578003</t>
   </si>
   <si>
     <t xml:space="preserve">2.94703912734985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90011143684387</t>
+    <t xml:space="preserve">2.90011167526245</t>
   </si>
   <si>
     <t xml:space="preserve">2.97519564628601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27553081512451</t>
+    <t xml:space="preserve">3.27553057670593</t>
   </si>
   <si>
     <t xml:space="preserve">3.33184361457825</t>
@@ -2289,6 +2289,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.1800000667572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96000003814697</t>
   </si>
 </sst>
 </file>
@@ -58998,7 +59001,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6493055556</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>3</v>
@@ -59007,10 +59010,10 @@
         <v>2.11999988555908</v>
       </c>
       <c r="D2169" t="n">
-        <v>1.97000002861023</v>
+        <v>2.11999988555908</v>
       </c>
       <c r="E2169" t="n">
-        <v>1.97000002861023</v>
+        <v>2.11999988555908</v>
       </c>
       <c r="F2169" t="n">
         <v>2.11999988555908</v>
@@ -59019,6 +59022,32 @@
         <v>753</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6493055556</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>3669</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>1.96000003814697</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>759</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825943946838</t>
+    <t xml:space="preserve">1.85825932025909</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
@@ -47,31 +47,31 @@
     <t xml:space="preserve">1.9132376909256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92109179496765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88496327400208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92423319816589</t>
+    <t xml:space="preserve">1.92109167575836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88496315479279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92423343658447</t>
   </si>
   <si>
     <t xml:space="preserve">1.80642294883728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82998514175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79856896400452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76715302467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354709625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86925518512726</t>
+    <t xml:space="preserve">1.82998490333557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79856872558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76715314388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354697704315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86925530433655</t>
   </si>
   <si>
     <t xml:space="preserve">1.87710916996002</t>
@@ -80,55 +80,55 @@
     <t xml:space="preserve">1.89281725883484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86768424510956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584775447845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83783888816833</t>
+    <t xml:space="preserve">1.86768448352814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584787368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83783864974976</t>
   </si>
   <si>
     <t xml:space="preserve">1.87553811073303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82684350013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84569311141968</t>
+    <t xml:space="preserve">1.82684338092804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84569299221039</t>
   </si>
   <si>
     <t xml:space="preserve">1.8189891576767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83626806735992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85983002185822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80485212802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8205600976944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81741845607758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85040521621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88025069236755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81427669525146</t>
+    <t xml:space="preserve">1.83626818656921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8598301410675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80485200881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82056033611298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81741833686829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85040545463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88025057315826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81427681446075</t>
   </si>
   <si>
     <t xml:space="preserve">1.85197639465332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84412217140198</t>
+    <t xml:space="preserve">1.84412240982056</t>
   </si>
   <si>
     <t xml:space="preserve">1.84098064899445</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">1.8111355304718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82213091850281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9367995262146</t>
+    <t xml:space="preserve">1.8221310377121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679976463318</t>
   </si>
   <si>
     <t xml:space="preserve">1.94622421264648</t>
@@ -152,46 +152,46 @@
     <t xml:space="preserve">1.95407831668854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96350336074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9650741815567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9933488368988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00434398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98706519603729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00905656814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02476477622986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051636219025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96193218231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994128704071</t>
+    <t xml:space="preserve">1.96350300312042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507406234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99334859848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00434422492981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.987065076828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00905680656433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02476453781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051624298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9619323015213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994104862213</t>
   </si>
   <si>
     <t xml:space="preserve">1.95564901828766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91637909412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8739675283432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93378710746765</t>
+    <t xml:space="preserve">1.91637921333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87396740913391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93378698825836</t>
   </si>
   <si>
     <t xml:space="preserve">1.95017540454865</t>
@@ -200,16 +200,16 @@
     <t xml:space="preserve">1.9223153591156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93050932884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656334400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509171485901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9583694934845</t>
+    <t xml:space="preserve">1.93050968647003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656310558319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509159564972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95836925506592</t>
   </si>
   <si>
     <t xml:space="preserve">1.91739904880524</t>
@@ -218,49 +218,49 @@
     <t xml:space="preserve">1.93542611598969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9419811964035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248297691345</t>
+    <t xml:space="preserve">1.94198107719421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248285770416</t>
   </si>
   <si>
     <t xml:space="preserve">1.91084420681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83545911312103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80268275737762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84201431274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83218157291412</t>
+    <t xml:space="preserve">1.83545923233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80268287658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84201407432556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83218145370483</t>
   </si>
   <si>
     <t xml:space="preserve">1.88298428058624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86823487281799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90756630897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281702041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592741966248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88462293148041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90920495986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151277065277</t>
+    <t xml:space="preserve">1.86823511123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90756618976593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281713962555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90592753887177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88462316989899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90920507907867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87151265144348</t>
   </si>
   <si>
     <t xml:space="preserve">1.8977335691452</t>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">1.76662921905518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78629505634308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77646207809448</t>
+    <t xml:space="preserve">1.7862948179245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77646195888519</t>
   </si>
   <si>
     <t xml:space="preserve">1.75188004970551</t>
@@ -287,13 +287,13 @@
     <t xml:space="preserve">1.75351893901825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77973961830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75024116039276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72074258327484</t>
+    <t xml:space="preserve">1.77973973751068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75024139881134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72074270248413</t>
   </si>
   <si>
     <t xml:space="preserve">1.66993999481201</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">1.69616079330444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76007413864136</t>
+    <t xml:space="preserve">1.76007401943207</t>
   </si>
   <si>
     <t xml:space="preserve">1.70435476303101</t>
@@ -314,19 +314,19 @@
     <t xml:space="preserve">1.73549199104309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73385310173035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71254873275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63060867786407</t>
+    <t xml:space="preserve">1.73385322093964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71254885196686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63060879707336</t>
   </si>
   <si>
     <t xml:space="preserve">1.67157876491547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66666221618652</t>
+    <t xml:space="preserve">1.66666233539581</t>
   </si>
   <si>
     <t xml:space="preserve">1.61012375354767</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">1.62241458892822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66338467597961</t>
+    <t xml:space="preserve">1.6633847951889</t>
   </si>
   <si>
     <t xml:space="preserve">1.67321753501892</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">1.64535784721375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63880264759064</t>
+    <t xml:space="preserve">1.63880276679993</t>
   </si>
   <si>
     <t xml:space="preserve">1.62569224834442</t>
@@ -356,13 +356,13 @@
     <t xml:space="preserve">1.65519070625305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64699673652649</t>
+    <t xml:space="preserve">1.6469966173172</t>
   </si>
   <si>
     <t xml:space="preserve">1.63798320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59865200519562</t>
+    <t xml:space="preserve">1.59865212440491</t>
   </si>
   <si>
     <t xml:space="preserve">1.6297892332077</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">1.58308351039886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59537446498871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.578986287117</t>
+    <t xml:space="preserve">1.59537434577942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57898640632629</t>
   </si>
   <si>
     <t xml:space="preserve">1.59127748012543</t>
@@ -383,37 +383,37 @@
     <t xml:space="preserve">1.54047453403473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56751477718353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56997311115265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56669533252716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55850124359131</t>
+    <t xml:space="preserve">1.56751465797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56997299194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56669521331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5585013628006</t>
   </si>
   <si>
     <t xml:space="preserve">1.6027489900589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60356855392456</t>
+    <t xml:space="preserve">1.60356843471527</t>
   </si>
   <si>
     <t xml:space="preserve">1.6060266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51917016506195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56177890300751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54539084434509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37659430503845</t>
+    <t xml:space="preserve">1.51916992664337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5617790222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54539108276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37659406661987</t>
   </si>
   <si>
     <t xml:space="preserve">1.4126478433609</t>
@@ -422,10 +422,10 @@
     <t xml:space="preserve">1.39462113380432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45771503448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47082543373108</t>
+    <t xml:space="preserve">1.45771491527557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47082531452179</t>
   </si>
   <si>
     <t xml:space="preserve">1.53391933441162</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">1.61176240444183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59783267974854</t>
+    <t xml:space="preserve">1.59783256053925</t>
   </si>
   <si>
     <t xml:space="preserve">1.54211318492889</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">1.56505656242371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56423723697662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59291625022888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55686235427856</t>
+    <t xml:space="preserve">1.56423711776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59291613101959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55686247348785</t>
   </si>
   <si>
     <t xml:space="preserve">1.52162826061249</t>
@@ -467,10 +467,10 @@
     <t xml:space="preserve">1.5412939786911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50442087650299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5109760761261</t>
+    <t xml:space="preserve">1.5044207572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51097595691681</t>
   </si>
   <si>
     <t xml:space="preserve">1.55112683773041</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">1.51589250564575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55194628238678</t>
+    <t xml:space="preserve">1.55194616317749</t>
   </si>
   <si>
     <t xml:space="preserve">1.50851786136627</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">1.53228056430817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50933742523193</t>
+    <t xml:space="preserve">1.50933718681335</t>
   </si>
   <si>
     <t xml:space="preserve">1.50769853591919</t>
@@ -497,28 +497,28 @@
     <t xml:space="preserve">1.50278210639954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49540734291077</t>
+    <t xml:space="preserve">1.49540746212006</t>
   </si>
   <si>
     <t xml:space="preserve">1.51015675067902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57325065135956</t>
+    <t xml:space="preserve">1.57325041294098</t>
   </si>
   <si>
     <t xml:space="preserve">1.5855416059494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59455502033234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60684609413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62159514427185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5716118812561</t>
+    <t xml:space="preserve">1.59455490112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60684585571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62159538269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57161176204681</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375207424164</t>
@@ -536,19 +536,19 @@
     <t xml:space="preserve">1.55768191814423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58799970149994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53473889827728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58226406574249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54702973365784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53883564472198</t>
+    <t xml:space="preserve">1.58799982070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53473877906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5822639465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54702961444855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53883576393127</t>
   </si>
   <si>
     <t xml:space="preserve">1.54784917831421</t>
@@ -569,16 +569,16 @@
     <t xml:space="preserve">1.53637754917145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53965520858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5691534280777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65191316604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69288325309753</t>
+    <t xml:space="preserve">1.53965508937836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56915354728699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65191304683685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69288313388824</t>
   </si>
   <si>
     <t xml:space="preserve">1.65355181694031</t>
@@ -587,70 +587,70 @@
     <t xml:space="preserve">1.82070970535278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82890403270721</t>
+    <t xml:space="preserve">1.82890391349792</t>
   </si>
   <si>
     <t xml:space="preserve">1.81743216514587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81579339504242</t>
+    <t xml:space="preserve">1.81579327583313</t>
   </si>
   <si>
     <t xml:space="preserve">1.87970674037933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79448902606964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80104410648346</t>
+    <t xml:space="preserve">1.79448914527893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80104422569275</t>
   </si>
   <si>
     <t xml:space="preserve">1.73876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72729814052582</t>
+    <t xml:space="preserve">1.72729790210724</t>
   </si>
   <si>
     <t xml:space="preserve">1.74696362018585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76335167884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84693026542664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81087696552277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80923807621002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81251561641693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86167979240417</t>
+    <t xml:space="preserve">1.76335179805756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84693050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81087684631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923819541931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81251573562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86167991161346</t>
   </si>
   <si>
     <t xml:space="preserve">1.86495745182037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85840213298798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87642908096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89937233924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84856963157654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479634284973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679392337799</t>
+    <t xml:space="preserve">1.8584018945694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87642884254456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89937245845795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84856951236725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479658126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679404258728</t>
   </si>
   <si>
     <t xml:space="preserve">1.93850827217102</t>
@@ -659,19 +659,19 @@
     <t xml:space="preserve">1.97107374668121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92822432518005</t>
+    <t xml:space="preserve">1.92822444438934</t>
   </si>
   <si>
     <t xml:space="preserve">1.94193613529205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94364988803864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95907592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96764576435089</t>
+    <t xml:space="preserve">1.94364976882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95907580852509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9676456451416</t>
   </si>
   <si>
     <t xml:space="preserve">1.92651009559631</t>
@@ -683,58 +683,58 @@
     <t xml:space="preserve">1.93336629867554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90594255924225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8939448595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8716629743576</t>
+    <t xml:space="preserve">1.90594244003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89394462108612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87166309356689</t>
   </si>
   <si>
     <t xml:space="preserve">1.92993819713593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90080070495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91451239585876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88708853721619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87680494785309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91794049739838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88537490367889</t>
+    <t xml:space="preserve">1.90080058574677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91451263427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88708877563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87680518627167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9179402589798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8853747844696</t>
   </si>
   <si>
     <t xml:space="preserve">1.86994910240173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88880264759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90937042236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90251457691193</t>
+    <t xml:space="preserve">1.88880276679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90937066078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90251481533051</t>
   </si>
   <si>
     <t xml:space="preserve">1.96421778202057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96250379085541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98821365833282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98649954795837</t>
+    <t xml:space="preserve">1.96250355243683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98821341991425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98649966716766</t>
   </si>
   <si>
     <t xml:space="preserve">1.97964358329773</t>
@@ -752,10 +752,10 @@
     <t xml:space="preserve">2.07905435562134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0807683467865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06534242630005</t>
+    <t xml:space="preserve">2.08076810836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06534266471863</t>
   </si>
   <si>
     <t xml:space="preserve">2.06020045280457</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">2.1081919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09962224960327</t>
+    <t xml:space="preserve">2.09962201118469</t>
   </si>
   <si>
     <t xml:space="preserve">2.10304999351501</t>
@@ -785,34 +785,34 @@
     <t xml:space="preserve">2.11504769325256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07391238212585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09790778160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11676168441772</t>
+    <t xml:space="preserve">2.07391214370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09790802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1167619228363</t>
   </si>
   <si>
     <t xml:space="preserve">2.08248233795166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06705641746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12190389633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10647797584534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0893383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05163073539734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17675113677979</t>
+    <t xml:space="preserve">2.06705617904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12190365791321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10647773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08933806419373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05163049697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17675089836121</t>
   </si>
   <si>
     <t xml:space="preserve">2.14247155189514</t>
@@ -821,28 +821,28 @@
     <t xml:space="preserve">2.1321873664856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13047337532043</t>
+    <t xml:space="preserve">2.13047361373901</t>
   </si>
   <si>
     <t xml:space="preserve">2.15961122512817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11847543716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09105205535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12361741065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11161971092224</t>
+    <t xml:space="preserve">2.11847591400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09105229377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12361788749695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11161994934082</t>
   </si>
   <si>
     <t xml:space="preserve">2.10133600234985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15789699554443</t>
+    <t xml:space="preserve">2.15789723396301</t>
   </si>
   <si>
     <t xml:space="preserve">2.15618324279785</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">2.1441855430603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14075756072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14932751655579</t>
+    <t xml:space="preserve">2.1407573223114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14932727813721</t>
   </si>
   <si>
     <t xml:space="preserve">2.13904333114624</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">2.15104126930237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12018966674805</t>
+    <t xml:space="preserve">2.12018942832947</t>
   </si>
   <si>
     <t xml:space="preserve">2.10476398468018</t>
@@ -881,13 +881,13 @@
     <t xml:space="preserve">2.04820275306702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07048392295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0499165058136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12875938415527</t>
+    <t xml:space="preserve">2.07048439979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04991674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12875986099243</t>
   </si>
   <si>
     <t xml:space="preserve">2.08762431144714</t>
@@ -902,31 +902,31 @@
     <t xml:space="preserve">2.0224928855896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01392292976379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00535297393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16818118095398</t>
+    <t xml:space="preserve">2.01392316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00535321235657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1681809425354</t>
   </si>
   <si>
     <t xml:space="preserve">2.18532061576843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29672956466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33100914955139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32243871688843</t>
+    <t xml:space="preserve">2.29672932624817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33100891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32243919372559</t>
   </si>
   <si>
     <t xml:space="preserve">2.35671854019165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44241714477539</t>
+    <t xml:space="preserve">2.44241738319397</t>
   </si>
   <si>
     <t xml:space="preserve">2.49383687973022</t>
@@ -938,25 +938,25 @@
     <t xml:space="preserve">2.47669720649719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48526668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53668642044067</t>
+    <t xml:space="preserve">2.48526692390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53668618202209</t>
   </si>
   <si>
     <t xml:space="preserve">2.57953572273254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59667539596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61381483078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382561683655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63447332382202</t>
+    <t xml:space="preserve">2.596675157547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61381506919861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382609367371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63447308540344</t>
   </si>
   <si>
     <t xml:space="preserve">2.59862995147705</t>
@@ -965,10 +965,13 @@
     <t xml:space="preserve">2.5896692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61655139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52694344520569</t>
+    <t xml:space="preserve">2.61655163764954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382585525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52694368362427</t>
   </si>
   <si>
     <t xml:space="preserve">2.437335729599</t>
@@ -977,19 +980,19 @@
     <t xml:space="preserve">2.46421790122986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50006127357483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45525741577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54486513137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57174754142761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51798295974731</t>
+    <t xml:space="preserve">2.50006103515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45525717735291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54486489295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57174730300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51798272132874</t>
   </si>
   <si>
     <t xml:space="preserve">2.56278681755066</t>
@@ -1007,13 +1010,13 @@
     <t xml:space="preserve">2.50902199745178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47317862510681</t>
+    <t xml:space="preserve">2.47317886352539</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680658340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75992441177368</t>
+    <t xml:space="preserve">2.7599241733551</t>
   </si>
   <si>
     <t xml:space="preserve">2.77784562110901</t>
@@ -1022,22 +1025,22 @@
     <t xml:space="preserve">2.74200248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76888489723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71512007713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75096321105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67031621932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72408103942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65239477157593</t>
+    <t xml:space="preserve">2.76888465881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71512031555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75096344947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67031645774841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72408080101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65239453315735</t>
   </si>
   <si>
     <t xml:space="preserve">2.68823766708374</t>
@@ -1046,7 +1049,7 @@
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719886779785</t>
+    <t xml:space="preserve">2.69719862937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1058,7 +1061,7 @@
     <t xml:space="preserve">2.86745357513428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83161067962646</t>
+    <t xml:space="preserve">2.83161044120789</t>
   </si>
   <si>
     <t xml:space="preserve">2.6434338092804</t>
@@ -1067,13 +1070,13 @@
     <t xml:space="preserve">2.62551236152649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58070850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60759091377258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41941404342651</t>
+    <t xml:space="preserve">2.58070826530457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.607590675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41941428184509</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135549545288</t>
@@ -1091,7 +1094,7 @@
     <t xml:space="preserve">2.87641453742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82264971733093</t>
+    <t xml:space="preserve">2.82264995574951</t>
   </si>
   <si>
     <t xml:space="preserve">2.80472826957703</t>
@@ -1100,25 +1103,25 @@
     <t xml:space="preserve">2.90329694747925</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12731647491455</t>
+    <t xml:space="preserve">3.12731671333313</t>
   </si>
   <si>
     <t xml:space="preserve">3.16315984725952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13627743721008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19004201889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25276780128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172852516174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28861117362976</t>
+    <t xml:space="preserve">3.13627767562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19004225730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25276803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172876358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28861093521118</t>
   </si>
   <si>
     <t xml:space="preserve">3.29757189750671</t>
@@ -1130,10 +1133,10 @@
     <t xml:space="preserve">3.33341503143311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34237575531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42302298545837</t>
+    <t xml:space="preserve">3.34237551689148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42302274703979</t>
   </si>
   <si>
     <t xml:space="preserve">3.3871796131134</t>
@@ -1145,16 +1148,16 @@
     <t xml:space="preserve">3.41406202316284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36925792694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37821888923645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45886564254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48574876785278</t>
+    <t xml:space="preserve">3.36925840377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37821865081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45886588096619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48574829101562</t>
   </si>
   <si>
     <t xml:space="preserve">3.47678780555725</t>
@@ -1166,87 +1169,84 @@
     <t xml:space="preserve">3.67392492294312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58431696891785</t>
+    <t xml:space="preserve">3.58431720733643</t>
   </si>
   <si>
     <t xml:space="preserve">3.53055238723755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59327793121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55743479728699</t>
+    <t xml:space="preserve">3.59327816963196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55743455886841</t>
   </si>
   <si>
     <t xml:space="preserve">3.52159142494202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51263093948364</t>
+    <t xml:space="preserve">3.51263070106506</t>
   </si>
   <si>
     <t xml:space="preserve">3.53951334953308</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60223889350891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65600323677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66496443748474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72768998146057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71872925758362</t>
+    <t xml:space="preserve">3.60223865509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65600347518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66496419906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72768974304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71872901916504</t>
   </si>
   <si>
     <t xml:space="preserve">3.6918466091156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70976781845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68288588523865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76353287696838</t>
+    <t xml:space="preserve">3.70976805686951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68288612365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7635326385498</t>
   </si>
   <si>
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833721160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79041504859924</t>
+    <t xml:space="preserve">3.80833697319031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79041528701782</t>
   </si>
   <si>
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067070960999</t>
+    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">3.97005581855774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00759792327881</t>
+    <t xml:space="preserve">4.00759744644165</t>
   </si>
   <si>
     <t xml:space="preserve">4.0920672416687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81988835334778</t>
+    <t xml:space="preserve">3.81988859176636</t>
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067023277283</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.02636861801147</t>
   </si>
   <si>
@@ -1262,40 +1262,40 @@
     <t xml:space="preserve">4.03575468063354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99821257591248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97944092750549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85743021965027</t>
+    <t xml:space="preserve">3.9982123374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97944116592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85743045806885</t>
   </si>
   <si>
     <t xml:space="preserve">3.84804463386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81050252914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7448046207428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89497232437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94189953804016</t>
+    <t xml:space="preserve">3.81050276756287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74480438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89497208595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.941899061203</t>
   </si>
   <si>
     <t xml:space="preserve">3.8668155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93251395225525</t>
+    <t xml:space="preserve">3.93251419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.08268165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11083793640137</t>
+    <t xml:space="preserve">4.11083841323853</t>
   </si>
   <si>
     <t xml:space="preserve">4.12022304534912</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">4.18592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19530725479126</t>
+    <t xml:space="preserve">4.1953067779541</t>
   </si>
   <si>
     <t xml:space="preserve">4.20469284057617</t>
@@ -1316,13 +1316,13 @@
     <t xml:space="preserve">4.28916215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26100587844849</t>
+    <t xml:space="preserve">4.26100540161133</t>
   </si>
   <si>
     <t xml:space="preserve">4.2703914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34547472000122</t>
+    <t xml:space="preserve">4.34547519683838</t>
   </si>
   <si>
     <t xml:space="preserve">4.36424589157104</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">4.50502824783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49564266204834</t>
+    <t xml:space="preserve">4.49564218521118</t>
   </si>
   <si>
     <t xml:space="preserve">4.43932962417603</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">4.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54257011413574</t>
+    <t xml:space="preserve">4.54256963729858</t>
   </si>
   <si>
     <t xml:space="preserve">4.48625707626343</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">4.40178775787354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44871520996094</t>
+    <t xml:space="preserve">4.44871473312378</t>
   </si>
   <si>
     <t xml:space="preserve">4.42994403839111</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">4.41117334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39240169525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24223470687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30793333053589</t>
+    <t xml:space="preserve">4.39240217208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2422342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30793285369873</t>
   </si>
   <si>
     <t xml:space="preserve">4.17653608322144</t>
@@ -1397,28 +1397,28 @@
     <t xml:space="preserve">4.62703895568848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61765336990356</t>
+    <t xml:space="preserve">4.61765384674072</t>
   </si>
   <si>
     <t xml:space="preserve">4.51441335678101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57072591781616</t>
+    <t xml:space="preserve">4.57072639465332</t>
   </si>
   <si>
     <t xml:space="preserve">4.67396640777588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80536270141602</t>
+    <t xml:space="preserve">4.80536317825317</t>
   </si>
   <si>
     <t xml:space="preserve">4.78659200668335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86167621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84290504455566</t>
+    <t xml:space="preserve">4.86167573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84290456771851</t>
   </si>
   <si>
     <t xml:space="preserve">4.89921760559082</t>
@@ -1430,10 +1430,10 @@
     <t xml:space="preserve">4.5988826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53318405151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58011150360107</t>
+    <t xml:space="preserve">4.53318452835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58011198043823</t>
   </si>
   <si>
     <t xml:space="preserve">4.6927375793457</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">4.74905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73027944564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71150827407837</t>
+    <t xml:space="preserve">4.73027896881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71150875091553</t>
   </si>
   <si>
     <t xml:space="preserve">4.76782131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95553112030029</t>
+    <t xml:space="preserve">4.95553064346313</t>
   </si>
   <si>
     <t xml:space="preserve">4.88044691085815</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">4.91798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99307250976562</t>
+    <t xml:space="preserve">4.99307298660278</t>
   </si>
   <si>
     <t xml:space="preserve">4.93675994873047</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">6.60737419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28826808929443</t>
+    <t xml:space="preserve">6.28826761245728</t>
   </si>
   <si>
     <t xml:space="preserve">6.1568717956543</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">5.96916246414185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70636892318726</t>
+    <t xml:space="preserve">5.7063684463501</t>
   </si>
   <si>
     <t xml:space="preserve">5.53743028640747</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">5.87530755996704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66882658004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68759727478027</t>
+    <t xml:space="preserve">5.66882705688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68759775161743</t>
   </si>
   <si>
     <t xml:space="preserve">5.83776521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59374284744263</t>
+    <t xml:space="preserve">5.59374332427979</t>
   </si>
   <si>
     <t xml:space="preserve">5.38726234436035</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">5.10569858551025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68335199356079</t>
+    <t xml:space="preserve">4.68335151672363</t>
   </si>
   <si>
     <t xml:space="preserve">4.14837980270386</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">3.62279319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55709481239319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37877082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50078225135803</t>
+    <t xml:space="preserve">3.55709505081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37877106666565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50078201293945</t>
   </si>
   <si>
     <t xml:space="preserve">3.5664803981781</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">3.75418996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70726251602173</t>
+    <t xml:space="preserve">3.70726275444031</t>
   </si>
   <si>
     <t xml:space="preserve">3.71664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8386595249176</t>
+    <t xml:space="preserve">3.83865928649902</t>
   </si>
   <si>
     <t xml:space="preserve">4.25162029266357</t>
@@ -1583,25 +1583,25 @@
     <t xml:space="preserve">4.12960910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16715049743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05452537536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76357555389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66972064971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65094995498657</t>
+    <t xml:space="preserve">4.16715097427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05452489852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76357579231262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66972088813782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65094971656799</t>
   </si>
   <si>
     <t xml:space="preserve">3.66033530235291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95128512382507</t>
+    <t xml:space="preserve">3.95128488540649</t>
   </si>
   <si>
     <t xml:space="preserve">4.29854726791382</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">4.31731843948364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15776491165161</t>
+    <t xml:space="preserve">4.15776538848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.10145235061646</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">4.13899421691895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88558626174927</t>
+    <t xml:space="preserve">3.88558650016785</t>
   </si>
   <si>
     <t xml:space="preserve">4.32670402526855</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">4.27977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.913743019104</t>
+    <t xml:space="preserve">3.91374325752258</t>
   </si>
   <si>
     <t xml:space="preserve">3.92312836647034</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">3.49139666557312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67910623550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38815641403198</t>
+    <t xml:space="preserve">3.67910599708557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3881561756134</t>
   </si>
   <si>
     <t xml:space="preserve">3.35999989509583</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">3.34122896194458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20044708251953</t>
+    <t xml:space="preserve">3.20044684410095</t>
   </si>
   <si>
     <t xml:space="preserve">3.24737429618835</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">3.47262573242188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57586574554443</t>
+    <t xml:space="preserve">3.57586598396301</t>
   </si>
   <si>
     <t xml:space="preserve">3.73541903495789</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">3.68849158287048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72603368759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52893853187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217878341675</t>
+    <t xml:space="preserve">3.72603344917297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52893877029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217854499817</t>
   </si>
   <si>
     <t xml:space="preserve">3.51016759872437</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">3.58525133132935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53832411766052</t>
+    <t xml:space="preserve">3.53832387924194</t>
   </si>
   <si>
     <t xml:space="preserve">3.80111742019653</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">3.48201107978821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46324014663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4444694519043</t>
+    <t xml:space="preserve">3.46324038505554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44446921348572</t>
   </si>
   <si>
     <t xml:space="preserve">3.42569851875305</t>
@@ -1742,13 +1742,13 @@
     <t xml:space="preserve">3.41631293296814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39754199981689</t>
+    <t xml:space="preserve">3.39754176139832</t>
   </si>
   <si>
     <t xml:space="preserve">3.21921801567078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1910617351532</t>
+    <t xml:space="preserve">3.19106149673462</t>
   </si>
   <si>
     <t xml:space="preserve">3.17229056358337</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">3.23798894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14413404464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25675964355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36938524246216</t>
+    <t xml:space="preserve">3.14413380622864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25675988197327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36938548088074</t>
   </si>
   <si>
     <t xml:space="preserve">3.15351939201355</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">3.18167614936829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29430174827576</t>
+    <t xml:space="preserve">3.29430150985718</t>
   </si>
   <si>
     <t xml:space="preserve">3.2661452293396</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">3.12536311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04089379310608</t>
+    <t xml:space="preserve">3.04089403152466</t>
   </si>
   <si>
     <t xml:space="preserve">3.05027914047241</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">2.93765377998352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95642447471619</t>
+    <t xml:space="preserve">2.95642471313477</t>
   </si>
   <si>
     <t xml:space="preserve">3.03150844573975</t>
@@ -1808,19 +1808,19 @@
     <t xml:space="preserve">3.02212285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92826795578003</t>
+    <t xml:space="preserve">2.92826819419861</t>
   </si>
   <si>
     <t xml:space="preserve">2.94703912734985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90011167526245</t>
+    <t xml:space="preserve">2.90011143684387</t>
   </si>
   <si>
     <t xml:space="preserve">2.97519564628601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27553057670593</t>
+    <t xml:space="preserve">3.27553081512451</t>
   </si>
   <si>
     <t xml:space="preserve">3.33184361457825</t>
@@ -18537,7 +18537,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18563,7 +18563,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18589,7 +18589,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18615,7 +18615,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18641,7 +18641,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18667,7 +18667,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18693,7 +18693,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18719,7 +18719,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18745,7 +18745,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18771,7 +18771,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18797,7 +18797,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18823,7 +18823,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18849,7 +18849,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18875,7 +18875,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18901,7 +18901,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18927,7 +18927,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18953,7 +18953,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18979,7 +18979,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19005,7 +19005,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19031,7 +19031,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19057,7 +19057,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19083,7 +19083,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19109,7 +19109,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19135,7 +19135,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19161,7 +19161,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19187,7 +19187,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19213,7 +19213,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19239,7 +19239,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19265,7 +19265,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19291,7 +19291,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19317,7 +19317,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19343,7 +19343,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19369,7 +19369,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19395,7 +19395,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19421,7 +19421,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19447,7 +19447,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19473,7 +19473,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19499,7 +19499,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19525,7 +19525,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19551,7 +19551,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19603,7 +19603,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19655,7 +19655,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19681,7 +19681,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19707,7 +19707,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19733,7 +19733,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19759,7 +19759,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19785,7 +19785,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19811,7 +19811,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19837,7 +19837,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19863,7 +19863,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19889,7 +19889,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19915,7 +19915,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19941,7 +19941,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19967,7 +19967,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19993,7 +19993,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20045,7 +20045,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20071,7 +20071,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20097,7 +20097,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20123,7 +20123,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20149,7 +20149,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20175,7 +20175,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20201,7 +20201,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20227,7 +20227,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20253,7 +20253,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20279,7 +20279,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20305,7 +20305,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20331,7 +20331,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20357,7 +20357,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20383,7 +20383,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20409,7 +20409,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20435,7 +20435,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20461,7 +20461,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20487,7 +20487,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20513,7 +20513,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20539,7 +20539,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20565,7 +20565,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20591,7 +20591,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20617,7 +20617,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20643,7 +20643,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20669,7 +20669,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20695,7 +20695,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20721,7 +20721,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20747,7 +20747,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20773,7 +20773,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20799,7 +20799,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20825,7 +20825,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20851,7 +20851,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20877,7 +20877,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20903,7 +20903,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20929,7 +20929,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20955,7 +20955,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20981,7 +20981,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21007,7 +21007,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21059,7 +21059,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21085,7 +21085,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21111,7 +21111,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21137,7 +21137,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21267,7 +21267,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21293,7 +21293,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21319,7 +21319,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21501,7 +21501,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21605,7 +21605,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21709,7 +21709,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21735,7 +21735,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21761,7 +21761,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21787,7 +21787,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21813,7 +21813,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21839,7 +21839,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21865,7 +21865,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21891,7 +21891,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21917,7 +21917,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21943,7 +21943,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21969,7 +21969,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21995,7 +21995,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22021,7 +22021,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22047,7 +22047,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22073,7 +22073,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22099,7 +22099,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22125,7 +22125,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22151,7 +22151,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22177,7 +22177,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22203,7 +22203,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22229,7 +22229,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22255,7 +22255,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22281,7 +22281,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22307,7 +22307,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22333,7 +22333,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22359,7 +22359,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G759" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22385,7 +22385,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G760" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22411,7 +22411,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G761" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22437,7 +22437,7 @@
         <v>2.75</v>
       </c>
       <c r="G762" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22463,7 +22463,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G763" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22489,7 +22489,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G764" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22515,7 +22515,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22567,7 +22567,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G767" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22593,7 +22593,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G768" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22619,7 +22619,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22645,7 +22645,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G770" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22671,7 +22671,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G771" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22697,7 +22697,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22723,7 +22723,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22749,7 +22749,7 @@
         <v>3</v>
       </c>
       <c r="G774" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22775,7 +22775,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22801,7 +22801,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G776" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22827,7 +22827,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G777" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22853,7 +22853,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G778" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22879,7 +22879,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22905,7 +22905,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22931,7 +22931,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G781" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22957,7 +22957,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G782" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22983,7 +22983,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23009,7 +23009,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G784" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23035,7 +23035,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G785" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23061,7 +23061,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23087,7 +23087,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G787" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23113,7 +23113,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23139,7 +23139,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G789" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23165,7 +23165,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G790" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23191,7 +23191,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G791" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23217,7 +23217,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G792" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23243,7 +23243,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G793" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23269,7 +23269,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23295,7 +23295,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G795" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23321,7 +23321,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23347,7 +23347,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G797" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23373,7 +23373,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G798" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23399,7 +23399,7 @@
         <v>3.5</v>
       </c>
       <c r="G799" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23425,7 +23425,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23451,7 +23451,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G801" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23477,7 +23477,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G802" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23503,7 +23503,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23529,7 +23529,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G804" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23555,7 +23555,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23581,7 +23581,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23607,7 +23607,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23633,7 +23633,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23659,7 +23659,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G809" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23685,7 +23685,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23711,7 +23711,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G811" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23737,7 +23737,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23763,7 +23763,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G813" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23789,7 +23789,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23815,7 +23815,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G815" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23841,7 +23841,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23867,7 +23867,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G817" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23893,7 +23893,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G818" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23919,7 +23919,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G819" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23945,7 +23945,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G820" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23971,7 +23971,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G821" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23997,7 +23997,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G822" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24023,7 +24023,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G823" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24049,7 +24049,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24075,7 +24075,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24101,7 +24101,7 @@
         <v>4</v>
       </c>
       <c r="G826" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24127,7 +24127,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G827" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24153,7 +24153,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G828" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24179,7 +24179,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24205,7 +24205,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G830" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24231,7 +24231,7 @@
         <v>4</v>
       </c>
       <c r="G831" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24257,7 +24257,7 @@
         <v>4</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24283,7 +24283,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G833" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24309,7 +24309,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24335,7 +24335,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24361,7 +24361,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G836" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24387,7 +24387,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24413,7 +24413,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G838" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24439,7 +24439,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G839" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24465,7 +24465,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24491,7 +24491,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G841" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24517,7 +24517,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24543,7 +24543,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24569,7 +24569,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G844" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24595,7 +24595,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G845" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24621,7 +24621,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G846" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24647,7 +24647,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24673,7 +24673,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24699,7 +24699,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G849" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24725,7 +24725,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24751,7 +24751,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G851" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24777,7 +24777,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24803,7 +24803,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G853" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24829,7 +24829,7 @@
         <v>4.25</v>
       </c>
       <c r="G854" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24855,7 +24855,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24881,7 +24881,7 @@
         <v>4.25</v>
       </c>
       <c r="G856" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24907,7 +24907,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G857" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24933,7 +24933,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24959,7 +24959,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G859" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24985,7 +24985,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25011,7 +25011,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G861" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25037,7 +25037,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G862" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25063,7 +25063,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G863" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25089,7 +25089,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G864" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25115,7 +25115,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25167,7 +25167,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G867" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25271,7 +25271,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G871" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25323,7 +25323,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25453,7 +25453,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G878" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25817,7 +25817,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25895,7 +25895,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G895" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26129,7 +26129,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G904" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -30315,7 +30315,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1065" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30601,7 +30601,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1076" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30627,7 +30627,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1077" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30861,7 +30861,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1086" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31225,7 +31225,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1100" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31329,7 +31329,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1104" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32837,7 +32837,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1162" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32863,7 +32863,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1163" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33305,7 +33305,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1180" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33435,7 +33435,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33643,7 +33643,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1193" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -59183,13 +59183,13 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6494907407</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>9248</v>
       </c>
       <c r="C2176" t="n">
-        <v>2</v>
+        <v>2.01999998092651</v>
       </c>
       <c r="D2176" t="n">
         <v>1.98000001907349</v>
@@ -59204,6 +59204,32 @@
         <v>739</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6496064815</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>7632</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>1.98000001907349</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>1.98000001907349</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>738</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8582592010498</t>
+    <t xml:space="preserve">1.85825943946838</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91323745250702</t>
+    <t xml:space="preserve">1.91323792934418</t>
   </si>
   <si>
     <t xml:space="preserve">1.92109155654907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88496339321136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92423319816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642282962799</t>
+    <t xml:space="preserve">1.88496327400208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9242330789566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642306804657</t>
   </si>
   <si>
     <t xml:space="preserve">1.82998490333557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79856884479523</t>
+    <t xml:space="preserve">1.79856896400452</t>
   </si>
   <si>
     <t xml:space="preserve">1.76715278625488</t>
@@ -77,136 +77,136 @@
     <t xml:space="preserve">1.87710905075073</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89281713962555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86768412590027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81584787368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83783888816833</t>
+    <t xml:space="preserve">1.89281702041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86768400669098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81584763526917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83783900737762</t>
   </si>
   <si>
     <t xml:space="preserve">1.87553822994232</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82684326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8456928730011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81898951530457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8362683057785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85983049869537</t>
+    <t xml:space="preserve">1.82684350013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84569275379181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81898927688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83626818656921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85983026027679</t>
   </si>
   <si>
     <t xml:space="preserve">1.80485212802887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82056021690369</t>
+    <t xml:space="preserve">1.82056045532227</t>
   </si>
   <si>
     <t xml:space="preserve">1.81741845607758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85040545463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88025057315826</t>
+    <t xml:space="preserve">1.85040557384491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88025045394897</t>
   </si>
   <si>
     <t xml:space="preserve">1.81427693367004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85197615623474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84412217140198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84098076820374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82370162010193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81113541126251</t>
+    <t xml:space="preserve">1.85197639465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84412205219269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84098064899445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82370173931122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81113529205322</t>
   </si>
   <si>
     <t xml:space="preserve">1.8221310377121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9367995262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94622433185577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407819747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.963503241539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9650741815567</t>
+    <t xml:space="preserve">1.93679940700531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94622457027435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407843589783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96350312232971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507394313812</t>
   </si>
   <si>
     <t xml:space="preserve">1.99334836006165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00434422492981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.987065076828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00905656814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02476477622986</t>
+    <t xml:space="preserve">2.00434398651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98706531524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00905680656433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02476453781128</t>
   </si>
   <si>
     <t xml:space="preserve">1.93051624298096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96193242073059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994128704071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564913749695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637921333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87396728992462</t>
+    <t xml:space="preserve">1.9619323015213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564925670624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637909412384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87396740913391</t>
   </si>
   <si>
     <t xml:space="preserve">1.93378722667694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95017528533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9223153591156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050956726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656346321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509135723114</t>
+    <t xml:space="preserve">1.95017540454865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92231559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050968647003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509147644043</t>
   </si>
   <si>
     <t xml:space="preserve">1.95836925506592</t>
@@ -215,58 +215,55 @@
     <t xml:space="preserve">1.91739904880524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9354259967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94198107719421</t>
+    <t xml:space="preserve">1.93542611598969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9419811964035</t>
   </si>
   <si>
     <t xml:space="preserve">1.91248285770416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91084420681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83545899391174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80268311500549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84201407432556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83218145370483</t>
+    <t xml:space="preserve">1.91084396839142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83545887470245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80268287658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84201431274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83218133449554</t>
   </si>
   <si>
     <t xml:space="preserve">1.88298428058624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86823523044586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90756642818451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281702041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592741966248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88462293148041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90920507907867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151253223419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8977335691452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82398760318756</t>
+    <t xml:space="preserve">1.86823511123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9075665473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90592765808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88462316989899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90920519828796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87151265144348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773344993591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82398748397827</t>
   </si>
   <si>
     <t xml:space="preserve">1.75843513011932</t>
@@ -275,43 +272,43 @@
     <t xml:space="preserve">1.76662921905518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78629517555237</t>
+    <t xml:space="preserve">1.78629493713379</t>
   </si>
   <si>
     <t xml:space="preserve">1.77646219730377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75188016891479</t>
+    <t xml:space="preserve">1.75188004970551</t>
   </si>
   <si>
     <t xml:space="preserve">1.75351893901825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77973973751068</t>
+    <t xml:space="preserve">1.77973985671997</t>
   </si>
   <si>
     <t xml:space="preserve">1.75024127960205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72074282169342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66993999481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72893667221069</t>
+    <t xml:space="preserve">1.72074270248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6699401140213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72893679141998</t>
   </si>
   <si>
     <t xml:space="preserve">1.69616067409515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76007413864136</t>
+    <t xml:space="preserve">1.76007401943207</t>
   </si>
   <si>
     <t xml:space="preserve">1.70435464382172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73549199104309</t>
+    <t xml:space="preserve">1.73549211025238</t>
   </si>
   <si>
     <t xml:space="preserve">1.73385322093964</t>
@@ -320,10 +317,10 @@
     <t xml:space="preserve">1.71254873275757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63060867786407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67157864570618</t>
+    <t xml:space="preserve">1.63060879707336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67157876491547</t>
   </si>
   <si>
     <t xml:space="preserve">1.66666221618652</t>
@@ -335,25 +332,25 @@
     <t xml:space="preserve">1.62241458892822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66338467597961</t>
+    <t xml:space="preserve">1.6633847951889</t>
   </si>
   <si>
     <t xml:space="preserve">1.67321753501892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64535760879517</t>
+    <t xml:space="preserve">1.64535784721375</t>
   </si>
   <si>
     <t xml:space="preserve">1.63880264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62569212913513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66830122470856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65519058704376</t>
+    <t xml:space="preserve">1.62569224834442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66830110549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65519070625305</t>
   </si>
   <si>
     <t xml:space="preserve">1.64699673652649</t>
@@ -365,16 +362,16 @@
     <t xml:space="preserve">1.59865200519562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62978935241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58308339118958</t>
+    <t xml:space="preserve">1.6297892332077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58308351039886</t>
   </si>
   <si>
     <t xml:space="preserve">1.59537434577942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.578986287117</t>
+    <t xml:space="preserve">1.57898640632629</t>
   </si>
   <si>
     <t xml:space="preserve">1.59127748012543</t>
@@ -386,7 +383,7 @@
     <t xml:space="preserve">1.56751477718353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56997311115265</t>
+    <t xml:space="preserve">1.56997299194336</t>
   </si>
   <si>
     <t xml:space="preserve">1.56669533252716</t>
@@ -407,13 +404,13 @@
     <t xml:space="preserve">1.51917004585266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5617790222168</t>
+    <t xml:space="preserve">1.56177890300751</t>
   </si>
   <si>
     <t xml:space="preserve">1.54539096355438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37659430503845</t>
+    <t xml:space="preserve">1.37659418582916</t>
   </si>
   <si>
     <t xml:space="preserve">1.41264796257019</t>
@@ -425,28 +422,28 @@
     <t xml:space="preserve">1.45771503448486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4708251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53391933441162</t>
+    <t xml:space="preserve">1.47082543373108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53391945362091</t>
   </si>
   <si>
     <t xml:space="preserve">1.61258184909821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61176252365112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59783267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54211342334747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51179552078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5552237033844</t>
+    <t xml:space="preserve">1.61176240444183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59783279895782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54211330413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51179540157318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55522382259369</t>
   </si>
   <si>
     <t xml:space="preserve">1.56505656242371</t>
@@ -455,16 +452,16 @@
     <t xml:space="preserve">1.56423723697662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59291613101959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55686247348785</t>
+    <t xml:space="preserve">1.59291625022888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55686259269714</t>
   </si>
   <si>
     <t xml:space="preserve">1.52162837982178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5412939786911</t>
+    <t xml:space="preserve">1.54129385948181</t>
   </si>
   <si>
     <t xml:space="preserve">1.50442087650299</t>
@@ -473,7 +470,7 @@
     <t xml:space="preserve">1.51097619533539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55112671852112</t>
+    <t xml:space="preserve">1.55112683773041</t>
   </si>
   <si>
     <t xml:space="preserve">1.51589238643646</t>
@@ -482,34 +479,34 @@
     <t xml:space="preserve">1.55194628238678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50851786136627</t>
+    <t xml:space="preserve">1.50851774215698</t>
   </si>
   <si>
     <t xml:space="preserve">1.53228056430817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50933706760406</t>
+    <t xml:space="preserve">1.50933730602264</t>
   </si>
   <si>
     <t xml:space="preserve">1.50769853591919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50278198719025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49540758132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51015675067902</t>
+    <t xml:space="preserve">1.50278210639954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49540746212006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51015663146973</t>
   </si>
   <si>
     <t xml:space="preserve">1.57325053215027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58554148674011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59455502033234</t>
+    <t xml:space="preserve">1.58554136753082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59455490112305</t>
   </si>
   <si>
     <t xml:space="preserve">1.60684585571289</t>
@@ -524,13 +521,13 @@
     <t xml:space="preserve">1.54375207424164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57243120670319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58718049526215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54621028900146</t>
+    <t xml:space="preserve">1.57243132591248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58718037605286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54621016979218</t>
   </si>
   <si>
     <t xml:space="preserve">1.55768203735352</t>
@@ -539,10 +536,10 @@
     <t xml:space="preserve">1.58799982070923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53473877906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5822639465332</t>
+    <t xml:space="preserve">1.5347386598587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58226406574249</t>
   </si>
   <si>
     <t xml:space="preserve">1.54702973365784</t>
@@ -566,7 +563,7 @@
     <t xml:space="preserve">1.54866862297058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53637742996216</t>
+    <t xml:space="preserve">1.53637754917145</t>
   </si>
   <si>
     <t xml:space="preserve">1.53965508937836</t>
@@ -575,7 +572,7 @@
     <t xml:space="preserve">1.56915354728699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65191304683685</t>
+    <t xml:space="preserve">1.65191316604614</t>
   </si>
   <si>
     <t xml:space="preserve">1.69288313388824</t>
@@ -590,13 +587,13 @@
     <t xml:space="preserve">1.82890391349792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81743216514587</t>
+    <t xml:space="preserve">1.81743192672729</t>
   </si>
   <si>
     <t xml:space="preserve">1.81579351425171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87970674037933</t>
+    <t xml:space="preserve">1.87970650196075</t>
   </si>
   <si>
     <t xml:space="preserve">1.79448890686035</t>
@@ -605,10 +602,10 @@
     <t xml:space="preserve">1.80104398727417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73876965045929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72729802131653</t>
+    <t xml:space="preserve">1.73876953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72729814052582</t>
   </si>
   <si>
     <t xml:space="preserve">1.74696362018585</t>
@@ -617,22 +614,22 @@
     <t xml:space="preserve">1.76335155963898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84693038463593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81087696552277</t>
+    <t xml:space="preserve">1.84693050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81087708473206</t>
   </si>
   <si>
     <t xml:space="preserve">1.80923807621002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81251561641693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86167979240417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86495745182037</t>
+    <t xml:space="preserve">1.81251573562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86168003082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86495757102966</t>
   </si>
   <si>
     <t xml:space="preserve">1.85840225219727</t>
@@ -641,67 +638,67 @@
     <t xml:space="preserve">1.87642896175385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89937233924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84856963157654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479634284973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679428100586</t>
+    <t xml:space="preserve">1.89937257766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84856939315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479622364044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679404258728</t>
   </si>
   <si>
     <t xml:space="preserve">1.93850827217102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97107350826263</t>
+    <t xml:space="preserve">1.97107374668121</t>
   </si>
   <si>
     <t xml:space="preserve">1.92822420597076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94193613529205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94365000724792</t>
+    <t xml:space="preserve">1.94193625450134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94365012645721</t>
   </si>
   <si>
     <t xml:space="preserve">1.95907580852509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9676456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92651009559631</t>
+    <t xml:space="preserve">1.96764576435089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92651033401489</t>
   </si>
   <si>
     <t xml:space="preserve">1.95393407344818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93336629867554</t>
+    <t xml:space="preserve">1.93336617946625</t>
   </si>
   <si>
     <t xml:space="preserve">1.90594255924225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89394474029541</t>
+    <t xml:space="preserve">1.8939448595047</t>
   </si>
   <si>
     <t xml:space="preserve">1.8716629743576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92993819713593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080058574677</t>
+    <t xml:space="preserve">1.92993855476379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080046653748</t>
   </si>
   <si>
     <t xml:space="preserve">1.91451239585876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88708877563477</t>
+    <t xml:space="preserve">1.88708889484406</t>
   </si>
   <si>
     <t xml:space="preserve">1.87680494785309</t>
@@ -710,67 +707,67 @@
     <t xml:space="preserve">1.91794049739838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88537502288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994910240173</t>
+    <t xml:space="preserve">1.8853747844696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994898319244</t>
   </si>
   <si>
     <t xml:space="preserve">1.88880276679993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90937030315399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90251445770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96421778202057</t>
+    <t xml:space="preserve">1.90937054157257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90251469612122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96421790122986</t>
   </si>
   <si>
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821341991425</t>
+    <t xml:space="preserve">1.98821353912354</t>
   </si>
   <si>
     <t xml:space="preserve">1.98649966716766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97964358329773</t>
+    <t xml:space="preserve">1.97964370250702</t>
   </si>
   <si>
     <t xml:space="preserve">2.12533164024353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0859100818634</t>
+    <t xml:space="preserve">2.08591032028198</t>
   </si>
   <si>
     <t xml:space="preserve">2.05677270889282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07905459403992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08076810836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06534266471863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06020069122314</t>
+    <t xml:space="preserve">2.07905435562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0807683467865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06534242630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06020045280457</t>
   </si>
   <si>
     <t xml:space="preserve">2.07219839096069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13390135765076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10819172859192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09962224960327</t>
+    <t xml:space="preserve">2.13390159606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1081919670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09962201118469</t>
   </si>
   <si>
     <t xml:space="preserve">2.10304999351501</t>
@@ -794,19 +791,19 @@
     <t xml:space="preserve">2.1167619228363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08248233795166</t>
+    <t xml:space="preserve">2.08248209953308</t>
   </si>
   <si>
     <t xml:space="preserve">2.06705641746521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12190389633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10647797584534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08933806419373</t>
+    <t xml:space="preserve">2.12190365791321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10647773742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0893383026123</t>
   </si>
   <si>
     <t xml:space="preserve">2.05163049697876</t>
@@ -821,16 +818,16 @@
     <t xml:space="preserve">2.1321873664856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13047361373901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15961146354675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11847567558289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09105205535889</t>
+    <t xml:space="preserve">2.13047385215759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15961122512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11847543716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09105181694031</t>
   </si>
   <si>
     <t xml:space="preserve">2.12361764907837</t>
@@ -845,16 +842,16 @@
     <t xml:space="preserve">2.15789723396301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15618300437927</t>
+    <t xml:space="preserve">2.15618348121643</t>
   </si>
   <si>
     <t xml:space="preserve">2.1441855430603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14075756072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14932727813721</t>
+    <t xml:space="preserve">2.1407573223114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14932703971863</t>
   </si>
   <si>
     <t xml:space="preserve">2.13904356956482</t>
@@ -863,22 +860,22 @@
     <t xml:space="preserve">2.17503690719604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15104103088379</t>
+    <t xml:space="preserve">2.15104126930237</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10476398468018</t>
+    <t xml:space="preserve">2.1047637462616</t>
   </si>
   <si>
     <t xml:space="preserve">2.06362843513489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03277659416199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04820275306702</t>
+    <t xml:space="preserve">2.03277707099915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0482029914856</t>
   </si>
   <si>
     <t xml:space="preserve">2.07048416137695</t>
@@ -893,10 +890,10 @@
     <t xml:space="preserve">2.08762431144714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02077889442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08419632911682</t>
+    <t xml:space="preserve">2.02077913284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08419609069824</t>
   </si>
   <si>
     <t xml:space="preserve">2.0224928855896</t>
@@ -908,7 +905,7 @@
     <t xml:space="preserve">2.00535321235657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1681809425354</t>
+    <t xml:space="preserve">2.16818118095398</t>
   </si>
   <si>
     <t xml:space="preserve">2.18532085418701</t>
@@ -920,31 +917,31 @@
     <t xml:space="preserve">2.33100891113281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32243919372559</t>
+    <t xml:space="preserve">2.32243895530701</t>
   </si>
   <si>
     <t xml:space="preserve">2.35671830177307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44241714477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49383687973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46812701225281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47669720649719</t>
+    <t xml:space="preserve">2.44241738319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49383664131165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46812725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47669696807861</t>
   </si>
   <si>
     <t xml:space="preserve">2.48526692390442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53668618202209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57953548431396</t>
+    <t xml:space="preserve">2.53668642044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57953572273254</t>
   </si>
   <si>
     <t xml:space="preserve">2.596675157547</t>
@@ -968,7 +965,7 @@
     <t xml:space="preserve">2.61655139923096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52694368362427</t>
+    <t xml:space="preserve">2.52694344520569</t>
   </si>
   <si>
     <t xml:space="preserve">2.437335729599</t>
@@ -977,19 +974,19 @@
     <t xml:space="preserve">2.46421790122986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50006103515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45525741577148</t>
+    <t xml:space="preserve">2.50006127357483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45525717735291</t>
   </si>
   <si>
     <t xml:space="preserve">2.54486513137817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57174730300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51798295974731</t>
+    <t xml:space="preserve">2.57174754142761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51798272132874</t>
   </si>
   <si>
     <t xml:space="preserve">2.56278681755066</t>
@@ -998,16 +995,16 @@
     <t xml:space="preserve">2.53590416908264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4911003112793</t>
+    <t xml:space="preserve">2.49110054969788</t>
   </si>
   <si>
     <t xml:space="preserve">2.48213958740234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5090217590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47317862510681</t>
+    <t xml:space="preserve">2.50902199745178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47317886352539</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680658340454</t>
@@ -1016,19 +1013,19 @@
     <t xml:space="preserve">2.7599241733551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77784562110901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7420027256012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76888489723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71512007713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75096344947815</t>
+    <t xml:space="preserve">2.77784585952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74200248718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76888513565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71512031555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75096321105957</t>
   </si>
   <si>
     <t xml:space="preserve">2.67031621932983</t>
@@ -1040,13 +1037,13 @@
     <t xml:space="preserve">2.65239477157593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68823766708374</t>
+    <t xml:space="preserve">2.68823790550232</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719862937927</t>
+    <t xml:space="preserve">2.69719886779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1055,25 +1052,25 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745357513428</t>
+    <t xml:space="preserve">2.86745381355286</t>
   </si>
   <si>
     <t xml:space="preserve">2.83161067962646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6434338092804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62551236152649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58070826530457</t>
+    <t xml:space="preserve">2.64343404769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62551259994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58070850372314</t>
   </si>
   <si>
     <t xml:space="preserve">2.607590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41941428184509</t>
+    <t xml:space="preserve">2.41941404342651</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135549545288</t>
@@ -1082,7 +1079,7 @@
     <t xml:space="preserve">2.81368899345398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84057140350342</t>
+    <t xml:space="preserve">2.840571641922</t>
   </si>
   <si>
     <t xml:space="preserve">2.93914008140564</t>
@@ -1097,37 +1094,37 @@
     <t xml:space="preserve">2.80472826957703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90329670906067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12731647491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16315984725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13627767562866</t>
+    <t xml:space="preserve">2.90329694747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12731671333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16315960884094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13627743721008</t>
   </si>
   <si>
     <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25276803970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172876358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28861117362976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29757189750671</t>
+    <t xml:space="preserve">3.25276780128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172852516174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28861093521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29757165908813</t>
   </si>
   <si>
     <t xml:space="preserve">3.35133647918701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33341503143311</t>
+    <t xml:space="preserve">3.33341479301453</t>
   </si>
   <si>
     <t xml:space="preserve">3.34237575531006</t>
@@ -1142,10 +1139,10 @@
     <t xml:space="preserve">3.40510129928589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41406178474426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3692581653595</t>
+    <t xml:space="preserve">3.41406202316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36925792694092</t>
   </si>
   <si>
     <t xml:space="preserve">3.37821888923645</t>
@@ -1157,7 +1154,7 @@
     <t xml:space="preserve">3.4857485294342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47678780555725</t>
+    <t xml:space="preserve">3.47678756713867</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1172,13 +1169,13 @@
     <t xml:space="preserve">3.53055238723755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59327793121338</t>
+    <t xml:space="preserve">3.59327816963196</t>
   </si>
   <si>
     <t xml:space="preserve">3.55743479728699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52159142494202</t>
+    <t xml:space="preserve">3.5215916633606</t>
   </si>
   <si>
     <t xml:space="preserve">3.51263093948364</t>
@@ -1205,19 +1202,19 @@
     <t xml:space="preserve">3.6918466091156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70976781845093</t>
+    <t xml:space="preserve">3.70976805686951</t>
   </si>
   <si>
     <t xml:space="preserve">3.68288588523865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76353311538696</t>
+    <t xml:space="preserve">3.7635326385498</t>
   </si>
   <si>
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833697319031</t>
+    <t xml:space="preserve">3.80833721160889</t>
   </si>
   <si>
     <t xml:space="preserve">3.79041528701782</t>
@@ -1226,24 +1223,27 @@
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
+    <t xml:space="preserve">3.96067070960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97005581855774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00759744644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0920672416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81988859176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87620115280151</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97005581855774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00759792327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0920672416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81988835334778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87620115280151</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.02636861801147</t>
   </si>
   <si>
@@ -1259,40 +1259,40 @@
     <t xml:space="preserve">4.03575468063354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99821257591248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97944092750549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85743021965027</t>
+    <t xml:space="preserve">3.9982123374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97944116592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85743045806885</t>
   </si>
   <si>
     <t xml:space="preserve">3.84804463386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81050252914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7448046207428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89497232437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94189953804016</t>
+    <t xml:space="preserve">3.81050276756287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74480438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89497208595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.941899061203</t>
   </si>
   <si>
     <t xml:space="preserve">3.8668155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93251395225525</t>
+    <t xml:space="preserve">3.93251419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.08268165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11083793640137</t>
+    <t xml:space="preserve">4.11083841323853</t>
   </si>
   <si>
     <t xml:space="preserve">4.12022304534912</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">4.18592166900635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19530725479126</t>
+    <t xml:space="preserve">4.1953067779541</t>
   </si>
   <si>
     <t xml:space="preserve">4.20469284057617</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">4.28916215896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26100587844849</t>
+    <t xml:space="preserve">4.26100540161133</t>
   </si>
   <si>
     <t xml:space="preserve">4.2703914642334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34547472000122</t>
+    <t xml:space="preserve">4.34547519683838</t>
   </si>
   <si>
     <t xml:space="preserve">4.36424589157104</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">4.50502824783325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49564266204834</t>
+    <t xml:space="preserve">4.49564218521118</t>
   </si>
   <si>
     <t xml:space="preserve">4.43932962417603</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">4.5519552230835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54257011413574</t>
+    <t xml:space="preserve">4.54256963729858</t>
   </si>
   <si>
     <t xml:space="preserve">4.48625707626343</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">4.40178775787354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44871520996094</t>
+    <t xml:space="preserve">4.44871473312378</t>
   </si>
   <si>
     <t xml:space="preserve">4.42994403839111</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">4.41117334365845</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39240169525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24223470687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30793333053589</t>
+    <t xml:space="preserve">4.39240217208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2422342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30793285369873</t>
   </si>
   <si>
     <t xml:space="preserve">4.17653608322144</t>
@@ -1394,28 +1394,28 @@
     <t xml:space="preserve">4.62703895568848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61765336990356</t>
+    <t xml:space="preserve">4.61765384674072</t>
   </si>
   <si>
     <t xml:space="preserve">4.51441335678101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57072591781616</t>
+    <t xml:space="preserve">4.57072639465332</t>
   </si>
   <si>
     <t xml:space="preserve">4.67396640777588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80536270141602</t>
+    <t xml:space="preserve">4.80536317825317</t>
   </si>
   <si>
     <t xml:space="preserve">4.78659200668335</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86167621612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84290504455566</t>
+    <t xml:space="preserve">4.86167573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84290456771851</t>
   </si>
   <si>
     <t xml:space="preserve">4.89921760559082</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">4.5988826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53318405151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58011150360107</t>
+    <t xml:space="preserve">4.53318452835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58011198043823</t>
   </si>
   <si>
     <t xml:space="preserve">4.6927375793457</t>
@@ -1439,16 +1439,16 @@
     <t xml:space="preserve">4.74905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73027944564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71150827407837</t>
+    <t xml:space="preserve">4.73027896881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71150875091553</t>
   </si>
   <si>
     <t xml:space="preserve">4.76782131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95553112030029</t>
+    <t xml:space="preserve">4.95553064346313</t>
   </si>
   <si>
     <t xml:space="preserve">4.88044691085815</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">4.91798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99307250976562</t>
+    <t xml:space="preserve">4.99307298660278</t>
   </si>
   <si>
     <t xml:space="preserve">4.93675994873047</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">6.60737419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28826808929443</t>
+    <t xml:space="preserve">6.28826761245728</t>
   </si>
   <si>
     <t xml:space="preserve">6.1568717956543</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">5.96916246414185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70636892318726</t>
+    <t xml:space="preserve">5.7063684463501</t>
   </si>
   <si>
     <t xml:space="preserve">5.53743028640747</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">5.87530755996704</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66882658004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68759727478027</t>
+    <t xml:space="preserve">5.66882705688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68759775161743</t>
   </si>
   <si>
     <t xml:space="preserve">5.83776521682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59374284744263</t>
+    <t xml:space="preserve">5.59374332427979</t>
   </si>
   <si>
     <t xml:space="preserve">5.38726234436035</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">5.10569858551025</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68335199356079</t>
+    <t xml:space="preserve">4.68335151672363</t>
   </si>
   <si>
     <t xml:space="preserve">4.14837980270386</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">3.62279319763184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55709481239319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37877082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50078225135803</t>
+    <t xml:space="preserve">3.55709505081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37877106666565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50078201293945</t>
   </si>
   <si>
     <t xml:space="preserve">3.5664803981781</t>
@@ -1565,13 +1565,13 @@
     <t xml:space="preserve">3.75418996810913</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70726251602173</t>
+    <t xml:space="preserve">3.70726275444031</t>
   </si>
   <si>
     <t xml:space="preserve">3.71664810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8386595249176</t>
+    <t xml:space="preserve">3.83865928649902</t>
   </si>
   <si>
     <t xml:space="preserve">4.25162029266357</t>
@@ -1580,25 +1580,25 @@
     <t xml:space="preserve">4.12960910797119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16715049743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05452537536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76357555389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66972064971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65094995498657</t>
+    <t xml:space="preserve">4.16715097427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05452489852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76357579231262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66972088813782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65094971656799</t>
   </si>
   <si>
     <t xml:space="preserve">3.66033530235291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95128512382507</t>
+    <t xml:space="preserve">3.95128488540649</t>
   </si>
   <si>
     <t xml:space="preserve">4.29854726791382</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">4.31731843948364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15776491165161</t>
+    <t xml:space="preserve">4.15776538848877</t>
   </si>
   <si>
     <t xml:space="preserve">4.10145235061646</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.13899421691895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88558626174927</t>
+    <t xml:space="preserve">3.88558650016785</t>
   </si>
   <si>
     <t xml:space="preserve">4.32670402526855</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">4.27977657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.913743019104</t>
+    <t xml:space="preserve">3.91374325752258</t>
   </si>
   <si>
     <t xml:space="preserve">3.92312836647034</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">3.49139666557312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67910623550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38815641403198</t>
+    <t xml:space="preserve">3.67910599708557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3881561756134</t>
   </si>
   <si>
     <t xml:space="preserve">3.35999989509583</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">3.34122896194458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20044708251953</t>
+    <t xml:space="preserve">3.20044684410095</t>
   </si>
   <si>
     <t xml:space="preserve">3.24737429618835</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">3.47262573242188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57586574554443</t>
+    <t xml:space="preserve">3.57586598396301</t>
   </si>
   <si>
     <t xml:space="preserve">3.73541903495789</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">3.68849158287048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72603368759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52893853187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63217878341675</t>
+    <t xml:space="preserve">3.72603344917297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52893877029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63217854499817</t>
   </si>
   <si>
     <t xml:space="preserve">3.51016759872437</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">3.58525133132935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53832411766052</t>
+    <t xml:space="preserve">3.53832387924194</t>
   </si>
   <si>
     <t xml:space="preserve">3.80111742019653</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">3.48201107978821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46324014663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4444694519043</t>
+    <t xml:space="preserve">3.46324038505554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44446921348572</t>
   </si>
   <si>
     <t xml:space="preserve">3.42569851875305</t>
@@ -1739,13 +1739,13 @@
     <t xml:space="preserve">3.41631293296814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39754199981689</t>
+    <t xml:space="preserve">3.39754176139832</t>
   </si>
   <si>
     <t xml:space="preserve">3.21921801567078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1910617351532</t>
+    <t xml:space="preserve">3.19106149673462</t>
   </si>
   <si>
     <t xml:space="preserve">3.17229056358337</t>
@@ -1754,13 +1754,13 @@
     <t xml:space="preserve">3.23798894882202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14413404464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25675964355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36938524246216</t>
+    <t xml:space="preserve">3.14413380622864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25675988197327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36938548088074</t>
   </si>
   <si>
     <t xml:space="preserve">3.15351939201355</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">3.18167614936829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29430174827576</t>
+    <t xml:space="preserve">3.29430150985718</t>
   </si>
   <si>
     <t xml:space="preserve">3.2661452293396</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">3.12536311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04089379310608</t>
+    <t xml:space="preserve">3.04089403152466</t>
   </si>
   <si>
     <t xml:space="preserve">3.05027914047241</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">2.93765377998352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95642447471619</t>
+    <t xml:space="preserve">2.95642471313477</t>
   </si>
   <si>
     <t xml:space="preserve">3.03150844573975</t>
@@ -1805,19 +1805,19 @@
     <t xml:space="preserve">3.02212285995483</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92826795578003</t>
+    <t xml:space="preserve">2.92826819419861</t>
   </si>
   <si>
     <t xml:space="preserve">2.94703912734985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90011167526245</t>
+    <t xml:space="preserve">2.90011143684387</t>
   </si>
   <si>
     <t xml:space="preserve">2.97519564628601</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27553057670593</t>
+    <t xml:space="preserve">3.27553081512451</t>
   </si>
   <si>
     <t xml:space="preserve">3.33184361457825</t>
@@ -6158,7 +6158,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G136" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6184,7 +6184,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6210,7 +6210,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -6236,7 +6236,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6262,7 +6262,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G140" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -6288,7 +6288,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -6340,7 +6340,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6366,7 +6366,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6392,7 +6392,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -6418,7 +6418,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G146" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6444,7 +6444,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6470,7 +6470,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G148" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6496,7 +6496,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G149" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6522,7 +6522,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G150" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6548,7 +6548,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6574,7 +6574,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6600,7 +6600,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G153" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6626,7 +6626,7 @@
         <v>2.13800001144409</v>
       </c>
       <c r="G154" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6652,7 +6652,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -6678,7 +6678,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G156" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -6704,7 +6704,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G157" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -6730,7 +6730,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G158" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -6756,7 +6756,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -6782,7 +6782,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G160" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -6808,7 +6808,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6834,7 +6834,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G162" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6860,7 +6860,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G163" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6886,7 +6886,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G164" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6912,7 +6912,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G165" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6938,7 +6938,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G166" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6964,7 +6964,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G167" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6990,7 +6990,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G168" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7016,7 +7016,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G169" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7042,7 +7042,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7068,7 +7068,7 @@
         <v>2.11800003051758</v>
       </c>
       <c r="G171" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7094,7 +7094,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G172" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7120,7 +7120,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G173" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7146,7 +7146,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G174" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7172,7 +7172,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G175" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G176" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7224,7 +7224,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G177" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7250,7 +7250,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G178" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7276,7 +7276,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7302,7 +7302,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7328,7 +7328,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G181" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7354,7 +7354,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7380,7 +7380,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7406,7 +7406,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G184" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7432,7 +7432,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G185" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7458,7 +7458,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G186" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7484,7 +7484,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G187" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7510,7 +7510,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G188" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7536,7 +7536,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G189" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7562,7 +7562,7 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7588,7 +7588,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G191" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7614,7 +7614,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G192" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7640,7 +7640,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G193" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7666,7 +7666,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7692,7 +7692,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7718,7 +7718,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G196" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7744,7 +7744,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G197" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7770,7 +7770,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7796,7 +7796,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7822,7 +7822,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G200" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7848,7 +7848,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G201" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7874,7 +7874,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G202" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7900,7 +7900,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G203" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7926,7 +7926,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G204" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7952,7 +7952,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G205" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7978,7 +7978,7 @@
         <v>1.99899995326996</v>
       </c>
       <c r="G206" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8004,7 +8004,7 @@
         <v>1.95099997520447</v>
       </c>
       <c r="G207" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8030,7 +8030,7 @@
         <v>1.9889999628067</v>
       </c>
       <c r="G208" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8056,7 +8056,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G209" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8082,7 +8082,7 @@
         <v>1.94700002670288</v>
       </c>
       <c r="G210" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8108,7 +8108,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G211" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8134,7 +8134,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G212" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8160,7 +8160,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G213" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8186,7 +8186,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G214" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8212,7 +8212,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G215" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8238,7 +8238,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G216" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8264,7 +8264,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G217" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8290,7 +8290,7 @@
         <v>1.90199995040894</v>
       </c>
       <c r="G218" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8316,7 +8316,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G219" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8342,7 +8342,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G220" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8368,7 +8368,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G221" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8394,7 +8394,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G222" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8420,7 +8420,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G223" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8446,7 +8446,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G224" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8472,7 +8472,7 @@
         <v>1.85399997234344</v>
       </c>
       <c r="G225" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8498,7 +8498,7 @@
         <v>1.90600001811981</v>
       </c>
       <c r="G226" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8524,7 +8524,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G227" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8550,7 +8550,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G228" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8576,7 +8576,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G229" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8602,7 +8602,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G230" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8628,7 +8628,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G231" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8654,7 +8654,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G232" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8680,7 +8680,7 @@
         <v>1.87199997901917</v>
       </c>
       <c r="G233" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8706,7 +8706,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G234" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8732,7 +8732,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G235" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8758,7 +8758,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G236" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8784,7 +8784,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G237" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8810,7 +8810,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G238" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8836,7 +8836,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G239" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8862,7 +8862,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G240" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8888,7 +8888,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G241" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8914,7 +8914,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8940,7 +8940,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G243" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8966,7 +8966,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G244" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8992,7 +8992,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G245" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9018,7 +9018,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G246" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9044,7 +9044,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G247" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9070,7 +9070,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G248" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9096,7 +9096,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G249" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9122,7 +9122,7 @@
         <v>1.85699999332428</v>
       </c>
       <c r="G250" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9148,7 +9148,7 @@
         <v>1.88100004196167</v>
       </c>
       <c r="G251" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9174,7 +9174,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G252" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9200,7 +9200,7 @@
         <v>1.84399998188019</v>
       </c>
       <c r="G253" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9226,7 +9226,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G254" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9252,7 +9252,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G255" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9278,7 +9278,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G256" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9304,7 +9304,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G257" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9330,7 +9330,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G258" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9356,7 +9356,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G259" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9382,7 +9382,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G260" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9408,7 +9408,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G261" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9434,7 +9434,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G262" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9460,7 +9460,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9486,7 +9486,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G264" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9512,7 +9512,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G265" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9538,7 +9538,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G266" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9564,7 +9564,7 @@
         <v>1.84300005435944</v>
       </c>
       <c r="G267" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9590,7 +9590,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G268" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9616,7 +9616,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G269" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9642,7 +9642,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G270" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9668,7 +9668,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G271" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9694,7 +9694,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G272" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9720,7 +9720,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G273" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9746,7 +9746,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G274" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9772,7 +9772,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G275" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9798,7 +9798,7 @@
         <v>1.97899997234344</v>
       </c>
       <c r="G276" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9824,7 +9824,7 @@
         <v>1.91799998283386</v>
       </c>
       <c r="G277" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9850,7 +9850,7 @@
         <v>1.88399994373322</v>
       </c>
       <c r="G278" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9876,7 +9876,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G279" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9902,7 +9902,7 @@
         <v>1.9190000295639</v>
       </c>
       <c r="G280" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9928,7 +9928,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G281" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9954,7 +9954,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G282" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9980,7 +9980,7 @@
         <v>1.90100002288818</v>
       </c>
       <c r="G283" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10006,7 +10006,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G284" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10032,7 +10032,7 @@
         <v>1.93799996376038</v>
       </c>
       <c r="G285" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10058,7 +10058,7 @@
         <v>1.87300002574921</v>
       </c>
       <c r="G286" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10084,7 +10084,7 @@
         <v>1.93099999427795</v>
       </c>
       <c r="G287" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10110,7 +10110,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G288" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10136,7 +10136,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G289" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10162,7 +10162,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G290" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10188,7 +10188,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G291" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10214,7 +10214,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G292" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10240,7 +10240,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G293" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10266,7 +10266,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G294" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10292,7 +10292,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G295" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10318,7 +10318,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G296" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10344,7 +10344,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G297" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10370,7 +10370,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G298" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10396,7 +10396,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G299" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10422,7 +10422,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G300" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10448,7 +10448,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G301" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10474,7 +10474,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G302" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10500,7 +10500,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G303" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10526,7 +10526,7 @@
         <v>1.875</v>
       </c>
       <c r="G304" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10552,7 +10552,7 @@
         <v>1.87899994850159</v>
       </c>
       <c r="G305" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10578,7 +10578,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G306" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10604,7 +10604,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10630,7 +10630,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G308" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10656,7 +10656,7 @@
         <v>2</v>
       </c>
       <c r="G309" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10682,7 +10682,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G310" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10708,7 +10708,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G311" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10734,7 +10734,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G312" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10760,7 +10760,7 @@
         <v>2.06599998474121</v>
       </c>
       <c r="G313" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10786,7 +10786,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G314" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10812,7 +10812,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G315" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10838,7 +10838,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G316" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10864,7 +10864,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G317" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10916,7 +10916,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G319" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10942,7 +10942,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G320" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10968,7 +10968,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G321" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10994,7 +10994,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G322" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11020,7 +11020,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G323" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11046,7 +11046,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G324" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11072,7 +11072,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G325" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11124,7 +11124,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G327" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11150,7 +11150,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G328" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11176,7 +11176,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G329" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11202,7 +11202,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G330" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11228,7 +11228,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G331" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11254,7 +11254,7 @@
         <v>2.12199997901917</v>
       </c>
       <c r="G332" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11280,7 +11280,7 @@
         <v>2.10800004005432</v>
       </c>
       <c r="G333" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11306,7 +11306,7 @@
         <v>2.13199996948242</v>
       </c>
       <c r="G334" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11332,7 +11332,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G335" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11358,7 +11358,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G336" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11462,7 +11462,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G340" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11488,7 +11488,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11514,7 +11514,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G342" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11540,7 +11540,7 @@
         <v>2.21199989318848</v>
       </c>
       <c r="G343" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11566,7 +11566,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G344" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11618,7 +11618,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G346" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11644,7 +11644,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G347" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11670,7 +11670,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G348" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11696,7 +11696,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G349" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11722,7 +11722,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G350" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11774,7 +11774,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G352" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11800,7 +11800,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G353" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11852,7 +11852,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G355" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11878,7 +11878,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G356" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11904,7 +11904,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G357" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11930,7 +11930,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G358" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11956,7 +11956,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G359" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11982,7 +11982,7 @@
         <v>2.25</v>
       </c>
       <c r="G360" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12008,7 +12008,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G361" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12034,7 +12034,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G362" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12060,7 +12060,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G363" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12086,7 +12086,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G364" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12112,7 +12112,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G365" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12138,7 +12138,7 @@
         <v>2.25</v>
       </c>
       <c r="G366" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12164,7 +12164,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G367" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12190,7 +12190,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G368" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12216,7 +12216,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G369" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12242,7 +12242,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G370" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12268,7 +12268,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G371" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12294,7 +12294,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12320,7 +12320,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G373" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12346,7 +12346,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G374" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12372,7 +12372,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G375" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12398,7 +12398,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G376" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12424,7 +12424,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G377" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12450,7 +12450,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G378" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12476,7 +12476,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G379" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12502,7 +12502,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12528,7 +12528,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G381" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12554,7 +12554,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G382" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12580,7 +12580,7 @@
         <v>2.18199992179871</v>
       </c>
       <c r="G383" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12606,7 +12606,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G384" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12632,7 +12632,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G385" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12658,7 +12658,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G386" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12684,7 +12684,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G387" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12710,7 +12710,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G388" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12736,7 +12736,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12762,7 +12762,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G390" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12788,7 +12788,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G391" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12814,7 +12814,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G392" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12840,7 +12840,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G393" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12866,7 +12866,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G394" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12892,7 +12892,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12918,7 +12918,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G396" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12944,7 +12944,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G397" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12970,7 +12970,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G398" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12996,7 +12996,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G399" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13022,7 +13022,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G400" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13048,7 +13048,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13074,7 +13074,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G402" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13100,7 +13100,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G403" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13126,7 +13126,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G404" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13152,7 +13152,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G405" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13178,7 +13178,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G406" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13204,7 +13204,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G407" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13230,7 +13230,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G408" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13256,7 +13256,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G409" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13282,7 +13282,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G410" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13308,7 +13308,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G411" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13334,7 +13334,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G412" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13360,7 +13360,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G413" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13386,7 +13386,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13412,7 +13412,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G415" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13438,7 +13438,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G416" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13464,7 +13464,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G417" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13490,7 +13490,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G418" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13516,7 +13516,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G419" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13542,7 +13542,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G420" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13568,7 +13568,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13594,7 +13594,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G422" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13620,7 +13620,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G423" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13646,7 +13646,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G424" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13672,7 +13672,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G425" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13698,7 +13698,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G426" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13724,7 +13724,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G427" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13750,7 +13750,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G428" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13776,7 +13776,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G429" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13802,7 +13802,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G430" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13828,7 +13828,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G431" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13854,7 +13854,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13880,7 +13880,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G433" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13906,7 +13906,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13932,7 +13932,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G435" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13958,7 +13958,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G436" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13984,7 +13984,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G437" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14010,7 +14010,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G438" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14036,7 +14036,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G439" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14062,7 +14062,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G440" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14088,7 +14088,7 @@
         <v>2.5</v>
       </c>
       <c r="G441" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14114,7 +14114,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G442" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14140,7 +14140,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G443" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14166,7 +14166,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G444" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14192,7 +14192,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G445" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14218,7 +14218,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G446" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14244,7 +14244,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G447" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14270,7 +14270,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G448" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14296,7 +14296,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G449" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14322,7 +14322,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G450" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14348,7 +14348,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14374,7 +14374,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G452" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14400,7 +14400,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G453" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14426,7 +14426,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G454" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14452,7 +14452,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G455" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14478,7 +14478,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G456" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14504,7 +14504,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G457" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14530,7 +14530,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G458" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14556,7 +14556,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G459" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14582,7 +14582,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G460" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14608,7 +14608,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G461" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14634,7 +14634,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G462" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14660,7 +14660,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G463" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14686,7 +14686,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G464" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14712,7 +14712,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G465" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14738,7 +14738,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G466" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14764,7 +14764,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G467" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14790,7 +14790,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G468" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14816,7 +14816,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G469" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14842,7 +14842,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G470" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14868,7 +14868,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G471" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14894,7 +14894,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G472" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14920,7 +14920,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G473" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14946,7 +14946,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14972,7 +14972,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G475" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14998,7 +14998,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G476" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15024,7 +15024,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G477" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15050,7 +15050,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G478" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15076,7 +15076,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G479" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15102,7 +15102,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G480" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15128,7 +15128,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G481" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15154,7 +15154,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G482" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15180,7 +15180,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G483" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15206,7 +15206,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G484" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15232,7 +15232,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G485" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15258,7 +15258,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G486" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15284,7 +15284,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G487" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15310,7 +15310,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G488" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15336,7 +15336,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G489" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15362,7 +15362,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G490" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15388,7 +15388,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G491" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15414,7 +15414,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G492" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15440,7 +15440,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G493" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15466,7 +15466,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G494" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15492,7 +15492,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G495" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15518,7 +15518,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G496" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15544,7 +15544,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G497" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15570,7 +15570,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G498" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15596,7 +15596,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G499" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15622,7 +15622,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G500" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15648,7 +15648,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G501" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15674,7 +15674,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G502" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15700,7 +15700,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G503" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15726,7 +15726,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G504" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15752,7 +15752,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G505" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15778,7 +15778,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G506" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15804,7 +15804,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G507" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15830,7 +15830,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G508" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15856,7 +15856,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G509" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15882,7 +15882,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G510" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15908,7 +15908,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G511" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15934,7 +15934,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G512" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15960,7 +15960,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G513" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15986,7 +15986,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16012,7 +16012,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G515" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16038,7 +16038,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G516" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16064,7 +16064,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16090,7 +16090,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G518" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16116,7 +16116,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G519" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16142,7 +16142,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G520" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16168,7 +16168,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G521" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16194,7 +16194,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G522" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16220,7 +16220,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G523" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16246,7 +16246,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G524" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16272,7 +16272,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G525" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16298,7 +16298,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G526" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16324,7 +16324,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G527" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16350,7 +16350,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G528" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16376,7 +16376,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G529" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16402,7 +16402,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G530" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16428,7 +16428,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G531" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16454,7 +16454,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16480,7 +16480,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G533" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16506,7 +16506,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G534" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16532,7 +16532,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G535" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16558,7 +16558,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G536" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16584,7 +16584,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G537" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16610,7 +16610,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G538" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16636,7 +16636,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G539" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16662,7 +16662,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16688,7 +16688,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G541" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16714,7 +16714,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G542" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16740,7 +16740,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16766,7 +16766,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G544" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16792,7 +16792,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G545" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16818,7 +16818,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G546" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16844,7 +16844,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G547" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16870,7 +16870,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G548" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16896,7 +16896,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G549" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16922,7 +16922,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G550" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16948,7 +16948,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G551" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16974,7 +16974,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G552" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17000,7 +17000,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G553" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17026,7 +17026,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G554" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17052,7 +17052,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G555" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17078,7 +17078,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G556" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17104,7 +17104,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G557" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17130,7 +17130,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17156,7 +17156,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G559" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17182,7 +17182,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G560" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17208,7 +17208,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G561" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17234,7 +17234,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G562" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17260,7 +17260,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G563" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17286,7 +17286,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17312,7 +17312,7 @@
         <v>2.5</v>
       </c>
       <c r="G565" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17338,7 +17338,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17364,7 +17364,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G567" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17390,7 +17390,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17416,7 +17416,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G569" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17442,7 +17442,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G570" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17468,7 +17468,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17494,7 +17494,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17520,7 +17520,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G573" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17546,7 +17546,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G574" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17572,7 +17572,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G575" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17598,7 +17598,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17624,7 +17624,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G577" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17650,7 +17650,7 @@
         <v>2.5</v>
       </c>
       <c r="G578" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17676,7 +17676,7 @@
         <v>2.5</v>
       </c>
       <c r="G579" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17702,7 +17702,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G580" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17728,7 +17728,7 @@
         <v>2.5</v>
       </c>
       <c r="G581" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17754,7 +17754,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G582" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17780,7 +17780,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G583" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17806,7 +17806,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17832,7 +17832,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17858,7 +17858,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G586" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17884,7 +17884,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G587" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17910,7 +17910,7 @@
         <v>2.5</v>
       </c>
       <c r="G588" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17936,7 +17936,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17962,7 +17962,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17988,7 +17988,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18014,7 +18014,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G592" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18040,7 +18040,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G593" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18066,7 +18066,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G594" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18092,7 +18092,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G595" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18118,7 +18118,7 @@
         <v>2.75</v>
       </c>
       <c r="G596" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18144,7 +18144,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18170,7 +18170,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G598" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18196,7 +18196,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G599" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18222,7 +18222,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G600" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18248,7 +18248,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G601" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18274,7 +18274,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G602" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18300,7 +18300,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18326,7 +18326,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G604" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18352,7 +18352,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G605" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18378,7 +18378,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G606" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18404,7 +18404,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G607" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18430,7 +18430,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G608" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18456,7 +18456,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G609" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18482,7 +18482,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G610" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18508,7 +18508,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G611" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18534,7 +18534,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18560,7 +18560,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18586,7 +18586,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18612,7 +18612,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18638,7 +18638,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18664,7 +18664,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18690,7 +18690,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18716,7 +18716,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18742,7 +18742,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18768,7 +18768,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18794,7 +18794,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18820,7 +18820,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18846,7 +18846,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18872,7 +18872,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18898,7 +18898,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18924,7 +18924,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18950,7 +18950,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18976,7 +18976,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19002,7 +19002,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19028,7 +19028,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19054,7 +19054,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19080,7 +19080,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19106,7 +19106,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19132,7 +19132,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19158,7 +19158,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19184,7 +19184,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19210,7 +19210,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19236,7 +19236,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19262,7 +19262,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19288,7 +19288,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19314,7 +19314,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19340,7 +19340,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19366,7 +19366,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19392,7 +19392,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19418,7 +19418,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19444,7 +19444,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19470,7 +19470,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19496,7 +19496,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19522,7 +19522,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19548,7 +19548,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19574,7 +19574,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19600,7 +19600,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19626,7 +19626,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G654" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19652,7 +19652,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19678,7 +19678,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19704,7 +19704,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19730,7 +19730,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19756,7 +19756,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19782,7 +19782,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19808,7 +19808,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19834,7 +19834,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19860,7 +19860,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19886,7 +19886,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19912,7 +19912,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19938,7 +19938,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19964,7 +19964,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19990,7 +19990,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20016,7 +20016,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G669" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20042,7 +20042,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20068,7 +20068,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20094,7 +20094,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20120,7 +20120,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20146,7 +20146,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20172,7 +20172,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20198,7 +20198,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20224,7 +20224,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20250,7 +20250,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20276,7 +20276,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20302,7 +20302,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20328,7 +20328,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20354,7 +20354,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20380,7 +20380,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20406,7 +20406,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20432,7 +20432,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20458,7 +20458,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20484,7 +20484,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20510,7 +20510,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20536,7 +20536,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20562,7 +20562,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20588,7 +20588,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20614,7 +20614,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20640,7 +20640,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20666,7 +20666,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20692,7 +20692,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20718,7 +20718,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20744,7 +20744,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20770,7 +20770,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20796,7 +20796,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20822,7 +20822,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20848,7 +20848,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20874,7 +20874,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20900,7 +20900,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20926,7 +20926,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20952,7 +20952,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20978,7 +20978,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21004,7 +21004,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21030,7 +21030,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G708" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21056,7 +21056,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21082,7 +21082,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21108,7 +21108,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21134,7 +21134,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21160,7 +21160,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G713" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21186,7 +21186,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G714" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21212,7 +21212,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G715" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21238,7 +21238,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G716" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21264,7 +21264,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21290,7 +21290,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21316,7 +21316,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21342,7 +21342,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21368,7 +21368,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G721" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21394,7 +21394,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G722" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21420,7 +21420,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21446,7 +21446,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G724" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21472,7 +21472,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G725" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21498,7 +21498,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21524,7 +21524,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G727" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21550,7 +21550,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21576,7 +21576,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G729" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21602,7 +21602,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21628,7 +21628,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G731" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21654,7 +21654,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G732" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21680,7 +21680,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G733" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21706,7 +21706,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21732,7 +21732,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21758,7 +21758,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21784,7 +21784,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21810,7 +21810,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21836,7 +21836,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21862,7 +21862,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21888,7 +21888,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21914,7 +21914,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21940,7 +21940,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21966,7 +21966,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21992,7 +21992,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22018,7 +22018,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22044,7 +22044,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22070,7 +22070,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22096,7 +22096,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22122,7 +22122,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22148,7 +22148,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22174,7 +22174,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22200,7 +22200,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22226,7 +22226,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22252,7 +22252,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22278,7 +22278,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22304,7 +22304,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22330,7 +22330,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22356,7 +22356,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G759" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22382,7 +22382,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G760" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22408,7 +22408,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G761" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22434,7 +22434,7 @@
         <v>2.75</v>
       </c>
       <c r="G762" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22460,7 +22460,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G763" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22486,7 +22486,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G764" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22512,7 +22512,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22538,7 +22538,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G766" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22564,7 +22564,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G767" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22590,7 +22590,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G768" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22616,7 +22616,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22642,7 +22642,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G770" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22668,7 +22668,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G771" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22694,7 +22694,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22720,7 +22720,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22746,7 +22746,7 @@
         <v>3</v>
       </c>
       <c r="G774" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22772,7 +22772,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22798,7 +22798,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G776" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22824,7 +22824,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G777" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22850,7 +22850,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G778" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22876,7 +22876,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22902,7 +22902,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22928,7 +22928,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G781" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22954,7 +22954,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G782" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22980,7 +22980,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23006,7 +23006,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G784" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23032,7 +23032,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G785" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23058,7 +23058,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23084,7 +23084,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G787" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23110,7 +23110,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23136,7 +23136,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G789" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23162,7 +23162,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G790" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23188,7 +23188,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G791" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23214,7 +23214,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G792" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23240,7 +23240,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G793" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23266,7 +23266,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23292,7 +23292,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G795" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23318,7 +23318,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23344,7 +23344,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G797" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23370,7 +23370,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G798" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23396,7 +23396,7 @@
         <v>3.5</v>
       </c>
       <c r="G799" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23422,7 +23422,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23448,7 +23448,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G801" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23474,7 +23474,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G802" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23500,7 +23500,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23526,7 +23526,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G804" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23552,7 +23552,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23578,7 +23578,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23604,7 +23604,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23630,7 +23630,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23656,7 +23656,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G809" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23682,7 +23682,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23708,7 +23708,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G811" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23734,7 +23734,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23760,7 +23760,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G813" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23786,7 +23786,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23812,7 +23812,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G815" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23838,7 +23838,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23864,7 +23864,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G817" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23890,7 +23890,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G818" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23916,7 +23916,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G819" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23942,7 +23942,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G820" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23968,7 +23968,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G821" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23994,7 +23994,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G822" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24020,7 +24020,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G823" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24046,7 +24046,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24072,7 +24072,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24098,7 +24098,7 @@
         <v>4</v>
       </c>
       <c r="G826" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24124,7 +24124,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G827" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24150,7 +24150,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G828" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24176,7 +24176,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24202,7 +24202,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G830" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24228,7 +24228,7 @@
         <v>4</v>
       </c>
       <c r="G831" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24254,7 +24254,7 @@
         <v>4</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24280,7 +24280,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G833" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24306,7 +24306,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24332,7 +24332,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24358,7 +24358,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G836" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24384,7 +24384,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24410,7 +24410,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G838" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24436,7 +24436,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G839" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24462,7 +24462,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24488,7 +24488,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G841" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24514,7 +24514,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24540,7 +24540,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24566,7 +24566,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G844" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24592,7 +24592,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G845" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24618,7 +24618,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G846" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24644,7 +24644,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24670,7 +24670,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24696,7 +24696,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G849" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24722,7 +24722,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24748,7 +24748,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G851" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24774,7 +24774,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24800,7 +24800,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G853" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24826,7 +24826,7 @@
         <v>4.25</v>
       </c>
       <c r="G854" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24852,7 +24852,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24878,7 +24878,7 @@
         <v>4.25</v>
       </c>
       <c r="G856" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24904,7 +24904,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G857" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24930,7 +24930,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24956,7 +24956,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G859" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24982,7 +24982,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25008,7 +25008,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G861" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25034,7 +25034,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G862" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25060,7 +25060,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G863" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25086,7 +25086,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G864" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25112,7 +25112,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25164,7 +25164,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G867" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25268,7 +25268,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G871" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25320,7 +25320,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25450,7 +25450,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G878" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25814,7 +25814,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25892,7 +25892,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G895" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26126,7 +26126,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G904" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -30312,7 +30312,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1065" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30598,7 +30598,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1076" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30624,7 +30624,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1077" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30858,7 +30858,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1086" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31222,7 +31222,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1100" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31326,7 +31326,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1104" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32834,7 +32834,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1162" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32860,7 +32860,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1163" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33302,7 +33302,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1180" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33432,7 +33432,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33640,7 +33640,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1193" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -59284,7 +59284,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6493171296</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>1335</v>
@@ -59305,6 +59305,32 @@
         <v>745</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.6493518519</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>260</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>1.96000003814697</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>1.96000003814697</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>1.96000003814697</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>1.99000000953674</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>745</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825955867767</t>
+    <t xml:space="preserve">1.8582592010498</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9132376909256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92109167575836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88496327400208</t>
+    <t xml:space="preserve">1.91323745250702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92109143733978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88496315479279</t>
   </si>
   <si>
     <t xml:space="preserve">1.92423319816589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80642306804657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82998502254486</t>
+    <t xml:space="preserve">1.80642282962799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998490333557</t>
   </si>
   <si>
     <t xml:space="preserve">1.79856884479523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76715278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354697704315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86925506591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87710916996002</t>
+    <t xml:space="preserve">1.76715290546417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354685783386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86925494670868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87710905075073</t>
   </si>
   <si>
     <t xml:space="preserve">1.89281713962555</t>
@@ -83,37 +83,37 @@
     <t xml:space="preserve">1.86768412590027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81584751605988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83783900737762</t>
+    <t xml:space="preserve">1.81584787368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83783888816833</t>
   </si>
   <si>
     <t xml:space="preserve">1.87553822994232</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82684326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84569299221039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81898927688599</t>
+    <t xml:space="preserve">1.82684350013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8456928730011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81898951530457</t>
   </si>
   <si>
     <t xml:space="preserve">1.8362683057785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8598301410675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80485212802887</t>
+    <t xml:space="preserve">1.85983049869537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80485224723816</t>
   </si>
   <si>
     <t xml:space="preserve">1.82056033611298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81741845607758</t>
+    <t xml:space="preserve">1.81741857528687</t>
   </si>
   <si>
     <t xml:space="preserve">1.85040545463562</t>
@@ -125,79 +125,79 @@
     <t xml:space="preserve">1.81427693367004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85197603702545</t>
+    <t xml:space="preserve">1.85197615623474</t>
   </si>
   <si>
     <t xml:space="preserve">1.84412217140198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84098064899445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82370162010193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81113529205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8221310377121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679976463318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94622445106506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407807826996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350336074829</t>
+    <t xml:space="preserve">1.84098052978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82370173931122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81113541126251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82213115692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9367995262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94622409343719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407819747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.963503241539</t>
   </si>
   <si>
     <t xml:space="preserve">1.9650741815567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99334836006165</t>
+    <t xml:space="preserve">1.99334859848022</t>
   </si>
   <si>
     <t xml:space="preserve">2.00434422492981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98706543445587</t>
+    <t xml:space="preserve">1.987065076828</t>
   </si>
   <si>
     <t xml:space="preserve">2.00905656814575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02476477622986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051612377167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96193218231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994128704071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564925670624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637897491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87396740913391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93378710746765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017540454865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92231571674347</t>
+    <t xml:space="preserve">2.02476453781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051648139954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96193242073059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564937591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637921333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87396728992462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93378698825836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017504692078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9223153591156</t>
   </si>
   <si>
     <t xml:space="preserve">1.93050956726074</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">1.96656334400177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95509147644043</t>
+    <t xml:space="preserve">1.95509135723114</t>
   </si>
   <si>
     <t xml:space="preserve">1.95836925506592</t>
@@ -215,13 +215,13 @@
     <t xml:space="preserve">1.91739904880524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93542587757111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9419811964035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248285770416</t>
+    <t xml:space="preserve">1.9354259967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94198131561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248261928558</t>
   </si>
   <si>
     <t xml:space="preserve">1.91084396839142</t>
@@ -230,61 +230,64 @@
     <t xml:space="preserve">1.83545899391174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80268287658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84201431274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83218145370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88298428058624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86823511123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9075665473938</t>
+    <t xml:space="preserve">1.80268311500549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84201419353485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83218133449554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88298439979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86823523044586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90756642818451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281702041626</t>
   </si>
   <si>
     <t xml:space="preserve">1.90592765808105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88462316989899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90920519828796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151265144348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89773333072662</t>
+    <t xml:space="preserve">1.88462293148041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90920507907867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87151253223419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8977335691452</t>
   </si>
   <si>
     <t xml:space="preserve">1.82398748397827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7584353685379</t>
+    <t xml:space="preserve">1.75843513011932</t>
   </si>
   <si>
     <t xml:space="preserve">1.76662921905518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78629493713379</t>
+    <t xml:space="preserve">1.78629505634308</t>
   </si>
   <si>
     <t xml:space="preserve">1.77646207809448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75187993049622</t>
+    <t xml:space="preserve">1.75188016891479</t>
   </si>
   <si>
     <t xml:space="preserve">1.75351893901825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77973985671997</t>
+    <t xml:space="preserve">1.77973973751068</t>
   </si>
   <si>
     <t xml:space="preserve">1.75024116039276</t>
@@ -293,13 +296,13 @@
     <t xml:space="preserve">1.72074282169342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6699401140213</t>
+    <t xml:space="preserve">1.66993987560272</t>
   </si>
   <si>
     <t xml:space="preserve">1.72893667221069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69616079330444</t>
+    <t xml:space="preserve">1.69616055488586</t>
   </si>
   <si>
     <t xml:space="preserve">1.76007413864136</t>
@@ -314,19 +317,19 @@
     <t xml:space="preserve">1.73385322093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71254861354828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63060879707336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67157876491547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66666221618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61012375354767</t>
+    <t xml:space="preserve">1.71254873275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63060867786407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67157864570618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66666233539581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61012363433838</t>
   </si>
   <si>
     <t xml:space="preserve">1.62241458892822</t>
@@ -338,37 +341,37 @@
     <t xml:space="preserve">1.67321753501892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64535784721375</t>
+    <t xml:space="preserve">1.64535772800446</t>
   </si>
   <si>
     <t xml:space="preserve">1.63880264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62569212913513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66830110549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65519082546234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64699673652649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63798332214355</t>
+    <t xml:space="preserve">1.62569224834442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66830122470856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65519058704376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64699685573578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63798320293427</t>
   </si>
   <si>
     <t xml:space="preserve">1.59865200519562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6297892332077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58308351039886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59537446498871</t>
+    <t xml:space="preserve">1.62978935241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58308339118958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59537434577942</t>
   </si>
   <si>
     <t xml:space="preserve">1.57898640632629</t>
@@ -377,13 +380,13 @@
     <t xml:space="preserve">1.59127748012543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54047453403473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56751465797424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56997299194336</t>
+    <t xml:space="preserve">1.54047441482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56751477718353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56997311115265</t>
   </si>
   <si>
     <t xml:space="preserve">1.56669533252716</t>
@@ -392,13 +395,13 @@
     <t xml:space="preserve">1.55850124359131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60274887084961</t>
+    <t xml:space="preserve">1.6027489900589</t>
   </si>
   <si>
     <t xml:space="preserve">1.60356843471527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6060266494751</t>
+    <t xml:space="preserve">1.60602676868439</t>
   </si>
   <si>
     <t xml:space="preserve">1.51917016506195</t>
@@ -410,22 +413,22 @@
     <t xml:space="preserve">1.54539096355438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37659418582916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4126478433609</t>
+    <t xml:space="preserve">1.37659430503845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41264796257019</t>
   </si>
   <si>
     <t xml:space="preserve">1.39462113380432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45771491527557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47082543373108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53391945362091</t>
+    <t xml:space="preserve">1.45771503448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47082531452179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53391933441162</t>
   </si>
   <si>
     <t xml:space="preserve">1.61258184909821</t>
@@ -440,10 +443,10 @@
     <t xml:space="preserve">1.54211330413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51179540157318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55522382259369</t>
+    <t xml:space="preserve">1.51179552078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5552237033844</t>
   </si>
   <si>
     <t xml:space="preserve">1.56505656242371</t>
@@ -455,67 +458,67 @@
     <t xml:space="preserve">1.59291625022888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55686259269714</t>
+    <t xml:space="preserve">1.55686247348785</t>
   </si>
   <si>
     <t xml:space="preserve">1.52162826061249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54129385948181</t>
+    <t xml:space="preserve">1.5412939786911</t>
   </si>
   <si>
     <t xml:space="preserve">1.50442087650299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5109760761261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55112683773041</t>
+    <t xml:space="preserve">1.51097619533539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55112671852112</t>
   </si>
   <si>
     <t xml:space="preserve">1.51589250564575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55194616317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50851774215698</t>
+    <t xml:space="preserve">1.55194628238678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50851786136627</t>
   </si>
   <si>
     <t xml:space="preserve">1.53228056430817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50933730602264</t>
+    <t xml:space="preserve">1.50933718681335</t>
   </si>
   <si>
     <t xml:space="preserve">1.50769853591919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50278210639954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49540746212006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51015663146973</t>
+    <t xml:space="preserve">1.50278198719025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49540758132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51015686988831</t>
   </si>
   <si>
     <t xml:space="preserve">1.57325053215027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58554136753082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59455502033234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60684585571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62159514427185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5716118812561</t>
+    <t xml:space="preserve">1.5855416059494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59455490112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60684597492218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62159526348114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57161176204681</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375207424164</t>
@@ -524,7 +527,7 @@
     <t xml:space="preserve">1.57243132591248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58718037605286</t>
+    <t xml:space="preserve">1.58718049526215</t>
   </si>
   <si>
     <t xml:space="preserve">1.54621028900146</t>
@@ -533,7 +536,7 @@
     <t xml:space="preserve">1.55768203735352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58799970149994</t>
+    <t xml:space="preserve">1.58799982070923</t>
   </si>
   <si>
     <t xml:space="preserve">1.53473877906799</t>
@@ -548,34 +551,34 @@
     <t xml:space="preserve">1.53883576393127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54784917831421</t>
+    <t xml:space="preserve">1.54784905910492</t>
   </si>
   <si>
     <t xml:space="preserve">1.55276560783386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54948794841766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53801643848419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.548668384552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53637766838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53965520858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5691534280777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65191316604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69288325309753</t>
+    <t xml:space="preserve">1.54948806762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5380163192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54866862297058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53637742996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53965508937836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56915354728699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65191304683685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69288313388824</t>
   </si>
   <si>
     <t xml:space="preserve">1.65355181694031</t>
@@ -587,25 +590,25 @@
     <t xml:space="preserve">1.82890391349792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81743204593658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81579351425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87970650196075</t>
+    <t xml:space="preserve">1.81743216514587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81579339504242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87970674037933</t>
   </si>
   <si>
     <t xml:space="preserve">1.79448890686035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80104398727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72729802131653</t>
+    <t xml:space="preserve">1.80104410648346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73876965045929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72729814052582</t>
   </si>
   <si>
     <t xml:space="preserve">1.74696362018585</t>
@@ -632,28 +635,28 @@
     <t xml:space="preserve">1.86495757102966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85840213298798</t>
+    <t xml:space="preserve">1.85840225219727</t>
   </si>
   <si>
     <t xml:space="preserve">1.87642896175385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89937233924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84856927394867</t>
+    <t xml:space="preserve">1.89937245845795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84856951236725</t>
   </si>
   <si>
     <t xml:space="preserve">1.92479634284973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93679392337799</t>
+    <t xml:space="preserve">1.93679428100586</t>
   </si>
   <si>
     <t xml:space="preserve">1.93850827217102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97107374668121</t>
+    <t xml:space="preserve">1.97107350826263</t>
   </si>
   <si>
     <t xml:space="preserve">1.92822420597076</t>
@@ -662,43 +665,43 @@
     <t xml:space="preserve">1.94193613529205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94364988803864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95907592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96764576435089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92651033401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95393395423889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93336606025696</t>
+    <t xml:space="preserve">1.94365000724792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95907580852509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9676456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92651009559631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95393407344818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93336629867554</t>
   </si>
   <si>
     <t xml:space="preserve">1.90594255924225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8939448595047</t>
+    <t xml:space="preserve">1.89394474029541</t>
   </si>
   <si>
     <t xml:space="preserve">1.8716629743576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9299384355545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080046653748</t>
+    <t xml:space="preserve">1.92993819713593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080058574677</t>
   </si>
   <si>
     <t xml:space="preserve">1.91451239585876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88708889484406</t>
+    <t xml:space="preserve">1.88708877563477</t>
   </si>
   <si>
     <t xml:space="preserve">1.87680494785309</t>
@@ -707,19 +710,19 @@
     <t xml:space="preserve">1.91794049739838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8853747844696</t>
+    <t xml:space="preserve">1.88537502288818</t>
   </si>
   <si>
     <t xml:space="preserve">1.86994910240173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88880264759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90937042236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90251469612122</t>
+    <t xml:space="preserve">1.88880276679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90937030315399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90251445770264</t>
   </si>
   <si>
     <t xml:space="preserve">1.96421778202057</t>
@@ -728,10 +731,10 @@
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821365833282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98649954795837</t>
+    <t xml:space="preserve">1.98821341991425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98649966716766</t>
   </si>
   <si>
     <t xml:space="preserve">1.97964358329773</t>
@@ -740,40 +743,40 @@
     <t xml:space="preserve">2.12533164024353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08591032028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05677247047424</t>
+    <t xml:space="preserve">2.0859100818634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05677270889282</t>
   </si>
   <si>
     <t xml:space="preserve">2.07905459403992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0807683467865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06534242630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06020045280457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07219862937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13390159606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10819220542908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09962201118469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10304975509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03963303565979</t>
+    <t xml:space="preserve">2.08076810836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06534266471863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06020069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07219839096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13390135765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10819172859192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09962224960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10304999351501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03963279724121</t>
   </si>
   <si>
     <t xml:space="preserve">2.06877040863037</t>
@@ -785,19 +788,19 @@
     <t xml:space="preserve">2.07391238212585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09790778160095</t>
+    <t xml:space="preserve">2.09790802001953</t>
   </si>
   <si>
     <t xml:space="preserve">2.1167619228363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08248209953308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705665588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12190365791321</t>
+    <t xml:space="preserve">2.08248233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705641746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12190389633179</t>
   </si>
   <si>
     <t xml:space="preserve">2.10647797584534</t>
@@ -806,13 +809,13 @@
     <t xml:space="preserve">2.08933806419373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05163073539734</t>
+    <t xml:space="preserve">2.05163049697876</t>
   </si>
   <si>
     <t xml:space="preserve">2.17675089836121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14247131347656</t>
+    <t xml:space="preserve">2.14247155189514</t>
   </si>
   <si>
     <t xml:space="preserve">2.1321873664856</t>
@@ -821,13 +824,13 @@
     <t xml:space="preserve">2.13047361373901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15961122512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11847543716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09105181694031</t>
+    <t xml:space="preserve">2.15961146354675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11847567558289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09105205535889</t>
   </si>
   <si>
     <t xml:space="preserve">2.12361764907837</t>
@@ -836,43 +839,43 @@
     <t xml:space="preserve">2.11161994934082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10133576393127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15789699554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15618348121643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14418530464172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1407573223114</t>
+    <t xml:space="preserve">2.10133600234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15789723396301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15618300437927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1441855430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14075756072998</t>
   </si>
   <si>
     <t xml:space="preserve">2.14932727813721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13904333114624</t>
+    <t xml:space="preserve">2.13904356956482</t>
   </si>
   <si>
     <t xml:space="preserve">2.17503690719604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15104126930237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12018990516663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1047637462616</t>
+    <t xml:space="preserve">2.15104103088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12018966674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10476398468018</t>
   </si>
   <si>
     <t xml:space="preserve">2.06362843513489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03277707099915</t>
+    <t xml:space="preserve">2.03277659416199</t>
   </si>
   <si>
     <t xml:space="preserve">2.04820275306702</t>
@@ -893,7 +896,7 @@
     <t xml:space="preserve">2.02077889442444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08419609069824</t>
+    <t xml:space="preserve">2.08419632911682</t>
   </si>
   <si>
     <t xml:space="preserve">2.0224928855896</t>
@@ -905,7 +908,7 @@
     <t xml:space="preserve">2.00535321235657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16818118095398</t>
+    <t xml:space="preserve">2.1681809425354</t>
   </si>
   <si>
     <t xml:space="preserve">2.18532085418701</t>
@@ -917,37 +920,37 @@
     <t xml:space="preserve">2.33100891113281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32243895530701</t>
+    <t xml:space="preserve">2.32243919372559</t>
   </si>
   <si>
     <t xml:space="preserve">2.35671830177307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44241738319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49383664131165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46812725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47669696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48526668548584</t>
+    <t xml:space="preserve">2.44241714477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49383687973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46812701225281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47669720649719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48526692390442</t>
   </si>
   <si>
     <t xml:space="preserve">2.53668618202209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57953572273254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59667539596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61381483078003</t>
+    <t xml:space="preserve">2.57953548431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.596675157547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61381506919861</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382585525513</t>
@@ -965,10 +968,10 @@
     <t xml:space="preserve">2.61655139923096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52694344520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43733549118042</t>
+    <t xml:space="preserve">2.52694368362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.437335729599</t>
   </si>
   <si>
     <t xml:space="preserve">2.46421790122986</t>
@@ -977,19 +980,19 @@
     <t xml:space="preserve">2.50006103515625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45525717735291</t>
+    <t xml:space="preserve">2.45525741577148</t>
   </si>
   <si>
     <t xml:space="preserve">2.54486513137817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57174754142761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51798272132874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56278657913208</t>
+    <t xml:space="preserve">2.57174730300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51798295974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56278681755066</t>
   </si>
   <si>
     <t xml:space="preserve">2.53590416908264</t>
@@ -998,25 +1001,25 @@
     <t xml:space="preserve">2.4911003112793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48213982582092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50902199745178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47317886352539</t>
+    <t xml:space="preserve">2.48213958740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5090217590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47317862510681</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680658340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75992441177368</t>
+    <t xml:space="preserve">2.7599241733551</t>
   </si>
   <si>
     <t xml:space="preserve">2.77784562110901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74200248718262</t>
+    <t xml:space="preserve">2.7420027256012</t>
   </si>
   <si>
     <t xml:space="preserve">2.76888489723206</t>
@@ -1025,7 +1028,7 @@
     <t xml:space="preserve">2.71512007713318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75096321105957</t>
+    <t xml:space="preserve">2.75096344947815</t>
   </si>
   <si>
     <t xml:space="preserve">2.67031621932983</t>
@@ -1037,13 +1040,13 @@
     <t xml:space="preserve">2.65239477157593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68823790550232</t>
+    <t xml:space="preserve">2.68823766708374</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719886779785</t>
+    <t xml:space="preserve">2.69719862937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1052,10 +1055,10 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745381355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83161044120789</t>
+    <t xml:space="preserve">2.86745357513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83161067962646</t>
   </si>
   <si>
     <t xml:space="preserve">2.6434338092804</t>
@@ -1064,7 +1067,7 @@
     <t xml:space="preserve">2.62551236152649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58070850372314</t>
+    <t xml:space="preserve">2.58070826530457</t>
   </si>
   <si>
     <t xml:space="preserve">2.607590675354</t>
@@ -1097,25 +1100,25 @@
     <t xml:space="preserve">2.90329670906067</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12731671333313</t>
+    <t xml:space="preserve">3.12731647491455</t>
   </si>
   <si>
     <t xml:space="preserve">3.16315984725952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13627743721008</t>
+    <t xml:space="preserve">3.13627767562866</t>
   </si>
   <si>
     <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25276780128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172852516174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28861093521118</t>
+    <t xml:space="preserve">3.25276803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172876358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28861117362976</t>
   </si>
   <si>
     <t xml:space="preserve">3.29757189750671</t>
@@ -1130,7 +1133,7 @@
     <t xml:space="preserve">3.34237575531006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42302298545837</t>
+    <t xml:space="preserve">3.42302274703979</t>
   </si>
   <si>
     <t xml:space="preserve">3.3871796131134</t>
@@ -1139,22 +1142,22 @@
     <t xml:space="preserve">3.40510129928589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41406202316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36925792694092</t>
+    <t xml:space="preserve">3.41406178474426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3692581653595</t>
   </si>
   <si>
     <t xml:space="preserve">3.37821888923645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45886564254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48574876785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47678756713867</t>
+    <t xml:space="preserve">3.45886588096619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4857485294342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47678780555725</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1163,13 +1166,13 @@
     <t xml:space="preserve">3.67392492294312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58431696891785</t>
+    <t xml:space="preserve">3.58431720733643</t>
   </si>
   <si>
     <t xml:space="preserve">3.53055238723755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59327816963196</t>
+    <t xml:space="preserve">3.59327793121338</t>
   </si>
   <si>
     <t xml:space="preserve">3.55743479728699</t>
@@ -1202,28 +1205,28 @@
     <t xml:space="preserve">3.6918466091156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70976805686951</t>
+    <t xml:space="preserve">3.70976781845093</t>
   </si>
   <si>
     <t xml:space="preserve">3.68288588523865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7635326385498</t>
+    <t xml:space="preserve">3.76353311538696</t>
   </si>
   <si>
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833721160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79041504859924</t>
+    <t xml:space="preserve">3.80833697319031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79041528701782</t>
   </si>
   <si>
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067070960999</t>
+    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">3.97005581855774</t>
@@ -1239,9 +1242,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">4.02636861801147</t>
@@ -6161,7 +6161,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G136" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6187,7 +6187,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G137" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6213,7 +6213,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G138" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -6239,7 +6239,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6265,7 +6265,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G140" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -6291,7 +6291,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -6343,7 +6343,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G143" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6369,7 +6369,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G144" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6395,7 +6395,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G145" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -6421,7 +6421,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G146" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6447,7 +6447,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G147" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6473,7 +6473,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G148" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6499,7 +6499,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G149" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6525,7 +6525,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G150" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6551,7 +6551,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G151" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6577,7 +6577,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G152" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6603,7 +6603,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G153" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6629,7 +6629,7 @@
         <v>2.13800001144409</v>
       </c>
       <c r="G154" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6655,7 +6655,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G155" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -6681,7 +6681,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G156" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -6707,7 +6707,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G157" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -6733,7 +6733,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -6759,7 +6759,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G159" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -6785,7 +6785,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G160" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -6811,7 +6811,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G161" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6837,7 +6837,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G162" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6863,7 +6863,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G163" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6889,7 +6889,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G164" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6915,7 +6915,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G165" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6941,7 +6941,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G166" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6967,7 +6967,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G167" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6993,7 +6993,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G168" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7019,7 +7019,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G169" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7045,7 +7045,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G170" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7071,7 +7071,7 @@
         <v>2.11800003051758</v>
       </c>
       <c r="G171" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7097,7 +7097,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G172" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7123,7 +7123,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G173" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7149,7 +7149,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G174" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7175,7 +7175,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G175" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7201,7 +7201,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G176" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7227,7 +7227,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G177" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7253,7 +7253,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G178" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7279,7 +7279,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7305,7 +7305,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G180" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7331,7 +7331,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G181" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7357,7 +7357,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7383,7 +7383,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7409,7 +7409,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G184" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7435,7 +7435,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G185" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7461,7 +7461,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G186" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7487,7 +7487,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G187" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7513,7 +7513,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G188" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7539,7 +7539,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G189" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7565,7 +7565,7 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7591,7 +7591,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G191" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7617,7 +7617,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G192" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7643,7 +7643,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G193" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7669,7 +7669,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G194" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7695,7 +7695,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7721,7 +7721,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G196" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7747,7 +7747,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G197" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7773,7 +7773,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7799,7 +7799,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7825,7 +7825,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G200" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7851,7 +7851,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G201" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7877,7 +7877,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G202" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7903,7 +7903,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G203" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7929,7 +7929,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G204" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7955,7 +7955,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G205" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7981,7 +7981,7 @@
         <v>1.99899995326996</v>
       </c>
       <c r="G206" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8007,7 +8007,7 @@
         <v>1.95099997520447</v>
       </c>
       <c r="G207" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8033,7 +8033,7 @@
         <v>1.9889999628067</v>
       </c>
       <c r="G208" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8059,7 +8059,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G209" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8085,7 +8085,7 @@
         <v>1.94700002670288</v>
       </c>
       <c r="G210" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8111,7 +8111,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G211" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8137,7 +8137,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G212" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8163,7 +8163,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G213" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8189,7 +8189,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G214" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8215,7 +8215,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G215" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8241,7 +8241,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G216" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8267,7 +8267,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G217" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8293,7 +8293,7 @@
         <v>1.90199995040894</v>
       </c>
       <c r="G218" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8319,7 +8319,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G219" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8345,7 +8345,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G220" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8371,7 +8371,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G221" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8397,7 +8397,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G222" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8423,7 +8423,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G223" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8449,7 +8449,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G224" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8475,7 +8475,7 @@
         <v>1.85399997234344</v>
       </c>
       <c r="G225" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8501,7 +8501,7 @@
         <v>1.90600001811981</v>
       </c>
       <c r="G226" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8527,7 +8527,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G227" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8553,7 +8553,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G228" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8579,7 +8579,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G229" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8605,7 +8605,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G230" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8631,7 +8631,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G231" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8657,7 +8657,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G232" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8683,7 +8683,7 @@
         <v>1.87199997901917</v>
       </c>
       <c r="G233" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8709,7 +8709,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G234" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8735,7 +8735,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G235" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8761,7 +8761,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G236" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8787,7 +8787,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G237" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8813,7 +8813,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G238" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8839,7 +8839,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G239" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8865,7 +8865,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G240" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8891,7 +8891,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G241" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8917,7 +8917,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8943,7 +8943,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G243" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8969,7 +8969,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G244" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8995,7 +8995,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G245" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9021,7 +9021,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G246" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9047,7 +9047,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G247" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9073,7 +9073,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G248" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9099,7 +9099,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G249" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9125,7 +9125,7 @@
         <v>1.85699999332428</v>
       </c>
       <c r="G250" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9151,7 +9151,7 @@
         <v>1.88100004196167</v>
       </c>
       <c r="G251" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9177,7 +9177,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G252" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9203,7 +9203,7 @@
         <v>1.84399998188019</v>
       </c>
       <c r="G253" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9229,7 +9229,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G254" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9255,7 +9255,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G255" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9281,7 +9281,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G256" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9307,7 +9307,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G257" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9333,7 +9333,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G258" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9359,7 +9359,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G259" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9385,7 +9385,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G260" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9411,7 +9411,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G261" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9437,7 +9437,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G262" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9463,7 +9463,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G263" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9489,7 +9489,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G264" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9515,7 +9515,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G265" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9541,7 +9541,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G266" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9567,7 +9567,7 @@
         <v>1.84300005435944</v>
       </c>
       <c r="G267" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9593,7 +9593,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G268" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9619,7 +9619,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G269" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9645,7 +9645,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G270" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9671,7 +9671,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G271" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9697,7 +9697,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G272" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9723,7 +9723,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G273" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9749,7 +9749,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G274" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9775,7 +9775,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G275" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9801,7 +9801,7 @@
         <v>1.97899997234344</v>
       </c>
       <c r="G276" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9827,7 +9827,7 @@
         <v>1.91799998283386</v>
       </c>
       <c r="G277" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9853,7 +9853,7 @@
         <v>1.88399994373322</v>
       </c>
       <c r="G278" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9879,7 +9879,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G279" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9905,7 +9905,7 @@
         <v>1.9190000295639</v>
       </c>
       <c r="G280" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9931,7 +9931,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G281" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9957,7 +9957,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G282" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9983,7 +9983,7 @@
         <v>1.90100002288818</v>
       </c>
       <c r="G283" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10009,7 +10009,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G284" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10035,7 +10035,7 @@
         <v>1.93799996376038</v>
       </c>
       <c r="G285" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10061,7 +10061,7 @@
         <v>1.87300002574921</v>
       </c>
       <c r="G286" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10087,7 +10087,7 @@
         <v>1.93099999427795</v>
       </c>
       <c r="G287" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10113,7 +10113,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G288" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10139,7 +10139,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G289" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10165,7 +10165,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G290" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10191,7 +10191,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G291" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10217,7 +10217,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G292" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10243,7 +10243,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G293" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10269,7 +10269,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G294" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10295,7 +10295,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G295" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10321,7 +10321,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G296" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10347,7 +10347,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G297" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10373,7 +10373,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G298" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10399,7 +10399,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G299" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10425,7 +10425,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G300" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10451,7 +10451,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G301" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10477,7 +10477,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G302" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10503,7 +10503,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G303" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10529,7 +10529,7 @@
         <v>1.875</v>
       </c>
       <c r="G304" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10555,7 +10555,7 @@
         <v>1.87899994850159</v>
       </c>
       <c r="G305" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10581,7 +10581,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G306" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10607,7 +10607,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10633,7 +10633,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G308" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10659,7 +10659,7 @@
         <v>2</v>
       </c>
       <c r="G309" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10685,7 +10685,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G310" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10711,7 +10711,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G311" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10737,7 +10737,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G312" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10763,7 +10763,7 @@
         <v>2.06599998474121</v>
       </c>
       <c r="G313" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10789,7 +10789,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G314" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10815,7 +10815,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G315" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10841,7 +10841,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G316" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10867,7 +10867,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G317" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10919,7 +10919,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G319" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10945,7 +10945,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G320" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10971,7 +10971,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G321" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10997,7 +10997,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G322" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11023,7 +11023,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G323" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11049,7 +11049,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G324" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11075,7 +11075,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G325" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11127,7 +11127,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G327" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11153,7 +11153,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G328" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11179,7 +11179,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G329" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11205,7 +11205,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G330" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11231,7 +11231,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G331" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11257,7 +11257,7 @@
         <v>2.12199997901917</v>
       </c>
       <c r="G332" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11283,7 +11283,7 @@
         <v>2.10800004005432</v>
       </c>
       <c r="G333" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11309,7 +11309,7 @@
         <v>2.13199996948242</v>
       </c>
       <c r="G334" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11335,7 +11335,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G335" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11361,7 +11361,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G336" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11465,7 +11465,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G340" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11491,7 +11491,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11517,7 +11517,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G342" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11543,7 +11543,7 @@
         <v>2.21199989318848</v>
       </c>
       <c r="G343" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11569,7 +11569,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G344" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11621,7 +11621,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G346" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11647,7 +11647,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G347" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11673,7 +11673,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G348" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11699,7 +11699,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G349" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11725,7 +11725,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G350" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11777,7 +11777,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G352" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11803,7 +11803,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G353" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11855,7 +11855,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G355" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11881,7 +11881,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G356" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11907,7 +11907,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G357" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11933,7 +11933,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G358" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11959,7 +11959,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G359" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11985,7 +11985,7 @@
         <v>2.25</v>
       </c>
       <c r="G360" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12011,7 +12011,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G361" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12037,7 +12037,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G362" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12063,7 +12063,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G363" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12089,7 +12089,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G364" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12115,7 +12115,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G365" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12141,7 +12141,7 @@
         <v>2.25</v>
       </c>
       <c r="G366" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12167,7 +12167,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G367" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12193,7 +12193,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G368" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12219,7 +12219,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G369" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12245,7 +12245,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G370" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12271,7 +12271,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G371" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12297,7 +12297,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12323,7 +12323,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G373" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12349,7 +12349,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G374" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12375,7 +12375,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G375" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12401,7 +12401,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G376" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12427,7 +12427,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G377" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12453,7 +12453,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G378" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12479,7 +12479,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G379" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12505,7 +12505,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12531,7 +12531,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G381" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12557,7 +12557,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G382" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12583,7 +12583,7 @@
         <v>2.18199992179871</v>
       </c>
       <c r="G383" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12609,7 +12609,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G384" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12635,7 +12635,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G385" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12661,7 +12661,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G386" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12687,7 +12687,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G387" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12713,7 +12713,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G388" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12739,7 +12739,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12765,7 +12765,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G390" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12791,7 +12791,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G391" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12817,7 +12817,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G392" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12843,7 +12843,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G393" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12869,7 +12869,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G394" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12895,7 +12895,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12921,7 +12921,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G396" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12947,7 +12947,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G397" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12973,7 +12973,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G398" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12999,7 +12999,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G399" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13025,7 +13025,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G400" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13051,7 +13051,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13077,7 +13077,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G402" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13103,7 +13103,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G403" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13129,7 +13129,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G404" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13155,7 +13155,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G405" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13181,7 +13181,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G406" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13207,7 +13207,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G407" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13233,7 +13233,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G408" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13259,7 +13259,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G409" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13285,7 +13285,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G410" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13311,7 +13311,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G411" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13337,7 +13337,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G412" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13363,7 +13363,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G413" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13389,7 +13389,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13415,7 +13415,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G415" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13441,7 +13441,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G416" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13467,7 +13467,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G417" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13493,7 +13493,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G418" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13519,7 +13519,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G419" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13545,7 +13545,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G420" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13571,7 +13571,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13597,7 +13597,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G422" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13623,7 +13623,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G423" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13649,7 +13649,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G424" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13675,7 +13675,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G425" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13701,7 +13701,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G426" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13727,7 +13727,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G427" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13753,7 +13753,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G428" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13779,7 +13779,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G429" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13805,7 +13805,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G430" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13831,7 +13831,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G431" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13857,7 +13857,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13883,7 +13883,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G433" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13909,7 +13909,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13935,7 +13935,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G435" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13961,7 +13961,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G436" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13987,7 +13987,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G437" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14013,7 +14013,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G438" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14039,7 +14039,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G439" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14065,7 +14065,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G440" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14091,7 +14091,7 @@
         <v>2.5</v>
       </c>
       <c r="G441" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14117,7 +14117,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G442" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14143,7 +14143,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G443" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14169,7 +14169,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G444" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14195,7 +14195,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G445" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14221,7 +14221,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G446" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14247,7 +14247,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G447" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14273,7 +14273,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G448" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14299,7 +14299,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G449" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14325,7 +14325,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G450" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14351,7 +14351,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14377,7 +14377,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G452" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14403,7 +14403,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G453" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14429,7 +14429,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G454" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14455,7 +14455,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G455" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14481,7 +14481,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G456" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14507,7 +14507,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G457" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14533,7 +14533,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G458" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14559,7 +14559,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G459" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14585,7 +14585,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G460" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14611,7 +14611,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G461" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14637,7 +14637,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G462" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14663,7 +14663,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G463" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14689,7 +14689,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G464" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14715,7 +14715,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G465" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14741,7 +14741,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G466" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14767,7 +14767,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G467" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14793,7 +14793,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G468" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14819,7 +14819,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G469" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14845,7 +14845,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G470" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14871,7 +14871,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G471" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14897,7 +14897,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G472" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14923,7 +14923,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G473" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14949,7 +14949,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14975,7 +14975,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G475" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15001,7 +15001,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G476" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15027,7 +15027,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G477" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15053,7 +15053,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G478" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15079,7 +15079,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G479" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15105,7 +15105,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G480" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15131,7 +15131,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G481" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15157,7 +15157,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G482" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15183,7 +15183,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G483" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15209,7 +15209,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G484" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15235,7 +15235,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G485" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15261,7 +15261,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G486" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15287,7 +15287,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G487" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15313,7 +15313,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G488" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15339,7 +15339,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G489" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15365,7 +15365,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G490" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15391,7 +15391,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G491" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15417,7 +15417,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G492" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15443,7 +15443,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G493" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15469,7 +15469,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G494" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15495,7 +15495,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G495" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15521,7 +15521,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G496" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15547,7 +15547,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G497" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15573,7 +15573,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G498" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15599,7 +15599,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G499" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15625,7 +15625,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G500" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15651,7 +15651,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G501" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15677,7 +15677,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G502" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15703,7 +15703,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G503" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15729,7 +15729,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G504" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15755,7 +15755,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G505" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15781,7 +15781,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G506" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15807,7 +15807,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G507" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15833,7 +15833,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G508" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15859,7 +15859,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G509" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15885,7 +15885,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G510" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15911,7 +15911,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G511" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15937,7 +15937,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G512" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15963,7 +15963,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G513" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15989,7 +15989,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16015,7 +16015,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G515" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16041,7 +16041,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G516" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16067,7 +16067,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16093,7 +16093,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G518" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16119,7 +16119,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G519" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16145,7 +16145,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G520" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16171,7 +16171,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G521" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16197,7 +16197,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G522" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16223,7 +16223,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G523" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16249,7 +16249,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G524" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16275,7 +16275,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G525" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16301,7 +16301,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G526" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16327,7 +16327,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G527" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16353,7 +16353,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G528" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16379,7 +16379,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G529" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16405,7 +16405,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G530" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16431,7 +16431,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G531" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16457,7 +16457,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16483,7 +16483,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G533" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16509,7 +16509,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G534" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16535,7 +16535,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G535" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16561,7 +16561,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G536" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16587,7 +16587,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G537" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16613,7 +16613,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G538" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16639,7 +16639,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G539" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16665,7 +16665,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16691,7 +16691,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G541" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16717,7 +16717,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G542" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16743,7 +16743,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16769,7 +16769,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G544" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16795,7 +16795,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G545" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16821,7 +16821,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G546" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16847,7 +16847,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G547" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16873,7 +16873,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G548" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16899,7 +16899,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G549" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16925,7 +16925,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G550" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16951,7 +16951,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G551" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16977,7 +16977,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G552" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17003,7 +17003,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G553" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17029,7 +17029,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G554" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17055,7 +17055,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G555" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17081,7 +17081,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G556" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17107,7 +17107,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G557" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17133,7 +17133,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17159,7 +17159,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G559" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17185,7 +17185,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G560" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17211,7 +17211,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G561" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17237,7 +17237,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G562" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17263,7 +17263,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G563" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17289,7 +17289,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17315,7 +17315,7 @@
         <v>2.5</v>
       </c>
       <c r="G565" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17341,7 +17341,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17367,7 +17367,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G567" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17393,7 +17393,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17419,7 +17419,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G569" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17445,7 +17445,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G570" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17471,7 +17471,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17497,7 +17497,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17523,7 +17523,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G573" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17549,7 +17549,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G574" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17575,7 +17575,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G575" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17601,7 +17601,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17627,7 +17627,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G577" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17653,7 +17653,7 @@
         <v>2.5</v>
       </c>
       <c r="G578" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17679,7 +17679,7 @@
         <v>2.5</v>
       </c>
       <c r="G579" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17705,7 +17705,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G580" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17731,7 +17731,7 @@
         <v>2.5</v>
       </c>
       <c r="G581" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17757,7 +17757,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G582" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17783,7 +17783,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G583" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17809,7 +17809,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17835,7 +17835,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17861,7 +17861,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G586" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17887,7 +17887,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G587" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17913,7 +17913,7 @@
         <v>2.5</v>
       </c>
       <c r="G588" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17939,7 +17939,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17965,7 +17965,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17991,7 +17991,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18017,7 +18017,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G592" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18043,7 +18043,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G593" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18069,7 +18069,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G594" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18095,7 +18095,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G595" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18121,7 +18121,7 @@
         <v>2.75</v>
       </c>
       <c r="G596" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18147,7 +18147,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18173,7 +18173,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G598" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18199,7 +18199,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G599" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18225,7 +18225,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G600" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18251,7 +18251,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G601" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18277,7 +18277,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G602" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18303,7 +18303,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18329,7 +18329,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G604" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18355,7 +18355,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G605" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18381,7 +18381,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G606" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18407,7 +18407,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G607" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18433,7 +18433,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G608" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18459,7 +18459,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G609" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18485,7 +18485,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G610" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18511,7 +18511,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G611" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18537,7 +18537,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18563,7 +18563,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18589,7 +18589,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18615,7 +18615,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18641,7 +18641,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18667,7 +18667,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18693,7 +18693,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18719,7 +18719,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18745,7 +18745,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18771,7 +18771,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18797,7 +18797,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18823,7 +18823,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18849,7 +18849,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18875,7 +18875,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18901,7 +18901,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18927,7 +18927,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18953,7 +18953,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18979,7 +18979,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19005,7 +19005,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19031,7 +19031,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19057,7 +19057,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19083,7 +19083,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19109,7 +19109,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19135,7 +19135,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19161,7 +19161,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19187,7 +19187,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19213,7 +19213,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19239,7 +19239,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19265,7 +19265,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19291,7 +19291,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19317,7 +19317,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19343,7 +19343,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19369,7 +19369,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19395,7 +19395,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19421,7 +19421,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19447,7 +19447,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19473,7 +19473,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19499,7 +19499,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19525,7 +19525,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19551,7 +19551,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19577,7 +19577,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19603,7 +19603,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19629,7 +19629,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G654" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19655,7 +19655,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19681,7 +19681,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19707,7 +19707,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19733,7 +19733,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19759,7 +19759,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19785,7 +19785,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19811,7 +19811,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19837,7 +19837,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19863,7 +19863,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19889,7 +19889,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19915,7 +19915,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19941,7 +19941,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19967,7 +19967,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19993,7 +19993,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20019,7 +20019,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G669" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20045,7 +20045,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20071,7 +20071,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20097,7 +20097,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20123,7 +20123,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20149,7 +20149,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20175,7 +20175,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20201,7 +20201,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20227,7 +20227,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20253,7 +20253,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20279,7 +20279,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20305,7 +20305,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20331,7 +20331,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20357,7 +20357,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20383,7 +20383,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20409,7 +20409,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20435,7 +20435,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20461,7 +20461,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20487,7 +20487,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20513,7 +20513,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20539,7 +20539,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20565,7 +20565,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20591,7 +20591,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20617,7 +20617,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20643,7 +20643,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20669,7 +20669,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20695,7 +20695,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20721,7 +20721,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20747,7 +20747,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20773,7 +20773,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20799,7 +20799,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20825,7 +20825,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20851,7 +20851,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20877,7 +20877,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20903,7 +20903,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20929,7 +20929,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20955,7 +20955,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20981,7 +20981,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21007,7 +21007,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21033,7 +21033,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G708" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21059,7 +21059,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21085,7 +21085,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21111,7 +21111,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21137,7 +21137,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21163,7 +21163,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G713" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21189,7 +21189,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G714" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21215,7 +21215,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G715" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21241,7 +21241,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G716" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21267,7 +21267,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21293,7 +21293,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21319,7 +21319,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21345,7 +21345,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21371,7 +21371,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G721" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21397,7 +21397,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G722" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21423,7 +21423,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21449,7 +21449,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G724" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21475,7 +21475,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G725" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21501,7 +21501,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21527,7 +21527,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G727" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21553,7 +21553,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21579,7 +21579,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G729" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21605,7 +21605,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21631,7 +21631,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G731" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21657,7 +21657,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G732" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21683,7 +21683,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G733" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21709,7 +21709,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21735,7 +21735,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21761,7 +21761,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21787,7 +21787,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21813,7 +21813,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21839,7 +21839,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21865,7 +21865,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21891,7 +21891,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21917,7 +21917,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21943,7 +21943,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21969,7 +21969,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21995,7 +21995,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22021,7 +22021,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22047,7 +22047,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22073,7 +22073,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22099,7 +22099,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22125,7 +22125,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22151,7 +22151,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22177,7 +22177,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22203,7 +22203,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22229,7 +22229,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22255,7 +22255,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22281,7 +22281,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22307,7 +22307,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22333,7 +22333,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22359,7 +22359,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G759" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22385,7 +22385,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G760" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22411,7 +22411,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G761" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22437,7 +22437,7 @@
         <v>2.75</v>
       </c>
       <c r="G762" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22463,7 +22463,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G763" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22489,7 +22489,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G764" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22515,7 +22515,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G765" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22541,7 +22541,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G766" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22567,7 +22567,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G767" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22593,7 +22593,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G768" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22619,7 +22619,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22645,7 +22645,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G770" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22671,7 +22671,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G771" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22697,7 +22697,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22723,7 +22723,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22749,7 +22749,7 @@
         <v>3</v>
       </c>
       <c r="G774" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22775,7 +22775,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22801,7 +22801,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G776" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22827,7 +22827,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G777" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22853,7 +22853,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G778" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22879,7 +22879,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22905,7 +22905,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22931,7 +22931,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G781" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22957,7 +22957,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G782" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22983,7 +22983,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23009,7 +23009,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G784" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23035,7 +23035,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G785" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23061,7 +23061,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23087,7 +23087,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G787" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23113,7 +23113,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23139,7 +23139,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G789" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23165,7 +23165,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G790" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23191,7 +23191,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G791" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23217,7 +23217,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G792" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23243,7 +23243,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G793" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23269,7 +23269,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23295,7 +23295,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G795" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23321,7 +23321,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23347,7 +23347,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G797" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23373,7 +23373,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G798" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23399,7 +23399,7 @@
         <v>3.5</v>
       </c>
       <c r="G799" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23425,7 +23425,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23451,7 +23451,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G801" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23477,7 +23477,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G802" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23503,7 +23503,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23529,7 +23529,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G804" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23555,7 +23555,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23581,7 +23581,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G806" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23607,7 +23607,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23633,7 +23633,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23659,7 +23659,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G809" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23685,7 +23685,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G810" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23711,7 +23711,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G811" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23737,7 +23737,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23763,7 +23763,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G813" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23789,7 +23789,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23815,7 +23815,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G815" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23841,7 +23841,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G816" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23867,7 +23867,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G817" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23893,7 +23893,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G818" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23919,7 +23919,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G819" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23945,7 +23945,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G820" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23971,7 +23971,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G821" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23997,7 +23997,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G822" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24023,7 +24023,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G823" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24049,7 +24049,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24075,7 +24075,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24101,7 +24101,7 @@
         <v>4</v>
       </c>
       <c r="G826" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24127,7 +24127,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G827" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24153,7 +24153,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G828" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24179,7 +24179,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24205,7 +24205,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G830" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24231,7 +24231,7 @@
         <v>4</v>
       </c>
       <c r="G831" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24257,7 +24257,7 @@
         <v>4</v>
       </c>
       <c r="G832" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24283,7 +24283,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G833" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24309,7 +24309,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24335,7 +24335,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24361,7 +24361,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G836" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24387,7 +24387,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24413,7 +24413,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G838" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24439,7 +24439,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G839" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24465,7 +24465,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24491,7 +24491,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G841" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24517,7 +24517,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24543,7 +24543,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24569,7 +24569,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G844" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24595,7 +24595,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G845" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24621,7 +24621,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G846" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24647,7 +24647,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24673,7 +24673,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24699,7 +24699,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G849" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24725,7 +24725,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24751,7 +24751,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G851" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24777,7 +24777,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24803,7 +24803,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G853" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24829,7 +24829,7 @@
         <v>4.25</v>
       </c>
       <c r="G854" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24855,7 +24855,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24881,7 +24881,7 @@
         <v>4.25</v>
       </c>
       <c r="G856" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24907,7 +24907,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G857" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24933,7 +24933,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24959,7 +24959,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G859" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24985,7 +24985,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25011,7 +25011,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G861" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25037,7 +25037,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G862" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25063,7 +25063,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G863" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25089,7 +25089,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G864" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25115,7 +25115,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25167,7 +25167,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G867" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25271,7 +25271,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G871" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25323,7 +25323,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25453,7 +25453,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G878" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25817,7 +25817,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25895,7 +25895,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G895" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26129,7 +26129,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G904" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -30315,7 +30315,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1065" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30601,7 +30601,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1076" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30627,7 +30627,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1077" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30861,7 +30861,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1086" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31225,7 +31225,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1100" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31329,7 +31329,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1104" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32837,7 +32837,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1162" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32863,7 +32863,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1163" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33305,7 +33305,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1180" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33435,7 +33435,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33643,7 +33643,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1193" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -59391,13 +59391,13 @@
     </row>
     <row r="2184">
       <c r="A2184" s="1" t="n">
-        <v>45503.6494328704</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B2184" t="n">
         <v>2055</v>
       </c>
       <c r="C2184" t="n">
-        <v>2.03999996185303</v>
+        <v>2.09999990463257</v>
       </c>
       <c r="D2184" t="n">
         <v>1.96000003814697</v>
@@ -59412,6 +59412,32 @@
         <v>759</v>
       </c>
       <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.5421296296</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>1.98000001907349</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>1.98000001907349</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>1.99000000953674</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>745</v>
+      </c>
+      <c r="H2185" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825943946838</t>
+    <t xml:space="preserve">1.85825932025909</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91323745250702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92109143733978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88496327400208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92423319816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642294883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82998502254486</t>
+    <t xml:space="preserve">1.91323781013489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92109167575836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88496315479279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92423331737518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642306804657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998478412628</t>
   </si>
   <si>
     <t xml:space="preserve">1.79856896400452</t>
@@ -68,28 +68,28 @@
     <t xml:space="preserve">1.76715290546417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85354697704315</t>
+    <t xml:space="preserve">1.85354709625244</t>
   </si>
   <si>
     <t xml:space="preserve">1.86925530433655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87710905075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281713962555</t>
+    <t xml:space="preserve">1.87710916996002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281702041626</t>
   </si>
   <si>
     <t xml:space="preserve">1.86768412590027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81584787368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83783876895905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87553834915161</t>
+    <t xml:space="preserve">1.81584763526917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83783888816833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87553811073303</t>
   </si>
   <si>
     <t xml:space="preserve">1.82684338092804</t>
@@ -98,88 +98,88 @@
     <t xml:space="preserve">1.8456928730011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81898927688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8362683057785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85983049869537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80485212802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82056033611298</t>
+    <t xml:space="preserve">1.8189891576767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83626818656921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85983026027679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80485224723816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82056045532227</t>
   </si>
   <si>
     <t xml:space="preserve">1.81741845607758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85040533542633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88025069236755</t>
+    <t xml:space="preserve">1.85040545463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88025081157684</t>
   </si>
   <si>
     <t xml:space="preserve">1.81427681446075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85197615623474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84412205219269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84098064899445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82370173931122</t>
+    <t xml:space="preserve">1.85197627544403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84412229061127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84098052978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82370185852051</t>
   </si>
   <si>
     <t xml:space="preserve">1.81113541126251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82213091850281</t>
+    <t xml:space="preserve">1.8221310377121</t>
   </si>
   <si>
     <t xml:space="preserve">1.93679976463318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94622433185577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95407843589783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350347995758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9650741815567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99334859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00434446334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.987065076828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00905632972717</t>
+    <t xml:space="preserve">1.94622445106506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95407855510712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.963503241539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507394313812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99334847927094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00434422492981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98706543445587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00905656814575</t>
   </si>
   <si>
     <t xml:space="preserve">2.02476453781128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93051648139954</t>
+    <t xml:space="preserve">1.93051612377167</t>
   </si>
   <si>
     <t xml:space="preserve">1.96193242073059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93994128704071</t>
+    <t xml:space="preserve">1.93994116783142</t>
   </si>
   <si>
     <t xml:space="preserve">1.95564937591553</t>
@@ -188,40 +188,40 @@
     <t xml:space="preserve">1.91637897491455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87396740913391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93378698825836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017528533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9223153591156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93050956726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96656334400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509135723114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95836901664734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91739881038666</t>
+    <t xml:space="preserve">1.8739675283432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93378722667694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017552375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92231559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93050944805145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96656322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509159564972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95836937427521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91739916801453</t>
   </si>
   <si>
     <t xml:space="preserve">1.9354259967804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94198131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248261928558</t>
+    <t xml:space="preserve">1.94198107719421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248285770416</t>
   </si>
   <si>
     <t xml:space="preserve">1.91084396839142</t>
@@ -230,40 +230,37 @@
     <t xml:space="preserve">1.83545911312103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80268311500549</t>
+    <t xml:space="preserve">1.80268287658691</t>
   </si>
   <si>
     <t xml:space="preserve">1.84201431274414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83218145370483</t>
+    <t xml:space="preserve">1.83218133449554</t>
   </si>
   <si>
     <t xml:space="preserve">1.88298439979553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86823511123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90756642818451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281690120697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592753887177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88462293148041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90920507907867</t>
+    <t xml:space="preserve">1.86823523044586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9075665473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90592741966248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88462328910828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9092048406601</t>
   </si>
   <si>
     <t xml:space="preserve">1.87151265144348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8977335691452</t>
+    <t xml:space="preserve">1.89773333072662</t>
   </si>
   <si>
     <t xml:space="preserve">1.82398760318756</t>
@@ -275,16 +272,16 @@
     <t xml:space="preserve">1.76662921905518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78629505634308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77646207809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75188016891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75351893901825</t>
+    <t xml:space="preserve">1.78629493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77646219730377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75188004970551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75351905822754</t>
   </si>
   <si>
     <t xml:space="preserve">1.77973973751068</t>
@@ -293,7 +290,7 @@
     <t xml:space="preserve">1.75024127960205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72074282169342</t>
+    <t xml:space="preserve">1.72074270248413</t>
   </si>
   <si>
     <t xml:space="preserve">1.66993999481201</t>
@@ -308,7 +305,7 @@
     <t xml:space="preserve">1.76007401943207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70435464382172</t>
+    <t xml:space="preserve">1.70435476303101</t>
   </si>
   <si>
     <t xml:space="preserve">1.73549211025238</t>
@@ -317,19 +314,19 @@
     <t xml:space="preserve">1.73385322093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71254873275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63060867786407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67157876491547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66666233539581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61012351512909</t>
+    <t xml:space="preserve">1.71254861354828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63060879707336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67157864570618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66666221618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61012363433838</t>
   </si>
   <si>
     <t xml:space="preserve">1.62241470813751</t>
@@ -338,37 +335,37 @@
     <t xml:space="preserve">1.66338467597961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67321753501892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64535760879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63880264759064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62569224834442</t>
+    <t xml:space="preserve">1.6732177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64535772800446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63880252838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62569212913513</t>
   </si>
   <si>
     <t xml:space="preserve">1.66830110549927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65519070625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64699673652649</t>
+    <t xml:space="preserve">1.65519082546234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6469966173172</t>
   </si>
   <si>
     <t xml:space="preserve">1.63798320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59865212440491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62978935241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58308339118958</t>
+    <t xml:space="preserve">1.59865200519562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62978911399841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58308351039886</t>
   </si>
   <si>
     <t xml:space="preserve">1.59537446498871</t>
@@ -383,10 +380,10 @@
     <t xml:space="preserve">1.54047453403473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56751489639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56997311115265</t>
+    <t xml:space="preserve">1.56751477718353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56997287273407</t>
   </si>
   <si>
     <t xml:space="preserve">1.56669533252716</t>
@@ -401,13 +398,13 @@
     <t xml:space="preserve">1.60356843471527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6060266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51917016506195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56177890300751</t>
+    <t xml:space="preserve">1.60602676868439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51916992664337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5617790222168</t>
   </si>
   <si>
     <t xml:space="preserve">1.54539096355438</t>
@@ -416,52 +413,52 @@
     <t xml:space="preserve">1.37659418582916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4126478433609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39462101459503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45771503448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4708251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53391921520233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61258184909821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61176252365112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59783267974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54211330413818</t>
+    <t xml:space="preserve">1.41264796257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39462113380432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45771491527557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47082543373108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53391933441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61258172988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61176240444183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59783279895782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54211318492889</t>
   </si>
   <si>
     <t xml:space="preserve">1.51179552078247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5552237033844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56505644321442</t>
+    <t xml:space="preserve">1.55522382259369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56505656242371</t>
   </si>
   <si>
     <t xml:space="preserve">1.56423723697662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59291625022888</t>
+    <t xml:space="preserve">1.59291613101959</t>
   </si>
   <si>
     <t xml:space="preserve">1.55686259269714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52162837982178</t>
+    <t xml:space="preserve">1.52162826061249</t>
   </si>
   <si>
     <t xml:space="preserve">1.5412939786911</t>
@@ -473,7 +470,7 @@
     <t xml:space="preserve">1.5109760761261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55112671852112</t>
+    <t xml:space="preserve">1.55112683773041</t>
   </si>
   <si>
     <t xml:space="preserve">1.51589250564575</t>
@@ -482,7 +479,7 @@
     <t xml:space="preserve">1.55194616317749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50851786136627</t>
+    <t xml:space="preserve">1.50851774215698</t>
   </si>
   <si>
     <t xml:space="preserve">1.53228056430817</t>
@@ -491,31 +488,31 @@
     <t xml:space="preserve">1.50933730602264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5076984167099</t>
+    <t xml:space="preserve">1.50769853591919</t>
   </si>
   <si>
     <t xml:space="preserve">1.50278198719025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49540746212006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51015675067902</t>
+    <t xml:space="preserve">1.49540758132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51015663146973</t>
   </si>
   <si>
     <t xml:space="preserve">1.57325053215027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5855416059494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59455502033234</t>
+    <t xml:space="preserve">1.58554148674011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59455490112305</t>
   </si>
   <si>
     <t xml:space="preserve">1.60684597492218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62159538269043</t>
+    <t xml:space="preserve">1.62159526348114</t>
   </si>
   <si>
     <t xml:space="preserve">1.57161176204681</t>
@@ -524,7 +521,7 @@
     <t xml:space="preserve">1.54375207424164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57243120670319</t>
+    <t xml:space="preserve">1.57243132591248</t>
   </si>
   <si>
     <t xml:space="preserve">1.58718037605286</t>
@@ -539,7 +536,7 @@
     <t xml:space="preserve">1.58799982070923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53473877906799</t>
+    <t xml:space="preserve">1.5347386598587</t>
   </si>
   <si>
     <t xml:space="preserve">1.58226406574249</t>
@@ -551,22 +548,22 @@
     <t xml:space="preserve">1.53883576393127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54784905910492</t>
+    <t xml:space="preserve">1.54784917831421</t>
   </si>
   <si>
     <t xml:space="preserve">1.55276548862457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54948794841766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5380163192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54866862297058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53637754917145</t>
+    <t xml:space="preserve">1.54948806762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53801643848419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54866850376129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53637742996216</t>
   </si>
   <si>
     <t xml:space="preserve">1.53965508937836</t>
@@ -575,7 +572,7 @@
     <t xml:space="preserve">1.56915354728699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65191304683685</t>
+    <t xml:space="preserve">1.65191316604614</t>
   </si>
   <si>
     <t xml:space="preserve">1.69288313388824</t>
@@ -587,16 +584,16 @@
     <t xml:space="preserve">1.82070958614349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82890391349792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81743228435516</t>
+    <t xml:space="preserve">1.82890379428864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81743204593658</t>
   </si>
   <si>
     <t xml:space="preserve">1.81579339504242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87970674037933</t>
+    <t xml:space="preserve">1.87970626354218</t>
   </si>
   <si>
     <t xml:space="preserve">1.79448890686035</t>
@@ -605,76 +602,76 @@
     <t xml:space="preserve">1.80104410648346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72729802131653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74696350097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76335167884827</t>
+    <t xml:space="preserve">1.73876965045929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72729814052582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74696362018585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76335155963898</t>
   </si>
   <si>
     <t xml:space="preserve">1.84693050384521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81087696552277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80923795700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81251561641693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86167991161346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86495745182037</t>
+    <t xml:space="preserve">1.81087708473206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80923807621002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81251573562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86167979240417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86495769023895</t>
   </si>
   <si>
     <t xml:space="preserve">1.85840213298798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87642896175385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89937233924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84856951236725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92479634284973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679428100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93850827217102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97107374668121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92822444438934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94193601608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94365000724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95907580852509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9676456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92651033401489</t>
+    <t xml:space="preserve">1.87642908096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89937257766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84856963157654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92479622364044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679404258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93850815296173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9710738658905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92822432518005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94193637371063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94364988803864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95907604694366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96764576435089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9265102148056</t>
   </si>
   <si>
     <t xml:space="preserve">1.95393395423889</t>
@@ -686,22 +683,22 @@
     <t xml:space="preserve">1.90594255924225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89394474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87166309356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92993819713593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080070495605</t>
+    <t xml:space="preserve">1.8939448595047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8716629743576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92993855476379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080046653748</t>
   </si>
   <si>
     <t xml:space="preserve">1.91451239585876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88708865642548</t>
+    <t xml:space="preserve">1.88708889484406</t>
   </si>
   <si>
     <t xml:space="preserve">1.87680494785309</t>
@@ -710,7 +707,7 @@
     <t xml:space="preserve">1.91794049739838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88537490367889</t>
+    <t xml:space="preserve">1.8853747844696</t>
   </si>
   <si>
     <t xml:space="preserve">1.86994910240173</t>
@@ -719,13 +716,13 @@
     <t xml:space="preserve">1.88880276679993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90937042236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90251445770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96421778202057</t>
+    <t xml:space="preserve">1.90937054157257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90251457691193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96421802043915</t>
   </si>
   <si>
     <t xml:space="preserve">1.96250379085541</t>
@@ -737,10 +734,10 @@
     <t xml:space="preserve">1.98649966716766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97964334487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12533164024353</t>
+    <t xml:space="preserve">1.97964346408844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12533140182495</t>
   </si>
   <si>
     <t xml:space="preserve">2.0859100818634</t>
@@ -752,22 +749,22 @@
     <t xml:space="preserve">2.07905459403992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08076786994934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06534242630005</t>
+    <t xml:space="preserve">2.08076810836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06534218788147</t>
   </si>
   <si>
     <t xml:space="preserve">2.06020069122314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07219839096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13390135765076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10819172859192</t>
+    <t xml:space="preserve">2.07219862937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13390159606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1081919670105</t>
   </si>
   <si>
     <t xml:space="preserve">2.09962201118469</t>
@@ -794,28 +791,28 @@
     <t xml:space="preserve">2.1167619228363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08248233795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705641746521</t>
+    <t xml:space="preserve">2.08248209953308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705665588379</t>
   </si>
   <si>
     <t xml:space="preserve">2.12190365791321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647797584534</t>
+    <t xml:space="preserve">2.10647773742676</t>
   </si>
   <si>
     <t xml:space="preserve">2.08933806419373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05163049697876</t>
+    <t xml:space="preserve">2.05163073539734</t>
   </si>
   <si>
     <t xml:space="preserve">2.17675113677979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14247155189514</t>
+    <t xml:space="preserve">2.14247131347656</t>
   </si>
   <si>
     <t xml:space="preserve">2.13218760490417</t>
@@ -830,7 +827,7 @@
     <t xml:space="preserve">2.11847543716431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09105205535889</t>
+    <t xml:space="preserve">2.09105229377747</t>
   </si>
   <si>
     <t xml:space="preserve">2.12361764907837</t>
@@ -839,16 +836,16 @@
     <t xml:space="preserve">2.11161994934082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10133600234985</t>
+    <t xml:space="preserve">2.10133576393127</t>
   </si>
   <si>
     <t xml:space="preserve">2.15789723396301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15618300437927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1441855430603</t>
+    <t xml:space="preserve">2.15618324279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14418530464172</t>
   </si>
   <si>
     <t xml:space="preserve">2.1407573223114</t>
@@ -860,10 +857,10 @@
     <t xml:space="preserve">2.13904356956482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17503690719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15104126930237</t>
+    <t xml:space="preserve">2.17503714561462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15104150772095</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
@@ -878,10 +875,10 @@
     <t xml:space="preserve">2.03277683258057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04820275306702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07048439979553</t>
+    <t xml:space="preserve">2.0482029914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07048416137695</t>
   </si>
   <si>
     <t xml:space="preserve">2.04991674423218</t>
@@ -902,7 +899,7 @@
     <t xml:space="preserve">2.0224928855896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01392316818237</t>
+    <t xml:space="preserve">2.01392292976379</t>
   </si>
   <si>
     <t xml:space="preserve">2.00535321235657</t>
@@ -917,7 +914,7 @@
     <t xml:space="preserve">2.29672932624817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33100914955139</t>
+    <t xml:space="preserve">2.33100867271423</t>
   </si>
   <si>
     <t xml:space="preserve">2.32243919372559</t>
@@ -929,22 +926,22 @@
     <t xml:space="preserve">2.44241738319397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49383687973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46812701225281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47669720649719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48526668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53668642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57953548431396</t>
+    <t xml:space="preserve">2.49383664131165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46812725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47669696807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48526692390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53668618202209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57953572273254</t>
   </si>
   <si>
     <t xml:space="preserve">2.596675157547</t>
@@ -968,10 +965,10 @@
     <t xml:space="preserve">2.61655139923096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52694368362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.437335729599</t>
+    <t xml:space="preserve">2.52694344520569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43733549118042</t>
   </si>
   <si>
     <t xml:space="preserve">2.46421790122986</t>
@@ -980,19 +977,19 @@
     <t xml:space="preserve">2.50006103515625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45525741577148</t>
+    <t xml:space="preserve">2.45525717735291</t>
   </si>
   <si>
     <t xml:space="preserve">2.54486513137817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57174730300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51798295974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56278681755066</t>
+    <t xml:space="preserve">2.57174754142761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51798272132874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56278657913208</t>
   </si>
   <si>
     <t xml:space="preserve">2.53590416908264</t>
@@ -1001,25 +998,25 @@
     <t xml:space="preserve">2.4911003112793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48213958740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5090217590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47317862510681</t>
+    <t xml:space="preserve">2.48213982582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50902199745178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47317886352539</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680658340454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7599241733551</t>
+    <t xml:space="preserve">2.75992441177368</t>
   </si>
   <si>
     <t xml:space="preserve">2.77784562110901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7420027256012</t>
+    <t xml:space="preserve">2.74200248718262</t>
   </si>
   <si>
     <t xml:space="preserve">2.76888489723206</t>
@@ -1028,7 +1025,7 @@
     <t xml:space="preserve">2.71512007713318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75096344947815</t>
+    <t xml:space="preserve">2.75096321105957</t>
   </si>
   <si>
     <t xml:space="preserve">2.67031621932983</t>
@@ -1040,13 +1037,13 @@
     <t xml:space="preserve">2.65239477157593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68823766708374</t>
+    <t xml:space="preserve">2.68823790550232</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719862937927</t>
+    <t xml:space="preserve">2.69719886779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1055,10 +1052,10 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83161067962646</t>
+    <t xml:space="preserve">2.86745381355286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83161044120789</t>
   </si>
   <si>
     <t xml:space="preserve">2.6434338092804</t>
@@ -1067,7 +1064,7 @@
     <t xml:space="preserve">2.62551236152649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58070826530457</t>
+    <t xml:space="preserve">2.58070850372314</t>
   </si>
   <si>
     <t xml:space="preserve">2.607590675354</t>
@@ -1100,25 +1097,25 @@
     <t xml:space="preserve">2.90329670906067</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12731647491455</t>
+    <t xml:space="preserve">3.12731671333313</t>
   </si>
   <si>
     <t xml:space="preserve">3.16315984725952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13627767562866</t>
+    <t xml:space="preserve">3.13627743721008</t>
   </si>
   <si>
     <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25276803970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172876358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28861117362976</t>
+    <t xml:space="preserve">3.25276780128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172852516174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28861093521118</t>
   </si>
   <si>
     <t xml:space="preserve">3.29757189750671</t>
@@ -1133,7 +1130,7 @@
     <t xml:space="preserve">3.34237575531006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42302274703979</t>
+    <t xml:space="preserve">3.42302298545837</t>
   </si>
   <si>
     <t xml:space="preserve">3.3871796131134</t>
@@ -1142,22 +1139,22 @@
     <t xml:space="preserve">3.40510129928589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41406178474426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3692581653595</t>
+    <t xml:space="preserve">3.41406202316284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36925792694092</t>
   </si>
   <si>
     <t xml:space="preserve">3.37821888923645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45886588096619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4857485294342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47678780555725</t>
+    <t xml:space="preserve">3.45886564254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48574876785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47678756713867</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1166,13 +1163,13 @@
     <t xml:space="preserve">3.67392492294312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58431720733643</t>
+    <t xml:space="preserve">3.58431696891785</t>
   </si>
   <si>
     <t xml:space="preserve">3.53055238723755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59327793121338</t>
+    <t xml:space="preserve">3.59327816963196</t>
   </si>
   <si>
     <t xml:space="preserve">3.55743479728699</t>
@@ -1205,43 +1202,46 @@
     <t xml:space="preserve">3.6918466091156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70976781845093</t>
+    <t xml:space="preserve">3.70976805686951</t>
   </si>
   <si>
     <t xml:space="preserve">3.68288588523865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76353311538696</t>
+    <t xml:space="preserve">3.7635326385498</t>
   </si>
   <si>
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833697319031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79041528701782</t>
+    <t xml:space="preserve">3.80833721160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79041504859924</t>
   </si>
   <si>
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
+    <t xml:space="preserve">3.96067070960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97005581855774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00759792327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0920672416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81988835334778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87620115280151</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.96067023277283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97005581855774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00759792327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0920672416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81988835334778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87620115280151</t>
   </si>
   <si>
     <t xml:space="preserve">4.02636861801147</t>
@@ -6161,7 +6161,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G136" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -6187,7 +6187,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -6213,7 +6213,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -6239,7 +6239,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -6265,7 +6265,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G140" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -6291,7 +6291,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -6343,7 +6343,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -6369,7 +6369,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -6395,7 +6395,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H145" t="s">
         <v>9</v>
@@ -6421,7 +6421,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G146" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -6447,7 +6447,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -6473,7 +6473,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G148" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -6499,7 +6499,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G149" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -6525,7 +6525,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G150" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -6551,7 +6551,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -6577,7 +6577,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -6603,7 +6603,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G153" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -6629,7 +6629,7 @@
         <v>2.13800001144409</v>
       </c>
       <c r="G154" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -6655,7 +6655,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -6681,7 +6681,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G156" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -6707,7 +6707,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G157" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -6733,7 +6733,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G158" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -6759,7 +6759,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -6785,7 +6785,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G160" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -6811,7 +6811,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -6837,7 +6837,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G162" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -6863,7 +6863,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G163" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -6889,7 +6889,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G164" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -6915,7 +6915,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G165" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -6941,7 +6941,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G166" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -6967,7 +6967,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G167" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -6993,7 +6993,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G168" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -7019,7 +7019,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G169" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -7045,7 +7045,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -7071,7 +7071,7 @@
         <v>2.11800003051758</v>
       </c>
       <c r="G171" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -7097,7 +7097,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G172" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -7123,7 +7123,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G173" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -7149,7 +7149,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G174" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -7175,7 +7175,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G175" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -7201,7 +7201,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G176" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -7227,7 +7227,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G177" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -7253,7 +7253,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G178" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -7279,7 +7279,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G179" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -7305,7 +7305,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -7331,7 +7331,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G181" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -7357,7 +7357,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G182" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -7383,7 +7383,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G183" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -7409,7 +7409,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G184" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -7435,7 +7435,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G185" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7461,7 +7461,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G186" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -7487,7 +7487,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G187" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -7513,7 +7513,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G188" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -7539,7 +7539,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G189" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -7565,7 +7565,7 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -7591,7 +7591,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G191" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7617,7 +7617,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G192" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7643,7 +7643,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G193" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7669,7 +7669,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -7695,7 +7695,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G195" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7721,7 +7721,7 @@
         <v>2.03600001335144</v>
       </c>
       <c r="G196" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -7747,7 +7747,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G197" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7773,7 +7773,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G198" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7799,7 +7799,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G199" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7825,7 +7825,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G200" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7851,7 +7851,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G201" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7877,7 +7877,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G202" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7903,7 +7903,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G203" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7929,7 +7929,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G204" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7955,7 +7955,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G205" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7981,7 +7981,7 @@
         <v>1.99899995326996</v>
       </c>
       <c r="G206" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -8007,7 +8007,7 @@
         <v>1.95099997520447</v>
       </c>
       <c r="G207" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -8033,7 +8033,7 @@
         <v>1.9889999628067</v>
       </c>
       <c r="G208" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -8059,7 +8059,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G209" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -8085,7 +8085,7 @@
         <v>1.94700002670288</v>
       </c>
       <c r="G210" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -8111,7 +8111,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G211" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -8137,7 +8137,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G212" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -8163,7 +8163,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G213" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -8189,7 +8189,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G214" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -8215,7 +8215,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G215" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -8241,7 +8241,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G216" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -8267,7 +8267,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G217" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -8293,7 +8293,7 @@
         <v>1.90199995040894</v>
       </c>
       <c r="G218" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -8319,7 +8319,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G219" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -8345,7 +8345,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G220" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -8371,7 +8371,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G221" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -8397,7 +8397,7 @@
         <v>1.9559999704361</v>
       </c>
       <c r="G222" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -8423,7 +8423,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G223" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -8449,7 +8449,7 @@
         <v>2.00799989700317</v>
       </c>
       <c r="G224" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -8475,7 +8475,7 @@
         <v>1.85399997234344</v>
       </c>
       <c r="G225" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -8501,7 +8501,7 @@
         <v>1.90600001811981</v>
       </c>
       <c r="G226" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -8527,7 +8527,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G227" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8553,7 +8553,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G228" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8579,7 +8579,7 @@
         <v>1.72399997711182</v>
       </c>
       <c r="G229" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8605,7 +8605,7 @@
         <v>1.70200002193451</v>
       </c>
       <c r="G230" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8631,7 +8631,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G231" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8657,7 +8657,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G232" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8683,7 +8683,7 @@
         <v>1.87199997901917</v>
       </c>
       <c r="G233" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8709,7 +8709,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G234" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8735,7 +8735,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G235" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8761,7 +8761,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G236" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8787,7 +8787,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G237" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8813,7 +8813,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G238" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8839,7 +8839,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G239" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8865,7 +8865,7 @@
         <v>1.88199996948242</v>
       </c>
       <c r="G240" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8891,7 +8891,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G241" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8917,7 +8917,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G242" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8943,7 +8943,7 @@
         <v>1.89800000190735</v>
       </c>
       <c r="G243" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8969,7 +8969,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G244" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8995,7 +8995,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G245" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -9021,7 +9021,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G246" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -9047,7 +9047,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G247" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -9073,7 +9073,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G248" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -9099,7 +9099,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G249" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -9125,7 +9125,7 @@
         <v>1.85699999332428</v>
       </c>
       <c r="G250" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -9151,7 +9151,7 @@
         <v>1.88100004196167</v>
       </c>
       <c r="G251" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -9177,7 +9177,7 @@
         <v>1.83599996566772</v>
       </c>
       <c r="G252" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -9203,7 +9203,7 @@
         <v>1.84399998188019</v>
       </c>
       <c r="G253" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -9229,7 +9229,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G254" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -9255,7 +9255,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G255" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -9281,7 +9281,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G256" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -9307,7 +9307,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G257" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -9333,7 +9333,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G258" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -9359,7 +9359,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G259" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -9385,7 +9385,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G260" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -9411,7 +9411,7 @@
         <v>1.84099996089935</v>
       </c>
       <c r="G261" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -9437,7 +9437,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G262" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -9463,7 +9463,7 @@
         <v>1.84200000762939</v>
       </c>
       <c r="G263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -9489,7 +9489,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G264" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -9515,7 +9515,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G265" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -9541,7 +9541,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G266" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9567,7 +9567,7 @@
         <v>1.84300005435944</v>
       </c>
       <c r="G267" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9593,7 +9593,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G268" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9619,7 +9619,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G269" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9645,7 +9645,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G270" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9671,7 +9671,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G271" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9697,7 +9697,7 @@
         <v>1.94599997997284</v>
       </c>
       <c r="G272" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9723,7 +9723,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G273" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9749,7 +9749,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G274" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9775,7 +9775,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G275" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9801,7 +9801,7 @@
         <v>1.97899997234344</v>
       </c>
       <c r="G276" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9827,7 +9827,7 @@
         <v>1.91799998283386</v>
       </c>
       <c r="G277" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9853,7 +9853,7 @@
         <v>1.88399994373322</v>
       </c>
       <c r="G278" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9879,7 +9879,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G279" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9905,7 +9905,7 @@
         <v>1.9190000295639</v>
       </c>
       <c r="G280" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9931,7 +9931,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G281" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9957,7 +9957,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G282" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9983,7 +9983,7 @@
         <v>1.90100002288818</v>
       </c>
       <c r="G283" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -10009,7 +10009,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G284" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -10035,7 +10035,7 @@
         <v>1.93799996376038</v>
       </c>
       <c r="G285" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -10061,7 +10061,7 @@
         <v>1.87300002574921</v>
       </c>
       <c r="G286" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -10087,7 +10087,7 @@
         <v>1.93099999427795</v>
       </c>
       <c r="G287" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -10113,7 +10113,7 @@
         <v>1.88699996471405</v>
       </c>
       <c r="G288" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -10139,7 +10139,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G289" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -10165,7 +10165,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G290" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -10191,7 +10191,7 @@
         <v>1.88800001144409</v>
       </c>
       <c r="G291" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -10217,7 +10217,7 @@
         <v>1.87800002098083</v>
       </c>
       <c r="G292" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -10243,7 +10243,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G293" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -10269,7 +10269,7 @@
         <v>1.89400005340576</v>
       </c>
       <c r="G294" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -10295,7 +10295,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G295" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -10321,7 +10321,7 @@
         <v>1.88900005817413</v>
       </c>
       <c r="G296" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -10347,7 +10347,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G297" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -10373,7 +10373,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G298" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -10399,7 +10399,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G299" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -10425,7 +10425,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G300" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -10451,7 +10451,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G301" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -10477,7 +10477,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G302" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -10503,7 +10503,7 @@
         <v>1.89100003242493</v>
       </c>
       <c r="G303" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -10529,7 +10529,7 @@
         <v>1.875</v>
       </c>
       <c r="G304" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10555,7 +10555,7 @@
         <v>1.87899994850159</v>
       </c>
       <c r="G305" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10581,7 +10581,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G306" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10607,7 +10607,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G307" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10633,7 +10633,7 @@
         <v>1.89300000667572</v>
       </c>
       <c r="G308" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10659,7 +10659,7 @@
         <v>2</v>
       </c>
       <c r="G309" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10685,7 +10685,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G310" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10711,7 +10711,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G311" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10737,7 +10737,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G312" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10763,7 +10763,7 @@
         <v>2.06599998474121</v>
       </c>
       <c r="G313" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10789,7 +10789,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G314" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10815,7 +10815,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G315" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10841,7 +10841,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G316" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10867,7 +10867,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G317" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10919,7 +10919,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G319" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10945,7 +10945,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G320" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10971,7 +10971,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G321" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10997,7 +10997,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G322" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -11023,7 +11023,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G323" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -11049,7 +11049,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G324" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -11075,7 +11075,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G325" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -11127,7 +11127,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G327" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -11153,7 +11153,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G328" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -11179,7 +11179,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G329" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -11205,7 +11205,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G330" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -11231,7 +11231,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G331" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -11257,7 +11257,7 @@
         <v>2.12199997901917</v>
       </c>
       <c r="G332" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -11283,7 +11283,7 @@
         <v>2.10800004005432</v>
       </c>
       <c r="G333" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -11309,7 +11309,7 @@
         <v>2.13199996948242</v>
       </c>
       <c r="G334" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -11335,7 +11335,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G335" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -11361,7 +11361,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G336" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -11465,7 +11465,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G340" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -11491,7 +11491,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G341" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -11517,7 +11517,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G342" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11543,7 +11543,7 @@
         <v>2.21199989318848</v>
       </c>
       <c r="G343" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11569,7 +11569,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G344" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11621,7 +11621,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G346" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11647,7 +11647,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G347" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11673,7 +11673,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G348" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11699,7 +11699,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G349" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11725,7 +11725,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G350" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11777,7 +11777,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G352" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11803,7 +11803,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G353" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11855,7 +11855,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G355" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11881,7 +11881,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G356" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11907,7 +11907,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G357" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11933,7 +11933,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G358" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11959,7 +11959,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G359" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11985,7 +11985,7 @@
         <v>2.25</v>
       </c>
       <c r="G360" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -12011,7 +12011,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G361" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -12037,7 +12037,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G362" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -12063,7 +12063,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G363" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -12089,7 +12089,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G364" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -12115,7 +12115,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G365" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -12141,7 +12141,7 @@
         <v>2.25</v>
       </c>
       <c r="G366" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -12167,7 +12167,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G367" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -12193,7 +12193,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G368" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -12219,7 +12219,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G369" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -12245,7 +12245,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G370" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -12271,7 +12271,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G371" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -12297,7 +12297,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -12323,7 +12323,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G373" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -12349,7 +12349,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G374" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -12375,7 +12375,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G375" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -12401,7 +12401,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G376" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -12427,7 +12427,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G377" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -12453,7 +12453,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G378" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -12479,7 +12479,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G379" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -12505,7 +12505,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G380" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -12531,7 +12531,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G381" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12557,7 +12557,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G382" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12583,7 +12583,7 @@
         <v>2.18199992179871</v>
       </c>
       <c r="G383" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12609,7 +12609,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G384" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12635,7 +12635,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G385" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12661,7 +12661,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G386" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12687,7 +12687,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G387" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12713,7 +12713,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G388" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12739,7 +12739,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12765,7 +12765,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G390" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12791,7 +12791,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G391" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12817,7 +12817,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G392" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12843,7 +12843,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G393" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12869,7 +12869,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G394" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12895,7 +12895,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G395" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12921,7 +12921,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G396" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12947,7 +12947,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G397" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12973,7 +12973,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G398" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12999,7 +12999,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G399" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -13025,7 +13025,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G400" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -13051,7 +13051,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G401" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -13077,7 +13077,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G402" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -13103,7 +13103,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G403" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -13129,7 +13129,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G404" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -13155,7 +13155,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G405" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -13181,7 +13181,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G406" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -13207,7 +13207,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G407" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -13233,7 +13233,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G408" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -13259,7 +13259,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G409" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -13285,7 +13285,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G410" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -13311,7 +13311,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G411" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -13337,7 +13337,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G412" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -13363,7 +13363,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G413" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -13389,7 +13389,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G414" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -13415,7 +13415,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G415" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -13441,7 +13441,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G416" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -13467,7 +13467,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G417" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -13493,7 +13493,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G418" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -13519,7 +13519,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G419" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13545,7 +13545,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G420" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13571,7 +13571,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13597,7 +13597,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G422" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13623,7 +13623,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G423" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13649,7 +13649,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G424" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13675,7 +13675,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G425" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13701,7 +13701,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G426" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13727,7 +13727,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G427" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13753,7 +13753,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G428" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13779,7 +13779,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G429" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13805,7 +13805,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G430" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13831,7 +13831,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G431" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13857,7 +13857,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G432" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13883,7 +13883,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G433" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13909,7 +13909,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G434" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13935,7 +13935,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G435" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13961,7 +13961,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G436" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13987,7 +13987,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G437" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -14013,7 +14013,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G438" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -14039,7 +14039,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G439" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -14065,7 +14065,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G440" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -14091,7 +14091,7 @@
         <v>2.5</v>
       </c>
       <c r="G441" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -14117,7 +14117,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G442" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -14143,7 +14143,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G443" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -14169,7 +14169,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G444" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -14195,7 +14195,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G445" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -14221,7 +14221,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G446" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -14247,7 +14247,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G447" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -14273,7 +14273,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G448" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -14299,7 +14299,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G449" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -14325,7 +14325,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G450" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -14351,7 +14351,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G451" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -14377,7 +14377,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G452" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -14403,7 +14403,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G453" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -14429,7 +14429,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G454" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -14455,7 +14455,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G455" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -14481,7 +14481,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G456" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -14507,7 +14507,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G457" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -14533,7 +14533,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G458" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14559,7 +14559,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G459" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14585,7 +14585,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G460" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14611,7 +14611,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G461" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14637,7 +14637,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G462" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14663,7 +14663,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G463" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14689,7 +14689,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G464" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14715,7 +14715,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G465" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14741,7 +14741,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G466" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14767,7 +14767,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G467" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14793,7 +14793,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G468" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14819,7 +14819,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G469" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14845,7 +14845,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G470" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14871,7 +14871,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G471" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14897,7 +14897,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G472" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14923,7 +14923,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G473" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14949,7 +14949,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14975,7 +14975,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G475" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -15001,7 +15001,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G476" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -15027,7 +15027,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G477" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -15053,7 +15053,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G478" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -15079,7 +15079,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G479" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -15105,7 +15105,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G480" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -15131,7 +15131,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G481" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -15157,7 +15157,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G482" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -15183,7 +15183,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G483" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -15209,7 +15209,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G484" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -15235,7 +15235,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G485" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -15261,7 +15261,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G486" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -15287,7 +15287,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G487" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -15313,7 +15313,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G488" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -15339,7 +15339,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G489" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -15365,7 +15365,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G490" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -15391,7 +15391,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G491" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -15417,7 +15417,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G492" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -15443,7 +15443,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G493" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -15469,7 +15469,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G494" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -15495,7 +15495,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G495" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -15521,7 +15521,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G496" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15547,7 +15547,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G497" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15573,7 +15573,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G498" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15599,7 +15599,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G499" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15625,7 +15625,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G500" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15651,7 +15651,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G501" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15677,7 +15677,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G502" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15703,7 +15703,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G503" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15729,7 +15729,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G504" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15755,7 +15755,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G505" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15781,7 +15781,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G506" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15807,7 +15807,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G507" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15833,7 +15833,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G508" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15859,7 +15859,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G509" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15885,7 +15885,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G510" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15911,7 +15911,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G511" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15937,7 +15937,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G512" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15963,7 +15963,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G513" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15989,7 +15989,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G514" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16015,7 +16015,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G515" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16041,7 +16041,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G516" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16067,7 +16067,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -16093,7 +16093,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G518" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16119,7 +16119,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G519" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -16145,7 +16145,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G520" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -16171,7 +16171,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G521" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -16197,7 +16197,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G522" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -16223,7 +16223,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G523" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16249,7 +16249,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G524" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16275,7 +16275,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G525" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16301,7 +16301,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G526" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -16327,7 +16327,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G527" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -16353,7 +16353,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G528" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -16379,7 +16379,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G529" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -16405,7 +16405,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G530" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -16431,7 +16431,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G531" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -16457,7 +16457,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -16483,7 +16483,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G533" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -16509,7 +16509,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G534" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -16535,7 +16535,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G535" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16561,7 +16561,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G536" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16587,7 +16587,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G537" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16613,7 +16613,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G538" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16639,7 +16639,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G539" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16665,7 +16665,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16691,7 +16691,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G541" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16717,7 +16717,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G542" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16743,7 +16743,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16769,7 +16769,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G544" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16795,7 +16795,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G545" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16821,7 +16821,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G546" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16847,7 +16847,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G547" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16873,7 +16873,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G548" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16899,7 +16899,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G549" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16925,7 +16925,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G550" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16951,7 +16951,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G551" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16977,7 +16977,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G552" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -17003,7 +17003,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G553" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -17029,7 +17029,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G554" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17055,7 +17055,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G555" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17081,7 +17081,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G556" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -17107,7 +17107,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G557" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -17133,7 +17133,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17159,7 +17159,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G559" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17185,7 +17185,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G560" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -17211,7 +17211,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G561" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17237,7 +17237,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G562" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17263,7 +17263,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G563" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17289,7 +17289,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17315,7 +17315,7 @@
         <v>2.5</v>
       </c>
       <c r="G565" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17341,7 +17341,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G566" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17367,7 +17367,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G567" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -17393,7 +17393,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17419,7 +17419,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G569" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -17445,7 +17445,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G570" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -17471,7 +17471,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G571" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -17497,7 +17497,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -17523,7 +17523,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G573" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17549,7 +17549,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G574" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17575,7 +17575,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G575" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17601,7 +17601,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G576" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17627,7 +17627,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G577" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17653,7 +17653,7 @@
         <v>2.5</v>
       </c>
       <c r="G578" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17679,7 +17679,7 @@
         <v>2.5</v>
       </c>
       <c r="G579" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17705,7 +17705,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G580" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17731,7 +17731,7 @@
         <v>2.5</v>
       </c>
       <c r="G581" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17757,7 +17757,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G582" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17783,7 +17783,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G583" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17809,7 +17809,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G584" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17835,7 +17835,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17861,7 +17861,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G586" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17887,7 +17887,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G587" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17913,7 +17913,7 @@
         <v>2.5</v>
       </c>
       <c r="G588" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17939,7 +17939,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G589" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17965,7 +17965,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G590" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17991,7 +17991,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -18017,7 +18017,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G592" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18043,7 +18043,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G593" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18069,7 +18069,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G594" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18095,7 +18095,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G595" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18121,7 +18121,7 @@
         <v>2.75</v>
       </c>
       <c r="G596" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18147,7 +18147,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G597" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18173,7 +18173,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G598" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18199,7 +18199,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G599" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18225,7 +18225,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G600" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18251,7 +18251,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G601" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18277,7 +18277,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G602" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18303,7 +18303,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18329,7 +18329,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G604" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18355,7 +18355,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G605" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18381,7 +18381,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G606" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18407,7 +18407,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G607" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18433,7 +18433,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G608" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18459,7 +18459,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G609" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18485,7 +18485,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G610" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18511,7 +18511,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G611" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18537,7 +18537,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18563,7 +18563,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18589,7 +18589,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18615,7 +18615,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18641,7 +18641,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18667,7 +18667,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18693,7 +18693,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18719,7 +18719,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18745,7 +18745,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18771,7 +18771,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18797,7 +18797,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18823,7 +18823,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18849,7 +18849,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18875,7 +18875,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18901,7 +18901,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18927,7 +18927,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18953,7 +18953,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18979,7 +18979,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19005,7 +19005,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19031,7 +19031,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19057,7 +19057,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19083,7 +19083,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19109,7 +19109,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19135,7 +19135,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19161,7 +19161,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19187,7 +19187,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19213,7 +19213,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19239,7 +19239,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19265,7 +19265,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19291,7 +19291,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19317,7 +19317,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19343,7 +19343,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19369,7 +19369,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19395,7 +19395,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19421,7 +19421,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19447,7 +19447,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19473,7 +19473,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19499,7 +19499,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19525,7 +19525,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19551,7 +19551,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19577,7 +19577,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19603,7 +19603,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19629,7 +19629,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G654" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19655,7 +19655,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19681,7 +19681,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19707,7 +19707,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19733,7 +19733,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19759,7 +19759,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19785,7 +19785,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19811,7 +19811,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19837,7 +19837,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19863,7 +19863,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19889,7 +19889,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19915,7 +19915,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19941,7 +19941,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19967,7 +19967,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19993,7 +19993,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20019,7 +20019,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G669" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20045,7 +20045,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20071,7 +20071,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20097,7 +20097,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20123,7 +20123,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20149,7 +20149,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20175,7 +20175,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20201,7 +20201,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20227,7 +20227,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20253,7 +20253,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20279,7 +20279,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20305,7 +20305,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20331,7 +20331,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20357,7 +20357,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20383,7 +20383,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20409,7 +20409,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20435,7 +20435,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20461,7 +20461,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20487,7 +20487,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20513,7 +20513,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20539,7 +20539,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20565,7 +20565,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20591,7 +20591,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20617,7 +20617,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20643,7 +20643,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20669,7 +20669,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20695,7 +20695,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20721,7 +20721,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20747,7 +20747,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20773,7 +20773,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20799,7 +20799,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20825,7 +20825,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20851,7 +20851,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20877,7 +20877,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20903,7 +20903,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20929,7 +20929,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20955,7 +20955,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20981,7 +20981,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21007,7 +21007,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21033,7 +21033,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G708" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21059,7 +21059,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21085,7 +21085,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21111,7 +21111,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21137,7 +21137,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21163,7 +21163,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G713" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21189,7 +21189,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G714" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21215,7 +21215,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G715" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21241,7 +21241,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G716" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21267,7 +21267,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21293,7 +21293,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21319,7 +21319,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21345,7 +21345,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G720" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21371,7 +21371,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G721" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21397,7 +21397,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G722" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21423,7 +21423,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21449,7 +21449,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G724" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21475,7 +21475,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G725" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21501,7 +21501,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21527,7 +21527,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G727" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21553,7 +21553,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G728" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21579,7 +21579,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G729" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21605,7 +21605,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21631,7 +21631,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G731" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21657,7 +21657,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G732" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21683,7 +21683,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G733" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21709,7 +21709,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21735,7 +21735,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21761,7 +21761,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21787,7 +21787,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21813,7 +21813,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21839,7 +21839,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21865,7 +21865,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21891,7 +21891,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21917,7 +21917,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21943,7 +21943,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21969,7 +21969,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21995,7 +21995,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22021,7 +22021,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22047,7 +22047,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22073,7 +22073,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22099,7 +22099,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22125,7 +22125,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22151,7 +22151,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22177,7 +22177,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22203,7 +22203,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22229,7 +22229,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22255,7 +22255,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22281,7 +22281,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22307,7 +22307,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G757" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22333,7 +22333,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G758" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22359,7 +22359,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G759" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22385,7 +22385,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G760" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22411,7 +22411,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G761" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22437,7 +22437,7 @@
         <v>2.75</v>
       </c>
       <c r="G762" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22463,7 +22463,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G763" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22489,7 +22489,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G764" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22515,7 +22515,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G765" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22541,7 +22541,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G766" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22567,7 +22567,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G767" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22593,7 +22593,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G768" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22619,7 +22619,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G769" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22645,7 +22645,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G770" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22671,7 +22671,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G771" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22697,7 +22697,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G772" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22723,7 +22723,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22749,7 +22749,7 @@
         <v>3</v>
       </c>
       <c r="G774" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22775,7 +22775,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G775" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22801,7 +22801,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G776" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22827,7 +22827,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G777" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22853,7 +22853,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G778" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22879,7 +22879,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G779" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22905,7 +22905,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22931,7 +22931,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G781" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22957,7 +22957,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G782" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22983,7 +22983,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23009,7 +23009,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G784" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23035,7 +23035,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G785" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23061,7 +23061,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23087,7 +23087,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G787" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23113,7 +23113,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23139,7 +23139,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G789" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23165,7 +23165,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G790" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23191,7 +23191,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G791" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23217,7 +23217,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G792" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23243,7 +23243,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G793" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23269,7 +23269,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G794" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23295,7 +23295,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G795" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23321,7 +23321,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G796" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23347,7 +23347,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G797" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23373,7 +23373,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G798" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23399,7 +23399,7 @@
         <v>3.5</v>
       </c>
       <c r="G799" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23425,7 +23425,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23451,7 +23451,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G801" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23477,7 +23477,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G802" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23503,7 +23503,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23529,7 +23529,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G804" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23555,7 +23555,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23581,7 +23581,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G806" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23607,7 +23607,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G807" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23633,7 +23633,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G808" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23659,7 +23659,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G809" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23685,7 +23685,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G810" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23711,7 +23711,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G811" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23737,7 +23737,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G812" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23763,7 +23763,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G813" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23789,7 +23789,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23815,7 +23815,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G815" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23841,7 +23841,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23867,7 +23867,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G817" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23893,7 +23893,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G818" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23919,7 +23919,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G819" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23945,7 +23945,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G820" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23971,7 +23971,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G821" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23997,7 +23997,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G822" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24023,7 +24023,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G823" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24049,7 +24049,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G824" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24075,7 +24075,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24101,7 +24101,7 @@
         <v>4</v>
       </c>
       <c r="G826" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24127,7 +24127,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G827" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24153,7 +24153,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G828" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24179,7 +24179,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24205,7 +24205,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G830" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24231,7 +24231,7 @@
         <v>4</v>
       </c>
       <c r="G831" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24257,7 +24257,7 @@
         <v>4</v>
       </c>
       <c r="G832" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24283,7 +24283,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G833" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24309,7 +24309,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G834" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24335,7 +24335,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24361,7 +24361,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G836" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24387,7 +24387,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G837" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24413,7 +24413,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G838" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24439,7 +24439,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G839" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24465,7 +24465,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24491,7 +24491,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G841" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24517,7 +24517,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24543,7 +24543,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24569,7 +24569,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G844" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24595,7 +24595,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G845" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24621,7 +24621,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G846" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24647,7 +24647,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G847" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24673,7 +24673,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G848" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24699,7 +24699,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G849" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24725,7 +24725,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G850" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24751,7 +24751,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G851" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24777,7 +24777,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24803,7 +24803,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G853" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24829,7 +24829,7 @@
         <v>4.25</v>
       </c>
       <c r="G854" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24855,7 +24855,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24881,7 +24881,7 @@
         <v>4.25</v>
       </c>
       <c r="G856" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24907,7 +24907,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G857" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24933,7 +24933,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24959,7 +24959,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G859" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24985,7 +24985,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25011,7 +25011,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G861" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25037,7 +25037,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G862" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25063,7 +25063,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G863" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25089,7 +25089,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G864" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25115,7 +25115,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G865" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25167,7 +25167,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G867" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25271,7 +25271,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G871" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25323,7 +25323,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25453,7 +25453,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G878" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25817,7 +25817,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25895,7 +25895,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G895" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26129,7 +26129,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G904" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -30315,7 +30315,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1065" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30601,7 +30601,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1076" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30627,7 +30627,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1077" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30861,7 +30861,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1086" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31225,7 +31225,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1100" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31329,7 +31329,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1104" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32837,7 +32837,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1162" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32863,7 +32863,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1163" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33305,7 +33305,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1180" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33435,7 +33435,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33643,7 +33643,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1193" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -59469,7 +59469,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6495023148</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>2777</v>
@@ -59490,6 +59490,32 @@
         <v>738</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.5859490741</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>1.92999994754791</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>1.9099999666214</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>1.92999994754791</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>1.9099999666214</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>749</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RAT.MI.xlsx
+++ b/data/RAT.MI.xlsx
@@ -38,70 +38,70 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85825932025909</t>
+    <t xml:space="preserve">1.8582592010498</t>
   </si>
   <si>
     <t xml:space="preserve">RAT.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91323781013489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92109191417694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88496315479279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9242330789566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80642306804657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82998478412628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79856896400452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76715278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354697704315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86925542354584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87710905075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89281713962555</t>
+    <t xml:space="preserve">1.91323745250702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92109155654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88496327400208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92423319816589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80642294883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998502254486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79856860637665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76715302467346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354673862457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86925530433655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87710928916931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89281690120697</t>
   </si>
   <si>
     <t xml:space="preserve">1.86768436431885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81584787368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83783900737762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87553799152374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82684326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84569299221039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81898939609528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83626818656921</t>
+    <t xml:space="preserve">1.81584799289703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8378392457962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87553834915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82684338092804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8456928730011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81898927688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8362683057785</t>
   </si>
   <si>
     <t xml:space="preserve">1.85983026027679</t>
@@ -113,34 +113,34 @@
     <t xml:space="preserve">1.82056021690369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81741869449615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85040533542633</t>
+    <t xml:space="preserve">1.81741857528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85040557384491</t>
   </si>
   <si>
     <t xml:space="preserve">1.88025069236755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81427693367004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85197627544403</t>
+    <t xml:space="preserve">1.81427681446075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85197639465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.84412229061127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84098052978516</t>
+    <t xml:space="preserve">1.84098064899445</t>
   </si>
   <si>
     <t xml:space="preserve">1.82370173931122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8111355304718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82213091850281</t>
+    <t xml:space="preserve">1.81113541126251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82213115692139</t>
   </si>
   <si>
     <t xml:space="preserve">1.93679976463318</t>
@@ -149,52 +149,52 @@
     <t xml:space="preserve">1.94622433185577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95407843589783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96350312232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9650741815567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99334859848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00434398651123</t>
+    <t xml:space="preserve">1.95407795906067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.963503241539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96507441997528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99334836006165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00434422492981</t>
   </si>
   <si>
     <t xml:space="preserve">1.98706531524658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00905656814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02476453781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93051624298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9619323015213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994116783142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95564901828766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91637897491455</t>
+    <t xml:space="preserve">2.00905632972717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02476477622986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93051648139954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96193242073059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994128704071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95564937591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91637945175171</t>
   </si>
   <si>
     <t xml:space="preserve">1.87396740913391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93378698825836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017564296722</t>
+    <t xml:space="preserve">1.93378674983978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017528533936</t>
   </si>
   <si>
     <t xml:space="preserve">1.92231559753418</t>
@@ -203,130 +203,130 @@
     <t xml:space="preserve">1.93050956726074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96656322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95509147644043</t>
+    <t xml:space="preserve">1.96656334400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95509135723114</t>
   </si>
   <si>
     <t xml:space="preserve">1.95836925506592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91739904880524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93542587757111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9419811964035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91248285770416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91084408760071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83545911312103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80268275737762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84201419353485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83218133449554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88298428058624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86823523044586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9075665473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90592741966248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88462316989899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90920495986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87151277065277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89773344993591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82398760318756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75843524932861</t>
+    <t xml:space="preserve">1.91739916801453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9354259967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94198107719421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91248261928558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91084420681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83545887470245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8026829957962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84201407432556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83218157291412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88298439979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86823511123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90756618976593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90592753887177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88462293148041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90920507907867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8715124130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89773333072662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82398748397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75843513011932</t>
   </si>
   <si>
     <t xml:space="preserve">1.76662909984589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7862948179245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77646219730377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75187993049622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75351905822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77973985671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75024116039276</t>
+    <t xml:space="preserve">1.78629505634308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77646195888519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75188004970551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75351881980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77973961830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75024127960205</t>
   </si>
   <si>
     <t xml:space="preserve">1.72074270248413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66993999481201</t>
+    <t xml:space="preserve">1.66993987560272</t>
   </si>
   <si>
     <t xml:space="preserve">1.72893667221069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69616067409515</t>
+    <t xml:space="preserve">1.69616079330444</t>
   </si>
   <si>
     <t xml:space="preserve">1.76007401943207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70435476303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73549211025238</t>
+    <t xml:space="preserve">1.70435464382172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73549199104309</t>
   </si>
   <si>
     <t xml:space="preserve">1.73385322093964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71254861354828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63060879707336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67157864570618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66666221618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61012363433838</t>
+    <t xml:space="preserve">1.71254885196686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63060867786407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67157888412476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66666233539581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61012351512909</t>
   </si>
   <si>
     <t xml:space="preserve">1.62241470813751</t>
@@ -335,16 +335,16 @@
     <t xml:space="preserve">1.6633847951889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67321765422821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64535784721375</t>
+    <t xml:space="preserve">1.67321753501892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64535772800446</t>
   </si>
   <si>
     <t xml:space="preserve">1.63880264759064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62569212913513</t>
+    <t xml:space="preserve">1.62569224834442</t>
   </si>
   <si>
     <t xml:space="preserve">1.66830110549927</t>
@@ -359,19 +359,19 @@
     <t xml:space="preserve">1.63798320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59865188598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62978911399841</t>
+    <t xml:space="preserve">1.59865200519562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6297892332077</t>
   </si>
   <si>
     <t xml:space="preserve">1.58308339118958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59537446498871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57898640632629</t>
+    <t xml:space="preserve">1.59537434577942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.578986287117</t>
   </si>
   <si>
     <t xml:space="preserve">1.59127748012543</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">1.56751477718353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56997287273407</t>
+    <t xml:space="preserve">1.56997311115265</t>
   </si>
   <si>
     <t xml:space="preserve">1.56669533252716</t>
@@ -395,10 +395,10 @@
     <t xml:space="preserve">1.6027489900589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60356855392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6060266494751</t>
+    <t xml:space="preserve">1.60356831550598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60602653026581</t>
   </si>
   <si>
     <t xml:space="preserve">1.51917004585266</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">1.41264796257019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39462101459503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45771491527557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47082543373108</t>
+    <t xml:space="preserve">1.39462113380432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45771503448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47082531452179</t>
   </si>
   <si>
     <t xml:space="preserve">1.53391933441162</t>
@@ -431,34 +431,34 @@
     <t xml:space="preserve">1.61258184909821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61176240444183</t>
+    <t xml:space="preserve">1.61176252365112</t>
   </si>
   <si>
     <t xml:space="preserve">1.59783267974854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54211330413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51179540157318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55522394180298</t>
+    <t xml:space="preserve">1.54211342334747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51179552078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55522382259369</t>
   </si>
   <si>
     <t xml:space="preserve">1.56505656242371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56423723697662</t>
+    <t xml:space="preserve">1.56423711776733</t>
   </si>
   <si>
     <t xml:space="preserve">1.59291625022888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55686259269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52162826061249</t>
+    <t xml:space="preserve">1.55686247348785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52162837982178</t>
   </si>
   <si>
     <t xml:space="preserve">1.5412939786911</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">1.55112671852112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51589238643646</t>
+    <t xml:space="preserve">1.51589250564575</t>
   </si>
   <si>
     <t xml:space="preserve">1.55194628238678</t>
@@ -482,16 +482,16 @@
     <t xml:space="preserve">1.50851786136627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53228056430817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50933730602264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50769853591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50278198719025</t>
+    <t xml:space="preserve">1.53228044509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50933718681335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5076984167099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50278210639954</t>
   </si>
   <si>
     <t xml:space="preserve">1.49540746212006</t>
@@ -500,13 +500,13 @@
     <t xml:space="preserve">1.51015675067902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57325053215027</t>
+    <t xml:space="preserve">1.57325065135956</t>
   </si>
   <si>
     <t xml:space="preserve">1.58554148674011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59455513954163</t>
+    <t xml:space="preserve">1.59455502033234</t>
   </si>
   <si>
     <t xml:space="preserve">1.60684597492218</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">1.62159538269043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57161164283752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54375207424164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57243120670319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58718025684357</t>
+    <t xml:space="preserve">1.57161176204681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54375195503235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5724310874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58718049526215</t>
   </si>
   <si>
     <t xml:space="preserve">1.54621028900146</t>
@@ -533,13 +533,13 @@
     <t xml:space="preserve">1.55768191814423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58799982070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5347386598587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58226406574249</t>
+    <t xml:space="preserve">1.58799970149994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53473877906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5822639465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.54702973365784</t>
@@ -548,10 +548,10 @@
     <t xml:space="preserve">1.53883576393127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54784917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55276548862457</t>
+    <t xml:space="preserve">1.54784905910492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55276572704315</t>
   </si>
   <si>
     <t xml:space="preserve">1.54948794841766</t>
@@ -560,10 +560,10 @@
     <t xml:space="preserve">1.5380163192749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54866850376129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53637742996216</t>
+    <t xml:space="preserve">1.54866862297058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53637754917145</t>
   </si>
   <si>
     <t xml:space="preserve">1.53965508937836</t>
@@ -578,46 +578,46 @@
     <t xml:space="preserve">1.69288313388824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65355169773102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82070958614349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82890379428864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81743216514587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81579351425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87970626354218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79448890686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80104398727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73876965045929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72729814052582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74696350097656</t>
+    <t xml:space="preserve">1.65355181694031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8207094669342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82890391349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81743228435516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81579327583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87970674037933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79448902606964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80104422569275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73876941204071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72729802131653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74696373939514</t>
   </si>
   <si>
     <t xml:space="preserve">1.76335167884827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8469306230545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81087720394135</t>
+    <t xml:space="preserve">1.84693050384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81087708473206</t>
   </si>
   <si>
     <t xml:space="preserve">1.80923807621002</t>
@@ -629,13 +629,13 @@
     <t xml:space="preserve">1.86167991161346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86495769023895</t>
+    <t xml:space="preserve">1.86495745182037</t>
   </si>
   <si>
     <t xml:space="preserve">1.85840213298798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87642896175385</t>
+    <t xml:space="preserve">1.87642872333527</t>
   </si>
   <si>
     <t xml:space="preserve">1.89937233924866</t>
@@ -644,22 +644,22 @@
     <t xml:space="preserve">1.84856951236725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92479622364044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93679416179657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93850839138031</t>
+    <t xml:space="preserve">1.92479634284973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93679404258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93850803375244</t>
   </si>
   <si>
     <t xml:space="preserve">1.97107374668121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92822432518005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94193625450134</t>
+    <t xml:space="preserve">1.92822444438934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94193613529205</t>
   </si>
   <si>
     <t xml:space="preserve">1.94365000724792</t>
@@ -668,88 +668,88 @@
     <t xml:space="preserve">1.95907580852509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96764576435089</t>
+    <t xml:space="preserve">1.96764588356018</t>
   </si>
   <si>
     <t xml:space="preserve">1.92651033401489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95393407344818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93336617946625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90594267845154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8939448595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8716629743576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92993831634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90080046653748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91451251506805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88708877563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87680494785309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91794049739838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8853747844696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994886398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88880288600922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90937054157257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90251457691193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96421790122986</t>
+    <t xml:space="preserve">1.95393395423889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93336629867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90594255924225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89394474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87166309356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92993819713593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90080058574677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91451263427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88708865642548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87680518627167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9179402589798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88537490367889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994910240173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88880276679993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90937042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90251469612122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96421778202057</t>
   </si>
   <si>
     <t xml:space="preserve">1.96250379085541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98821353912354</t>
+    <t xml:space="preserve">1.98821341991425</t>
   </si>
   <si>
     <t xml:space="preserve">1.98649966716766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97964346408844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12533164024353</t>
+    <t xml:space="preserve">1.97964334487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12533140182495</t>
   </si>
   <si>
     <t xml:space="preserve">2.08591032028198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0567729473114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07905435562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0807683467865</t>
+    <t xml:space="preserve">2.05677270889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07905459403992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08076786994934</t>
   </si>
   <si>
     <t xml:space="preserve">2.06534266471863</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">2.06020045280457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07219839096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13390159606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10819172859192</t>
+    <t xml:space="preserve">2.07219862937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13390135765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1081919670105</t>
   </si>
   <si>
     <t xml:space="preserve">2.09962201118469</t>
@@ -782,22 +782,22 @@
     <t xml:space="preserve">2.11504769325256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07391238212585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09790778160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11676168441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08248209953308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705665588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12190389633179</t>
+    <t xml:space="preserve">2.07391214370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09790802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1167619228363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08248233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705617904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12190365791321</t>
   </si>
   <si>
     <t xml:space="preserve">2.10647797584534</t>
@@ -806,28 +806,28 @@
     <t xml:space="preserve">2.08933806419373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05163073539734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17675089836121</t>
+    <t xml:space="preserve">2.05163049697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17675113677979</t>
   </si>
   <si>
     <t xml:space="preserve">2.14247155189514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13218760490417</t>
+    <t xml:space="preserve">2.1321873664856</t>
   </si>
   <si>
     <t xml:space="preserve">2.13047361373901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15961122512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11847543716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09105205535889</t>
+    <t xml:space="preserve">2.15961098670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11847567558289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09105229377747</t>
   </si>
   <si>
     <t xml:space="preserve">2.12361764907837</t>
@@ -851,16 +851,16 @@
     <t xml:space="preserve">2.1407573223114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14932703971863</t>
+    <t xml:space="preserve">2.14932727813721</t>
   </si>
   <si>
     <t xml:space="preserve">2.13904333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17503714561462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15104126930237</t>
+    <t xml:space="preserve">2.17503690719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15104150772095</t>
   </si>
   <si>
     <t xml:space="preserve">2.12018966674805</t>
@@ -878,16 +878,16 @@
     <t xml:space="preserve">2.04820275306702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07048416137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0499165058136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12875938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08762407302856</t>
+    <t xml:space="preserve">2.07048439979553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04991674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12875986099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08762431144714</t>
   </si>
   <si>
     <t xml:space="preserve">2.02077913284302</t>
@@ -899,49 +899,49 @@
     <t xml:space="preserve">2.0224928855896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01392292976379</t>
+    <t xml:space="preserve">2.01392316818237</t>
   </si>
   <si>
     <t xml:space="preserve">2.00535321235657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16818118095398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18532085418701</t>
+    <t xml:space="preserve">2.1681809425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18532061576843</t>
   </si>
   <si>
     <t xml:space="preserve">2.29672932624817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33100891113281</t>
+    <t xml:space="preserve">2.33100914955139</t>
   </si>
   <si>
     <t xml:space="preserve">2.32243919372559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35671830177307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44241714477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49383664131165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46812725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47669696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48526692390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53668642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57953572273254</t>
+    <t xml:space="preserve">2.35671854019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44241738319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49383687973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46812701225281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47669720649719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48526668548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53668618202209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57953548431396</t>
   </si>
   <si>
     <t xml:space="preserve">2.59667539596558</t>
@@ -950,22 +950,25 @@
     <t xml:space="preserve">2.61381506919861</t>
   </si>
   <si>
+    <t xml:space="preserve">2.55382609367371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63447308540344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59862995147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5896692276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61655163764954</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.55382585525513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63447332382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59862995147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5896692276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61655139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52694344520569</t>
+    <t xml:space="preserve">2.52694368362427</t>
   </si>
   <si>
     <t xml:space="preserve">2.437335729599</t>
@@ -974,16 +977,16 @@
     <t xml:space="preserve">2.46421790122986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50006127357483</t>
+    <t xml:space="preserve">2.50006103515625</t>
   </si>
   <si>
     <t xml:space="preserve">2.45525717735291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54486513137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57174754142761</t>
+    <t xml:space="preserve">2.54486489295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57174730300903</t>
   </si>
   <si>
     <t xml:space="preserve">2.51798272132874</t>
@@ -995,7 +998,7 @@
     <t xml:space="preserve">2.53590416908264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49110054969788</t>
+    <t xml:space="preserve">2.4911003112793</t>
   </si>
   <si>
     <t xml:space="preserve">2.48213958740234</t>
@@ -1013,37 +1016,37 @@
     <t xml:space="preserve">2.7599241733551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77784585952759</t>
+    <t xml:space="preserve">2.77784562110901</t>
   </si>
   <si>
     <t xml:space="preserve">2.74200248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76888513565063</t>
+    <t xml:space="preserve">2.76888465881348</t>
   </si>
   <si>
     <t xml:space="preserve">2.71512031555176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75096321105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67031621932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72408103942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65239477157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68823790550232</t>
+    <t xml:space="preserve">2.75096344947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67031645774841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72408080101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65239453315735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68823766708374</t>
   </si>
   <si>
     <t xml:space="preserve">2.73304176330566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69719886779785</t>
+    <t xml:space="preserve">2.69719862937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.67927694320679</t>
@@ -1052,25 +1055,25 @@
     <t xml:space="preserve">2.84953236579895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86745381355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83161067962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64343404769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62551259994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58070850372314</t>
+    <t xml:space="preserve">2.86745357513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83161044120789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6434338092804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62551236152649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58070826530457</t>
   </si>
   <si>
     <t xml:space="preserve">2.607590675354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41941404342651</t>
+    <t xml:space="preserve">2.41941428184509</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135549545288</t>
@@ -1079,7 +1082,7 @@
     <t xml:space="preserve">2.81368899345398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.840571641922</t>
+    <t xml:space="preserve">2.84057140350342</t>
   </si>
   <si>
     <t xml:space="preserve">2.93914008140564</t>
@@ -1088,7 +1091,7 @@
     <t xml:space="preserve">2.87641453742981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82264971733093</t>
+    <t xml:space="preserve">2.82264995574951</t>
   </si>
   <si>
     <t xml:space="preserve">2.80472826957703</t>
@@ -1100,34 +1103,34 @@
     <t xml:space="preserve">3.12731671333313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16315960884094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13627743721008</t>
+    <t xml:space="preserve">3.16315984725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13627767562866</t>
   </si>
   <si>
     <t xml:space="preserve">3.19004225730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25276780128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172852516174</t>
+    <t xml:space="preserve">3.25276803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172876358032</t>
   </si>
   <si>
     <t xml:space="preserve">3.28861093521118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29757165908813</t>
+    <t xml:space="preserve">3.29757189750671</t>
   </si>
   <si>
     <t xml:space="preserve">3.35133647918701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33341479301453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34237575531006</t>
+    <t xml:space="preserve">3.33341503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34237551689148</t>
   </si>
   <si>
     <t xml:space="preserve">3.42302274703979</t>
@@ -1142,19 +1145,19 @@
     <t xml:space="preserve">3.41406202316284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36925792694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37821888923645</t>
+    <t xml:space="preserve">3.36925840377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37821865081787</t>
   </si>
   <si>
     <t xml:space="preserve">3.45886588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4857485294342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47678756713867</t>
+    <t xml:space="preserve">3.48574829101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47678780555725</t>
   </si>
   <si>
     <t xml:space="preserve">3.49470925331116</t>
@@ -1172,16 +1175,16 @@
     <t xml:space="preserve">3.59327816963196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55743479728699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5215916633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51263093948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5395131111145</t>
+    <t xml:space="preserve">3.55743455886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52159142494202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51263070106506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53951334953308</t>
   </si>
   <si>
     <t xml:space="preserve">3.60223865509033</t>
@@ -1190,13 +1193,13 @@
     <t xml:space="preserve">3.65600347518921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66496443748474</t>
+    <t xml:space="preserve">3.66496419906616</t>
   </si>
   <si>
     <t xml:space="preserve">3.72768974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71872925758362</t>
+    <t xml:space="preserve">3.71872901916504</t>
   </si>
   <si>
     <t xml:space="preserve">3.6918466091156</t>
@@ -1205,7 +1208,7 @@
     <t xml:space="preserve">3.70976805686951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68288588523865</t>
+    <t xml:space="preserve">3.68288612365723</t>
   </si>
   <si>
     <t xml:space="preserve">3.7635326385498</t>
@@ -1214,7 +1217,7 @@
     <t xml:space="preserve">3.78145432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80833721160889</t>
+    <t xml:space="preserve">3.80833697319031</t>
   </si>
   <si>
     <t xml:space="preserve">3.79041528701782</t>
@@ -1223,7 +1226,7 @@
     <t xml:space="preserve">3.95170950889587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96067070960999</t>
+    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">3.97005581855774</t>
@@ -1239,9 +1242,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.87620115280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96067023277283</t>
   </si>
   <si>
     <t xml:space="preserve">4.02636861801147</t>
@@ -18537,7 +18537,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G612" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18563,7 +18563,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G613" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18589,7 +18589,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G614" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18615,7 +18615,7 @@
         <v>2.75</v>
       </c>
       <c r="G615" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18641,7 +18641,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G616" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18667,7 +18667,7 @@
         <v>2.75</v>
       </c>
       <c r="G617" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18693,7 +18693,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G618" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18719,7 +18719,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G619" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18745,7 +18745,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G620" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18771,7 +18771,7 @@
         <v>2.75</v>
       </c>
       <c r="G621" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18797,7 +18797,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G622" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18823,7 +18823,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G623" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18849,7 +18849,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G624" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18875,7 +18875,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G625" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18901,7 +18901,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G626" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18927,7 +18927,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G627" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18953,7 +18953,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G628" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18979,7 +18979,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G629" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19005,7 +19005,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G630" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19031,7 +19031,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19057,7 +19057,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G632" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19083,7 +19083,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G633" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19109,7 +19109,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G634" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19135,7 +19135,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G635" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19161,7 +19161,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G636" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19187,7 +19187,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G637" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19213,7 +19213,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G638" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19239,7 +19239,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19265,7 +19265,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G640" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19291,7 +19291,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -19317,7 +19317,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G642" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19343,7 +19343,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19369,7 +19369,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G644" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -19395,7 +19395,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19421,7 +19421,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G646" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19447,7 +19447,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19473,7 +19473,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G648" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19499,7 +19499,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19525,7 +19525,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G650" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19551,7 +19551,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G651" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19603,7 +19603,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19655,7 +19655,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G655" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19681,7 +19681,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G656" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19707,7 +19707,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G657" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19733,7 +19733,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G658" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19759,7 +19759,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G659" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19785,7 +19785,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G660" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19811,7 +19811,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G661" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19837,7 +19837,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G662" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19863,7 +19863,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G663" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19889,7 +19889,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G664" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19915,7 +19915,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G665" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19941,7 +19941,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G666" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19967,7 +19967,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G667" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19993,7 +19993,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G668" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20045,7 +20045,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G670" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20071,7 +20071,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G671" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20097,7 +20097,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G672" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20123,7 +20123,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20149,7 +20149,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20175,7 +20175,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20201,7 +20201,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G676" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20227,7 +20227,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20253,7 +20253,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G678" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20279,7 +20279,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -20305,7 +20305,7 @@
         <v>3</v>
       </c>
       <c r="G680" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -20331,7 +20331,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G681" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -20357,7 +20357,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G682" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -20383,7 +20383,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G683" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20409,7 +20409,7 @@
         <v>3</v>
       </c>
       <c r="G684" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20435,7 +20435,7 @@
         <v>3</v>
       </c>
       <c r="G685" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20461,7 +20461,7 @@
         <v>3</v>
       </c>
       <c r="G686" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20487,7 +20487,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G687" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20513,7 +20513,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G688" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20539,7 +20539,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G689" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20565,7 +20565,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G690" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20591,7 +20591,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G691" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20617,7 +20617,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G692" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20643,7 +20643,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G693" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20669,7 +20669,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G694" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20695,7 +20695,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20721,7 +20721,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G696" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20747,7 +20747,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G697" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20773,7 +20773,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20799,7 +20799,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G699" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20825,7 +20825,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G700" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20851,7 +20851,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G701" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20877,7 +20877,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G702" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20903,7 +20903,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G703" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20929,7 +20929,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G704" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20955,7 +20955,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G705" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20981,7 +20981,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G706" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21007,7 +21007,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G707" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21059,7 +21059,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G709" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21085,7 +21085,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G710" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21111,7 +21111,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G711" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21137,7 +21137,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21267,7 +21267,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G717" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21293,7 +21293,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G718" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21319,7 +21319,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G719" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21501,7 +21501,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21605,7 +21605,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G730" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21709,7 +21709,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21735,7 +21735,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21761,7 +21761,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G736" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21787,7 +21787,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G737" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21813,7 +21813,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G738" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21839,7 +21839,7 @@
         <v>2.74000000953674</v>
       </c>
       <c r="G739" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21865,7 +21865,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G740" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21891,7 +21891,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21917,7 +21917,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G742" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21943,7 +21943,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G743" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21969,7 +21969,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G744" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21995,7 +21995,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G745" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22021,7 +22021,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G746" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22047,7 +22047,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G747" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22073,7 +22073,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G748" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22099,7 +22099,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G749" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22125,7 +22125,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G750" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22151,7 +22151,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G751" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22177,7 +22177,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G752" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22203,7 +22203,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G753" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22229,7 +22229,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G754" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22255,7 +22255,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G755" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22281,7 +22281,7 @@
         <v>2